--- a/文档/接口.xlsx
+++ b/文档/接口.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="80">
   <si>
     <t>调用方式</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -172,14 +172,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/api/ShopCart/Get/{会员ID}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/ShopCart/Delete/{购物车项ID}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>购物车项ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -200,10 +192,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/api/ShopCart/Post</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Post</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -241,6 +229,105 @@
   </si>
   <si>
     <t>添加购物车</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/ShopCartAPI/Get/{会员ID}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/ShopCartAPI/Post</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/ShopCartAPI/Delete/{购物车项ID}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/userapi/GetValiCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生成手机短信验证码，目前暂时固定为2222</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TelNo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TypeInfo</t>
+  </si>
+  <si>
+    <t>post</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机验证码类型， 0,注册、1.登录、2.购物等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/userapi/Regist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NiceName</t>
+  </si>
+  <si>
+    <t>TelPhone</t>
+  </si>
+  <si>
+    <t>Pwd</t>
+  </si>
+  <si>
+    <t>ComfirmPwd</t>
+  </si>
+  <si>
+    <t>TelVaiCode</t>
+  </si>
+  <si>
+    <t>昵称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机验证码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>会员注册</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/userapi/Login</t>
+  </si>
+  <si>
+    <t>Account</t>
+  </si>
+  <si>
+    <t>DeviceID</t>
+  </si>
+  <si>
+    <t>账户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备ID(这个看好不好获取)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>会员登录</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -278,7 +365,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -327,61 +414,49 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -686,298 +761,417 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:F21"/>
+  <dimension ref="B1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B5"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22:B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="68" style="9" customWidth="1"/>
-    <col min="3" max="3" width="21.375" style="9" customWidth="1"/>
-    <col min="4" max="4" width="15.375" customWidth="1"/>
-    <col min="5" max="5" width="22" style="9" customWidth="1"/>
-    <col min="6" max="6" width="28" style="9" customWidth="1"/>
+    <col min="1" max="1" width="9" style="2"/>
+    <col min="2" max="2" width="50" style="15" customWidth="1"/>
+    <col min="3" max="3" width="21.375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="15.375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="22" style="3" customWidth="1"/>
+    <col min="6" max="6" width="28" style="3" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3"/>
+      <c r="E1" s="6"/>
       <c r="F1" s="7" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B2" s="7"/>
-      <c r="C2" s="11"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="7"/>
       <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="5" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="7"/>
     </row>
     <row r="3" spans="2:6" ht="94.5" x14ac:dyDescent="0.15">
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="9" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="10" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="9"/>
       <c r="D4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="5"/>
+      <c r="F4" s="9"/>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="9"/>
       <c r="D5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="6"/>
+      <c r="F5" s="9"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8" t="s">
+      <c r="F9" s="3" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8" t="s">
+      <c r="F10" s="3" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="9" t="s">
         <v>18</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E11" s="8"/>
-      <c r="F11" s="4" t="s">
+      <c r="F11" s="9" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="9"/>
       <c r="D12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="E12" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="F12" s="6"/>
+      <c r="F12" s="9"/>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B14" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B15" s="14"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F15" s="9"/>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B16" s="14"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F16" s="9"/>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B17" s="14"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F17" s="9"/>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B18" s="14"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F18" s="9"/>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B19" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C13" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B14" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="F15" s="5"/>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="F16" s="5"/>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="F17" s="5"/>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="F18" s="6"/>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B19" s="8" t="s">
+      <c r="E19" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D19" s="2" t="s">
+      <c r="F19" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E19" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="F19" s="8" t="s">
-        <v>42</v>
-      </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
+      <c r="B20" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F21" s="12"/>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B22" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B23" s="14"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F23" s="8"/>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B24" s="14"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F24" s="8"/>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B25" s="14"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F25" s="8"/>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B26" s="14"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F26" s="8"/>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B27" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B28" s="14"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F28" s="8"/>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B29" s="14"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F29" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="22">
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="B22:B26"/>
+    <mergeCell ref="C22:C26"/>
+    <mergeCell ref="F22:F26"/>
+    <mergeCell ref="F27:F29"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="C27:C29"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="C11:C12"/>
     <mergeCell ref="F11:F12"/>

--- a/文档/接口.xlsx
+++ b/文档/接口.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="106">
   <si>
     <t>调用方式</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -232,102 +232,203 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>/api/ShopCartAPI/Post</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/ShopCartAPI/Delete/{购物车项ID}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/userapi/GetValiCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生成手机短信验证码，目前暂时固定为2222</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TelNo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TypeInfo</t>
+  </si>
+  <si>
+    <t>post</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机验证码类型， 0,注册、1.登录、2.购物等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/userapi/Regist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NiceName</t>
+  </si>
+  <si>
+    <t>TelPhone</t>
+  </si>
+  <si>
+    <t>Pwd</t>
+  </si>
+  <si>
+    <t>ComfirmPwd</t>
+  </si>
+  <si>
+    <t>TelVaiCode</t>
+  </si>
+  <si>
+    <t>昵称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机验证码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>会员注册</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Account</t>
+  </si>
+  <si>
+    <t>DeviceID</t>
+  </si>
+  <si>
+    <t>账户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备ID(这个看好不好获取)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>会员登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/userapi/Login</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/ShippingAddressAPI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取会员的所有地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取会员的默认地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除会员地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置默认地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>维护地址信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Get</t>
+  </si>
+  <si>
+    <t>Post</t>
+  </si>
+  <si>
     <t>/api/ShopCartAPI/Get/{会员ID}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/api/ShopCartAPI/Post</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/ShopCartAPI/Delete/{购物车项ID}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>api/userapi/GetValiCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>生成手机短信验证码，目前暂时固定为2222</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TelNo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TypeInfo</t>
-  </si>
-  <si>
-    <t>post</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>手机号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>手机验证码类型， 0,注册、1.登录、2.购物等</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>api/userapi/Regist</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NiceName</t>
-  </si>
-  <si>
-    <t>TelPhone</t>
-  </si>
-  <si>
-    <t>Pwd</t>
-  </si>
-  <si>
-    <t>ComfirmPwd</t>
-  </si>
-  <si>
-    <t>TelVaiCode</t>
-  </si>
-  <si>
-    <t>昵称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>密码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>确认密码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>手机验证码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>会员注册</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>api/userapi/Login</t>
-  </si>
-  <si>
-    <t>Account</t>
-  </si>
-  <si>
-    <t>DeviceID</t>
-  </si>
-  <si>
-    <t>账户</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设备ID(这个看好不好获取)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>会员登录</t>
+    <t>api/ShippingAddressAPI/{会员ID}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/ShippingAddressAPI/{地址ID}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>会员ID</t>
+  </si>
+  <si>
+    <t>地址ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RegionId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UserId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShipName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Address</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地区ID(int)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>会员ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收件人姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>详细地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CelPhone</t>
+  </si>
+  <si>
+    <t>联系电话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RecordStatus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>add 新增  update更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新时要传递地址的id,新增时不用</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -365,7 +466,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -414,11 +515,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -431,32 +543,47 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -761,54 +888,54 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:F29"/>
+  <dimension ref="B1:F40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22:B26"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="50" style="15" customWidth="1"/>
+    <col min="2" max="2" width="50" style="7" customWidth="1"/>
     <col min="3" max="3" width="21.375" style="3" customWidth="1"/>
     <col min="4" max="4" width="15.375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="22" style="3" customWidth="1"/>
+    <col min="5" max="5" width="31.875" style="3" customWidth="1"/>
     <col min="6" max="6" width="28" style="3" customWidth="1"/>
     <col min="7" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6"/>
-      <c r="F1" s="7" t="s">
+      <c r="E1" s="15"/>
+      <c r="F1" s="17" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B2" s="13"/>
-      <c r="C2" s="7"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="17"/>
       <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="7"/>
+      <c r="F2" s="17"/>
     </row>
     <row r="3" spans="2:6" ht="94.5" x14ac:dyDescent="0.15">
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="14" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -817,34 +944,34 @@
       <c r="E3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="18" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B4" s="14"/>
-      <c r="C4" s="9"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="14"/>
       <c r="D4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="9"/>
+      <c r="F4" s="14"/>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B5" s="14"/>
-      <c r="C5" s="9"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="14"/>
       <c r="D5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="9"/>
+      <c r="F5" s="14"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="7" t="s">
         <v>20</v>
       </c>
       <c r="C6" s="3" t="s">
@@ -861,7 +988,7 @@
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="7" t="s">
         <v>21</v>
       </c>
       <c r="C7" s="3" t="s">
@@ -878,7 +1005,7 @@
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="7" t="s">
         <v>26</v>
       </c>
       <c r="C8" s="3" t="s">
@@ -889,7 +1016,7 @@
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="7" t="s">
         <v>28</v>
       </c>
       <c r="C9" s="3" t="s">
@@ -903,7 +1030,7 @@
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="7" t="s">
         <v>31</v>
       </c>
       <c r="C10" s="3" t="s">
@@ -917,33 +1044,33 @@
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="14" t="s">
         <v>18</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="F11" s="14" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B12" s="14"/>
-      <c r="C12" s="9"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="14"/>
       <c r="D12" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="F12" s="9"/>
+      <c r="F12" s="14"/>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B13" s="15" t="s">
-        <v>53</v>
+      <c r="B13" s="7" t="s">
+        <v>87</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>19</v>
@@ -956,10 +1083,10 @@
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B14" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="C14" s="9" t="s">
+      <c r="B14" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="14" t="s">
         <v>43</v>
       </c>
       <c r="D14" s="2" t="s">
@@ -968,57 +1095,57 @@
       <c r="E14" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="F14" s="9" t="s">
+      <c r="F14" s="14" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B15" s="14"/>
-      <c r="C15" s="9"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="14"/>
       <c r="D15" s="2" t="s">
         <v>45</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="F15" s="9"/>
+      <c r="F15" s="14"/>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B16" s="14"/>
-      <c r="C16" s="9"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="14"/>
       <c r="D16" s="2" t="s">
         <v>46</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F16" s="9"/>
+      <c r="F16" s="14"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B17" s="14"/>
-      <c r="C17" s="9"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="14"/>
       <c r="D17" s="2" t="s">
         <v>47</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="F17" s="9"/>
+      <c r="F17" s="14"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B18" s="14"/>
-      <c r="C18" s="9"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="14"/>
       <c r="D18" s="2" t="s">
         <v>48</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="F18" s="9"/>
+      <c r="F18" s="14"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B19" s="15" t="s">
-        <v>55</v>
+      <c r="B19" s="7" t="s">
+        <v>54</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>19</v>
@@ -1034,141 +1161,284 @@
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B20" s="16" t="s">
+      <c r="B20" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F20" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="C20" s="11" t="s">
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B21" s="9"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F21" s="11"/>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B22" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F22" s="13" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B23" s="12"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E23" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D20" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="F20" s="11" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B21" s="17"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="2" t="s">
+      <c r="F23" s="13"/>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B24" s="12"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F24" s="13"/>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B25" s="12"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F25" s="13"/>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B26" s="12"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F26" s="13"/>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B27" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="C27" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="F21" s="12"/>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B22" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E22" s="3" t="s">
+      <c r="D27" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F27" s="13" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B28" s="12"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E28" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="F22" s="8" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B23" s="14"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="F23" s="8"/>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B24" s="14"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="F24" s="8"/>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B25" s="14"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="F25" s="8"/>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B26" s="14"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="F26" s="8"/>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B27" s="14" t="s">
+      <c r="F28" s="13"/>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B29" s="12"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C27" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="F27" s="8" t="s">
+      <c r="E29" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F29" s="13"/>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B30" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B31" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B32" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B33" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B34" s="20" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B28" s="14"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="F28" s="8"/>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B29" s="14"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="F29" s="8"/>
+      <c r="C34" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F34" s="10" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B35" s="21"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="F35" s="19"/>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B36" s="21"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="F36" s="19"/>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B37" s="21"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="F37" s="19"/>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B38" s="21"/>
+      <c r="C38" s="19"/>
+      <c r="D38" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="F38" s="19"/>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B39" s="21"/>
+      <c r="C39" s="19"/>
+      <c r="D39" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="F39" s="19"/>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B40" s="22"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="F40" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="22">
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="B22:B26"/>
-    <mergeCell ref="C22:C26"/>
-    <mergeCell ref="F22:F26"/>
+  <mergeCells count="25">
+    <mergeCell ref="F34:F40"/>
+    <mergeCell ref="C34:C40"/>
+    <mergeCell ref="B34:B40"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="F3:F5"/>
     <mergeCell ref="F27:F29"/>
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="C27:C29"/>
@@ -1178,13 +1448,12 @@
     <mergeCell ref="B14:B18"/>
     <mergeCell ref="C14:C18"/>
     <mergeCell ref="F14:F18"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="F3:F5"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="B22:B26"/>
+    <mergeCell ref="C22:C26"/>
+    <mergeCell ref="F22:F26"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/文档/接口.xlsx
+++ b/文档/接口.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="110">
   <si>
     <t>调用方式</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -429,6 +429,21 @@
   </si>
   <si>
     <t>更新时要传递地址的id,新增时不用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/ShopPayTypeApi/GetPayType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetPayType</t>
+  </si>
+  <si>
+    <t>获取可用的支付方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无参数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -530,7 +545,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -547,19 +562,25 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -569,21 +590,18 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -888,10 +906,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:F40"/>
+  <dimension ref="B1:F41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -932,10 +950,10 @@
       <c r="F2" s="17"/>
     </row>
     <row r="3" spans="2:6" ht="94.5" x14ac:dyDescent="0.15">
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="19" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -944,31 +962,31 @@
       <c r="E3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="18" t="s">
+      <c r="F3" s="20" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B4" s="12"/>
-      <c r="C4" s="14"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="19"/>
       <c r="D4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="14"/>
+      <c r="F4" s="19"/>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B5" s="12"/>
-      <c r="C5" s="14"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="19"/>
       <c r="D5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="14"/>
+      <c r="F5" s="19"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B6" s="7" t="s">
@@ -1044,29 +1062,29 @@
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="19" t="s">
         <v>18</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F11" s="14" t="s">
+      <c r="F11" s="19" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B12" s="12"/>
-      <c r="C12" s="14"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="19"/>
       <c r="D12" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="F12" s="14"/>
+      <c r="F12" s="19"/>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B13" s="7" t="s">
@@ -1083,10 +1101,10 @@
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="C14" s="19" t="s">
         <v>43</v>
       </c>
       <c r="D14" s="2" t="s">
@@ -1095,53 +1113,53 @@
       <c r="E14" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="F14" s="14" t="s">
+      <c r="F14" s="19" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B15" s="12"/>
-      <c r="C15" s="14"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="19"/>
       <c r="D15" s="2" t="s">
         <v>45</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="F15" s="14"/>
+      <c r="F15" s="19"/>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B16" s="12"/>
-      <c r="C16" s="14"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="19"/>
       <c r="D16" s="2" t="s">
         <v>46</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F16" s="14"/>
+      <c r="F16" s="19"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B17" s="12"/>
-      <c r="C17" s="14"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="19"/>
       <c r="D17" s="2" t="s">
         <v>47</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="F17" s="14"/>
+      <c r="F17" s="19"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B18" s="12"/>
-      <c r="C18" s="14"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="19"/>
       <c r="D18" s="2" t="s">
         <v>48</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="F18" s="14"/>
+      <c r="F18" s="19"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B19" s="7" t="s">
@@ -1161,10 +1179,10 @@
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="9" t="s">
         <v>59</v>
       </c>
       <c r="D20" s="2" t="s">
@@ -1173,12 +1191,12 @@
       <c r="E20" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="F20" s="10" t="s">
+      <c r="F20" s="9" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B21" s="9"/>
+      <c r="B21" s="23"/>
       <c r="C21" s="11"/>
       <c r="D21" s="2" t="s">
         <v>58</v>
@@ -1189,10 +1207,10 @@
       <c r="F21" s="11"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B22" s="12" t="s">
+      <c r="B22" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="C22" s="13" t="s">
+      <c r="C22" s="21" t="s">
         <v>59</v>
       </c>
       <c r="D22" s="2" t="s">
@@ -1201,59 +1219,59 @@
       <c r="E22" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="F22" s="13" t="s">
+      <c r="F22" s="21" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B23" s="12"/>
-      <c r="C23" s="13"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="21"/>
       <c r="D23" s="2" t="s">
         <v>64</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="F23" s="13"/>
+      <c r="F23" s="21"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B24" s="12"/>
-      <c r="C24" s="13"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="21"/>
       <c r="D24" s="2" t="s">
         <v>65</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="F24" s="13"/>
+      <c r="F24" s="21"/>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B25" s="12"/>
-      <c r="C25" s="13"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="21"/>
       <c r="D25" s="2" t="s">
         <v>66</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="F25" s="13"/>
+      <c r="F25" s="21"/>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B26" s="12"/>
-      <c r="C26" s="13"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="21"/>
       <c r="D26" s="2" t="s">
         <v>67</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="F26" s="13"/>
+      <c r="F26" s="21"/>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B27" s="12" t="s">
+      <c r="B27" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="C27" s="13" t="s">
+      <c r="C27" s="21" t="s">
         <v>59</v>
       </c>
       <c r="D27" s="2" t="s">
@@ -1262,31 +1280,31 @@
       <c r="E27" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="F27" s="13" t="s">
+      <c r="F27" s="21" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B28" s="12"/>
-      <c r="C28" s="13"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="21"/>
       <c r="D28" s="2" t="s">
         <v>65</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="F28" s="13"/>
+      <c r="F28" s="21"/>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B29" s="12"/>
-      <c r="C29" s="13"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="21"/>
       <c r="D29" s="2" t="s">
         <v>74</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="F29" s="13"/>
+      <c r="F29" s="21"/>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B30" s="7" t="s">
@@ -1334,8 +1352,8 @@
       <c r="B33" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="C33" s="6" t="s">
-        <v>85</v>
+      <c r="C33" s="8" t="s">
+        <v>107</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>91</v>
@@ -1345,10 +1363,10 @@
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B34" s="20" t="s">
+      <c r="B34" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="C34" s="10" t="s">
+      <c r="C34" s="9" t="s">
         <v>86</v>
       </c>
       <c r="D34" s="2" t="s">
@@ -1357,67 +1375,67 @@
       <c r="E34" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="F34" s="10" t="s">
+      <c r="F34" s="9" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B35" s="21"/>
-      <c r="C35" s="19"/>
+      <c r="B35" s="13"/>
+      <c r="C35" s="10"/>
       <c r="D35" s="2" t="s">
         <v>93</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="F35" s="19"/>
+      <c r="F35" s="10"/>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B36" s="21"/>
-      <c r="C36" s="19"/>
+      <c r="B36" s="13"/>
+      <c r="C36" s="10"/>
       <c r="D36" s="2" t="s">
         <v>94</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="F36" s="19"/>
+      <c r="F36" s="10"/>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B37" s="21"/>
-      <c r="C37" s="19"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="10"/>
       <c r="D37" s="2" t="s">
         <v>95</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="F37" s="19"/>
+      <c r="F37" s="10"/>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B38" s="21"/>
-      <c r="C38" s="19"/>
+      <c r="B38" s="13"/>
+      <c r="C38" s="10"/>
       <c r="D38" s="2" t="s">
         <v>100</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="F38" s="19"/>
+      <c r="F38" s="10"/>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B39" s="21"/>
-      <c r="C39" s="19"/>
+      <c r="B39" s="13"/>
+      <c r="C39" s="10"/>
       <c r="D39" s="2" t="s">
         <v>103</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="F39" s="19"/>
+      <c r="F39" s="10"/>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B40" s="22"/>
+      <c r="B40" s="14"/>
       <c r="C40" s="11"/>
       <c r="D40" s="2" t="s">
         <v>102</v>
@@ -1427,8 +1445,31 @@
       </c>
       <c r="F40" s="11"/>
     </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B41" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="B22:B26"/>
+    <mergeCell ref="C22:C26"/>
+    <mergeCell ref="F22:F26"/>
+    <mergeCell ref="B14:B18"/>
+    <mergeCell ref="C14:C18"/>
+    <mergeCell ref="F14:F18"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="F20:F21"/>
     <mergeCell ref="F34:F40"/>
     <mergeCell ref="C34:C40"/>
     <mergeCell ref="B34:B40"/>
@@ -1445,15 +1486,6 @@
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="C11:C12"/>
     <mergeCell ref="F11:F12"/>
-    <mergeCell ref="B14:B18"/>
-    <mergeCell ref="C14:C18"/>
-    <mergeCell ref="F14:F18"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="B22:B26"/>
-    <mergeCell ref="C22:C26"/>
-    <mergeCell ref="F22:F26"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/文档/接口.xlsx
+++ b/文档/接口.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="120">
   <si>
     <t>调用方式</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -366,84 +366,123 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>会员ID</t>
+  </si>
+  <si>
+    <t>地址ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RegionId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UserId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShipName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Address</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地区ID(int)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>会员ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收件人姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>详细地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CelPhone</t>
+  </si>
+  <si>
+    <t>联系电话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RecordStatus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>add 新增  update更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新时要传递地址的id,新增时不用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/ShopPayTypeApi/GetPayType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetPayType</t>
+  </si>
+  <si>
+    <t>获取可用的支付方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>api/ShippingAddressAPI/{地址ID}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>会员ID</t>
+    <t>api/Region/GetRegionPath/{地址ID}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/Region/GetChildRegion/{父地址ID}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/Region/GetChildRegion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取根级地区，目前数据库里是【中国】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根级父级地区获取下级地区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>父地址ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>整数</t>
+  </si>
+  <si>
+    <t>整数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>地址ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>RegionId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UserId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ShipName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Address</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地区ID(int)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>会员ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>收件人姓名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>详细地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CelPhone</t>
-  </si>
-  <si>
-    <t>联系电话</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RecordStatus</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>add 新增  update更新</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>更新时要传递地址的id,新增时不用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>api/ShopPayTypeApi/GetPayType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GetPayType</t>
-  </si>
-  <si>
-    <t>获取可用的支付方式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无参数</t>
+    <t>根据地区ID,获取其上级地区集合，从根级一直到该地区的路径</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -545,7 +584,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -565,13 +604,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -590,18 +642,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -906,10 +949,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:F41"/>
+  <dimension ref="B1:F44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34:B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -924,36 +967,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="15"/>
-      <c r="F1" s="17" t="s">
+      <c r="E1" s="22"/>
+      <c r="F1" s="24" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B2" s="16"/>
-      <c r="C2" s="17"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="24"/>
       <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="17"/>
+      <c r="F2" s="24"/>
     </row>
     <row r="3" spans="2:6" ht="94.5" x14ac:dyDescent="0.15">
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="13" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -962,31 +1005,31 @@
       <c r="E3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="20" t="s">
+      <c r="F3" s="25" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B4" s="18"/>
-      <c r="C4" s="19"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="13"/>
       <c r="D4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="19"/>
+      <c r="F4" s="13"/>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B5" s="18"/>
-      <c r="C5" s="19"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="13"/>
       <c r="D5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="19"/>
+      <c r="F5" s="13"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B6" s="7" t="s">
@@ -1062,29 +1105,29 @@
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="13" t="s">
         <v>18</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F11" s="19" t="s">
+      <c r="F11" s="13" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B12" s="18"/>
-      <c r="C12" s="19"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="13"/>
       <c r="D12" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="F12" s="19"/>
+      <c r="F12" s="13"/>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B13" s="7" t="s">
@@ -1101,10 +1144,10 @@
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="C14" s="19" t="s">
+      <c r="C14" s="13" t="s">
         <v>43</v>
       </c>
       <c r="D14" s="2" t="s">
@@ -1113,53 +1156,53 @@
       <c r="E14" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="F14" s="19" t="s">
+      <c r="F14" s="13" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B15" s="18"/>
-      <c r="C15" s="19"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="13"/>
       <c r="D15" s="2" t="s">
         <v>45</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="F15" s="19"/>
+      <c r="F15" s="13"/>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B16" s="18"/>
-      <c r="C16" s="19"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="13"/>
       <c r="D16" s="2" t="s">
         <v>46</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F16" s="19"/>
+      <c r="F16" s="13"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B17" s="18"/>
-      <c r="C17" s="19"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="13"/>
       <c r="D17" s="2" t="s">
         <v>47</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="F17" s="19"/>
+      <c r="F17" s="13"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B18" s="18"/>
-      <c r="C18" s="19"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="13"/>
       <c r="D18" s="2" t="s">
         <v>48</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="F18" s="19"/>
+      <c r="F18" s="13"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B19" s="7" t="s">
@@ -1179,10 +1222,10 @@
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B20" s="22" t="s">
+      <c r="B20" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="16" t="s">
         <v>59</v>
       </c>
       <c r="D20" s="2" t="s">
@@ -1191,26 +1234,26 @@
       <c r="E20" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="F20" s="9" t="s">
+      <c r="F20" s="16" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B21" s="23"/>
-      <c r="C21" s="11"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="17"/>
       <c r="D21" s="2" t="s">
         <v>58</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="F21" s="11"/>
+      <c r="F21" s="17"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B22" s="18" t="s">
+      <c r="B22" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="C22" s="21" t="s">
+      <c r="C22" s="12" t="s">
         <v>59</v>
       </c>
       <c r="D22" s="2" t="s">
@@ -1219,59 +1262,59 @@
       <c r="E22" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="F22" s="21" t="s">
+      <c r="F22" s="12" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B23" s="18"/>
-      <c r="C23" s="21"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="12"/>
       <c r="D23" s="2" t="s">
         <v>64</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="F23" s="21"/>
+      <c r="F23" s="12"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B24" s="18"/>
-      <c r="C24" s="21"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="12"/>
       <c r="D24" s="2" t="s">
         <v>65</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="F24" s="21"/>
+      <c r="F24" s="12"/>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B25" s="18"/>
-      <c r="C25" s="21"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="12"/>
       <c r="D25" s="2" t="s">
         <v>66</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="F25" s="21"/>
+      <c r="F25" s="12"/>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B26" s="18"/>
-      <c r="C26" s="21"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="12"/>
       <c r="D26" s="2" t="s">
         <v>67</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="F26" s="21"/>
+      <c r="F26" s="12"/>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B27" s="18" t="s">
+      <c r="B27" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="C27" s="21" t="s">
+      <c r="C27" s="12" t="s">
         <v>59</v>
       </c>
       <c r="D27" s="2" t="s">
@@ -1280,31 +1323,31 @@
       <c r="E27" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="F27" s="21" t="s">
+      <c r="F27" s="12" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B28" s="18"/>
-      <c r="C28" s="21"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="12"/>
       <c r="D28" s="2" t="s">
         <v>65</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="F28" s="21"/>
+      <c r="F28" s="12"/>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B29" s="18"/>
-      <c r="C29" s="21"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="12"/>
       <c r="D29" s="2" t="s">
         <v>74</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="F29" s="21"/>
+      <c r="F29" s="12"/>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B30" s="7" t="s">
@@ -1314,7 +1357,7 @@
         <v>85</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F30" s="3" t="s">
         <v>80</v>
@@ -1328,7 +1371,7 @@
         <v>85</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F31" s="3" t="s">
         <v>81</v>
@@ -1336,13 +1379,13 @@
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B32" s="7" t="s">
-        <v>89</v>
+        <v>109</v>
       </c>
       <c r="C32" s="6" t="s">
         <v>85</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>82</v>
@@ -1350,126 +1393,163 @@
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B33" s="7" t="s">
-        <v>89</v>
+        <v>109</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B34" s="12" t="s">
+      <c r="B34" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="C34" s="9" t="s">
+      <c r="C34" s="16" t="s">
         <v>86</v>
       </c>
       <c r="D34" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="F34" s="16" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B35" s="20"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="E34" s="3" t="s">
+      <c r="E35" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="F34" s="9" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B35" s="13"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="2" t="s">
+      <c r="F35" s="18"/>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B36" s="20"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="E35" s="3" t="s">
+      <c r="E36" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="F35" s="10"/>
-    </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B36" s="13"/>
-      <c r="C36" s="10"/>
-      <c r="D36" s="2" t="s">
+      <c r="F36" s="18"/>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B37" s="20"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E36" s="3" t="s">
+      <c r="E37" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="F36" s="10"/>
-    </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B37" s="13"/>
-      <c r="C37" s="10"/>
-      <c r="D37" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E37" s="3" t="s">
+      <c r="F37" s="18"/>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B38" s="20"/>
+      <c r="C38" s="18"/>
+      <c r="D38" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="F37" s="10"/>
-    </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B38" s="13"/>
-      <c r="C38" s="10"/>
-      <c r="D38" s="2" t="s">
+      <c r="E38" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="E38" s="3" t="s">
+      <c r="F38" s="18"/>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B39" s="20"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="F39" s="18"/>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B40" s="21"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="F38" s="10"/>
-    </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B39" s="13"/>
-      <c r="C39" s="10"/>
-      <c r="D39" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E39" s="3" t="s">
+      <c r="E40" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="F39" s="10"/>
-    </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B40" s="14"/>
-      <c r="C40" s="11"/>
-      <c r="D40" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="F40" s="11"/>
+      <c r="F40" s="17"/>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B41" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C41" s="8" t="s">
         <v>85</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B42" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="E42" s="10"/>
+      <c r="F42" s="10" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B43" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B44" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E44" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="B22:B26"/>
-    <mergeCell ref="C22:C26"/>
-    <mergeCell ref="F22:F26"/>
-    <mergeCell ref="B14:B18"/>
-    <mergeCell ref="C14:C18"/>
-    <mergeCell ref="F14:F18"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="F20:F21"/>
     <mergeCell ref="F34:F40"/>
     <mergeCell ref="C34:C40"/>
     <mergeCell ref="B34:B40"/>
@@ -1486,6 +1566,15 @@
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="C11:C12"/>
     <mergeCell ref="F11:F12"/>
+    <mergeCell ref="B22:B26"/>
+    <mergeCell ref="C22:C26"/>
+    <mergeCell ref="F22:F26"/>
+    <mergeCell ref="B14:B18"/>
+    <mergeCell ref="C14:C18"/>
+    <mergeCell ref="F14:F18"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="F20:F21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/文档/接口.xlsx
+++ b/文档/接口.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="122">
   <si>
     <t>调用方式</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -328,10 +328,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>api/ShippingAddressAPI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>获取会员的所有地址</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -362,10 +358,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>api/ShippingAddressAPI/{会员ID}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>会员ID</t>
   </si>
   <si>
@@ -432,9 +424,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>GetPayType</t>
-  </si>
-  <si>
     <t>获取可用的支付方式</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -443,10 +432,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>api/ShippingAddressAPI/{地址ID}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>api/Region/GetRegionPath/{地址ID}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -483,6 +468,30 @@
   </si>
   <si>
     <t>根据地区ID,获取其上级地区集合，从根级一直到该地区的路径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/ShippingAddressAPI/GetDefault/{会员ID}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/ShippingAddressAPI/Get/{会员ID}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/ShippingAddressAPI/Delete/{地址ID}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/ShippingAddressAPI/SetDefault/{地址ID}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/ShippingAddressAPI/Post</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Get</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -608,22 +617,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -642,9 +642,18 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -951,8 +960,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34:B40"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -967,36 +976,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="22"/>
-      <c r="F1" s="24" t="s">
+      <c r="E1" s="17"/>
+      <c r="F1" s="19" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B2" s="23"/>
-      <c r="C2" s="24"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="19"/>
       <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="24"/>
+      <c r="F2" s="19"/>
     </row>
     <row r="3" spans="2:6" ht="94.5" x14ac:dyDescent="0.15">
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="21" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -1005,31 +1014,31 @@
       <c r="E3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="25" t="s">
+      <c r="F3" s="22" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B4" s="11"/>
-      <c r="C4" s="13"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="21"/>
       <c r="D4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="13"/>
+      <c r="F4" s="21"/>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B5" s="11"/>
-      <c r="C5" s="13"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="21"/>
       <c r="D5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="13"/>
+      <c r="F5" s="21"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B6" s="7" t="s">
@@ -1105,33 +1114,33 @@
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="21" t="s">
         <v>18</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F11" s="13" t="s">
+      <c r="F11" s="21" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B12" s="11"/>
-      <c r="C12" s="13"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="21"/>
       <c r="D12" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="F12" s="13"/>
+      <c r="F12" s="21"/>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B13" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>19</v>
@@ -1144,10 +1153,10 @@
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="21" t="s">
         <v>43</v>
       </c>
       <c r="D14" s="2" t="s">
@@ -1156,53 +1165,53 @@
       <c r="E14" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="F14" s="13" t="s">
+      <c r="F14" s="21" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B15" s="11"/>
-      <c r="C15" s="13"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="21"/>
       <c r="D15" s="2" t="s">
         <v>45</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="F15" s="13"/>
+      <c r="F15" s="21"/>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B16" s="11"/>
-      <c r="C16" s="13"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="21"/>
       <c r="D16" s="2" t="s">
         <v>46</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F16" s="13"/>
+      <c r="F16" s="21"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B17" s="11"/>
-      <c r="C17" s="13"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="21"/>
       <c r="D17" s="2" t="s">
         <v>47</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="F17" s="13"/>
+      <c r="F17" s="21"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B18" s="11"/>
-      <c r="C18" s="13"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="21"/>
       <c r="D18" s="2" t="s">
         <v>48</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="F18" s="13"/>
+      <c r="F18" s="21"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B19" s="7" t="s">
@@ -1222,10 +1231,10 @@
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="C20" s="16" t="s">
+      <c r="C20" s="11" t="s">
         <v>59</v>
       </c>
       <c r="D20" s="2" t="s">
@@ -1234,26 +1243,26 @@
       <c r="E20" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="F20" s="16" t="s">
+      <c r="F20" s="11" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B21" s="15"/>
-      <c r="C21" s="17"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="13"/>
       <c r="D21" s="2" t="s">
         <v>58</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="F21" s="17"/>
+      <c r="F21" s="13"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B22" s="11" t="s">
+      <c r="B22" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="C22" s="12" t="s">
+      <c r="C22" s="23" t="s">
         <v>59</v>
       </c>
       <c r="D22" s="2" t="s">
@@ -1262,59 +1271,59 @@
       <c r="E22" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="F22" s="12" t="s">
+      <c r="F22" s="23" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B23" s="11"/>
-      <c r="C23" s="12"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="23"/>
       <c r="D23" s="2" t="s">
         <v>64</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="F23" s="12"/>
+      <c r="F23" s="23"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B24" s="11"/>
-      <c r="C24" s="12"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="23"/>
       <c r="D24" s="2" t="s">
         <v>65</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="F24" s="12"/>
+      <c r="F24" s="23"/>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B25" s="11"/>
-      <c r="C25" s="12"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="23"/>
       <c r="D25" s="2" t="s">
         <v>66</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="F25" s="12"/>
+      <c r="F25" s="23"/>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B26" s="11"/>
-      <c r="C26" s="12"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="23"/>
       <c r="D26" s="2" t="s">
         <v>67</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="F26" s="12"/>
+      <c r="F26" s="23"/>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B27" s="11" t="s">
+      <c r="B27" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="C27" s="12" t="s">
+      <c r="C27" s="23" t="s">
         <v>59</v>
       </c>
       <c r="D27" s="2" t="s">
@@ -1323,233 +1332,242 @@
       <c r="E27" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="F27" s="12" t="s">
+      <c r="F27" s="23" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B28" s="11"/>
-      <c r="C28" s="12"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="23"/>
       <c r="D28" s="2" t="s">
         <v>65</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="F28" s="12"/>
+      <c r="F28" s="23"/>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B29" s="11"/>
-      <c r="C29" s="12"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="23"/>
       <c r="D29" s="2" t="s">
         <v>74</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="F29" s="12"/>
+      <c r="F29" s="23"/>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B30" s="7" t="s">
-        <v>88</v>
+        <v>117</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B31" s="7" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B32" s="7" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B33" s="7" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="D33" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B34" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F34" s="11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B35" s="15"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="F33" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B34" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="C34" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="D34" s="2" t="s">
+      <c r="E35" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="F35" s="12"/>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B36" s="15"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="E34" s="3" t="s">
+      <c r="E36" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="F34" s="16" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B35" s="20"/>
-      <c r="C35" s="18"/>
-      <c r="D35" s="2" t="s">
+      <c r="F36" s="12"/>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B37" s="15"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="E35" s="3" t="s">
+      <c r="E37" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="F35" s="18"/>
-    </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B36" s="20"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E36" s="3" t="s">
+      <c r="F37" s="12"/>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B38" s="15"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="F36" s="18"/>
-    </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B37" s="20"/>
-      <c r="C37" s="18"/>
-      <c r="D37" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E37" s="3" t="s">
+      <c r="E38" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="F37" s="18"/>
-    </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B38" s="20"/>
-      <c r="C38" s="18"/>
-      <c r="D38" s="2" t="s">
+      <c r="F38" s="12"/>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B39" s="15"/>
+      <c r="C39" s="12"/>
+      <c r="D39" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="F39" s="12"/>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B40" s="16"/>
+      <c r="C40" s="13"/>
+      <c r="D40" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="E38" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="F38" s="18"/>
-    </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B39" s="20"/>
-      <c r="C39" s="18"/>
-      <c r="D39" s="2" t="s">
+      <c r="E40" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="E39" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="F39" s="18"/>
-    </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B40" s="21"/>
-      <c r="C40" s="17"/>
-      <c r="D40" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="F40" s="17"/>
+      <c r="F40" s="13"/>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B41" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="D41" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C41" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>108</v>
-      </c>
       <c r="F41" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B42" s="9" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E42" s="10"/>
       <c r="F42" s="10" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B43" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="D43" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C43" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>115</v>
-      </c>
       <c r="E43" s="3" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B44" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E44" s="10" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="B22:B26"/>
+    <mergeCell ref="C22:C26"/>
+    <mergeCell ref="F22:F26"/>
+    <mergeCell ref="B14:B18"/>
+    <mergeCell ref="C14:C18"/>
+    <mergeCell ref="F14:F18"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="F20:F21"/>
     <mergeCell ref="F34:F40"/>
     <mergeCell ref="C34:C40"/>
     <mergeCell ref="B34:B40"/>
@@ -1566,15 +1584,6 @@
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="C11:C12"/>
     <mergeCell ref="F11:F12"/>
-    <mergeCell ref="B22:B26"/>
-    <mergeCell ref="C22:C26"/>
-    <mergeCell ref="F22:F26"/>
-    <mergeCell ref="B14:B18"/>
-    <mergeCell ref="C14:C18"/>
-    <mergeCell ref="F14:F18"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="F20:F21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/文档/接口.xlsx
+++ b/文档/接口.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="124">
   <si>
     <t>调用方式</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -184,10 +184,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>会员ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>获取某会员的购物车内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -200,10 +196,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>UserId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ProductId</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -232,266 +224,283 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>/api/ShopCartAPI/Delete/{购物车项ID}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/userapi/GetValiCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生成手机短信验证码，目前暂时固定为2222</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TelNo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TypeInfo</t>
+  </si>
+  <si>
+    <t>post</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机验证码类型， 0,注册、1.登录、2.购物等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/userapi/Regist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NiceName</t>
+  </si>
+  <si>
+    <t>TelPhone</t>
+  </si>
+  <si>
+    <t>Pwd</t>
+  </si>
+  <si>
+    <t>ComfirmPwd</t>
+  </si>
+  <si>
+    <t>TelVaiCode</t>
+  </si>
+  <si>
+    <t>昵称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机验证码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>会员注册</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Account</t>
+  </si>
+  <si>
+    <t>DeviceID</t>
+  </si>
+  <si>
+    <t>账户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备ID(这个看好不好获取)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>会员登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/userapi/Login</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取会员的所有地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取会员的默认地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除会员地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置默认地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>维护地址信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Get</t>
+  </si>
+  <si>
+    <t>Post</t>
+  </si>
+  <si>
+    <t>地址ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RegionId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShipName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Address</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地区ID(int)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收件人姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>详细地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CelPhone</t>
+  </si>
+  <si>
+    <t>联系电话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RecordStatus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>add 新增  update更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新时要传递地址的id,新增时不用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/ShopPayTypeApi/GetPayType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取可用的支付方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/Region/GetRegionPath/{地址ID}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/Region/GetChildRegion/{父地址ID}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/Region/GetChildRegion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取根级地区，目前数据库里是【中国】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根级父级地区获取下级地区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>父地址ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>整数</t>
+  </si>
+  <si>
+    <t>整数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地址ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据地区ID,获取其上级地区集合，从根级一直到该地区的路径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/ShippingAddressAPI/Delete/{地址ID}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/ShippingAddressAPI/SetDefault/{地址ID}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/ShippingAddressAPI/Post</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Get</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>/api/ShopCartAPI/Post</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/api/ShopCartAPI/Delete/{购物车项ID}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>api/userapi/GetValiCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>生成手机短信验证码，目前暂时固定为2222</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TelNo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TypeInfo</t>
-  </si>
-  <si>
-    <t>post</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>手机号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>手机验证码类型， 0,注册、1.登录、2.购物等</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>api/userapi/Regist</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NiceName</t>
-  </si>
-  <si>
-    <t>TelPhone</t>
-  </si>
-  <si>
-    <t>Pwd</t>
-  </si>
-  <si>
-    <t>ComfirmPwd</t>
-  </si>
-  <si>
-    <t>TelVaiCode</t>
-  </si>
-  <si>
-    <t>昵称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>密码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>确认密码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>手机验证码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>会员注册</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Account</t>
-  </si>
-  <si>
-    <t>DeviceID</t>
-  </si>
-  <si>
-    <t>账户</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设备ID(这个看好不好获取)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>会员登录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>api/userapi/Login</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取会员的所有地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取会员的默认地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除会员地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设置默认地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>维护地址信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Get</t>
-  </si>
-  <si>
-    <t>Post</t>
-  </si>
-  <si>
-    <t>/api/ShopCartAPI/Get/{会员ID}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>会员ID</t>
-  </si>
-  <si>
-    <t>地址ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RegionId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UserId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ShipName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Address</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地区ID(int)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>会员ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>收件人姓名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>详细地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CelPhone</t>
-  </si>
-  <si>
-    <t>联系电话</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RecordStatus</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>add 新增  update更新</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>更新时要传递地址的id,新增时不用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>api/ShopPayTypeApi/GetPayType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取可用的支付方式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无参数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>api/Region/GetRegionPath/{地址ID}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>api/Region/GetChildRegion/{父地址ID}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>api/Region/GetChildRegion</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取根级地区，目前数据库里是【中国】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>根级父级地区获取下级地区</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>父地址ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>整数</t>
-  </si>
-  <si>
-    <t>整数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地址ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>根据地区ID,获取其上级地区集合，从根级一直到该地区的路径</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>api/ShippingAddressAPI/GetDefault/{会员ID}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>api/ShippingAddressAPI/Get/{会员ID}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>api/ShippingAddressAPI/Delete/{地址ID}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>api/ShippingAddressAPI/SetDefault/{地址ID}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>api/ShippingAddressAPI/Post</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Get</t>
+    <t>ResId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>团购/秒杀时对应的团购/秒杀ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tokenStr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/ShippingAddressAPI/Get/{tokenStr}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/ShippingAddressAPI/GetDefault/{tokenStr}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Token </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Token值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/ShopCartAPI/Get/{tokenstr}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tokenstr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UserId（参数名不变）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -618,6 +627,15 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -626,15 +644,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -642,18 +657,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -958,10 +967,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:F44"/>
+  <dimension ref="B1:F45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -969,43 +978,43 @@
     <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="2" width="50" style="7" customWidth="1"/>
     <col min="3" max="3" width="21.375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="15.375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="24.125" style="2" customWidth="1"/>
     <col min="5" max="5" width="31.875" style="3" customWidth="1"/>
     <col min="6" max="6" width="28" style="3" customWidth="1"/>
     <col min="7" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="17"/>
-      <c r="F1" s="19" t="s">
+      <c r="E1" s="21"/>
+      <c r="F1" s="23" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B2" s="18"/>
-      <c r="C2" s="19"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="23"/>
       <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="19"/>
+      <c r="F2" s="23"/>
     </row>
     <row r="3" spans="2:6" ht="94.5" x14ac:dyDescent="0.15">
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="24" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -1014,31 +1023,31 @@
       <c r="E3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="22" t="s">
+      <c r="F3" s="25" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B4" s="20"/>
-      <c r="C4" s="21"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="24"/>
       <c r="D4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="21"/>
+      <c r="F4" s="24"/>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B5" s="20"/>
-      <c r="C5" s="21"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="24"/>
       <c r="D5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="21"/>
+      <c r="F5" s="24"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B6" s="7" t="s">
@@ -1114,276 +1123,276 @@
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="21" t="s">
+      <c r="C11" s="24" t="s">
         <v>18</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F11" s="21" t="s">
+      <c r="F11" s="24" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B12" s="20"/>
-      <c r="C12" s="21"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="24"/>
       <c r="D12" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="F12" s="21"/>
+      <c r="F12" s="24"/>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B13" s="7" t="s">
-        <v>86</v>
+        <v>121</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D13" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="F13" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="F13" s="3" t="s">
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B14" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="C14" s="14" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B14" s="20" t="s">
+      <c r="D14" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B15" s="12"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="F15" s="15"/>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B16" s="12"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="F16" s="15"/>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B17" s="12"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" s="15"/>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B18" s="12"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F18" s="15"/>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B19" s="13"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F19" s="16"/>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B20" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B21" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F21" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="C14" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="F14" s="21" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B15" s="20"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="F15" s="21"/>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B16" s="20"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F16" s="21"/>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B17" s="20"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="F17" s="21"/>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B18" s="20"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="F18" s="21"/>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B19" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B20" s="24" t="s">
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B22" s="20"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="E22" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F22" s="16"/>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B23" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="C23" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F23" s="18" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B24" s="17"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E24" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="E20" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="F20" s="11" t="s">
+      <c r="F24" s="18"/>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B25" s="17"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F25" s="18"/>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B26" s="17"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F26" s="18"/>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B27" s="17"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F27" s="18"/>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B28" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="C28" s="18" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B21" s="25"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="F21" s="13"/>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B22" s="20" t="s">
+      <c r="D28" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F28" s="18" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B29" s="17"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C22" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="F22" s="23" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B23" s="20"/>
-      <c r="C23" s="23"/>
-      <c r="D23" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="F23" s="23"/>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B24" s="20"/>
-      <c r="C24" s="23"/>
-      <c r="D24" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="F24" s="23"/>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B25" s="20"/>
-      <c r="C25" s="23"/>
-      <c r="D25" s="2" t="s">
+      <c r="E29" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="E25" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="F25" s="23"/>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B26" s="20"/>
-      <c r="C26" s="23"/>
-      <c r="D26" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E26" s="3" t="s">
+      <c r="F29" s="18"/>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B30" s="17"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="F26" s="23"/>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B27" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="C27" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="D27" s="2" t="s">
+      <c r="E30" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="E27" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="F27" s="23" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B28" s="20"/>
-      <c r="C28" s="23"/>
-      <c r="D28" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="F28" s="23"/>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B29" s="20"/>
-      <c r="C29" s="23"/>
-      <c r="D29" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="F29" s="23"/>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B30" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>79</v>
-      </c>
+      <c r="F30" s="18"/>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B31" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D31" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C31" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="F31" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.15">
@@ -1391,186 +1400,191 @@
         <v>118</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B33" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B34" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B35" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="C35" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="F35" s="14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B36" s="12"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E36" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="C33" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="D33" s="2" t="s">
+      <c r="F36" s="15"/>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B37" s="12"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E37" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="F33" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B34" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="C34" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="D34" s="2" t="s">
+      <c r="F37" s="15"/>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B38" s="12"/>
+      <c r="C38" s="15"/>
+      <c r="D38" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E38" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="E34" s="3" t="s">
+      <c r="F38" s="15"/>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B39" s="12"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F39" s="15"/>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B40" s="12"/>
+      <c r="C40" s="15"/>
+      <c r="D40" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="F34" s="11" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B35" s="15"/>
-      <c r="C35" s="12"/>
-      <c r="D35" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E35" s="3" t="s">
+      <c r="E40" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="F35" s="12"/>
-    </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B36" s="15"/>
-      <c r="C36" s="12"/>
-      <c r="D36" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E36" s="3" t="s">
+      <c r="F40" s="15"/>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B41" s="13"/>
+      <c r="C41" s="16"/>
+      <c r="D41" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E41" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="F36" s="12"/>
-    </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B37" s="15"/>
-      <c r="C37" s="12"/>
-      <c r="D37" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E37" s="3" t="s">
+      <c r="F41" s="16"/>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B42" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="F37" s="12"/>
-    </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B38" s="15"/>
-      <c r="C38" s="12"/>
-      <c r="D38" s="2" t="s">
+      <c r="C42" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F42" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="E38" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="F38" s="12"/>
-    </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B39" s="15"/>
-      <c r="C39" s="12"/>
-      <c r="D39" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E39" s="3" t="s">
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B43" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="F39" s="12"/>
-    </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B40" s="16"/>
-      <c r="C40" s="13"/>
-      <c r="D40" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E40" s="3" t="s">
+      <c r="C43" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="E43" s="10"/>
+      <c r="F43" s="10" t="s">
         <v>102</v>
-      </c>
-      <c r="F40" s="13"/>
-    </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B41" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="C41" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B42" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="C42" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="E42" s="10"/>
-      <c r="F42" s="10" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B43" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="C43" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B44" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E44" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="C44" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E44" s="10" t="s">
-        <v>112</v>
-      </c>
       <c r="F44" s="3" t="s">
-        <v>115</v>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B45" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E45" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="B22:B26"/>
-    <mergeCell ref="C22:C26"/>
-    <mergeCell ref="F22:F26"/>
-    <mergeCell ref="B14:B18"/>
-    <mergeCell ref="C14:C18"/>
-    <mergeCell ref="F14:F18"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="F34:F40"/>
-    <mergeCell ref="C34:C40"/>
-    <mergeCell ref="B34:B40"/>
+    <mergeCell ref="F35:F41"/>
+    <mergeCell ref="C35:C41"/>
+    <mergeCell ref="B35:B41"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="F1:F2"/>
@@ -1578,12 +1592,21 @@
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="C3:C5"/>
     <mergeCell ref="F3:F5"/>
-    <mergeCell ref="F27:F29"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="F28:F30"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="C28:C30"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="C11:C12"/>
     <mergeCell ref="F11:F12"/>
+    <mergeCell ref="B14:B19"/>
+    <mergeCell ref="C14:C19"/>
+    <mergeCell ref="F14:F19"/>
+    <mergeCell ref="B23:B27"/>
+    <mergeCell ref="C23:C27"/>
+    <mergeCell ref="F23:F27"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="F21:F22"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/文档/接口.xlsx
+++ b/文档/接口.xlsx
@@ -476,18 +476,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>api/ShippingAddressAPI/Get/{tokenStr}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>api/ShippingAddressAPI/GetDefault/{tokenStr}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Token </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Token值</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -501,6 +489,18 @@
   </si>
   <si>
     <t>UserId（参数名不变）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/ShippingAddressAPI/GetDefault</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/ShippingAddressAPI/Get</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从cookie里统一获取</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -969,8 +969,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1149,16 +1149,16 @@
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B13" s="7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>41</v>
@@ -1196,10 +1196,10 @@
       <c r="B16" s="12"/>
       <c r="C16" s="15"/>
       <c r="D16" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="F16" s="15"/>
     </row>
@@ -1383,7 +1383,7 @@
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B31" s="7" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="C31" s="6" t="s">
         <v>81</v>
@@ -1391,19 +1391,25 @@
       <c r="D31" s="2" t="s">
         <v>116</v>
       </c>
+      <c r="E31" s="3" t="s">
+        <v>123</v>
+      </c>
       <c r="F31" s="3" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B32" s="7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C32" s="6" t="s">
         <v>81</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>116</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>123</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>77</v>
@@ -1458,10 +1464,10 @@
       <c r="B36" s="12"/>
       <c r="C36" s="15"/>
       <c r="D36" s="2" t="s">
-        <v>123</v>
+        <v>85</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>119</v>
+        <v>88</v>
       </c>
       <c r="F36" s="15"/>
     </row>
@@ -1469,10 +1475,10 @@
       <c r="B37" s="12"/>
       <c r="C37" s="15"/>
       <c r="D37" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F37" s="15"/>
     </row>
@@ -1480,10 +1486,10 @@
       <c r="B38" s="12"/>
       <c r="C38" s="15"/>
       <c r="D38" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F38" s="15"/>
     </row>
@@ -1491,10 +1497,10 @@
       <c r="B39" s="12"/>
       <c r="C39" s="15"/>
       <c r="D39" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="F39" s="15"/>
     </row>
@@ -1502,22 +1508,16 @@
       <c r="B40" s="12"/>
       <c r="C40" s="15"/>
       <c r="D40" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F40" s="15"/>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B41" s="13"/>
       <c r="C41" s="16"/>
-      <c r="D41" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>95</v>
-      </c>
       <c r="F41" s="16"/>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.15">

--- a/文档/接口.xlsx
+++ b/文档/接口.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="130">
   <si>
     <t>调用方式</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -228,223 +228,287 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>生成手机短信验证码，目前暂时固定为2222</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>post</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机验证码类型， 0,注册、1.登录、2.购物等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pwd</t>
+  </si>
+  <si>
+    <t>昵称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机验证码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>会员注册</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备ID(这个看好不好获取)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>会员登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取会员的所有地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取会员的默认地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除会员地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置默认地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>维护地址信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Get</t>
+  </si>
+  <si>
+    <t>Post</t>
+  </si>
+  <si>
+    <t>地址ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地区ID(int)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收件人姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>详细地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系电话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新时要传递地址的id,新增时不用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/ShopPayTypeApi/GetPayType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取可用的支付方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/Region/GetRegionPath/{地址ID}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/Region/GetChildRegion/{父地址ID}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/Region/GetChildRegion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取根级地区，目前数据库里是【中国】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根级父级地区获取下级地区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>父地址ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>整数</t>
+  </si>
+  <si>
+    <t>整数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地址ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据地区ID,获取其上级地区集合，从根级一直到该地区的路径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/ShippingAddressAPI/Delete/{地址ID}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Get</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/ShopCartAPI/Post</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>团购/秒杀时对应的团购/秒杀ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tokenStr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Token值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/ShopCartAPI/Get/{tokenstr}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tokenstr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UserId（参数名不变）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从cookie里统一获取</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/ShippingAddressAPI/Post</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RegionId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShipName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Address</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CelPhone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RecordStatus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>add 新增  update更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/userapi/Regist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NiceName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TelPhone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ComfirmPwd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TelVaiCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>api/userapi/GetValiCode</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>生成手机短信验证码，目前暂时固定为2222</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>TelNo</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>TypeInfo</t>
-  </si>
-  <si>
-    <t>post</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>手机号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>手机验证码类型， 0,注册、1.登录、2.购物等</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>api/userapi/Regist</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NiceName</t>
-  </si>
-  <si>
-    <t>TelPhone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/userapi/Login</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Account</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Pwd</t>
-  </si>
-  <si>
-    <t>ComfirmPwd</t>
-  </si>
-  <si>
-    <t>TelVaiCode</t>
-  </si>
-  <si>
-    <t>昵称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>密码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>确认密码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>手机验证码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>会员注册</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Account</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>DeviceID</t>
-  </si>
-  <si>
-    <t>账户</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设备ID(这个看好不好获取)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>会员登录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>api/userapi/Login</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取会员的所有地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取会员的默认地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除会员地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设置默认地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>维护地址信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Get</t>
-  </si>
-  <si>
-    <t>Post</t>
-  </si>
-  <si>
-    <t>地址ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RegionId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ShipName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Address</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地区ID(int)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>收件人姓名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>详细地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CelPhone</t>
-  </si>
-  <si>
-    <t>联系电话</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RecordStatus</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>add 新增  update更新</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>更新时要传递地址的id,新增时不用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>api/ShopPayTypeApi/GetPayType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取可用的支付方式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无参数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>api/Region/GetRegionPath/{地址ID}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>api/Region/GetChildRegion/{父地址ID}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>api/Region/GetChildRegion</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取根级地区，目前数据库里是【中国】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>根级父级地区获取下级地区</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>父地址ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>整数</t>
-  </si>
-  <si>
-    <t>整数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地址ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>根据地区ID,获取其上级地区集合，从根级一直到该地区的路径</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>api/ShippingAddressAPI/Delete/{地址ID}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/ShippingAddressAPI/Get</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/ShippingAddressAPI/GetDefault</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -452,55 +516,22 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>api/ShippingAddressAPI/Post</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Get</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/ShopCartAPI/Post</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ResId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>团购/秒杀时对应的团购/秒杀ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tokenStr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Token值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/ShopCartAPI/Get/{tokenstr}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tokenstr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UserId（参数名不变）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>api/ShippingAddressAPI/GetDefault</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>api/ShippingAddressAPI/Get</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>从cookie里统一获取</t>
+    <t>测试数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RegionId=2&amp;ShipName=卢永列&amp;Address=济南市历下区&amp;CelPhone=13589111432&amp;RecordStatus=add</t>
+  </si>
+  <si>
+    <t>修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RegionId=3&amp;ShipName=卢永列1&amp;Address=济南市历下区1&amp;CelPhone=13589111434&amp;RecordStatus=update&amp;ID=eaf7f6a8-009e-4e2f-8dbf-e31089f90ede</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -627,6 +658,15 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -635,21 +675,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -657,12 +682,18 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -967,16 +998,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:F45"/>
+  <dimension ref="B1:G45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35:F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="50" style="7" customWidth="1"/>
+    <col min="2" max="2" width="32.375" style="7" customWidth="1"/>
     <col min="3" max="3" width="21.375" style="3" customWidth="1"/>
     <col min="4" max="4" width="24.125" style="2" customWidth="1"/>
     <col min="5" max="5" width="31.875" style="3" customWidth="1"/>
@@ -984,37 +1015,40 @@
     <col min="7" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B1" s="22" t="s">
+    <row r="1" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="21"/>
-      <c r="F1" s="23" t="s">
+      <c r="E1" s="17"/>
+      <c r="F1" s="19" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B2" s="22"/>
-      <c r="C2" s="23"/>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B2" s="18"/>
+      <c r="C2" s="19"/>
       <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="23"/>
-    </row>
-    <row r="3" spans="2:6" ht="94.5" x14ac:dyDescent="0.15">
-      <c r="B3" s="17" t="s">
+      <c r="F2" s="19"/>
+      <c r="G2" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="B3" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="21" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -1023,33 +1057,33 @@
       <c r="E3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="25" t="s">
+      <c r="F3" s="22" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B4" s="17"/>
-      <c r="C4" s="24"/>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B4" s="20"/>
+      <c r="C4" s="21"/>
       <c r="D4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="24"/>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B5" s="17"/>
-      <c r="C5" s="24"/>
+      <c r="F4" s="21"/>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B5" s="20"/>
+      <c r="C5" s="21"/>
       <c r="D5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="24"/>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="F5" s="21"/>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B6" s="7" t="s">
         <v>20</v>
       </c>
@@ -1066,7 +1100,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B7" s="7" t="s">
         <v>21</v>
       </c>
@@ -1083,7 +1117,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B8" s="7" t="s">
         <v>26</v>
       </c>
@@ -1094,7 +1128,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B9" s="7" t="s">
         <v>28</v>
       </c>
@@ -1108,7 +1142,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B10" s="7" t="s">
         <v>31</v>
       </c>
@@ -1122,53 +1156,53 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B11" s="17" t="s">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B11" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="24" t="s">
+      <c r="C11" s="21" t="s">
         <v>18</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F11" s="24" t="s">
+      <c r="F11" s="21" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B12" s="17"/>
-      <c r="C12" s="24"/>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B12" s="20"/>
+      <c r="C12" s="21"/>
       <c r="D12" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="F12" s="24"/>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="F12" s="21"/>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B13" s="7" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>119</v>
+        <v>99</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B14" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="C14" s="14" t="s">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B14" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="C14" s="11" t="s">
         <v>42</v>
       </c>
       <c r="D14" s="2" t="s">
@@ -1177,64 +1211,64 @@
       <c r="E14" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="F14" s="14" t="s">
+      <c r="F14" s="11" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B15" s="12"/>
-      <c r="C15" s="15"/>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B15" s="15"/>
+      <c r="C15" s="12"/>
       <c r="D15" s="2" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="F15" s="15"/>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B16" s="12"/>
-      <c r="C16" s="15"/>
+        <v>95</v>
+      </c>
+      <c r="F15" s="12"/>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B16" s="15"/>
+      <c r="C16" s="12"/>
       <c r="D16" s="2" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="F16" s="15"/>
+        <v>97</v>
+      </c>
+      <c r="F16" s="12"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B17" s="12"/>
-      <c r="C17" s="15"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="12"/>
       <c r="D17" s="2" t="s">
         <v>44</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F17" s="15"/>
+      <c r="F17" s="12"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B18" s="12"/>
-      <c r="C18" s="15"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="12"/>
       <c r="D18" s="2" t="s">
         <v>45</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="F18" s="15"/>
+      <c r="F18" s="12"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B19" s="13"/>
-      <c r="C19" s="16"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="13"/>
       <c r="D19" s="2" t="s">
         <v>46</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="F19" s="16"/>
+      <c r="F19" s="13"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B20" s="7" t="s">
@@ -1254,334 +1288,355 @@
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B21" s="19" t="s">
+      <c r="B21" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F21" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="C21" s="14" t="s">
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B22" s="25"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F22" s="13"/>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B23" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="C23" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F23" s="23" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B24" s="20"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F24" s="23"/>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B25" s="20"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D21" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="F21" s="14" t="s">
+      <c r="E25" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F25" s="23"/>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B26" s="20"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F26" s="23"/>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B27" s="20"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F27" s="23"/>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B28" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="C28" s="23" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B22" s="20"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E22" s="3" t="s">
+      <c r="D28" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F28" s="23" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B29" s="20"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E29" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="F22" s="16"/>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B23" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="C23" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="F23" s="18" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B24" s="17"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="F24" s="18"/>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B25" s="17"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="F25" s="18"/>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B26" s="17"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="2" t="s">
+      <c r="F29" s="23"/>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B30" s="20"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E30" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E26" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="F26" s="18"/>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B27" s="17"/>
-      <c r="C27" s="18"/>
-      <c r="D27" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="F27" s="18"/>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B28" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="C28" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="F28" s="18" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B29" s="17"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="F29" s="18"/>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B30" s="17"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="F30" s="18"/>
+      <c r="F30" s="23"/>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B31" s="7" t="s">
         <v>122</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>116</v>
+        <v>96</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>123</v>
+        <v>101</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B32" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>116</v>
+        <v>96</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>123</v>
+        <v>101</v>
       </c>
       <c r="F32" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B33" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B34" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B35" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F35" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B36" s="15"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F36" s="12"/>
+      <c r="G36" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B37" s="15"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F37" s="12"/>
+      <c r="G37" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B38" s="15"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F38" s="12"/>
+      <c r="G38" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B39" s="15"/>
+      <c r="C39" s="12"/>
+      <c r="D39" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="F39" s="12"/>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B40" s="15"/>
+      <c r="C40" s="12"/>
+      <c r="D40" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E40" s="3" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B33" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="D33" s="2" t="s">
+      <c r="F40" s="12"/>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B41" s="16"/>
+      <c r="C41" s="13"/>
+      <c r="F41" s="13"/>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B42" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B43" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="F33" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B34" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B35" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="C35" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="F35" s="14" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B36" s="12"/>
-      <c r="C36" s="15"/>
-      <c r="D36" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="F36" s="15"/>
-    </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B37" s="12"/>
-      <c r="C37" s="15"/>
-      <c r="D37" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="F37" s="15"/>
-    </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B38" s="12"/>
-      <c r="C38" s="15"/>
-      <c r="D38" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="F38" s="15"/>
-    </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B39" s="12"/>
-      <c r="C39" s="15"/>
-      <c r="D39" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="F39" s="15"/>
-    </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B40" s="12"/>
-      <c r="C40" s="15"/>
-      <c r="D40" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="F40" s="15"/>
-    </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B41" s="13"/>
-      <c r="C41" s="16"/>
-      <c r="F41" s="16"/>
-    </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B42" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="C42" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B43" s="9" t="s">
-        <v>101</v>
-      </c>
       <c r="C43" s="10" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="E43" s="10"/>
       <c r="F43" s="10" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.15">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B44" s="7" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="C44" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B45" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="D44" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B45" s="7" t="s">
-        <v>99</v>
-      </c>
       <c r="C45" s="10" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="E45" s="10" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="B14:B19"/>
+    <mergeCell ref="C14:C19"/>
+    <mergeCell ref="F14:F19"/>
+    <mergeCell ref="B23:B27"/>
+    <mergeCell ref="C23:C27"/>
+    <mergeCell ref="F23:F27"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="F21:F22"/>
     <mergeCell ref="F35:F41"/>
     <mergeCell ref="C35:C41"/>
     <mergeCell ref="B35:B41"/>
@@ -1598,15 +1653,6 @@
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="C11:C12"/>
     <mergeCell ref="F11:F12"/>
-    <mergeCell ref="B14:B19"/>
-    <mergeCell ref="C14:C19"/>
-    <mergeCell ref="F14:F19"/>
-    <mergeCell ref="B23:B27"/>
-    <mergeCell ref="C23:C27"/>
-    <mergeCell ref="F23:F27"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="F21:F22"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/文档/接口.xlsx
+++ b/文档/接口.xlsx
@@ -329,15 +329,201 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>获取可用的支付方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/Region/GetChildRegion/{父地址ID}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取根级地区，目前数据库里是【中国】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根级父级地区获取下级地区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>父地址ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>整数</t>
+  </si>
+  <si>
+    <t>整数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地址ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据地区ID,获取其上级地区集合，从根级一直到该地区的路径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Get</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/ShopCartAPI/Post</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>团购/秒杀时对应的团购/秒杀ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tokenStr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Token值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/ShopCartAPI/Get/{tokenstr}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tokenstr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UserId（参数名不变）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从cookie里统一获取</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/ShippingAddressAPI/Post</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RegionId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShipName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Address</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CelPhone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RecordStatus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>add 新增  update更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/userapi/Regist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NiceName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TelPhone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ComfirmPwd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TelVaiCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/userapi/GetValiCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TelNo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TypeInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/userapi/Login</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Account</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pwd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DeviceID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/ShippingAddressAPI/Get</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/ShippingAddressAPI/GetDefault</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/ShippingAddressAPI/SetDefault/{地址ID}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RegionId=2&amp;ShipName=卢永列&amp;Address=济南市历下区&amp;CelPhone=13589111432&amp;RecordStatus=add</t>
+  </si>
+  <si>
+    <t>修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RegionId=3&amp;ShipName=卢永列1&amp;Address=济南市历下区1&amp;CelPhone=13589111434&amp;RecordStatus=update&amp;ID=eaf7f6a8-009e-4e2f-8dbf-e31089f90ede</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>api/ShopPayTypeApi/GetPayType</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>获取可用的支付方式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无参数</t>
+    <t>api/Region/GetChildRegion</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -345,193 +531,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>api/Region/GetChildRegion/{父地址ID}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>api/Region/GetChildRegion</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取根级地区，目前数据库里是【中国】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>根级父级地区获取下级地区</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>父地址ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>整数</t>
-  </si>
-  <si>
-    <t>整数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地址ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>根据地区ID,获取其上级地区集合，从根级一直到该地区的路径</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>api/ShippingAddressAPI/Delete/{地址ID}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Get</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/ShopCartAPI/Post</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ResId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>团购/秒杀时对应的团购/秒杀ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tokenStr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Token值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/ShopCartAPI/Get/{tokenstr}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tokenstr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UserId（参数名不变）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>从cookie里统一获取</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>api/ShippingAddressAPI/Post</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RegionId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ShipName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Address</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CelPhone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RecordStatus</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>add 新增  update更新</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>api/userapi/Regist</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NiceName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TelPhone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ComfirmPwd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TelVaiCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>api/userapi/GetValiCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TelNo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TypeInfo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>api/userapi/Login</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Account</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pwd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DeviceID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>api/ShippingAddressAPI/Get</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>api/ShippingAddressAPI/GetDefault</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>api/ShippingAddressAPI/SetDefault/{地址ID}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新增</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RegionId=2&amp;ShipName=卢永列&amp;Address=济南市历下区&amp;CelPhone=13589111432&amp;RecordStatus=add</t>
-  </si>
-  <si>
-    <t>修改</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RegionId=3&amp;ShipName=卢永列1&amp;Address=济南市历下区1&amp;CelPhone=13589111434&amp;RecordStatus=update&amp;ID=eaf7f6a8-009e-4e2f-8dbf-e31089f90ede</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1000,8 +1000,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35:F41"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1041,7 +1041,7 @@
       </c>
       <c r="F2" s="19"/>
       <c r="G2" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="2:7" ht="94.5" x14ac:dyDescent="0.15">
@@ -1183,16 +1183,16 @@
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B13" s="7" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>41</v>
@@ -1200,7 +1200,7 @@
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B14" s="14" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C14" s="11" t="s">
         <v>42</v>
@@ -1219,10 +1219,10 @@
       <c r="B15" s="15"/>
       <c r="C15" s="12"/>
       <c r="D15" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F15" s="12"/>
     </row>
@@ -1230,10 +1230,10 @@
       <c r="B16" s="15"/>
       <c r="C16" s="12"/>
       <c r="D16" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F16" s="12"/>
     </row>
@@ -1289,13 +1289,13 @@
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B21" s="24" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C21" s="11" t="s">
         <v>53</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>54</v>
@@ -1308,7 +1308,7 @@
       <c r="B22" s="25"/>
       <c r="C22" s="13"/>
       <c r="D22" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>55</v>
@@ -1317,13 +1317,13 @@
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B23" s="20" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C23" s="23" t="s">
         <v>53</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>57</v>
@@ -1336,7 +1336,7 @@
       <c r="B24" s="20"/>
       <c r="C24" s="23"/>
       <c r="D24" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>54</v>
@@ -1358,7 +1358,7 @@
       <c r="B26" s="20"/>
       <c r="C26" s="23"/>
       <c r="D26" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>59</v>
@@ -1369,7 +1369,7 @@
       <c r="B27" s="20"/>
       <c r="C27" s="23"/>
       <c r="D27" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>60</v>
@@ -1378,13 +1378,13 @@
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B28" s="20" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C28" s="23" t="s">
         <v>53</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>62</v>
@@ -1397,7 +1397,7 @@
       <c r="B29" s="20"/>
       <c r="C29" s="23"/>
       <c r="D29" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>58</v>
@@ -1408,7 +1408,7 @@
       <c r="B30" s="20"/>
       <c r="C30" s="23"/>
       <c r="D30" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>63</v>
@@ -1417,16 +1417,16 @@
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B31" s="7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C31" s="6" t="s">
         <v>70</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F31" s="3" t="s">
         <v>65</v>
@@ -1434,16 +1434,16 @@
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B32" s="7" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C32" s="6" t="s">
         <v>70</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>66</v>
@@ -1451,7 +1451,7 @@
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B33" s="7" t="s">
-        <v>91</v>
+        <v>129</v>
       </c>
       <c r="C33" s="6" t="s">
         <v>70</v>
@@ -1465,10 +1465,10 @@
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B34" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>72</v>
@@ -1479,13 +1479,13 @@
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B35" s="14" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C35" s="11" t="s">
         <v>71</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>73</v>
@@ -1494,59 +1494,59 @@
         <v>69</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B36" s="15"/>
       <c r="C36" s="12"/>
       <c r="D36" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>74</v>
       </c>
       <c r="F36" s="12"/>
       <c r="G36" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B37" s="15"/>
       <c r="C37" s="12"/>
       <c r="D37" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>75</v>
       </c>
       <c r="F37" s="12"/>
       <c r="G37" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B38" s="15"/>
       <c r="C38" s="12"/>
       <c r="D38" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>76</v>
       </c>
       <c r="F38" s="12"/>
       <c r="G38" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B39" s="15"/>
       <c r="C39" s="12"/>
       <c r="D39" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F39" s="12"/>
     </row>
@@ -1554,7 +1554,7 @@
       <c r="B40" s="15"/>
       <c r="C40" s="12"/>
       <c r="D40" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>77</v>
@@ -1568,62 +1568,62 @@
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B42" s="7" t="s">
-        <v>78</v>
+        <v>126</v>
       </c>
       <c r="C42" s="8" t="s">
         <v>70</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B43" s="9" t="s">
-        <v>83</v>
+        <v>127</v>
       </c>
       <c r="C43" s="10" t="s">
         <v>70</v>
       </c>
       <c r="E43" s="10"/>
       <c r="F43" s="10" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B44" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C44" s="10" t="s">
         <v>70</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B45" s="7" t="s">
-        <v>81</v>
+        <v>128</v>
       </c>
       <c r="C45" s="10" t="s">
         <v>70</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E45" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="F45" s="3" t="s">
         <v>87</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/文档/接口.xlsx
+++ b/文档/接口.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="141">
   <si>
     <t>调用方式</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -156,10 +156,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/api/app/GetProductsByCategory/{商品分类ID}/{页数}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>商品分类ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -532,6 +528,54 @@
   </si>
   <si>
     <t>api/ShippingAddressAPI/Delete/{地址ID}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/app/GetRegistAgreement</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取用户注册协议</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排序（支持多列）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>例如（name desc,code desc,count desc….）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>页数(加上排序后，就变成必填了，)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/app/GetProductsByCategory/{商品分类ID}/{页数}/{排序字段}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/app/GetProductsByMutilStation/{位置类型}/{pagesize}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{位置类型}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{pagesize}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每个位置获取个数，默认是5个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,1,2,3（可以用逗号隔开）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一次获取多个位置的商品列表数据</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -633,7 +677,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -657,14 +701,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -675,6 +713,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -682,18 +735,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -998,16 +1045,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G45"/>
+  <dimension ref="B1:G49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="E53" sqref="E53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="32.375" style="7" customWidth="1"/>
+    <col min="2" max="2" width="49.5" style="7" customWidth="1"/>
     <col min="3" max="3" width="21.375" style="3" customWidth="1"/>
     <col min="4" max="4" width="24.125" style="2" customWidth="1"/>
     <col min="5" max="5" width="31.875" style="3" customWidth="1"/>
@@ -1016,39 +1063,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="17"/>
-      <c r="F1" s="19" t="s">
+      <c r="E1" s="22"/>
+      <c r="F1" s="24" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B2" s="18"/>
-      <c r="C2" s="19"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="24"/>
       <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="19"/>
+      <c r="F2" s="24"/>
       <c r="G2" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="2:7" ht="94.5" x14ac:dyDescent="0.15">
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="25" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -1057,31 +1104,31 @@
       <c r="E3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="22" t="s">
+      <c r="F3" s="26" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B4" s="20"/>
-      <c r="C4" s="21"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="25"/>
       <c r="D4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="21"/>
+      <c r="F4" s="25"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B5" s="20"/>
-      <c r="C5" s="21"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="25"/>
       <c r="D5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="21"/>
+      <c r="F5" s="25"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B6" s="7" t="s">
@@ -1157,489 +1204,532 @@
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="C11" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="2" t="s">
+      <c r="F11" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="F11" s="21" t="s">
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B12" s="16"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B12" s="20"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" s="3" t="s">
+      <c r="F12" s="25"/>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B13" s="17"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="F13" s="11"/>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B14" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B15" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B16" s="13"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="F16" s="16"/>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B17" s="13"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="F17" s="16"/>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B18" s="13"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F18" s="16"/>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B19" s="13"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F19" s="16"/>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B20" s="14"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F20" s="17"/>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B21" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F12" s="21"/>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B13" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B14" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="F14" s="11" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B15" s="15"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="F15" s="12"/>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B16" s="15"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="F16" s="12"/>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B17" s="15"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F17" s="12"/>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B18" s="15"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="F18" s="12"/>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B19" s="16"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="F19" s="13"/>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B20" s="7" t="s">
+      <c r="E21" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B22" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F22" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B21" s="24" t="s">
-        <v>111</v>
-      </c>
-      <c r="C21" s="11" t="s">
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B23" s="21"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F23" s="17"/>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B24" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="C24" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F24" s="19" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B25" s="18"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E25" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D21" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="F21" s="11" t="s">
+      <c r="F25" s="19"/>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B26" s="18"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F26" s="19"/>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B27" s="18"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F27" s="19"/>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B28" s="18"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F28" s="19"/>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B29" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="C29" s="19" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B22" s="25"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F22" s="13"/>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B23" s="20" t="s">
-        <v>106</v>
-      </c>
-      <c r="C23" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E23" s="3" t="s">
+      <c r="D29" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F29" s="19" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B30" s="18"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E30" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="F23" s="23" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B24" s="20"/>
-      <c r="C24" s="23"/>
-      <c r="D24" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="F24" s="23"/>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B25" s="20"/>
-      <c r="C25" s="23"/>
-      <c r="D25" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="F25" s="23"/>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B26" s="20"/>
-      <c r="C26" s="23"/>
-      <c r="D26" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="F26" s="23"/>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B27" s="20"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="F27" s="23"/>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B28" s="20" t="s">
-        <v>114</v>
-      </c>
-      <c r="C28" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E28" s="3" t="s">
+      <c r="F30" s="19"/>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B31" s="18"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E31" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="F28" s="23" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B29" s="20"/>
-      <c r="C29" s="23"/>
-      <c r="D29" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="F29" s="23"/>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B30" s="20"/>
-      <c r="C30" s="23"/>
-      <c r="D30" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="F30" s="23"/>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B31" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>65</v>
-      </c>
+      <c r="F31" s="19"/>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B32" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B33" s="7" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>72</v>
+        <v>91</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>96</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B34" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>88</v>
+        <v>128</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>69</v>
       </c>
       <c r="D34" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B35" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B36" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="C36" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E36" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="F34" s="3" t="s">
+      <c r="F36" s="15" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B35" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="C35" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="D35" s="2" t="s">
+      <c r="G36" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B37" s="13"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="E35" s="3" t="s">
+      <c r="E37" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="F35" s="11" t="s">
+      <c r="F37" s="16"/>
+      <c r="G37" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B38" s="13"/>
+      <c r="C38" s="16"/>
+      <c r="D38" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F38" s="16"/>
+      <c r="G38" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B39" s="13"/>
+      <c r="C39" s="16"/>
+      <c r="D39" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F39" s="16"/>
+      <c r="G39" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B40" s="13"/>
+      <c r="C40" s="16"/>
+      <c r="D40" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="F40" s="16"/>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B41" s="13"/>
+      <c r="C41" s="16"/>
+      <c r="D41" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F41" s="16"/>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B42" s="14"/>
+      <c r="C42" s="17"/>
+      <c r="F42" s="17"/>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B43" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="C43" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="G35" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B36" s="15"/>
-      <c r="C36" s="12"/>
-      <c r="D36" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="F36" s="12"/>
-      <c r="G36" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B37" s="15"/>
-      <c r="C37" s="12"/>
-      <c r="D37" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="F37" s="12"/>
-      <c r="G37" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B38" s="15"/>
-      <c r="C38" s="12"/>
-      <c r="D38" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="F38" s="12"/>
-      <c r="G38" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B39" s="15"/>
-      <c r="C39" s="12"/>
-      <c r="D39" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="F39" s="12"/>
-    </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B40" s="15"/>
-      <c r="C40" s="12"/>
-      <c r="D40" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="E40" s="3" t="s">
+      <c r="D43" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F43" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="F40" s="12"/>
-    </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B41" s="16"/>
-      <c r="C41" s="13"/>
-      <c r="F41" s="13"/>
-    </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B42" s="7" t="s">
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B44" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="C42" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B43" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="C43" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="E43" s="10"/>
-      <c r="F43" s="10" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B44" s="7" t="s">
+      <c r="C44" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="E44" s="10"/>
+      <c r="F44" s="10" t="s">
         <v>80</v>
-      </c>
-      <c r="C44" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B45" s="7" t="s">
-        <v>128</v>
+        <v>79</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D45" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B46" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="C46" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E46" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="F46" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="E45" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>87</v>
-      </c>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B47" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="C47" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B48" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="C48" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="F48" s="15" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B49" s="17"/>
+      <c r="D49" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="F49" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="25">
-    <mergeCell ref="B14:B19"/>
-    <mergeCell ref="C14:C19"/>
-    <mergeCell ref="F14:F19"/>
-    <mergeCell ref="B23:B27"/>
-    <mergeCell ref="C23:C27"/>
-    <mergeCell ref="F23:F27"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="F35:F41"/>
-    <mergeCell ref="C35:C41"/>
-    <mergeCell ref="B35:B41"/>
+  <mergeCells count="27">
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="F48:F49"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="F36:F42"/>
+    <mergeCell ref="C36:C42"/>
+    <mergeCell ref="B36:B42"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="F1:F2"/>
@@ -1647,12 +1737,20 @@
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="C3:C5"/>
     <mergeCell ref="F3:F5"/>
-    <mergeCell ref="F28:F30"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="C28:C30"/>
-    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="F29:F31"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="C29:C31"/>
     <mergeCell ref="C11:C12"/>
     <mergeCell ref="F11:F12"/>
+    <mergeCell ref="B15:B20"/>
+    <mergeCell ref="C15:C20"/>
+    <mergeCell ref="F15:F20"/>
+    <mergeCell ref="B24:B28"/>
+    <mergeCell ref="C24:C28"/>
+    <mergeCell ref="F24:F28"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="F22:F23"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/文档/接口.xlsx
+++ b/文档/接口.xlsx
@@ -1047,14 +1047,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="E53" sqref="E53"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="49.5" style="7" customWidth="1"/>
+    <col min="2" max="2" width="64.75" style="7" customWidth="1"/>
     <col min="3" max="3" width="21.375" style="3" customWidth="1"/>
     <col min="4" max="4" width="24.125" style="2" customWidth="1"/>
     <col min="5" max="5" width="31.875" style="3" customWidth="1"/>

--- a/文档/接口.xlsx
+++ b/文档/接口.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="145">
   <si>
     <t>调用方式</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -144,438 +144,454 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>商品ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取单条商品信息（包含规格属性等多组信息）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品分类ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取某一商品分类下的商品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每页默认20条</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购物车项ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购物车里某一项的ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除购物车的某一项</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取某会员的购物车内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Post</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ItemType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProductId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Quantity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 普通购物，2，赠品,3.套餐，4，团购，5 秒杀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKU，商品唯一库存编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加购物车</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/ShopCartAPI/Delete/{购物车项ID}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生成手机短信验证码，目前暂时固定为2222</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>post</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机验证码类型， 0,注册、1.登录、2.购物等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pwd</t>
+  </si>
+  <si>
+    <t>昵称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机验证码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>会员注册</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备ID(这个看好不好获取)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>会员登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取会员的所有地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取会员的默认地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除会员地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置默认地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>维护地址信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Get</t>
+  </si>
+  <si>
+    <t>Post</t>
+  </si>
+  <si>
+    <t>地址ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地区ID(int)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收件人姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>详细地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系电话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新时要传递地址的id,新增时不用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取可用的支付方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/Region/GetChildRegion/{父地址ID}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取根级地区，目前数据库里是【中国】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根级父级地区获取下级地区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>父地址ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>整数</t>
+  </si>
+  <si>
+    <t>整数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地址ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据地区ID,获取其上级地区集合，从根级一直到该地区的路径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Get</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/ShopCartAPI/Post</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>团购/秒杀时对应的团购/秒杀ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tokenStr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Token值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/ShopCartAPI/Get/{tokenstr}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tokenstr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UserId（参数名不变）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从cookie里统一获取</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/ShippingAddressAPI/Post</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RegionId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShipName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Address</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CelPhone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RecordStatus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>add 新增  update更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/userapi/Regist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NiceName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TelPhone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ComfirmPwd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TelVaiCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/userapi/GetValiCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TelNo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TypeInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/userapi/Login</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Account</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pwd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DeviceID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/ShippingAddressAPI/Get</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/ShippingAddressAPI/GetDefault</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/ShippingAddressAPI/SetDefault/{地址ID}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RegionId=2&amp;ShipName=卢永列&amp;Address=济南市历下区&amp;CelPhone=13589111432&amp;RecordStatus=add</t>
+  </si>
+  <si>
+    <t>修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RegionId=3&amp;ShipName=卢永列1&amp;Address=济南市历下区1&amp;CelPhone=13589111434&amp;RecordStatus=update&amp;ID=eaf7f6a8-009e-4e2f-8dbf-e31089f90ede</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/ShopPayTypeApi/GetPayType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/Region/GetChildRegion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/Region/GetRegionPath/{地址ID}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/ShippingAddressAPI/Delete/{地址ID}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取用户注册协议</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排序（支持多列）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>例如（name desc,code desc,count desc….）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>页数(加上排序后，就变成必填了，)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/app/GetProductsByCategory/{商品分类ID}/{页数}/{排序字段}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{位置类型}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{pagesize}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每个位置获取个数，默认是5个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,1,2,3（可以用逗号隔开）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一次获取多个位置的商品列表数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/app/GetProductsByMutilStation/{位置类型}/{pagesize}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/app/GetRegistAgreement</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/app/GetGg/{商品ID}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/app/GetSku/{商品ID}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据商品ID，获取其规格信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据商品ID，获取其SKU信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>/api/app/GetProduct/{商品ID}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取单条商品信息（包含规格属性等多组信息）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品分类ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取某一商品分类下的商品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每页默认20条</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>购物车项ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>购物车里某一项的ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除购物车的某一项</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取某会员的购物车内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Post</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ItemType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ProductId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SKU</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Quantity</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 普通购物，2，赠品,3.套餐，4，团购，5 秒杀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SKU，商品唯一库存编码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>添加购物车</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/ShopCartAPI/Delete/{购物车项ID}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>生成手机短信验证码，目前暂时固定为2222</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>post</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>手机号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>手机验证码类型， 0,注册、1.登录、2.购物等</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pwd</t>
-  </si>
-  <si>
-    <t>昵称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>密码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>确认密码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>手机验证码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>会员注册</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>账户</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设备ID(这个看好不好获取)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>会员登录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取会员的所有地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取会员的默认地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除会员地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设置默认地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>维护地址信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Get</t>
-  </si>
-  <si>
-    <t>Post</t>
-  </si>
-  <si>
-    <t>地址ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地区ID(int)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>收件人姓名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>详细地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>联系电话</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>更新时要传递地址的id,新增时不用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取可用的支付方式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无参数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>api/Region/GetChildRegion/{父地址ID}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取根级地区，目前数据库里是【中国】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>根级父级地区获取下级地区</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>父地址ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>整数</t>
-  </si>
-  <si>
-    <t>整数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地址ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>根据地区ID,获取其上级地区集合，从根级一直到该地区的路径</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Get</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/ShopCartAPI/Post</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ResId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>团购/秒杀时对应的团购/秒杀ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tokenStr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Token值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/ShopCartAPI/Get/{tokenstr}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tokenstr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UserId（参数名不变）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>从cookie里统一获取</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>api/ShippingAddressAPI/Post</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RegionId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ShipName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Address</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CelPhone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RecordStatus</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>add 新增  update更新</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>api/userapi/Regist</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NiceName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TelPhone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ComfirmPwd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TelVaiCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>api/userapi/GetValiCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TelNo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TypeInfo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>api/userapi/Login</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Account</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pwd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DeviceID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>api/ShippingAddressAPI/Get</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>api/ShippingAddressAPI/GetDefault</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>api/ShippingAddressAPI/SetDefault/{地址ID}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新增</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RegionId=2&amp;ShipName=卢永列&amp;Address=济南市历下区&amp;CelPhone=13589111432&amp;RecordStatus=add</t>
-  </si>
-  <si>
-    <t>修改</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RegionId=3&amp;ShipName=卢永列1&amp;Address=济南市历下区1&amp;CelPhone=13589111434&amp;RecordStatus=update&amp;ID=eaf7f6a8-009e-4e2f-8dbf-e31089f90ede</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>api/ShopPayTypeApi/GetPayType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>api/Region/GetChildRegion</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>api/Region/GetRegionPath/{地址ID}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>api/ShippingAddressAPI/Delete/{地址ID}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/app/GetRegistAgreement</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取用户注册协议</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>排序（支持多列）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>例如（name desc,code desc,count desc….）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>页数(加上排序后，就变成必填了，)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/app/GetProductsByCategory/{商品分类ID}/{页数}/{排序字段}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>api/app/GetProductsByMutilStation/{位置类型}/{pagesize}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{位置类型}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{pagesize}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每个位置获取个数，默认是5个</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,1,2,3（可以用逗号隔开）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一次获取多个位置的商品列表数据</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -677,7 +693,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -704,13 +720,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -722,12 +732,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -735,12 +748,18 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1045,10 +1064,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G49"/>
+  <dimension ref="B1:G51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50:C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1063,39 +1082,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="22"/>
-      <c r="F1" s="24" t="s">
+      <c r="E1" s="19"/>
+      <c r="F1" s="21" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B2" s="23"/>
-      <c r="C2" s="24"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="21"/>
       <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="24"/>
+      <c r="F2" s="21"/>
       <c r="G2" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="2:7" ht="94.5" x14ac:dyDescent="0.15">
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="23" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -1104,31 +1123,31 @@
       <c r="E3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="26" t="s">
+      <c r="F3" s="24" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B4" s="18"/>
-      <c r="C4" s="25"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="23"/>
       <c r="D4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="25"/>
+      <c r="F4" s="23"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B5" s="18"/>
-      <c r="C5" s="25"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="23"/>
       <c r="D5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="25"/>
+      <c r="F5" s="23"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B6" s="7" t="s">
@@ -1191,545 +1210,571 @@
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B10" s="7" t="s">
-        <v>31</v>
+        <v>144</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F10" s="3" t="s">
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B11" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B11" s="15" t="s">
-        <v>134</v>
-      </c>
-      <c r="C11" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="2" t="s">
+      <c r="F11" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="F11" s="25" t="s">
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B12" s="14"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B12" s="16"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F12" s="25"/>
+      <c r="F12" s="23"/>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B13" s="17"/>
+      <c r="B13" s="15"/>
       <c r="C13" s="11"/>
       <c r="D13" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F13" s="11"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B14" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D14" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B15" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B16" s="17"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F16" s="14"/>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B17" s="17"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B15" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="D15" s="2" t="s">
+      <c r="E17" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F17" s="14"/>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B18" s="17"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E18" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F18" s="14"/>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B19" s="17"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E19" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F15" s="15" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B16" s="13"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="F16" s="16"/>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B17" s="13"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="F17" s="16"/>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B18" s="13"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F18" s="16"/>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B19" s="13"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="2" t="s">
+      <c r="F19" s="14"/>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B20" s="18"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="E20" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="F19" s="16"/>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B20" s="14"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="F20" s="17"/>
+      <c r="F20" s="15"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B21" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D21" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E21" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="F21" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>39</v>
-      </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B22" s="20" t="s">
+      <c r="B22" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C22" s="15" t="s">
+      <c r="E22" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="F22" s="13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B23" s="27"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="E23" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="F22" s="15" t="s">
+      <c r="F23" s="15"/>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B24" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="C24" s="25" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B23" s="21"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="2" t="s">
+      <c r="D24" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F24" s="25" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B25" s="22"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F25" s="25"/>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B26" s="22"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F26" s="25"/>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B27" s="22"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F27" s="25"/>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B28" s="22"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F28" s="25"/>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B29" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="E23" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="F23" s="17"/>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B24" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="C24" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E24" s="3" t="s">
+      <c r="C29" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F29" s="25" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B30" s="22"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E30" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="F24" s="19" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B25" s="18"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="F25" s="19"/>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B26" s="18"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="F26" s="19"/>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B27" s="18"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="F27" s="19"/>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B28" s="18"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="F28" s="19"/>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B29" s="18" t="s">
-        <v>113</v>
-      </c>
-      <c r="C29" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E29" s="3" t="s">
+      <c r="F30" s="25"/>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B31" s="22"/>
+      <c r="C31" s="25"/>
+      <c r="D31" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E31" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="F29" s="19" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B30" s="18"/>
-      <c r="C30" s="19"/>
-      <c r="D30" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="F30" s="19"/>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B31" s="18"/>
-      <c r="C31" s="19"/>
-      <c r="D31" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="F31" s="19"/>
+      <c r="F31" s="25"/>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B32" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B33" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B34" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B35" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D35" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B36" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E36" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="F35" s="3" t="s">
+      <c r="F36" s="13" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B36" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="C36" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="D36" s="2" t="s">
+      <c r="G36" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B37" s="17"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="E36" s="3" t="s">
+      <c r="E37" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="F36" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="G36" s="2" t="s">
+      <c r="F37" s="14"/>
+      <c r="G37" s="2" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B37" s="13"/>
-      <c r="C37" s="16"/>
-      <c r="D37" s="2" t="s">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B38" s="17"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="E37" s="3" t="s">
+      <c r="E38" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="F37" s="16"/>
-      <c r="G37" s="2" t="s">
+      <c r="F38" s="14"/>
+      <c r="G38" s="2" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B38" s="13"/>
-      <c r="C38" s="16"/>
-      <c r="D38" s="2" t="s">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B39" s="17"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="E38" s="3" t="s">
+      <c r="E39" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="F38" s="16"/>
-      <c r="G38" s="2" t="s">
+      <c r="F39" s="14"/>
+      <c r="G39" s="2" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B39" s="13"/>
-      <c r="C39" s="16"/>
-      <c r="D39" s="2" t="s">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B40" s="17"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="E39" s="3" t="s">
+      <c r="E40" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F40" s="14"/>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B41" s="17"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E41" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="F39" s="16"/>
-      <c r="G39" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B40" s="13"/>
-      <c r="C40" s="16"/>
-      <c r="D40" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="F40" s="16"/>
-    </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B41" s="13"/>
-      <c r="C41" s="16"/>
-      <c r="D41" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="F41" s="16"/>
+      <c r="F41" s="14"/>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B42" s="14"/>
-      <c r="C42" s="17"/>
-      <c r="F42" s="17"/>
+      <c r="B42" s="18"/>
+      <c r="C42" s="15"/>
+      <c r="F42" s="15"/>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B43" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B44" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E44" s="10"/>
       <c r="F44" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B45" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B46" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D46" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E46" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="F46" s="3" t="s">
         <v>85</v>
-      </c>
-      <c r="E46" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B47" s="7" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B48" s="15" t="s">
+      <c r="B48" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="C48" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="F48" s="13" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B49" s="15"/>
+      <c r="D49" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E49" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="C48" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="F48" s="15" t="s">
+      <c r="F49" s="15"/>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B50" s="7" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B49" s="17"/>
-      <c r="D49" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="F49" s="17"/>
+      <c r="C50" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B51" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="C51" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F51" s="12" t="s">
+        <v>143</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="F48:F49"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="F36:F42"/>
-    <mergeCell ref="C36:C42"/>
-    <mergeCell ref="B36:B42"/>
+    <mergeCell ref="F24:F28"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="F22:F23"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="F1:F2"/>
@@ -1737,6 +1782,12 @@
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="C3:C5"/>
     <mergeCell ref="F3:F5"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="F48:F49"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="F36:F42"/>
+    <mergeCell ref="C36:C42"/>
+    <mergeCell ref="B36:B42"/>
     <mergeCell ref="F29:F31"/>
     <mergeCell ref="B29:B31"/>
     <mergeCell ref="C29:C31"/>
@@ -1747,10 +1798,6 @@
     <mergeCell ref="F15:F20"/>
     <mergeCell ref="B24:B28"/>
     <mergeCell ref="C24:C28"/>
-    <mergeCell ref="F24:F28"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="F22:F23"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/文档/接口.xlsx
+++ b/文档/接口.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="150">
   <si>
     <t>调用方式</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -592,6 +592,25 @@
   </si>
   <si>
     <t>/api/app/GetProduct/{商品ID}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/ShopCartAPI/CardInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPXX</t>
+  </si>
+  <si>
+    <t>格式 商品1ID,;商品2ID,商品2SKUID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取购物车里的商品信息</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -693,7 +712,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -723,23 +742,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -755,11 +768,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1064,17 +1084,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G51"/>
+  <dimension ref="B1:G52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50:C51"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="2" width="64.75" style="7" customWidth="1"/>
-    <col min="3" max="3" width="21.375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="9" style="3" customWidth="1"/>
     <col min="4" max="4" width="24.125" style="2" customWidth="1"/>
     <col min="5" max="5" width="31.875" style="3" customWidth="1"/>
     <col min="6" max="6" width="28" style="3" customWidth="1"/>
@@ -1223,7 +1243,7 @@
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="17" t="s">
         <v>132</v>
       </c>
       <c r="C11" s="23" t="s">
@@ -1237,7 +1257,7 @@
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B12" s="14"/>
+      <c r="B12" s="25"/>
       <c r="C12" s="23"/>
       <c r="D12" s="2" t="s">
         <v>131</v>
@@ -1248,7 +1268,7 @@
       <c r="F12" s="23"/>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B13" s="15"/>
+      <c r="B13" s="18"/>
       <c r="C13" s="11"/>
       <c r="D13" s="2" t="s">
         <v>129</v>
@@ -1276,10 +1296,10 @@
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="26" t="s">
         <v>87</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="17" t="s">
         <v>40</v>
       </c>
       <c r="D15" s="2" t="s">
@@ -1288,64 +1308,64 @@
       <c r="E15" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="F15" s="13" t="s">
+      <c r="F15" s="17" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B16" s="17"/>
-      <c r="C16" s="14"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="25"/>
       <c r="D16" s="2" t="s">
         <v>88</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="F16" s="14"/>
+      <c r="F16" s="25"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B17" s="17"/>
-      <c r="C17" s="14"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="25"/>
       <c r="D17" s="2" t="s">
         <v>94</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="F17" s="14"/>
+      <c r="F17" s="25"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B18" s="17"/>
-      <c r="C18" s="14"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="25"/>
       <c r="D18" s="2" t="s">
         <v>42</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F18" s="14"/>
+      <c r="F18" s="25"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B19" s="17"/>
-      <c r="C19" s="14"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="25"/>
       <c r="D19" s="2" t="s">
         <v>43</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F19" s="14"/>
+      <c r="F19" s="25"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B20" s="18"/>
-      <c r="C20" s="15"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="18"/>
       <c r="D20" s="2" t="s">
         <v>44</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="F20" s="15"/>
+      <c r="F20" s="18"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B21" s="7" t="s">
@@ -1365,10 +1385,10 @@
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B22" s="26" t="s">
+      <c r="B22" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="C22" s="13" t="s">
+      <c r="C22" s="17" t="s">
         <v>51</v>
       </c>
       <c r="D22" s="2" t="s">
@@ -1377,26 +1397,26 @@
       <c r="E22" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="F22" s="13" t="s">
+      <c r="F22" s="17" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B23" s="27"/>
-      <c r="C23" s="15"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="18"/>
       <c r="D23" s="2" t="s">
         <v>111</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="F23" s="15"/>
+      <c r="F23" s="18"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B24" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="C24" s="25" t="s">
+      <c r="C24" s="14" t="s">
         <v>51</v>
       </c>
       <c r="D24" s="2" t="s">
@@ -1405,59 +1425,59 @@
       <c r="E24" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="F24" s="25" t="s">
+      <c r="F24" s="14" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B25" s="22"/>
-      <c r="C25" s="25"/>
+      <c r="C25" s="14"/>
       <c r="D25" s="2" t="s">
         <v>106</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="F25" s="25"/>
+      <c r="F25" s="14"/>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B26" s="22"/>
-      <c r="C26" s="25"/>
+      <c r="C26" s="14"/>
       <c r="D26" s="2" t="s">
         <v>54</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="F26" s="25"/>
+      <c r="F26" s="14"/>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B27" s="22"/>
-      <c r="C27" s="25"/>
+      <c r="C27" s="14"/>
       <c r="D27" s="2" t="s">
         <v>107</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="F27" s="25"/>
+      <c r="F27" s="14"/>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B28" s="22"/>
-      <c r="C28" s="25"/>
+      <c r="C28" s="14"/>
       <c r="D28" s="2" t="s">
         <v>108</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="F28" s="25"/>
+      <c r="F28" s="14"/>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B29" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="C29" s="25" t="s">
+      <c r="C29" s="14" t="s">
         <v>51</v>
       </c>
       <c r="D29" s="2" t="s">
@@ -1466,31 +1486,31 @@
       <c r="E29" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="F29" s="25" t="s">
+      <c r="F29" s="14" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B30" s="22"/>
-      <c r="C30" s="25"/>
+      <c r="C30" s="14"/>
       <c r="D30" s="2" t="s">
         <v>114</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="F30" s="25"/>
+      <c r="F30" s="14"/>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B31" s="22"/>
-      <c r="C31" s="25"/>
+      <c r="C31" s="14"/>
       <c r="D31" s="2" t="s">
         <v>115</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="F31" s="25"/>
+      <c r="F31" s="14"/>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B32" s="7" t="s">
@@ -1555,10 +1575,10 @@
       </c>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B36" s="16" t="s">
+      <c r="B36" s="26" t="s">
         <v>96</v>
       </c>
-      <c r="C36" s="13" t="s">
+      <c r="C36" s="17" t="s">
         <v>69</v>
       </c>
       <c r="D36" s="2" t="s">
@@ -1567,7 +1587,7 @@
       <c r="E36" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="F36" s="13" t="s">
+      <c r="F36" s="17" t="s">
         <v>67</v>
       </c>
       <c r="G36" s="2" t="s">
@@ -1575,73 +1595,73 @@
       </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B37" s="17"/>
-      <c r="C37" s="14"/>
+      <c r="B37" s="27"/>
+      <c r="C37" s="25"/>
       <c r="D37" s="2" t="s">
         <v>98</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="F37" s="14"/>
+      <c r="F37" s="25"/>
       <c r="G37" s="2" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B38" s="17"/>
-      <c r="C38" s="14"/>
+      <c r="B38" s="27"/>
+      <c r="C38" s="25"/>
       <c r="D38" s="2" t="s">
         <v>99</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="F38" s="14"/>
+      <c r="F38" s="25"/>
       <c r="G38" s="2" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B39" s="17"/>
-      <c r="C39" s="14"/>
+      <c r="B39" s="27"/>
+      <c r="C39" s="25"/>
       <c r="D39" s="2" t="s">
         <v>100</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="F39" s="14"/>
+      <c r="F39" s="25"/>
       <c r="G39" s="2" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B40" s="17"/>
-      <c r="C40" s="14"/>
+      <c r="B40" s="27"/>
+      <c r="C40" s="25"/>
       <c r="D40" s="2" t="s">
         <v>101</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="F40" s="14"/>
+      <c r="F40" s="25"/>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B41" s="17"/>
-      <c r="C41" s="14"/>
+      <c r="B41" s="27"/>
+      <c r="C41" s="25"/>
       <c r="D41" s="2" t="s">
         <v>103</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="F41" s="14"/>
+      <c r="F41" s="25"/>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B42" s="18"/>
-      <c r="C42" s="15"/>
-      <c r="F42" s="15"/>
+      <c r="B42" s="28"/>
+      <c r="C42" s="18"/>
+      <c r="F42" s="18"/>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B43" s="7" t="s">
@@ -1715,7 +1735,7 @@
       </c>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B48" s="13" t="s">
+      <c r="B48" s="17" t="s">
         <v>138</v>
       </c>
       <c r="C48" s="11" t="s">
@@ -1727,19 +1747,19 @@
       <c r="E48" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="F48" s="13" t="s">
+      <c r="F48" s="17" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B49" s="15"/>
+      <c r="B49" s="18"/>
       <c r="D49" s="2" t="s">
         <v>134</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="F49" s="15"/>
+      <c r="F49" s="18"/>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B50" s="7" t="s">
@@ -1769,8 +1789,40 @@
         <v>143</v>
       </c>
     </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B52" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="F29:F31"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="B15:B20"/>
+    <mergeCell ref="C15:C20"/>
+    <mergeCell ref="F15:F20"/>
+    <mergeCell ref="B24:B28"/>
+    <mergeCell ref="C24:C28"/>
+    <mergeCell ref="F48:F49"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="F36:F42"/>
+    <mergeCell ref="C36:C42"/>
+    <mergeCell ref="B36:B42"/>
     <mergeCell ref="F24:F28"/>
     <mergeCell ref="B22:B23"/>
     <mergeCell ref="C22:C23"/>
@@ -1783,21 +1835,6 @@
     <mergeCell ref="C3:C5"/>
     <mergeCell ref="F3:F5"/>
     <mergeCell ref="B11:B13"/>
-    <mergeCell ref="F48:F49"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="F36:F42"/>
-    <mergeCell ref="C36:C42"/>
-    <mergeCell ref="B36:B42"/>
-    <mergeCell ref="F29:F31"/>
-    <mergeCell ref="B29:B31"/>
-    <mergeCell ref="C29:C31"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="B15:B20"/>
-    <mergeCell ref="C15:C20"/>
-    <mergeCell ref="F15:F20"/>
-    <mergeCell ref="B24:B28"/>
-    <mergeCell ref="C24:C28"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/文档/接口.xlsx
+++ b/文档/接口.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="153">
   <si>
     <t>调用方式</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -543,74 +543,86 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>{位置类型}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{pagesize}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每个位置获取个数，默认是5个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,1,2,3（可以用逗号隔开）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一次获取多个位置的商品列表数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/app/GetProductsByMutilStation/{位置类型}/{pagesize}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/app/GetRegistAgreement</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/app/GetGg/{商品ID}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/app/GetSku/{商品ID}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据商品ID，获取其规格信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据商品ID，获取其SKU信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/app/GetProduct/{商品ID}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/ShopCartAPI/CardInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPXX</t>
+  </si>
+  <si>
+    <t>格式 商品1ID,;商品2ID,商品2SKUID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取购物车里的商品信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品信息搜索</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>/api/app/GetProductsByCategory/{商品分类ID}/{页数}/{排序字段}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{位置类型}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{pagesize}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每个位置获取个数，默认是5个</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,1,2,3（可以用逗号隔开）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一次获取多个位置的商品列表数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>api/app/GetProductsByMutilStation/{位置类型}/{pagesize}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/app/GetRegistAgreement</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/app/GetGg/{商品ID}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/app/GetSku/{商品ID}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>根据商品ID，获取其规格信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>根据商品ID，获取其SKU信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/app/GetProduct/{商品ID}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/ShopCartAPI/CardInfo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>POST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SPXX</t>
-  </si>
-  <si>
-    <t>格式 商品1ID,;商品2ID,商品2SKUID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取购物车里的商品信息</t>
+    <t xml:space="preserve"> 返回结果结构同（/api/app/GetProductsByCategory/{商品分类ID}/{页数}/{排序字段}）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/ShopProductApi/Search/{搜索关键字}/页数（默认是第一页）/{排序字段}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -712,7 +724,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -743,17 +755,37 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -761,24 +793,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1084,10 +1100,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G52"/>
+  <dimension ref="B1:G53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1102,39 +1118,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="19"/>
-      <c r="F1" s="21" t="s">
+      <c r="E1" s="27"/>
+      <c r="F1" s="29" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B2" s="20"/>
-      <c r="C2" s="21"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="29"/>
       <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="21"/>
+      <c r="F2" s="29"/>
       <c r="G2" s="2" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="3" spans="2:7" ht="94.5" x14ac:dyDescent="0.15">
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="18" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -1143,31 +1159,31 @@
       <c r="E3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="24" t="s">
+      <c r="F3" s="30" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B4" s="22"/>
-      <c r="C4" s="23"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="18"/>
       <c r="D4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="23"/>
+      <c r="F4" s="18"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B5" s="22"/>
-      <c r="C5" s="23"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="18"/>
       <c r="D5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="23"/>
+      <c r="F5" s="18"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B6" s="7" t="s">
@@ -1230,7 +1246,7 @@
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B10" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>19</v>
@@ -1243,32 +1259,32 @@
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B11" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="C11" s="23" t="s">
+      <c r="B11" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="C11" s="18" t="s">
         <v>18</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F11" s="23" t="s">
+      <c r="F11" s="18" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B12" s="25"/>
-      <c r="C12" s="23"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="18"/>
       <c r="D12" s="2" t="s">
         <v>131</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F12" s="23"/>
+      <c r="F12" s="18"/>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B13" s="18"/>
+      <c r="B13" s="24"/>
       <c r="C13" s="11"/>
       <c r="D13" s="2" t="s">
         <v>129</v>
@@ -1296,10 +1312,10 @@
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B15" s="26" t="s">
+      <c r="B15" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="C15" s="17" t="s">
+      <c r="C15" s="22" t="s">
         <v>40</v>
       </c>
       <c r="D15" s="2" t="s">
@@ -1308,64 +1324,64 @@
       <c r="E15" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="F15" s="17" t="s">
+      <c r="F15" s="22" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B16" s="27"/>
-      <c r="C16" s="25"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="23"/>
       <c r="D16" s="2" t="s">
         <v>88</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="F16" s="25"/>
+      <c r="F16" s="23"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B17" s="27"/>
-      <c r="C17" s="25"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="23"/>
       <c r="D17" s="2" t="s">
         <v>94</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="F17" s="25"/>
+      <c r="F17" s="23"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B18" s="27"/>
-      <c r="C18" s="25"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="23"/>
       <c r="D18" s="2" t="s">
         <v>42</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F18" s="25"/>
+      <c r="F18" s="23"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B19" s="27"/>
-      <c r="C19" s="25"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="23"/>
       <c r="D19" s="2" t="s">
         <v>43</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F19" s="25"/>
+      <c r="F19" s="23"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B20" s="28"/>
-      <c r="C20" s="18"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="24"/>
       <c r="D20" s="2" t="s">
         <v>44</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="F20" s="18"/>
+      <c r="F20" s="24"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B21" s="7" t="s">
@@ -1385,10 +1401,10 @@
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B22" s="15" t="s">
+      <c r="B22" s="25" t="s">
         <v>109</v>
       </c>
-      <c r="C22" s="17" t="s">
+      <c r="C22" s="22" t="s">
         <v>51</v>
       </c>
       <c r="D22" s="2" t="s">
@@ -1397,26 +1413,26 @@
       <c r="E22" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="F22" s="17" t="s">
+      <c r="F22" s="22" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B23" s="16"/>
-      <c r="C23" s="18"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="24"/>
       <c r="D23" s="2" t="s">
         <v>111</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="F23" s="18"/>
+      <c r="F23" s="24"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B24" s="22" t="s">
+      <c r="B24" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="C24" s="14" t="s">
+      <c r="C24" s="16" t="s">
         <v>51</v>
       </c>
       <c r="D24" s="2" t="s">
@@ -1425,59 +1441,59 @@
       <c r="E24" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="F24" s="14" t="s">
+      <c r="F24" s="16" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B25" s="22"/>
-      <c r="C25" s="14"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="16"/>
       <c r="D25" s="2" t="s">
         <v>106</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="F25" s="14"/>
+      <c r="F25" s="16"/>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B26" s="22"/>
-      <c r="C26" s="14"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="16"/>
       <c r="D26" s="2" t="s">
         <v>54</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="F26" s="14"/>
+      <c r="F26" s="16"/>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B27" s="22"/>
-      <c r="C27" s="14"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="16"/>
       <c r="D27" s="2" t="s">
         <v>107</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="F27" s="14"/>
+      <c r="F27" s="16"/>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B28" s="22"/>
-      <c r="C28" s="14"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="16"/>
       <c r="D28" s="2" t="s">
         <v>108</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="F28" s="14"/>
+      <c r="F28" s="16"/>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B29" s="22" t="s">
+      <c r="B29" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="C29" s="14" t="s">
+      <c r="C29" s="16" t="s">
         <v>51</v>
       </c>
       <c r="D29" s="2" t="s">
@@ -1486,31 +1502,31 @@
       <c r="E29" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="F29" s="14" t="s">
+      <c r="F29" s="16" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B30" s="22"/>
-      <c r="C30" s="14"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="16"/>
       <c r="D30" s="2" t="s">
         <v>114</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="F30" s="14"/>
+      <c r="F30" s="16"/>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B31" s="22"/>
-      <c r="C31" s="14"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="16"/>
       <c r="D31" s="2" t="s">
         <v>115</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="F31" s="14"/>
+      <c r="F31" s="16"/>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B32" s="7" t="s">
@@ -1575,10 +1591,10 @@
       </c>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B36" s="26" t="s">
+      <c r="B36" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="C36" s="17" t="s">
+      <c r="C36" s="22" t="s">
         <v>69</v>
       </c>
       <c r="D36" s="2" t="s">
@@ -1587,7 +1603,7 @@
       <c r="E36" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="F36" s="17" t="s">
+      <c r="F36" s="22" t="s">
         <v>67</v>
       </c>
       <c r="G36" s="2" t="s">
@@ -1595,73 +1611,73 @@
       </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B37" s="27"/>
-      <c r="C37" s="25"/>
+      <c r="B37" s="20"/>
+      <c r="C37" s="23"/>
       <c r="D37" s="2" t="s">
         <v>98</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="F37" s="25"/>
+      <c r="F37" s="23"/>
       <c r="G37" s="2" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B38" s="27"/>
-      <c r="C38" s="25"/>
+      <c r="B38" s="20"/>
+      <c r="C38" s="23"/>
       <c r="D38" s="2" t="s">
         <v>99</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="F38" s="25"/>
+      <c r="F38" s="23"/>
       <c r="G38" s="2" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B39" s="27"/>
-      <c r="C39" s="25"/>
+      <c r="B39" s="20"/>
+      <c r="C39" s="23"/>
       <c r="D39" s="2" t="s">
         <v>100</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="F39" s="25"/>
+      <c r="F39" s="23"/>
       <c r="G39" s="2" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B40" s="27"/>
-      <c r="C40" s="25"/>
+      <c r="B40" s="20"/>
+      <c r="C40" s="23"/>
       <c r="D40" s="2" t="s">
         <v>101</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="F40" s="25"/>
+      <c r="F40" s="23"/>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B41" s="27"/>
-      <c r="C41" s="25"/>
+      <c r="B41" s="20"/>
+      <c r="C41" s="23"/>
       <c r="D41" s="2" t="s">
         <v>103</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="F41" s="25"/>
+      <c r="F41" s="23"/>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B42" s="28"/>
-      <c r="C42" s="18"/>
-      <c r="F42" s="18"/>
+      <c r="B42" s="21"/>
+      <c r="C42" s="24"/>
+      <c r="F42" s="24"/>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B43" s="7" t="s">
@@ -1725,7 +1741,7 @@
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B47" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C47" s="11" t="s">
         <v>68</v>
@@ -1735,35 +1751,35 @@
       </c>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B48" s="17" t="s">
-        <v>138</v>
+      <c r="B48" s="22" t="s">
+        <v>137</v>
       </c>
       <c r="C48" s="11" t="s">
         <v>68</v>
       </c>
       <c r="D48" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="F48" s="22" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B49" s="24"/>
+      <c r="D49" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="E48" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="F48" s="17" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B49" s="18"/>
-      <c r="D49" s="2" t="s">
+      <c r="E49" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="E49" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="F49" s="18"/>
+      <c r="F49" s="24"/>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B50" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C50" s="12" t="s">
         <v>68</v>
@@ -1772,12 +1788,12 @@
         <v>31</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B51" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C51" s="12" t="s">
         <v>68</v>
@@ -1786,28 +1802,54 @@
         <v>31</v>
       </c>
       <c r="F51" s="12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B52" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="C52" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="C52" s="3" t="s">
+      <c r="D52" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="D52" s="2" t="s">
+      <c r="E52" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="E52" s="3" t="s">
+      <c r="F52" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="F52" s="3" t="s">
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B53" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="C53" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="F53" s="3" t="s">
         <v>149</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="F3:F5"/>
+    <mergeCell ref="F48:F49"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="F36:F42"/>
+    <mergeCell ref="C36:C42"/>
+    <mergeCell ref="B36:B42"/>
     <mergeCell ref="F29:F31"/>
     <mergeCell ref="B29:B31"/>
     <mergeCell ref="C29:C31"/>
@@ -1818,22 +1860,10 @@
     <mergeCell ref="F15:F20"/>
     <mergeCell ref="B24:B28"/>
     <mergeCell ref="C24:C28"/>
-    <mergeCell ref="F48:F49"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="F36:F42"/>
-    <mergeCell ref="C36:C42"/>
-    <mergeCell ref="B36:B42"/>
     <mergeCell ref="F24:F28"/>
     <mergeCell ref="B22:B23"/>
     <mergeCell ref="C22:C23"/>
     <mergeCell ref="F22:F23"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="F3:F5"/>
     <mergeCell ref="B11:B13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/文档/接口.xlsx
+++ b/文档/接口.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="160">
   <si>
     <t>调用方式</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -623,6 +623,34 @@
   </si>
   <si>
     <t>/api/ShopProductApi/Search/{搜索关键字}/页数（默认是第一页）/{排序字段}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/app/GetProductsByCategoryStation/{商品分类ID}/{pageindex}/{pagesize}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取分类首页推荐商品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认显示5条</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pageindex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{商品分类ID}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>页数（一般第一页随便，从第二页开始按照2开始正式算数）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品分类ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -724,7 +752,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -760,12 +788,31 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -775,27 +822,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1100,10 +1131,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G53"/>
+  <dimension ref="B1:G57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+    <sheetView tabSelected="1" topLeftCell="B40" workbookViewId="0">
+      <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1118,39 +1149,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="27"/>
-      <c r="F1" s="29" t="s">
+      <c r="E1" s="17"/>
+      <c r="F1" s="19" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B2" s="28"/>
-      <c r="C2" s="29"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="19"/>
       <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="29"/>
+      <c r="F2" s="19"/>
       <c r="G2" s="2" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="3" spans="2:7" ht="94.5" x14ac:dyDescent="0.15">
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="21" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -1159,31 +1190,31 @@
       <c r="E3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="30" t="s">
+      <c r="F3" s="22" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B4" s="17"/>
-      <c r="C4" s="18"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="21"/>
       <c r="D4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="18"/>
+      <c r="F4" s="21"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B5" s="17"/>
-      <c r="C5" s="18"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="21"/>
       <c r="D5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="18"/>
+      <c r="F5" s="21"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B6" s="7" t="s">
@@ -1259,29 +1290,29 @@
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="23" t="s">
         <v>150</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="21" t="s">
         <v>18</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F11" s="18" t="s">
+      <c r="F11" s="21" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B12" s="23"/>
-      <c r="C12" s="18"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="21"/>
       <c r="D12" s="2" t="s">
         <v>131</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F12" s="18"/>
+      <c r="F12" s="21"/>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B13" s="24"/>
@@ -1312,10 +1343,10 @@
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B15" s="19" t="s">
+      <c r="B15" s="26" t="s">
         <v>87</v>
       </c>
-      <c r="C15" s="22" t="s">
+      <c r="C15" s="23" t="s">
         <v>40</v>
       </c>
       <c r="D15" s="2" t="s">
@@ -1324,56 +1355,56 @@
       <c r="E15" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="F15" s="22" t="s">
+      <c r="F15" s="23" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B16" s="20"/>
-      <c r="C16" s="23"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="25"/>
       <c r="D16" s="2" t="s">
         <v>88</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="F16" s="23"/>
+      <c r="F16" s="25"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B17" s="20"/>
-      <c r="C17" s="23"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="25"/>
       <c r="D17" s="2" t="s">
         <v>94</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="F17" s="23"/>
+      <c r="F17" s="25"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B18" s="20"/>
-      <c r="C18" s="23"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="25"/>
       <c r="D18" s="2" t="s">
         <v>42</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F18" s="23"/>
+      <c r="F18" s="25"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B19" s="20"/>
-      <c r="C19" s="23"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="25"/>
       <c r="D19" s="2" t="s">
         <v>43</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F19" s="23"/>
+      <c r="F19" s="25"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B20" s="21"/>
+      <c r="B20" s="28"/>
       <c r="C20" s="24"/>
       <c r="D20" s="2" t="s">
         <v>44</v>
@@ -1401,10 +1432,10 @@
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B22" s="25" t="s">
+      <c r="B22" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="C22" s="22" t="s">
+      <c r="C22" s="23" t="s">
         <v>51</v>
       </c>
       <c r="D22" s="2" t="s">
@@ -1413,12 +1444,12 @@
       <c r="E22" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="F22" s="22" t="s">
+      <c r="F22" s="23" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B23" s="26"/>
+      <c r="B23" s="31"/>
       <c r="C23" s="24"/>
       <c r="D23" s="2" t="s">
         <v>111</v>
@@ -1429,10 +1460,10 @@
       <c r="F23" s="24"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B24" s="17" t="s">
+      <c r="B24" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="C24" s="16" t="s">
+      <c r="C24" s="29" t="s">
         <v>51</v>
       </c>
       <c r="D24" s="2" t="s">
@@ -1441,59 +1472,59 @@
       <c r="E24" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="F24" s="16" t="s">
+      <c r="F24" s="29" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B25" s="17"/>
-      <c r="C25" s="16"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="29"/>
       <c r="D25" s="2" t="s">
         <v>106</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="F25" s="16"/>
+      <c r="F25" s="29"/>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B26" s="17"/>
-      <c r="C26" s="16"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="29"/>
       <c r="D26" s="2" t="s">
         <v>54</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="F26" s="16"/>
+      <c r="F26" s="29"/>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B27" s="17"/>
-      <c r="C27" s="16"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="29"/>
       <c r="D27" s="2" t="s">
         <v>107</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="F27" s="16"/>
+      <c r="F27" s="29"/>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B28" s="17"/>
-      <c r="C28" s="16"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="29"/>
       <c r="D28" s="2" t="s">
         <v>108</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="F28" s="16"/>
+      <c r="F28" s="29"/>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B29" s="17" t="s">
+      <c r="B29" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="C29" s="16" t="s">
+      <c r="C29" s="29" t="s">
         <v>51</v>
       </c>
       <c r="D29" s="2" t="s">
@@ -1502,31 +1533,31 @@
       <c r="E29" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="F29" s="16" t="s">
+      <c r="F29" s="29" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B30" s="17"/>
-      <c r="C30" s="16"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="29"/>
       <c r="D30" s="2" t="s">
         <v>114</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="F30" s="16"/>
+      <c r="F30" s="29"/>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B31" s="17"/>
-      <c r="C31" s="16"/>
+      <c r="B31" s="20"/>
+      <c r="C31" s="29"/>
       <c r="D31" s="2" t="s">
         <v>115</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="F31" s="16"/>
+      <c r="F31" s="29"/>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B32" s="7" t="s">
@@ -1591,10 +1622,10 @@
       </c>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B36" s="19" t="s">
+      <c r="B36" s="26" t="s">
         <v>96</v>
       </c>
-      <c r="C36" s="22" t="s">
+      <c r="C36" s="23" t="s">
         <v>69</v>
       </c>
       <c r="D36" s="2" t="s">
@@ -1603,7 +1634,7 @@
       <c r="E36" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="F36" s="22" t="s">
+      <c r="F36" s="23" t="s">
         <v>67</v>
       </c>
       <c r="G36" s="2" t="s">
@@ -1611,71 +1642,71 @@
       </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B37" s="20"/>
-      <c r="C37" s="23"/>
+      <c r="B37" s="27"/>
+      <c r="C37" s="25"/>
       <c r="D37" s="2" t="s">
         <v>98</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="F37" s="23"/>
+      <c r="F37" s="25"/>
       <c r="G37" s="2" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B38" s="20"/>
-      <c r="C38" s="23"/>
+      <c r="B38" s="27"/>
+      <c r="C38" s="25"/>
       <c r="D38" s="2" t="s">
         <v>99</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="F38" s="23"/>
+      <c r="F38" s="25"/>
       <c r="G38" s="2" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B39" s="20"/>
-      <c r="C39" s="23"/>
+      <c r="B39" s="27"/>
+      <c r="C39" s="25"/>
       <c r="D39" s="2" t="s">
         <v>100</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="F39" s="23"/>
+      <c r="F39" s="25"/>
       <c r="G39" s="2" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B40" s="20"/>
-      <c r="C40" s="23"/>
+      <c r="B40" s="27"/>
+      <c r="C40" s="25"/>
       <c r="D40" s="2" t="s">
         <v>101</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="F40" s="23"/>
+      <c r="F40" s="25"/>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B41" s="20"/>
-      <c r="C41" s="23"/>
+      <c r="B41" s="27"/>
+      <c r="C41" s="25"/>
       <c r="D41" s="2" t="s">
         <v>103</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="F41" s="23"/>
+      <c r="F41" s="25"/>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B42" s="21"/>
+      <c r="B42" s="28"/>
       <c r="C42" s="24"/>
       <c r="F42" s="24"/>
     </row>
@@ -1751,7 +1782,7 @@
       </c>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B48" s="22" t="s">
+      <c r="B48" s="23" t="s">
         <v>137</v>
       </c>
       <c r="C48" s="11" t="s">
@@ -1763,7 +1794,7 @@
       <c r="E48" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="F48" s="22" t="s">
+      <c r="F48" s="23" t="s">
         <v>136</v>
       </c>
     </row>
@@ -1836,20 +1867,48 @@
         <v>149</v>
       </c>
     </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B54" s="23" t="s">
+        <v>153</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E54" s="16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B55" s="24"/>
+      <c r="D55" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="D56" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="D57" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="27">
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="F3:F5"/>
-    <mergeCell ref="F48:F49"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="F36:F42"/>
-    <mergeCell ref="C36:C42"/>
-    <mergeCell ref="B36:B42"/>
+  <mergeCells count="28">
+    <mergeCell ref="B54:B55"/>
     <mergeCell ref="F29:F31"/>
     <mergeCell ref="B29:B31"/>
     <mergeCell ref="C29:C31"/>
@@ -1865,6 +1924,18 @@
     <mergeCell ref="C22:C23"/>
     <mergeCell ref="F22:F23"/>
     <mergeCell ref="B11:B13"/>
+    <mergeCell ref="F48:F49"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="F36:F42"/>
+    <mergeCell ref="C36:C42"/>
+    <mergeCell ref="B36:B42"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="F3:F5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/文档/接口.xlsx
+++ b/文档/接口.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="164">
   <si>
     <t>调用方式</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -626,31 +626,47 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>获取分类首页推荐商品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认显示5条</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pageindex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{商品分类ID}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>页数（一般第一页随便，从第二页开始按照2开始正式算数）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品分类ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>api/app/GetProductsByCategoryStation/{商品分类ID}/{pageindex}/{pagesize}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>获取分类首页推荐商品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>默认显示5条</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pageindex</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{商品分类ID}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>页数（一般第一页随便，从第二页开始按照2开始正式算数）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品分类ID</t>
+    <t>api/app/ShopOrderApi/CreateOrder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>post</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建订单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参照ShopOrderModel模型，在entity解决方案，后续再描述</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -790,6 +806,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -797,36 +840,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1131,10 +1147,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G57"/>
+  <dimension ref="B1:G58"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B40" workbookViewId="0">
-      <selection activeCell="B56" sqref="B56"/>
+      <selection activeCell="D58" sqref="D58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1149,30 +1165,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="17"/>
-      <c r="F1" s="19" t="s">
+      <c r="E1" s="28"/>
+      <c r="F1" s="30" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B2" s="18"/>
-      <c r="C2" s="19"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="30"/>
       <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="19"/>
+      <c r="F2" s="30"/>
       <c r="G2" s="2" t="s">
         <v>119</v>
       </c>
@@ -1190,7 +1206,7 @@
       <c r="E3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="22" t="s">
+      <c r="F3" s="31" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1290,7 +1306,7 @@
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="17" t="s">
         <v>150</v>
       </c>
       <c r="C11" s="21" t="s">
@@ -1315,7 +1331,7 @@
       <c r="F12" s="21"/>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B13" s="24"/>
+      <c r="B13" s="18"/>
       <c r="C13" s="11"/>
       <c r="D13" s="2" t="s">
         <v>129</v>
@@ -1343,10 +1359,10 @@
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B15" s="26" t="s">
+      <c r="B15" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="C15" s="23" t="s">
+      <c r="C15" s="17" t="s">
         <v>40</v>
       </c>
       <c r="D15" s="2" t="s">
@@ -1355,12 +1371,12 @@
       <c r="E15" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="F15" s="23" t="s">
+      <c r="F15" s="17" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B16" s="27"/>
+      <c r="B16" s="23"/>
       <c r="C16" s="25"/>
       <c r="D16" s="2" t="s">
         <v>88</v>
@@ -1371,7 +1387,7 @@
       <c r="F16" s="25"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B17" s="27"/>
+      <c r="B17" s="23"/>
       <c r="C17" s="25"/>
       <c r="D17" s="2" t="s">
         <v>94</v>
@@ -1382,7 +1398,7 @@
       <c r="F17" s="25"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B18" s="27"/>
+      <c r="B18" s="23"/>
       <c r="C18" s="25"/>
       <c r="D18" s="2" t="s">
         <v>42</v>
@@ -1393,7 +1409,7 @@
       <c r="F18" s="25"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B19" s="27"/>
+      <c r="B19" s="23"/>
       <c r="C19" s="25"/>
       <c r="D19" s="2" t="s">
         <v>43</v>
@@ -1404,15 +1420,15 @@
       <c r="F19" s="25"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B20" s="28"/>
-      <c r="C20" s="24"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="18"/>
       <c r="D20" s="2" t="s">
         <v>44</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="F20" s="24"/>
+      <c r="F20" s="18"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B21" s="7" t="s">
@@ -1432,10 +1448,10 @@
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B22" s="30" t="s">
+      <c r="B22" s="26" t="s">
         <v>109</v>
       </c>
-      <c r="C22" s="23" t="s">
+      <c r="C22" s="17" t="s">
         <v>51</v>
       </c>
       <c r="D22" s="2" t="s">
@@ -1444,26 +1460,26 @@
       <c r="E22" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="F22" s="23" t="s">
+      <c r="F22" s="17" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B23" s="31"/>
-      <c r="C23" s="24"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="18"/>
       <c r="D23" s="2" t="s">
         <v>111</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="F23" s="24"/>
+      <c r="F23" s="18"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B24" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="C24" s="29" t="s">
+      <c r="C24" s="19" t="s">
         <v>51</v>
       </c>
       <c r="D24" s="2" t="s">
@@ -1472,59 +1488,59 @@
       <c r="E24" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="F24" s="29" t="s">
+      <c r="F24" s="19" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B25" s="20"/>
-      <c r="C25" s="29"/>
+      <c r="C25" s="19"/>
       <c r="D25" s="2" t="s">
         <v>106</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="F25" s="29"/>
+      <c r="F25" s="19"/>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B26" s="20"/>
-      <c r="C26" s="29"/>
+      <c r="C26" s="19"/>
       <c r="D26" s="2" t="s">
         <v>54</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="F26" s="29"/>
+      <c r="F26" s="19"/>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B27" s="20"/>
-      <c r="C27" s="29"/>
+      <c r="C27" s="19"/>
       <c r="D27" s="2" t="s">
         <v>107</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="F27" s="29"/>
+      <c r="F27" s="19"/>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B28" s="20"/>
-      <c r="C28" s="29"/>
+      <c r="C28" s="19"/>
       <c r="D28" s="2" t="s">
         <v>108</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="F28" s="29"/>
+      <c r="F28" s="19"/>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B29" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="C29" s="29" t="s">
+      <c r="C29" s="19" t="s">
         <v>51</v>
       </c>
       <c r="D29" s="2" t="s">
@@ -1533,31 +1549,31 @@
       <c r="E29" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="F29" s="29" t="s">
+      <c r="F29" s="19" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B30" s="20"/>
-      <c r="C30" s="29"/>
+      <c r="C30" s="19"/>
       <c r="D30" s="2" t="s">
         <v>114</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="F30" s="29"/>
+      <c r="F30" s="19"/>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B31" s="20"/>
-      <c r="C31" s="29"/>
+      <c r="C31" s="19"/>
       <c r="D31" s="2" t="s">
         <v>115</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="F31" s="29"/>
+      <c r="F31" s="19"/>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B32" s="7" t="s">
@@ -1622,10 +1638,10 @@
       </c>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B36" s="26" t="s">
+      <c r="B36" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="C36" s="23" t="s">
+      <c r="C36" s="17" t="s">
         <v>69</v>
       </c>
       <c r="D36" s="2" t="s">
@@ -1634,7 +1650,7 @@
       <c r="E36" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="F36" s="23" t="s">
+      <c r="F36" s="17" t="s">
         <v>67</v>
       </c>
       <c r="G36" s="2" t="s">
@@ -1642,7 +1658,7 @@
       </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B37" s="27"/>
+      <c r="B37" s="23"/>
       <c r="C37" s="25"/>
       <c r="D37" s="2" t="s">
         <v>98</v>
@@ -1656,7 +1672,7 @@
       </c>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B38" s="27"/>
+      <c r="B38" s="23"/>
       <c r="C38" s="25"/>
       <c r="D38" s="2" t="s">
         <v>99</v>
@@ -1670,7 +1686,7 @@
       </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B39" s="27"/>
+      <c r="B39" s="23"/>
       <c r="C39" s="25"/>
       <c r="D39" s="2" t="s">
         <v>100</v>
@@ -1684,7 +1700,7 @@
       </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B40" s="27"/>
+      <c r="B40" s="23"/>
       <c r="C40" s="25"/>
       <c r="D40" s="2" t="s">
         <v>101</v>
@@ -1695,7 +1711,7 @@
       <c r="F40" s="25"/>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B41" s="27"/>
+      <c r="B41" s="23"/>
       <c r="C41" s="25"/>
       <c r="D41" s="2" t="s">
         <v>103</v>
@@ -1706,9 +1722,9 @@
       <c r="F41" s="25"/>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B42" s="28"/>
-      <c r="C42" s="24"/>
-      <c r="F42" s="24"/>
+      <c r="B42" s="24"/>
+      <c r="C42" s="18"/>
+      <c r="F42" s="18"/>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B43" s="7" t="s">
@@ -1782,7 +1798,7 @@
       </c>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B48" s="23" t="s">
+      <c r="B48" s="17" t="s">
         <v>137</v>
       </c>
       <c r="C48" s="11" t="s">
@@ -1794,19 +1810,19 @@
       <c r="E48" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="F48" s="23" t="s">
+      <c r="F48" s="17" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B49" s="24"/>
+      <c r="B49" s="18"/>
       <c r="D49" s="2" t="s">
         <v>133</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="F49" s="24"/>
+      <c r="F49" s="18"/>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B50" s="7" t="s">
@@ -1868,8 +1884,8 @@
       </c>
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B54" s="23" t="s">
-        <v>153</v>
+      <c r="B54" s="17" t="s">
+        <v>159</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>9</v>
@@ -1879,23 +1895,23 @@
       </c>
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B55" s="24"/>
+      <c r="B55" s="18"/>
       <c r="D55" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="56" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D56" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="57" spans="2:6" x14ac:dyDescent="0.15">
@@ -1903,11 +1919,37 @@
         <v>9</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B58" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>162</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="F3:F5"/>
+    <mergeCell ref="F48:F49"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="F36:F42"/>
+    <mergeCell ref="C36:C42"/>
+    <mergeCell ref="B36:B42"/>
     <mergeCell ref="B54:B55"/>
     <mergeCell ref="F29:F31"/>
     <mergeCell ref="B29:B31"/>
@@ -1924,18 +1966,6 @@
     <mergeCell ref="C22:C23"/>
     <mergeCell ref="F22:F23"/>
     <mergeCell ref="B11:B13"/>
-    <mergeCell ref="F48:F49"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="F36:F42"/>
-    <mergeCell ref="C36:C42"/>
-    <mergeCell ref="B36:B42"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="F3:F5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/文档/接口.xlsx
+++ b/文档/接口.xlsx
@@ -654,10 +654,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>api/app/ShopOrderApi/CreateOrder</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>post</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -666,7 +662,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>参照ShopOrderModel模型，在entity解决方案，后续再描述</t>
+    <t xml:space="preserve">api/app/ShopOrderApi/CreateOrder    </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参照  文档\订单传递参数说明.txt</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -806,19 +806,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -828,21 +838,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1150,7 +1150,7 @@
   <dimension ref="B1:G58"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B40" workbookViewId="0">
-      <selection activeCell="D58" sqref="D58"/>
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1158,37 +1158,37 @@
     <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="2" width="64.75" style="7" customWidth="1"/>
     <col min="3" max="3" width="9" style="3" customWidth="1"/>
-    <col min="4" max="4" width="24.125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="30.25" style="2" customWidth="1"/>
     <col min="5" max="5" width="31.875" style="3" customWidth="1"/>
     <col min="6" max="6" width="28" style="3" customWidth="1"/>
     <col min="7" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="28"/>
-      <c r="F1" s="30" t="s">
+      <c r="E1" s="17"/>
+      <c r="F1" s="19" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B2" s="29"/>
-      <c r="C2" s="30"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="19"/>
       <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="30"/>
+      <c r="F2" s="19"/>
       <c r="G2" s="2" t="s">
         <v>119</v>
       </c>
@@ -1206,7 +1206,7 @@
       <c r="E3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="31" t="s">
+      <c r="F3" s="22" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1306,7 +1306,7 @@
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="23" t="s">
         <v>150</v>
       </c>
       <c r="C11" s="21" t="s">
@@ -1331,7 +1331,7 @@
       <c r="F12" s="21"/>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B13" s="18"/>
+      <c r="B13" s="24"/>
       <c r="C13" s="11"/>
       <c r="D13" s="2" t="s">
         <v>129</v>
@@ -1359,10 +1359,10 @@
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B15" s="22" t="s">
+      <c r="B15" s="26" t="s">
         <v>87</v>
       </c>
-      <c r="C15" s="17" t="s">
+      <c r="C15" s="23" t="s">
         <v>40</v>
       </c>
       <c r="D15" s="2" t="s">
@@ -1371,12 +1371,12 @@
       <c r="E15" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="F15" s="17" t="s">
+      <c r="F15" s="23" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B16" s="23"/>
+      <c r="B16" s="27"/>
       <c r="C16" s="25"/>
       <c r="D16" s="2" t="s">
         <v>88</v>
@@ -1387,7 +1387,7 @@
       <c r="F16" s="25"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B17" s="23"/>
+      <c r="B17" s="27"/>
       <c r="C17" s="25"/>
       <c r="D17" s="2" t="s">
         <v>94</v>
@@ -1398,7 +1398,7 @@
       <c r="F17" s="25"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B18" s="23"/>
+      <c r="B18" s="27"/>
       <c r="C18" s="25"/>
       <c r="D18" s="2" t="s">
         <v>42</v>
@@ -1409,7 +1409,7 @@
       <c r="F18" s="25"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B19" s="23"/>
+      <c r="B19" s="27"/>
       <c r="C19" s="25"/>
       <c r="D19" s="2" t="s">
         <v>43</v>
@@ -1420,15 +1420,15 @@
       <c r="F19" s="25"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B20" s="24"/>
-      <c r="C20" s="18"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="24"/>
       <c r="D20" s="2" t="s">
         <v>44</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="F20" s="18"/>
+      <c r="F20" s="24"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B21" s="7" t="s">
@@ -1448,10 +1448,10 @@
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B22" s="26" t="s">
+      <c r="B22" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="C22" s="17" t="s">
+      <c r="C22" s="23" t="s">
         <v>51</v>
       </c>
       <c r="D22" s="2" t="s">
@@ -1460,26 +1460,26 @@
       <c r="E22" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="F22" s="17" t="s">
+      <c r="F22" s="23" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B23" s="27"/>
-      <c r="C23" s="18"/>
+      <c r="B23" s="31"/>
+      <c r="C23" s="24"/>
       <c r="D23" s="2" t="s">
         <v>111</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="F23" s="18"/>
+      <c r="F23" s="24"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B24" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="C24" s="19" t="s">
+      <c r="C24" s="29" t="s">
         <v>51</v>
       </c>
       <c r="D24" s="2" t="s">
@@ -1488,59 +1488,59 @@
       <c r="E24" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="F24" s="19" t="s">
+      <c r="F24" s="29" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B25" s="20"/>
-      <c r="C25" s="19"/>
+      <c r="C25" s="29"/>
       <c r="D25" s="2" t="s">
         <v>106</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="F25" s="19"/>
+      <c r="F25" s="29"/>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B26" s="20"/>
-      <c r="C26" s="19"/>
+      <c r="C26" s="29"/>
       <c r="D26" s="2" t="s">
         <v>54</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="F26" s="19"/>
+      <c r="F26" s="29"/>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B27" s="20"/>
-      <c r="C27" s="19"/>
+      <c r="C27" s="29"/>
       <c r="D27" s="2" t="s">
         <v>107</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="F27" s="19"/>
+      <c r="F27" s="29"/>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B28" s="20"/>
-      <c r="C28" s="19"/>
+      <c r="C28" s="29"/>
       <c r="D28" s="2" t="s">
         <v>108</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="F28" s="19"/>
+      <c r="F28" s="29"/>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B29" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="C29" s="19" t="s">
+      <c r="C29" s="29" t="s">
         <v>51</v>
       </c>
       <c r="D29" s="2" t="s">
@@ -1549,31 +1549,31 @@
       <c r="E29" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="F29" s="19" t="s">
+      <c r="F29" s="29" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B30" s="20"/>
-      <c r="C30" s="19"/>
+      <c r="C30" s="29"/>
       <c r="D30" s="2" t="s">
         <v>114</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="F30" s="19"/>
+      <c r="F30" s="29"/>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B31" s="20"/>
-      <c r="C31" s="19"/>
+      <c r="C31" s="29"/>
       <c r="D31" s="2" t="s">
         <v>115</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="F31" s="19"/>
+      <c r="F31" s="29"/>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B32" s="7" t="s">
@@ -1638,10 +1638,10 @@
       </c>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B36" s="22" t="s">
+      <c r="B36" s="26" t="s">
         <v>96</v>
       </c>
-      <c r="C36" s="17" t="s">
+      <c r="C36" s="23" t="s">
         <v>69</v>
       </c>
       <c r="D36" s="2" t="s">
@@ -1650,7 +1650,7 @@
       <c r="E36" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="F36" s="17" t="s">
+      <c r="F36" s="23" t="s">
         <v>67</v>
       </c>
       <c r="G36" s="2" t="s">
@@ -1658,7 +1658,7 @@
       </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B37" s="23"/>
+      <c r="B37" s="27"/>
       <c r="C37" s="25"/>
       <c r="D37" s="2" t="s">
         <v>98</v>
@@ -1672,7 +1672,7 @@
       </c>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B38" s="23"/>
+      <c r="B38" s="27"/>
       <c r="C38" s="25"/>
       <c r="D38" s="2" t="s">
         <v>99</v>
@@ -1686,7 +1686,7 @@
       </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B39" s="23"/>
+      <c r="B39" s="27"/>
       <c r="C39" s="25"/>
       <c r="D39" s="2" t="s">
         <v>100</v>
@@ -1700,7 +1700,7 @@
       </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B40" s="23"/>
+      <c r="B40" s="27"/>
       <c r="C40" s="25"/>
       <c r="D40" s="2" t="s">
         <v>101</v>
@@ -1711,7 +1711,7 @@
       <c r="F40" s="25"/>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B41" s="23"/>
+      <c r="B41" s="27"/>
       <c r="C41" s="25"/>
       <c r="D41" s="2" t="s">
         <v>103</v>
@@ -1722,9 +1722,9 @@
       <c r="F41" s="25"/>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B42" s="24"/>
-      <c r="C42" s="18"/>
-      <c r="F42" s="18"/>
+      <c r="B42" s="28"/>
+      <c r="C42" s="24"/>
+      <c r="F42" s="24"/>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B43" s="7" t="s">
@@ -1798,7 +1798,7 @@
       </c>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B48" s="17" t="s">
+      <c r="B48" s="23" t="s">
         <v>137</v>
       </c>
       <c r="C48" s="11" t="s">
@@ -1810,19 +1810,19 @@
       <c r="E48" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="F48" s="17" t="s">
+      <c r="F48" s="23" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B49" s="18"/>
+      <c r="B49" s="24"/>
       <c r="D49" s="2" t="s">
         <v>133</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="F49" s="18"/>
+      <c r="F49" s="24"/>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B50" s="7" t="s">
@@ -1884,7 +1884,7 @@
       </c>
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B54" s="17" t="s">
+      <c r="B54" s="23" t="s">
         <v>159</v>
       </c>
       <c r="D54" s="2" t="s">
@@ -1895,7 +1895,7 @@
       </c>
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B55" s="18"/>
+      <c r="B55" s="24"/>
       <c r="D55" s="2" t="s">
         <v>156</v>
       </c>
@@ -1924,32 +1924,20 @@
     </row>
     <row r="58" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B58" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="C58" s="3" t="s">
         <v>160</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>161</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>163</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="F3:F5"/>
-    <mergeCell ref="F48:F49"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="F36:F42"/>
-    <mergeCell ref="C36:C42"/>
-    <mergeCell ref="B36:B42"/>
     <mergeCell ref="B54:B55"/>
     <mergeCell ref="F29:F31"/>
     <mergeCell ref="B29:B31"/>
@@ -1966,6 +1954,18 @@
     <mergeCell ref="C22:C23"/>
     <mergeCell ref="F22:F23"/>
     <mergeCell ref="B11:B13"/>
+    <mergeCell ref="F48:F49"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="F36:F42"/>
+    <mergeCell ref="C36:C42"/>
+    <mergeCell ref="B36:B42"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="F3:F5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/文档/接口.xlsx
+++ b/文档/接口.xlsx
@@ -587,98 +587,99 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>POST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>格式 商品1ID,;商品2ID,商品2SKUID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取购物车里的商品信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品信息搜索</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/app/GetProductsByCategory/{商品分类ID}/{页数}/{排序字段}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 返回结果结构同（/api/app/GetProductsByCategory/{商品分类ID}/{页数}/{排序字段}）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/ShopProductApi/Search/{搜索关键字}/页数（默认是第一页）/{排序字段}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取分类首页推荐商品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认显示5条</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pageindex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{商品分类ID}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>页数（一般第一页随便，从第二页开始按照2开始正式算数）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品分类ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>post</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建订单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参照  文档\订单传递参数说明.txt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/app/GetNews/{页数}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提交订单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参照  文档\订单提交传递参数说明.txt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPXX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>/api/ShopCartAPI/CardInfo</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>POST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SPXX</t>
-  </si>
-  <si>
-    <t>格式 商品1ID,;商品2ID,商品2SKUID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取购物车里的商品信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品信息搜索</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/app/GetProductsByCategory/{商品分类ID}/{页数}/{排序字段}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 返回结果结构同（/api/app/GetProductsByCategory/{商品分类ID}/{页数}/{排序字段}）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/ShopProductApi/Search/{搜索关键字}/页数（默认是第一页）/{排序字段}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取分类首页推荐商品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>默认显示5条</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pageindex</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{商品分类ID}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>页数（一般第一页随便，从第二页开始按照2开始正式算数）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品分类ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>api/app/GetProductsByCategoryStation/{商品分类ID}/{pageindex}/{pagesize}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>post</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建订单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">api/app/ShopOrderApi/CreateOrder    </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参照  文档\订单传递参数说明.txt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/app/GetNews/{页数}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">api/app/ShopOrderApi/PostOrder  </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提交订单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参照  文档\订单提交传递参数说明.txt</t>
+    <t xml:space="preserve">api/ShopOrderApi/CreateOrder    </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">api/ShopOrderApi/PostOrder  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">         api/app/GetProductsByCategoryStation/{商品分类ID}/{pageindex}/{pagesize}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -822,19 +823,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -844,21 +855,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1165,8 +1166,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="D59" sqref="D59"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1181,30 +1182,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="30"/>
-      <c r="F1" s="32" t="s">
+      <c r="E1" s="19"/>
+      <c r="F1" s="21" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B2" s="31"/>
-      <c r="C2" s="32"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="21"/>
       <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="32"/>
+      <c r="F2" s="21"/>
       <c r="G2" s="2" t="s">
         <v>118</v>
       </c>
@@ -1222,7 +1223,7 @@
       <c r="E3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="33" t="s">
+      <c r="F3" s="24" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1250,7 +1251,7 @@
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B6" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>19</v>
@@ -1322,8 +1323,8 @@
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B11" s="19" t="s">
-        <v>149</v>
+      <c r="B11" s="25" t="s">
+        <v>147</v>
       </c>
       <c r="C11" s="23" t="s">
         <v>18</v>
@@ -1347,7 +1348,7 @@
       <c r="F12" s="23"/>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B13" s="20"/>
+      <c r="B13" s="26"/>
       <c r="C13" s="11"/>
       <c r="D13" s="2" t="s">
         <v>128</v>
@@ -1375,10 +1376,10 @@
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B15" s="24" t="s">
+      <c r="B15" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="C15" s="19" t="s">
+      <c r="C15" s="25" t="s">
         <v>39</v>
       </c>
       <c r="D15" s="2" t="s">
@@ -1387,12 +1388,12 @@
       <c r="E15" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="F15" s="19" t="s">
+      <c r="F15" s="25" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B16" s="25"/>
+      <c r="B16" s="29"/>
       <c r="C16" s="27"/>
       <c r="D16" s="2" t="s">
         <v>87</v>
@@ -1403,7 +1404,7 @@
       <c r="F16" s="27"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B17" s="25"/>
+      <c r="B17" s="29"/>
       <c r="C17" s="27"/>
       <c r="D17" s="2" t="s">
         <v>93</v>
@@ -1414,7 +1415,7 @@
       <c r="F17" s="27"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B18" s="25"/>
+      <c r="B18" s="29"/>
       <c r="C18" s="27"/>
       <c r="D18" s="2" t="s">
         <v>41</v>
@@ -1425,7 +1426,7 @@
       <c r="F18" s="27"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B19" s="25"/>
+      <c r="B19" s="29"/>
       <c r="C19" s="27"/>
       <c r="D19" s="2" t="s">
         <v>42</v>
@@ -1436,15 +1437,15 @@
       <c r="F19" s="27"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B20" s="26"/>
-      <c r="C20" s="20"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="26"/>
       <c r="D20" s="2" t="s">
         <v>43</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F20" s="20"/>
+      <c r="F20" s="26"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B21" s="7" t="s">
@@ -1464,10 +1465,10 @@
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B22" s="28" t="s">
+      <c r="B22" s="32" t="s">
         <v>108</v>
       </c>
-      <c r="C22" s="19" t="s">
+      <c r="C22" s="25" t="s">
         <v>50</v>
       </c>
       <c r="D22" s="2" t="s">
@@ -1476,26 +1477,26 @@
       <c r="E22" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="F22" s="19" t="s">
+      <c r="F22" s="25" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B23" s="29"/>
-      <c r="C23" s="20"/>
+      <c r="B23" s="33"/>
+      <c r="C23" s="26"/>
       <c r="D23" s="2" t="s">
         <v>110</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="F23" s="20"/>
+      <c r="F23" s="26"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B24" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="C24" s="21" t="s">
+      <c r="C24" s="31" t="s">
         <v>50</v>
       </c>
       <c r="D24" s="2" t="s">
@@ -1504,59 +1505,59 @@
       <c r="E24" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F24" s="21" t="s">
+      <c r="F24" s="31" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B25" s="22"/>
-      <c r="C25" s="21"/>
+      <c r="C25" s="31"/>
       <c r="D25" s="2" t="s">
         <v>105</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="F25" s="21"/>
+      <c r="F25" s="31"/>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B26" s="22"/>
-      <c r="C26" s="21"/>
+      <c r="C26" s="31"/>
       <c r="D26" s="2" t="s">
         <v>53</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="F26" s="21"/>
+      <c r="F26" s="31"/>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B27" s="22"/>
-      <c r="C27" s="21"/>
+      <c r="C27" s="31"/>
       <c r="D27" s="2" t="s">
         <v>106</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="F27" s="21"/>
+      <c r="F27" s="31"/>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B28" s="22"/>
-      <c r="C28" s="21"/>
+      <c r="C28" s="31"/>
       <c r="D28" s="2" t="s">
         <v>107</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="F28" s="21"/>
+      <c r="F28" s="31"/>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B29" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="C29" s="21" t="s">
+      <c r="C29" s="31" t="s">
         <v>50</v>
       </c>
       <c r="D29" s="2" t="s">
@@ -1565,31 +1566,31 @@
       <c r="E29" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="F29" s="21" t="s">
+      <c r="F29" s="31" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B30" s="22"/>
-      <c r="C30" s="21"/>
+      <c r="C30" s="31"/>
       <c r="D30" s="2" t="s">
         <v>113</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="F30" s="21"/>
+      <c r="F30" s="31"/>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B31" s="22"/>
-      <c r="C31" s="21"/>
+      <c r="C31" s="31"/>
       <c r="D31" s="2" t="s">
         <v>114</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="F31" s="21"/>
+      <c r="F31" s="31"/>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B32" s="7" t="s">
@@ -1654,10 +1655,10 @@
       </c>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B36" s="24" t="s">
+      <c r="B36" s="28" t="s">
         <v>95</v>
       </c>
-      <c r="C36" s="19" t="s">
+      <c r="C36" s="25" t="s">
         <v>68</v>
       </c>
       <c r="D36" s="2" t="s">
@@ -1666,7 +1667,7 @@
       <c r="E36" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="F36" s="19" t="s">
+      <c r="F36" s="25" t="s">
         <v>66</v>
       </c>
       <c r="G36" s="2" t="s">
@@ -1674,7 +1675,7 @@
       </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B37" s="25"/>
+      <c r="B37" s="29"/>
       <c r="C37" s="27"/>
       <c r="D37" s="2" t="s">
         <v>97</v>
@@ -1688,7 +1689,7 @@
       </c>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B38" s="25"/>
+      <c r="B38" s="29"/>
       <c r="C38" s="27"/>
       <c r="D38" s="2" t="s">
         <v>98</v>
@@ -1702,7 +1703,7 @@
       </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B39" s="25"/>
+      <c r="B39" s="29"/>
       <c r="C39" s="27"/>
       <c r="D39" s="2" t="s">
         <v>99</v>
@@ -1716,7 +1717,7 @@
       </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B40" s="25"/>
+      <c r="B40" s="29"/>
       <c r="C40" s="27"/>
       <c r="D40" s="2" t="s">
         <v>100</v>
@@ -1727,7 +1728,7 @@
       <c r="F40" s="27"/>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B41" s="25"/>
+      <c r="B41" s="29"/>
       <c r="C41" s="27"/>
       <c r="D41" s="2" t="s">
         <v>102</v>
@@ -1738,9 +1739,9 @@
       <c r="F41" s="27"/>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B42" s="26"/>
-      <c r="C42" s="20"/>
-      <c r="F42" s="20"/>
+      <c r="B42" s="30"/>
+      <c r="C42" s="26"/>
+      <c r="F42" s="26"/>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B43" s="7" t="s">
@@ -1814,7 +1815,7 @@
       </c>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B48" s="19" t="s">
+      <c r="B48" s="25" t="s">
         <v>136</v>
       </c>
       <c r="C48" s="11" t="s">
@@ -1826,19 +1827,19 @@
       <c r="E48" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="F48" s="19" t="s">
+      <c r="F48" s="25" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B49" s="20"/>
+      <c r="B49" s="26"/>
       <c r="D49" s="2" t="s">
         <v>132</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="F49" s="20"/>
+      <c r="F49" s="26"/>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B50" s="7" t="s">
@@ -1870,38 +1871,38 @@
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B52" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="C52" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="C52" s="3" t="s">
+      <c r="D52" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E52" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="D52" s="2" t="s">
+      <c r="F52" s="3" t="s">
         <v>145</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B53" s="14" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C53" s="15" t="s">
         <v>67</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B54" s="19" t="s">
-        <v>158</v>
+      <c r="B54" s="25" t="s">
+        <v>166</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>9</v>
@@ -1910,24 +1911,24 @@
         <v>12</v>
       </c>
     </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B55" s="20"/>
+    <row r="55" spans="2:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B55" s="26"/>
       <c r="D55" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E55" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="E55" s="3" t="s">
-        <v>157</v>
-      </c>
       <c r="F55" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="56" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D56" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E56" s="3" t="s">
         <v>154</v>
-      </c>
-      <c r="E56" s="3" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="57" spans="2:6" x14ac:dyDescent="0.15">
@@ -1935,52 +1936,40 @@
         <v>9</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="58" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B58" s="7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="59" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B59" s="17" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C59" s="18" t="s">
         <v>50</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="E59" s="18"/>
       <c r="F59" s="18" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="F3:F5"/>
-    <mergeCell ref="F48:F49"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="F36:F42"/>
-    <mergeCell ref="C36:C42"/>
-    <mergeCell ref="B36:B42"/>
     <mergeCell ref="B54:B55"/>
     <mergeCell ref="F29:F31"/>
     <mergeCell ref="B29:B31"/>
@@ -1997,6 +1986,18 @@
     <mergeCell ref="C22:C23"/>
     <mergeCell ref="F22:F23"/>
     <mergeCell ref="B11:B13"/>
+    <mergeCell ref="F48:F49"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="F36:F42"/>
+    <mergeCell ref="C36:C42"/>
+    <mergeCell ref="B36:B42"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="F3:F5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/文档/接口.xlsx
+++ b/文档/接口.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="177">
   <si>
     <t>调用方式</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -680,6 +680,45 @@
   </si>
   <si>
     <t xml:space="preserve">         api/app/GetProductsByCategoryStation/{商品分类ID}/{pageindex}/{pagesize}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>页数</t>
+  </si>
+  <si>
+    <t>从1开始</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/ShopOrderApi/GetOrders/{页数}/{订单状态}/{其他where条件}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/ShopOrderApi/GetOrders/{订单id}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取订单列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取订单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不传递 或-1 是查所有状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他where条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完整的where条件(不包含where关键字)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -781,7 +820,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -823,6 +862,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -830,36 +900,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1164,10 +1207,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G59"/>
+  <dimension ref="B1:G63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="B57" sqref="B57"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="B60" sqref="B60:F63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1182,39 +1225,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="19"/>
-      <c r="F1" s="21" t="s">
+      <c r="E1" s="32"/>
+      <c r="F1" s="34" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B2" s="20"/>
-      <c r="C2" s="21"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="34"/>
       <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="21"/>
+      <c r="F2" s="34"/>
       <c r="G2" s="2" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="3" spans="2:7" ht="94.5" x14ac:dyDescent="0.15">
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="25" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -1223,31 +1266,31 @@
       <c r="E3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="24" t="s">
+      <c r="F3" s="35" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B4" s="22"/>
-      <c r="C4" s="23"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="25"/>
       <c r="D4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="23"/>
+      <c r="F4" s="25"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B5" s="22"/>
-      <c r="C5" s="23"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="25"/>
       <c r="D5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="23"/>
+      <c r="F5" s="25"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B6" s="7" t="s">
@@ -1323,32 +1366,32 @@
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="21" t="s">
         <v>147</v>
       </c>
-      <c r="C11" s="23" t="s">
+      <c r="C11" s="25" t="s">
         <v>18</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="23" t="s">
+      <c r="F11" s="25" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B12" s="27"/>
-      <c r="C12" s="23"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="25"/>
       <c r="D12" s="2" t="s">
         <v>130</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="F12" s="23"/>
+      <c r="F12" s="25"/>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B13" s="26"/>
+      <c r="B13" s="22"/>
       <c r="C13" s="11"/>
       <c r="D13" s="2" t="s">
         <v>128</v>
@@ -1376,10 +1419,10 @@
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B15" s="28" t="s">
+      <c r="B15" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="C15" s="25" t="s">
+      <c r="C15" s="21" t="s">
         <v>39</v>
       </c>
       <c r="D15" s="2" t="s">
@@ -1388,64 +1431,64 @@
       <c r="E15" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="F15" s="25" t="s">
+      <c r="F15" s="21" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B16" s="29"/>
-      <c r="C16" s="27"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="29"/>
       <c r="D16" s="2" t="s">
         <v>87</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="F16" s="27"/>
+      <c r="F16" s="29"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B17" s="29"/>
-      <c r="C17" s="27"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="29"/>
       <c r="D17" s="2" t="s">
         <v>93</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="F17" s="27"/>
+      <c r="F17" s="29"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B18" s="29"/>
-      <c r="C18" s="27"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="29"/>
       <c r="D18" s="2" t="s">
         <v>41</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F18" s="27"/>
+      <c r="F18" s="29"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B19" s="29"/>
-      <c r="C19" s="27"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="29"/>
       <c r="D19" s="2" t="s">
         <v>42</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="F19" s="27"/>
+      <c r="F19" s="29"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B20" s="30"/>
-      <c r="C20" s="26"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="22"/>
       <c r="D20" s="2" t="s">
         <v>43</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F20" s="26"/>
+      <c r="F20" s="22"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B21" s="7" t="s">
@@ -1465,10 +1508,10 @@
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B22" s="32" t="s">
+      <c r="B22" s="30" t="s">
         <v>108</v>
       </c>
-      <c r="C22" s="25" t="s">
+      <c r="C22" s="21" t="s">
         <v>50</v>
       </c>
       <c r="D22" s="2" t="s">
@@ -1477,26 +1520,26 @@
       <c r="E22" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="F22" s="25" t="s">
+      <c r="F22" s="21" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B23" s="33"/>
-      <c r="C23" s="26"/>
+      <c r="B23" s="31"/>
+      <c r="C23" s="22"/>
       <c r="D23" s="2" t="s">
         <v>110</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="F23" s="26"/>
+      <c r="F23" s="22"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B24" s="22" t="s">
+      <c r="B24" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="C24" s="31" t="s">
+      <c r="C24" s="23" t="s">
         <v>50</v>
       </c>
       <c r="D24" s="2" t="s">
@@ -1505,59 +1548,59 @@
       <c r="E24" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F24" s="31" t="s">
+      <c r="F24" s="23" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B25" s="22"/>
-      <c r="C25" s="31"/>
+      <c r="B25" s="24"/>
+      <c r="C25" s="23"/>
       <c r="D25" s="2" t="s">
         <v>105</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="F25" s="31"/>
+      <c r="F25" s="23"/>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B26" s="22"/>
-      <c r="C26" s="31"/>
+      <c r="B26" s="24"/>
+      <c r="C26" s="23"/>
       <c r="D26" s="2" t="s">
         <v>53</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="F26" s="31"/>
+      <c r="F26" s="23"/>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B27" s="22"/>
-      <c r="C27" s="31"/>
+      <c r="B27" s="24"/>
+      <c r="C27" s="23"/>
       <c r="D27" s="2" t="s">
         <v>106</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="F27" s="31"/>
+      <c r="F27" s="23"/>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B28" s="22"/>
-      <c r="C28" s="31"/>
+      <c r="B28" s="24"/>
+      <c r="C28" s="23"/>
       <c r="D28" s="2" t="s">
         <v>107</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="F28" s="31"/>
+      <c r="F28" s="23"/>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B29" s="22" t="s">
+      <c r="B29" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="C29" s="31" t="s">
+      <c r="C29" s="23" t="s">
         <v>50</v>
       </c>
       <c r="D29" s="2" t="s">
@@ -1566,31 +1609,31 @@
       <c r="E29" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="F29" s="31" t="s">
+      <c r="F29" s="23" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B30" s="22"/>
-      <c r="C30" s="31"/>
+      <c r="B30" s="24"/>
+      <c r="C30" s="23"/>
       <c r="D30" s="2" t="s">
         <v>113</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="F30" s="31"/>
+      <c r="F30" s="23"/>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B31" s="22"/>
-      <c r="C31" s="31"/>
+      <c r="B31" s="24"/>
+      <c r="C31" s="23"/>
       <c r="D31" s="2" t="s">
         <v>114</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="F31" s="31"/>
+      <c r="F31" s="23"/>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B32" s="7" t="s">
@@ -1655,10 +1698,10 @@
       </c>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B36" s="28" t="s">
+      <c r="B36" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="C36" s="25" t="s">
+      <c r="C36" s="21" t="s">
         <v>68</v>
       </c>
       <c r="D36" s="2" t="s">
@@ -1667,7 +1710,7 @@
       <c r="E36" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="F36" s="25" t="s">
+      <c r="F36" s="21" t="s">
         <v>66</v>
       </c>
       <c r="G36" s="2" t="s">
@@ -1675,73 +1718,73 @@
       </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B37" s="29"/>
-      <c r="C37" s="27"/>
+      <c r="B37" s="27"/>
+      <c r="C37" s="29"/>
       <c r="D37" s="2" t="s">
         <v>97</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="F37" s="27"/>
+      <c r="F37" s="29"/>
       <c r="G37" s="2" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B38" s="29"/>
-      <c r="C38" s="27"/>
+      <c r="B38" s="27"/>
+      <c r="C38" s="29"/>
       <c r="D38" s="2" t="s">
         <v>98</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="F38" s="27"/>
+      <c r="F38" s="29"/>
       <c r="G38" s="2" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B39" s="29"/>
-      <c r="C39" s="27"/>
+      <c r="B39" s="27"/>
+      <c r="C39" s="29"/>
       <c r="D39" s="2" t="s">
         <v>99</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="F39" s="27"/>
+      <c r="F39" s="29"/>
       <c r="G39" s="2" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B40" s="29"/>
-      <c r="C40" s="27"/>
+      <c r="B40" s="27"/>
+      <c r="C40" s="29"/>
       <c r="D40" s="2" t="s">
         <v>100</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="F40" s="27"/>
+      <c r="F40" s="29"/>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B41" s="29"/>
-      <c r="C41" s="27"/>
+      <c r="B41" s="27"/>
+      <c r="C41" s="29"/>
       <c r="D41" s="2" t="s">
         <v>102</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="F41" s="27"/>
+      <c r="F41" s="29"/>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B42" s="30"/>
-      <c r="C42" s="26"/>
-      <c r="F42" s="26"/>
+      <c r="B42" s="28"/>
+      <c r="C42" s="22"/>
+      <c r="F42" s="22"/>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B43" s="7" t="s">
@@ -1815,7 +1858,7 @@
       </c>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B48" s="25" t="s">
+      <c r="B48" s="21" t="s">
         <v>136</v>
       </c>
       <c r="C48" s="11" t="s">
@@ -1827,19 +1870,19 @@
       <c r="E48" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="F48" s="25" t="s">
+      <c r="F48" s="21" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B49" s="26"/>
+      <c r="B49" s="22"/>
       <c r="D49" s="2" t="s">
         <v>132</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="F49" s="26"/>
+      <c r="F49" s="22"/>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B50" s="7" t="s">
@@ -1901,7 +1944,7 @@
       </c>
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B54" s="25" t="s">
+      <c r="B54" s="21" t="s">
         <v>166</v>
       </c>
       <c r="D54" s="2" t="s">
@@ -1912,7 +1955,7 @@
       </c>
     </row>
     <row r="55" spans="2:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B55" s="26"/>
+      <c r="B55" s="22"/>
       <c r="D55" s="2" t="s">
         <v>153</v>
       </c>
@@ -1968,8 +2011,64 @@
         <v>160</v>
       </c>
     </row>
+    <row r="60" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B60" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="C60" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="61" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="D61" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="D62" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="63" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B63" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="C63" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="F3:F5"/>
+    <mergeCell ref="F48:F49"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="F36:F42"/>
+    <mergeCell ref="C36:C42"/>
+    <mergeCell ref="B36:B42"/>
     <mergeCell ref="B54:B55"/>
     <mergeCell ref="F29:F31"/>
     <mergeCell ref="B29:B31"/>
@@ -1986,18 +2085,6 @@
     <mergeCell ref="C22:C23"/>
     <mergeCell ref="F22:F23"/>
     <mergeCell ref="B11:B13"/>
-    <mergeCell ref="F48:F49"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="F36:F42"/>
-    <mergeCell ref="C36:C42"/>
-    <mergeCell ref="B36:B42"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="F3:F5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/文档/接口.xlsx
+++ b/文档/接口.xlsx
@@ -360,365 +360,365 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>ResId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>团购/秒杀时对应的团购/秒杀ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tokenStr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Token值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/ShopCartAPI/Get/{tokenstr}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tokenstr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UserId（参数名不变）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从cookie里统一获取</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/ShippingAddressAPI/Post</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RegionId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShipName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Address</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CelPhone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RecordStatus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>add 新增  update更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/userapi/Regist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NiceName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TelPhone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ComfirmPwd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TelVaiCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/userapi/GetValiCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TelNo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TypeInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/userapi/Login</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Account</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pwd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DeviceID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/ShippingAddressAPI/Get</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/ShippingAddressAPI/GetDefault</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/ShippingAddressAPI/SetDefault/{地址ID}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RegionId=2&amp;ShipName=卢永列&amp;Address=济南市历下区&amp;CelPhone=13589111432&amp;RecordStatus=add</t>
+  </si>
+  <si>
+    <t>修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RegionId=3&amp;ShipName=卢永列1&amp;Address=济南市历下区1&amp;CelPhone=13589111434&amp;RecordStatus=update&amp;ID=eaf7f6a8-009e-4e2f-8dbf-e31089f90ede</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/ShopPayTypeApi/GetPayType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/Region/GetChildRegion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/Region/GetRegionPath/{地址ID}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/ShippingAddressAPI/Delete/{地址ID}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取用户注册协议</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排序（支持多列）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>例如（name desc,code desc,count desc….）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>页数(加上排序后，就变成必填了，)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{位置类型}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{pagesize}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每个位置获取个数，默认是5个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,1,2,3（可以用逗号隔开）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一次获取多个位置的商品列表数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/app/GetProductsByMutilStation/{位置类型}/{pagesize}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/app/GetRegistAgreement</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/app/GetGg/{商品ID}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/app/GetSku/{商品ID}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据商品ID，获取其规格信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据商品ID，获取其SKU信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/app/GetProduct/{商品ID}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>格式 商品1ID,;商品2ID,商品2SKUID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取购物车里的商品信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品信息搜索</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/app/GetProductsByCategory/{商品分类ID}/{页数}/{排序字段}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 返回结果结构同（/api/app/GetProductsByCategory/{商品分类ID}/{页数}/{排序字段}）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/ShopProductApi/Search/{搜索关键字}/页数（默认是第一页）/{排序字段}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取分类首页推荐商品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认显示5条</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pageindex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{商品分类ID}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>页数（一般第一页随便，从第二页开始按照2开始正式算数）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品分类ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>post</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建订单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参照  文档\订单传递参数说明.txt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/app/GetNews/{页数}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提交订单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参照  文档\订单提交传递参数说明.txt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPXX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/ShopCartAPI/CardInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">api/ShopOrderApi/CreateOrder    </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">api/ShopOrderApi/PostOrder  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">         api/app/GetProductsByCategoryStation/{商品分类ID}/{pageindex}/{pagesize}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>页数</t>
+  </si>
+  <si>
+    <t>从1开始</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/ShopOrderApi/GetOrders/{页数}/{订单状态}/{其他where条件}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/ShopOrderApi/GetOrders/{订单id}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取订单列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取订单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不传递 或-1 是查所有状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他where条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完整的where条件(不包含where关键字)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>/api/ShopCartAPI/Post</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ResId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>团购/秒杀时对应的团购/秒杀ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tokenStr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Token值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/ShopCartAPI/Get/{tokenstr}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tokenstr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UserId（参数名不变）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>从cookie里统一获取</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>api/ShippingAddressAPI/Post</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RegionId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ShipName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Address</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CelPhone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RecordStatus</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>add 新增  update更新</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>api/userapi/Regist</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NiceName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TelPhone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ComfirmPwd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TelVaiCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>api/userapi/GetValiCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TelNo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TypeInfo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>api/userapi/Login</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Account</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pwd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DeviceID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>api/ShippingAddressAPI/Get</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>api/ShippingAddressAPI/GetDefault</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>api/ShippingAddressAPI/SetDefault/{地址ID}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新增</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RegionId=2&amp;ShipName=卢永列&amp;Address=济南市历下区&amp;CelPhone=13589111432&amp;RecordStatus=add</t>
-  </si>
-  <si>
-    <t>修改</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RegionId=3&amp;ShipName=卢永列1&amp;Address=济南市历下区1&amp;CelPhone=13589111434&amp;RecordStatus=update&amp;ID=eaf7f6a8-009e-4e2f-8dbf-e31089f90ede</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>api/ShopPayTypeApi/GetPayType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>api/Region/GetChildRegion</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>api/Region/GetRegionPath/{地址ID}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>api/ShippingAddressAPI/Delete/{地址ID}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取用户注册协议</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>排序（支持多列）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>例如（name desc,code desc,count desc….）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>页数(加上排序后，就变成必填了，)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{位置类型}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{pagesize}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每个位置获取个数，默认是5个</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,1,2,3（可以用逗号隔开）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一次获取多个位置的商品列表数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>api/app/GetProductsByMutilStation/{位置类型}/{pagesize}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/app/GetRegistAgreement</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/app/GetGg/{商品ID}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/app/GetSku/{商品ID}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>根据商品ID，获取其规格信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>根据商品ID，获取其SKU信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/app/GetProduct/{商品ID}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>POST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>格式 商品1ID,;商品2ID,商品2SKUID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取购物车里的商品信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品信息搜索</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/app/GetProductsByCategory/{商品分类ID}/{页数}/{排序字段}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 返回结果结构同（/api/app/GetProductsByCategory/{商品分类ID}/{页数}/{排序字段}）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/ShopProductApi/Search/{搜索关键字}/页数（默认是第一页）/{排序字段}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取分类首页推荐商品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>默认显示5条</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pageindex</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{商品分类ID}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>页数（一般第一页随便，从第二页开始按照2开始正式算数）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品分类ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>post</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建订单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参照  文档\订单传递参数说明.txt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/app/GetNews/{页数}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提交订单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参照  文档\订单提交传递参数说明.txt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SPXX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/ShopCartAPI/CardInfo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">api/ShopOrderApi/CreateOrder    </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">api/ShopOrderApi/PostOrder  </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">         api/app/GetProductsByCategoryStation/{商品分类ID}/{pageindex}/{pagesize}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>页数</t>
-  </si>
-  <si>
-    <t>从1开始</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>api/ShopOrderApi/GetOrders/{页数}/{订单状态}/{其他where条件}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>api/ShopOrderApi/GetOrders/{订单id}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取订单列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取订单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>订单状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不传递 或-1 是查所有状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>其他where条件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完整的where条件(不包含where关键字)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -820,7 +820,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -866,19 +866,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -888,21 +899,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1210,7 +1211,7 @@
   <dimension ref="B1:G63"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="B60" sqref="B60:F63"/>
+      <selection activeCell="E65" sqref="E65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1225,39 +1226,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="D1" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="32"/>
-      <c r="F1" s="34" t="s">
+      <c r="E1" s="22"/>
+      <c r="F1" s="24" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B2" s="33"/>
-      <c r="C2" s="34"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="24"/>
       <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="34"/>
+      <c r="F2" s="24"/>
       <c r="G2" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="2:7" ht="94.5" x14ac:dyDescent="0.15">
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="26" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -1266,35 +1267,35 @@
       <c r="E3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="35" t="s">
+      <c r="F3" s="27" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B4" s="24"/>
-      <c r="C4" s="25"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="26"/>
       <c r="D4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="25"/>
+      <c r="F4" s="26"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B5" s="24"/>
-      <c r="C5" s="25"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="26"/>
       <c r="D5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="25"/>
+      <c r="F5" s="26"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B6" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>19</v>
@@ -1353,7 +1354,7 @@
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B10" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>19</v>
@@ -1366,63 +1367,63 @@
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B11" s="21" t="s">
-        <v>147</v>
-      </c>
-      <c r="C11" s="25" t="s">
+      <c r="B11" s="28" t="s">
+        <v>146</v>
+      </c>
+      <c r="C11" s="26" t="s">
         <v>18</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="25" t="s">
+      <c r="F11" s="26" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B12" s="29"/>
-      <c r="C12" s="25"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="26"/>
       <c r="D12" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="F12" s="25"/>
+      <c r="F12" s="26"/>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B13" s="22"/>
+      <c r="B13" s="29"/>
       <c r="C13" s="11"/>
       <c r="D13" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E13" s="11" t="s">
         <v>128</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>129</v>
       </c>
       <c r="F13" s="11"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B14" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B15" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="C15" s="21" t="s">
+      <c r="B15" s="31" t="s">
+        <v>176</v>
+      </c>
+      <c r="C15" s="28" t="s">
         <v>39</v>
       </c>
       <c r="D15" s="2" t="s">
@@ -1431,64 +1432,64 @@
       <c r="E15" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="F15" s="21" t="s">
+      <c r="F15" s="28" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B16" s="27"/>
-      <c r="C16" s="29"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="30"/>
       <c r="D16" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E16" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="E16" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="F16" s="29"/>
+      <c r="F16" s="30"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B17" s="27"/>
-      <c r="C17" s="29"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="30"/>
       <c r="D17" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="F17" s="29"/>
+        <v>89</v>
+      </c>
+      <c r="F17" s="30"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B18" s="27"/>
-      <c r="C18" s="29"/>
+      <c r="B18" s="32"/>
+      <c r="C18" s="30"/>
       <c r="D18" s="2" t="s">
         <v>41</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F18" s="29"/>
+      <c r="F18" s="30"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B19" s="27"/>
-      <c r="C19" s="29"/>
+      <c r="B19" s="32"/>
+      <c r="C19" s="30"/>
       <c r="D19" s="2" t="s">
         <v>42</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="F19" s="29"/>
+      <c r="F19" s="30"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B20" s="28"/>
-      <c r="C20" s="22"/>
+      <c r="B20" s="33"/>
+      <c r="C20" s="29"/>
       <c r="D20" s="2" t="s">
         <v>43</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F20" s="22"/>
+      <c r="F20" s="29"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B21" s="7" t="s">
@@ -1508,145 +1509,145 @@
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B22" s="30" t="s">
+      <c r="B22" s="35" t="s">
+        <v>107</v>
+      </c>
+      <c r="C22" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="C22" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>109</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="F22" s="21" t="s">
+      <c r="F22" s="28" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B23" s="31"/>
-      <c r="C23" s="22"/>
+      <c r="B23" s="36"/>
+      <c r="C23" s="29"/>
       <c r="D23" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="F23" s="22"/>
+      <c r="F23" s="29"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B24" s="24" t="s">
+      <c r="B24" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="C24" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="D24" s="2" t="s">
         <v>103</v>
-      </c>
-      <c r="C24" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>104</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F24" s="23" t="s">
+      <c r="F24" s="34" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B25" s="24"/>
-      <c r="C25" s="23"/>
+      <c r="B25" s="25"/>
+      <c r="C25" s="34"/>
       <c r="D25" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="F25" s="23"/>
+      <c r="F25" s="34"/>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B26" s="24"/>
-      <c r="C26" s="23"/>
+      <c r="B26" s="25"/>
+      <c r="C26" s="34"/>
       <c r="D26" s="2" t="s">
         <v>53</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="F26" s="23"/>
+      <c r="F26" s="34"/>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B27" s="24"/>
-      <c r="C27" s="23"/>
+      <c r="B27" s="25"/>
+      <c r="C27" s="34"/>
       <c r="D27" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="F27" s="23"/>
+      <c r="F27" s="34"/>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B28" s="24"/>
-      <c r="C28" s="23"/>
+      <c r="B28" s="25"/>
+      <c r="C28" s="34"/>
       <c r="D28" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="F28" s="23"/>
+      <c r="F28" s="34"/>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B29" s="24" t="s">
+      <c r="B29" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="C29" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="D29" s="2" t="s">
         <v>111</v>
-      </c>
-      <c r="C29" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>112</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="F29" s="23" t="s">
+      <c r="F29" s="34" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B30" s="24"/>
-      <c r="C30" s="23"/>
+      <c r="B30" s="25"/>
+      <c r="C30" s="34"/>
       <c r="D30" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="F30" s="23"/>
+      <c r="F30" s="34"/>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B31" s="24"/>
-      <c r="C31" s="23"/>
+      <c r="B31" s="25"/>
+      <c r="C31" s="34"/>
       <c r="D31" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="F31" s="23"/>
+      <c r="F31" s="34"/>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B32" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C32" s="6" t="s">
         <v>67</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>62</v>
@@ -1654,16 +1655,16 @@
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B33" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C33" s="6" t="s">
         <v>67</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>63</v>
@@ -1671,7 +1672,7 @@
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B34" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C34" s="6" t="s">
         <v>67</v>
@@ -1685,7 +1686,7 @@
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B35" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C35" s="8" t="s">
         <v>85</v>
@@ -1698,97 +1699,97 @@
       </c>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B36" s="26" t="s">
+      <c r="B36" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="C36" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="D36" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="C36" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>96</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="F36" s="21" t="s">
+      <c r="F36" s="28" t="s">
         <v>66</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B37" s="27"/>
-      <c r="C37" s="29"/>
+      <c r="B37" s="32"/>
+      <c r="C37" s="30"/>
       <c r="D37" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="F37" s="29"/>
+      <c r="F37" s="30"/>
       <c r="G37" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B38" s="27"/>
-      <c r="C38" s="29"/>
+      <c r="B38" s="32"/>
+      <c r="C38" s="30"/>
       <c r="D38" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="F38" s="29"/>
+      <c r="F38" s="30"/>
       <c r="G38" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B39" s="27"/>
-      <c r="C39" s="29"/>
+      <c r="B39" s="32"/>
+      <c r="C39" s="30"/>
       <c r="D39" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="F39" s="29"/>
+      <c r="F39" s="30"/>
       <c r="G39" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B40" s="27"/>
-      <c r="C40" s="29"/>
+      <c r="B40" s="32"/>
+      <c r="C40" s="30"/>
       <c r="D40" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E40" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="E40" s="3" t="s">
+      <c r="F40" s="30"/>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B41" s="32"/>
+      <c r="C41" s="30"/>
+      <c r="D41" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="F40" s="29"/>
-    </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B41" s="27"/>
-      <c r="C41" s="29"/>
-      <c r="D41" s="2" t="s">
-        <v>102</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="F41" s="29"/>
+      <c r="F41" s="30"/>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B42" s="28"/>
-      <c r="C42" s="22"/>
-      <c r="F42" s="22"/>
+      <c r="B42" s="33"/>
+      <c r="C42" s="29"/>
+      <c r="F42" s="29"/>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B43" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C43" s="8" t="s">
         <v>67</v>
@@ -1802,7 +1803,7 @@
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B44" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C44" s="10" t="s">
         <v>67</v>
@@ -1831,7 +1832,7 @@
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B46" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C46" s="10" t="s">
         <v>67</v>
@@ -1848,45 +1849,45 @@
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B47" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C47" s="11" t="s">
         <v>67</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B48" s="21" t="s">
-        <v>136</v>
+      <c r="B48" s="28" t="s">
+        <v>135</v>
       </c>
       <c r="C48" s="11" t="s">
         <v>67</v>
       </c>
       <c r="D48" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="F48" s="28" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B49" s="29"/>
+      <c r="D49" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="E48" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="F48" s="21" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B49" s="22"/>
-      <c r="D49" s="2" t="s">
+      <c r="E49" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="E49" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="F49" s="22"/>
+      <c r="F49" s="29"/>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B50" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C50" s="12" t="s">
         <v>67</v>
@@ -1895,12 +1896,12 @@
         <v>30</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B51" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C51" s="12" t="s">
         <v>67</v>
@@ -1909,43 +1910,43 @@
         <v>30</v>
       </c>
       <c r="F51" s="12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B52" s="13" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C52" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E52" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="D52" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="E52" s="3" t="s">
+      <c r="F52" s="3" t="s">
         <v>144</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B53" s="14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C53" s="15" t="s">
         <v>67</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B54" s="21" t="s">
-        <v>166</v>
+      <c r="B54" s="28" t="s">
+        <v>165</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>9</v>
@@ -1955,120 +1956,110 @@
       </c>
     </row>
     <row r="55" spans="2:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B55" s="22"/>
+      <c r="B55" s="29"/>
       <c r="D55" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B56" s="21"/>
+      <c r="D56" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E56" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="E55" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="F55" s="3" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="D56" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="E56" s="3" t="s">
-        <v>154</v>
-      </c>
     </row>
     <row r="57" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B57" s="21"/>
       <c r="D57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="58" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B58" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C58" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="F58" s="3" t="s">
         <v>156</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="59" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B59" s="17" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C59" s="18" t="s">
         <v>50</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E59" s="18"/>
       <c r="F59" s="18" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="60" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B60" s="19" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C60" s="20" t="s">
         <v>67</v>
       </c>
       <c r="D60" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E60" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="E60" s="3" t="s">
-        <v>168</v>
-      </c>
       <c r="F60" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="61" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D61" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E61" s="3" t="s">
         <v>173</v>
-      </c>
-      <c r="E61" s="3" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="62" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D62" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E62" s="3" t="s">
         <v>175</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="63" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B63" s="19" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C63" s="20" t="s">
         <v>67</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="F3:F5"/>
-    <mergeCell ref="F48:F49"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="F36:F42"/>
-    <mergeCell ref="C36:C42"/>
-    <mergeCell ref="B36:B42"/>
     <mergeCell ref="B54:B55"/>
     <mergeCell ref="F29:F31"/>
     <mergeCell ref="B29:B31"/>
@@ -2085,6 +2076,18 @@
     <mergeCell ref="C22:C23"/>
     <mergeCell ref="F22:F23"/>
     <mergeCell ref="B11:B13"/>
+    <mergeCell ref="F48:F49"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="F36:F42"/>
+    <mergeCell ref="C36:C42"/>
+    <mergeCell ref="B36:B42"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="F3:F5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/文档/接口.xlsx
+++ b/文档/接口.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="201">
   <si>
     <t>调用方式</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -456,182 +456,333 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Account</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pwd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DeviceID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/ShippingAddressAPI/Get</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/ShippingAddressAPI/GetDefault</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/ShippingAddressAPI/SetDefault/{地址ID}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RegionId=2&amp;ShipName=卢永列&amp;Address=济南市历下区&amp;CelPhone=13589111432&amp;RecordStatus=add</t>
+  </si>
+  <si>
+    <t>修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RegionId=3&amp;ShipName=卢永列1&amp;Address=济南市历下区1&amp;CelPhone=13589111434&amp;RecordStatus=update&amp;ID=eaf7f6a8-009e-4e2f-8dbf-e31089f90ede</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/ShopPayTypeApi/GetPayType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/Region/GetChildRegion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/Region/GetRegionPath/{地址ID}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/ShippingAddressAPI/Delete/{地址ID}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取用户注册协议</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排序（支持多列）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>例如（name desc,code desc,count desc….）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>页数(加上排序后，就变成必填了，)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{位置类型}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{pagesize}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每个位置获取个数，默认是5个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,1,2,3（可以用逗号隔开）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一次获取多个位置的商品列表数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/app/GetProductsByMutilStation/{位置类型}/{pagesize}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/app/GetRegistAgreement</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/app/GetGg/{商品ID}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/app/GetSku/{商品ID}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据商品ID，获取其规格信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据商品ID，获取其SKU信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/app/GetProduct/{商品ID}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>格式 商品1ID,;商品2ID,商品2SKUID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取购物车里的商品信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品信息搜索</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/app/GetProductsByCategory/{商品分类ID}/{页数}/{排序字段}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 返回结果结构同（/api/app/GetProductsByCategory/{商品分类ID}/{页数}/{排序字段}）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/ShopProductApi/Search/{搜索关键字}/页数（默认是第一页）/{排序字段}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取分类首页推荐商品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认显示5条</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pageindex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{商品分类ID}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>页数（一般第一页随便，从第二页开始按照2开始正式算数）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品分类ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>post</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建订单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参照  文档\订单传递参数说明.txt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/app/GetNews/{页数}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提交订单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参照  文档\订单提交传递参数说明.txt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPXX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/ShopCartAPI/CardInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">api/ShopOrderApi/CreateOrder    </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">api/ShopOrderApi/PostOrder  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">         api/app/GetProductsByCategoryStation/{商品分类ID}/{pageindex}/{pagesize}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>页数</t>
+  </si>
+  <si>
+    <t>从1开始</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/ShopOrderApi/GetOrders/{页数}/{订单状态}/{其他where条件}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取订单列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取订单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不传递 或-1 是查所有状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他where条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完整的where条件(不包含where关键字)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/ShopCartAPI/Post</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/ShopOrderApi/GetOrders/{订单id}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/ShopOrderApi/GetOrderStatus/{订单id}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取订单状态变更记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActionDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActionName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Remark</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Username</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动作改变时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动作名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作人名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>api/userapi/Login</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Account</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pwd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DeviceID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>api/ShippingAddressAPI/Get</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>api/ShippingAddressAPI/GetDefault</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>api/ShippingAddressAPI/SetDefault/{地址ID}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新增</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RegionId=2&amp;ShipName=卢永列&amp;Address=济南市历下区&amp;CelPhone=13589111432&amp;RecordStatus=add</t>
-  </si>
-  <si>
-    <t>修改</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RegionId=3&amp;ShipName=卢永列1&amp;Address=济南市历下区1&amp;CelPhone=13589111434&amp;RecordStatus=update&amp;ID=eaf7f6a8-009e-4e2f-8dbf-e31089f90ede</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>api/ShopPayTypeApi/GetPayType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>api/Region/GetChildRegion</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>api/Region/GetRegionPath/{地址ID}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>api/ShippingAddressAPI/Delete/{地址ID}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取用户注册协议</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>排序（支持多列）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>例如（name desc,code desc,count desc….）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>页数(加上排序后，就变成必填了，)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{位置类型}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{pagesize}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每个位置获取个数，默认是5个</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,1,2,3（可以用逗号隔开）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一次获取多个位置的商品列表数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>api/app/GetProductsByMutilStation/{位置类型}/{pagesize}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/app/GetRegistAgreement</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/app/GetGg/{商品ID}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/app/GetSku/{商品ID}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>根据商品ID，获取其规格信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>根据商品ID，获取其SKU信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/app/GetProduct/{商品ID}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>POST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>格式 商品1ID,;商品2ID,商品2SKUID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取购物车里的商品信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品信息搜索</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/app/GetProductsByCategory/{商品分类ID}/{页数}/{排序字段}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 返回结果结构同（/api/app/GetProductsByCategory/{商品分类ID}/{页数}/{排序字段}）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/ShopProductApi/Search/{搜索关键字}/页数（默认是第一页）/{排序字段}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取分类首页推荐商品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>默认显示5条</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pageindex</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{商品分类ID}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>页数（一般第一页随便，从第二页开始按照2开始正式算数）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品分类ID</t>
+    <t>api/userapi/GetMySelf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取当前登录的个人信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回值 参照src\EasyCms.Model\ViewModel\AccountModel.cs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/userapi/ChangePwd</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -639,86 +790,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>创建订单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参照  文档\订单传递参数说明.txt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/app/GetNews/{页数}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提交订单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参照  文档\订单提交传递参数说明.txt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SPXX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/ShopCartAPI/CardInfo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">api/ShopOrderApi/CreateOrder    </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">api/ShopOrderApi/PostOrder  </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">         api/app/GetProductsByCategoryStation/{商品分类ID}/{pageindex}/{pagesize}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>页数</t>
-  </si>
-  <si>
-    <t>从1开始</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>api/ShopOrderApi/GetOrders/{页数}/{订单状态}/{其他where条件}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>api/ShopOrderApi/GetOrders/{订单id}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取订单列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取订单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>订单状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不传递 或-1 是查所有状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>其他where条件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完整的where条件(不包含where关键字)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/ShopCartAPI/Post</t>
+    <t>修改个人密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旧密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>短信验证码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OldPwd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NewPwd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ValidCode</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -820,7 +916,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -867,28 +963,19 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -899,11 +986,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1208,57 +1305,57 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G63"/>
+  <dimension ref="B1:G72"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="E65" sqref="E65"/>
+      <selection activeCell="B73" sqref="B73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="64.75" style="7" customWidth="1"/>
+    <col min="2" max="2" width="48.875" style="7" customWidth="1"/>
     <col min="3" max="3" width="9" style="3" customWidth="1"/>
-    <col min="4" max="4" width="34.875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="29.875" style="2" customWidth="1"/>
     <col min="5" max="5" width="31.875" style="3" customWidth="1"/>
     <col min="6" max="6" width="28" style="3" customWidth="1"/>
     <col min="7" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="22"/>
-      <c r="F1" s="24" t="s">
+      <c r="E1" s="34"/>
+      <c r="F1" s="36" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B2" s="23"/>
-      <c r="C2" s="24"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="36"/>
       <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="24"/>
+      <c r="F2" s="36"/>
       <c r="G2" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="2:7" ht="94.5" x14ac:dyDescent="0.15">
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="27" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -1267,35 +1364,35 @@
       <c r="E3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="27" t="s">
+      <c r="F3" s="37" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B4" s="25"/>
-      <c r="C4" s="26"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="27"/>
       <c r="D4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="26"/>
+      <c r="F4" s="27"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B5" s="25"/>
-      <c r="C5" s="26"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="27"/>
       <c r="D5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="26"/>
+      <c r="F5" s="27"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B6" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>19</v>
@@ -1354,7 +1451,7 @@
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B10" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>19</v>
@@ -1367,38 +1464,38 @@
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B11" s="28" t="s">
-        <v>146</v>
-      </c>
-      <c r="C11" s="26" t="s">
+      <c r="B11" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="C11" s="27" t="s">
         <v>18</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="26" t="s">
+      <c r="F11" s="27" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B12" s="30"/>
-      <c r="C12" s="26"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="27"/>
       <c r="D12" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="F12" s="26"/>
+      <c r="F12" s="27"/>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B13" s="29"/>
+      <c r="B13" s="24"/>
       <c r="C13" s="11"/>
       <c r="D13" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E13" s="11" t="s">
         <v>127</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>128</v>
       </c>
       <c r="F13" s="11"/>
     </row>
@@ -1420,10 +1517,10 @@
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B15" s="31" t="s">
-        <v>176</v>
-      </c>
-      <c r="C15" s="28" t="s">
+      <c r="B15" s="28" t="s">
+        <v>174</v>
+      </c>
+      <c r="C15" s="23" t="s">
         <v>39</v>
       </c>
       <c r="D15" s="2" t="s">
@@ -1432,64 +1529,64 @@
       <c r="E15" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="F15" s="28" t="s">
+      <c r="F15" s="23" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B16" s="32"/>
-      <c r="C16" s="30"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="31"/>
       <c r="D16" s="2" t="s">
         <v>86</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="F16" s="30"/>
+      <c r="F16" s="31"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B17" s="32"/>
-      <c r="C17" s="30"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="31"/>
       <c r="D17" s="2" t="s">
         <v>92</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="F17" s="30"/>
+      <c r="F17" s="31"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B18" s="32"/>
-      <c r="C18" s="30"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="31"/>
       <c r="D18" s="2" t="s">
         <v>41</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F18" s="30"/>
+      <c r="F18" s="31"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B19" s="32"/>
-      <c r="C19" s="30"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="31"/>
       <c r="D19" s="2" t="s">
         <v>42</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="F19" s="30"/>
+      <c r="F19" s="31"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B20" s="33"/>
-      <c r="C20" s="29"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="24"/>
       <c r="D20" s="2" t="s">
         <v>43</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F20" s="29"/>
+      <c r="F20" s="24"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B21" s="7" t="s">
@@ -1509,10 +1606,10 @@
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B22" s="35" t="s">
+      <c r="B22" s="32" t="s">
         <v>107</v>
       </c>
-      <c r="C22" s="28" t="s">
+      <c r="C22" s="23" t="s">
         <v>50</v>
       </c>
       <c r="D22" s="2" t="s">
@@ -1521,26 +1618,26 @@
       <c r="E22" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="F22" s="28" t="s">
+      <c r="F22" s="23" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B23" s="36"/>
-      <c r="C23" s="29"/>
+      <c r="B23" s="33"/>
+      <c r="C23" s="24"/>
       <c r="D23" s="2" t="s">
         <v>109</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="F23" s="29"/>
+      <c r="F23" s="24"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B24" s="25" t="s">
+      <c r="B24" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="C24" s="34" t="s">
+      <c r="C24" s="25" t="s">
         <v>50</v>
       </c>
       <c r="D24" s="2" t="s">
@@ -1549,96 +1646,96 @@
       <c r="E24" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F24" s="34" t="s">
+      <c r="F24" s="25" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B25" s="25"/>
-      <c r="C25" s="34"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="25"/>
       <c r="D25" s="2" t="s">
         <v>104</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="F25" s="34"/>
+      <c r="F25" s="25"/>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B26" s="25"/>
-      <c r="C26" s="34"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="25"/>
       <c r="D26" s="2" t="s">
         <v>53</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="F26" s="34"/>
+      <c r="F26" s="25"/>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B27" s="25"/>
-      <c r="C27" s="34"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="25"/>
       <c r="D27" s="2" t="s">
         <v>105</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="F27" s="34"/>
+      <c r="F27" s="25"/>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B28" s="25"/>
-      <c r="C28" s="34"/>
+      <c r="B28" s="26"/>
+      <c r="C28" s="25"/>
       <c r="D28" s="2" t="s">
         <v>106</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="F28" s="34"/>
+      <c r="F28" s="25"/>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B29" s="25" t="s">
+      <c r="B29" s="26" t="s">
+        <v>188</v>
+      </c>
+      <c r="C29" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="D29" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="C29" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>111</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="F29" s="34" t="s">
+      <c r="F29" s="25" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B30" s="25"/>
-      <c r="C30" s="34"/>
+      <c r="B30" s="26"/>
+      <c r="C30" s="25"/>
       <c r="D30" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="F30" s="34"/>
+      <c r="F30" s="25"/>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B31" s="25"/>
-      <c r="C31" s="34"/>
+      <c r="B31" s="26"/>
+      <c r="C31" s="25"/>
       <c r="D31" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="F31" s="34"/>
+      <c r="F31" s="25"/>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B32" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C32" s="6" t="s">
         <v>67</v>
@@ -1655,7 +1752,7 @@
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B33" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C33" s="6" t="s">
         <v>67</v>
@@ -1672,7 +1769,7 @@
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B34" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C34" s="6" t="s">
         <v>67</v>
@@ -1686,7 +1783,7 @@
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B35" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C35" s="8" t="s">
         <v>85</v>
@@ -1699,10 +1796,10 @@
       </c>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B36" s="31" t="s">
+      <c r="B36" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="C36" s="28" t="s">
+      <c r="C36" s="23" t="s">
         <v>68</v>
       </c>
       <c r="D36" s="2" t="s">
@@ -1711,85 +1808,85 @@
       <c r="E36" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="F36" s="28" t="s">
+      <c r="F36" s="23" t="s">
         <v>66</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B37" s="32"/>
-      <c r="C37" s="30"/>
+      <c r="B37" s="29"/>
+      <c r="C37" s="31"/>
       <c r="D37" s="2" t="s">
         <v>96</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="F37" s="30"/>
+      <c r="F37" s="31"/>
       <c r="G37" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B38" s="32"/>
-      <c r="C38" s="30"/>
+      <c r="B38" s="29"/>
+      <c r="C38" s="31"/>
       <c r="D38" s="2" t="s">
         <v>97</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="F38" s="30"/>
+      <c r="F38" s="31"/>
       <c r="G38" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B39" s="32"/>
-      <c r="C39" s="30"/>
+      <c r="B39" s="29"/>
+      <c r="C39" s="31"/>
       <c r="D39" s="2" t="s">
         <v>98</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="F39" s="30"/>
+      <c r="F39" s="31"/>
       <c r="G39" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B40" s="32"/>
-      <c r="C40" s="30"/>
+      <c r="B40" s="29"/>
+      <c r="C40" s="31"/>
       <c r="D40" s="2" t="s">
         <v>99</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="F40" s="30"/>
+      <c r="F40" s="31"/>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B41" s="32"/>
-      <c r="C41" s="30"/>
+      <c r="B41" s="29"/>
+      <c r="C41" s="31"/>
       <c r="D41" s="2" t="s">
         <v>101</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="F41" s="30"/>
+      <c r="F41" s="31"/>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B42" s="33"/>
-      <c r="C42" s="29"/>
-      <c r="F42" s="29"/>
+      <c r="B42" s="30"/>
+      <c r="C42" s="24"/>
+      <c r="F42" s="24"/>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B43" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C43" s="8" t="s">
         <v>67</v>
@@ -1803,7 +1900,7 @@
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B44" s="9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C44" s="10" t="s">
         <v>67</v>
@@ -1832,7 +1929,7 @@
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B46" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C46" s="10" t="s">
         <v>67</v>
@@ -1849,45 +1946,45 @@
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B47" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C47" s="11" t="s">
         <v>67</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B48" s="28" t="s">
-        <v>135</v>
+      <c r="B48" s="23" t="s">
+        <v>134</v>
       </c>
       <c r="C48" s="11" t="s">
         <v>67</v>
       </c>
       <c r="D48" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="F48" s="23" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B49" s="24"/>
+      <c r="D49" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="E48" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="F48" s="28" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B49" s="29"/>
-      <c r="D49" s="2" t="s">
+      <c r="E49" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="E49" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="F49" s="29"/>
+      <c r="F49" s="24"/>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B50" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C50" s="12" t="s">
         <v>67</v>
@@ -1896,12 +1993,12 @@
         <v>30</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B51" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C51" s="12" t="s">
         <v>67</v>
@@ -1910,43 +2007,43 @@
         <v>30</v>
       </c>
       <c r="F51" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B52" s="13" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C52" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E52" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="D52" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="E52" s="3" t="s">
+      <c r="F52" s="3" t="s">
         <v>143</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B53" s="14" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C53" s="15" t="s">
         <v>67</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B54" s="28" t="s">
-        <v>165</v>
+      <c r="B54" s="23" t="s">
+        <v>164</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>9</v>
@@ -1956,24 +2053,24 @@
       </c>
     </row>
     <row r="55" spans="2:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B55" s="29"/>
+      <c r="B55" s="24"/>
       <c r="D55" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="56" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B56" s="21"/>
       <c r="D56" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="57" spans="2:6" x14ac:dyDescent="0.15">
@@ -1982,84 +2079,189 @@
         <v>9</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="58" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B58" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C58" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F58" s="3" t="s">
         <v>155</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="59" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B59" s="17" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C59" s="18" t="s">
         <v>50</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E59" s="18"/>
       <c r="F59" s="18" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="60" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B60" s="19" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C60" s="20" t="s">
         <v>67</v>
       </c>
       <c r="D60" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E60" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="E60" s="3" t="s">
-        <v>167</v>
-      </c>
       <c r="F60" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="61" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D61" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="62" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D62" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="63" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B63" s="19" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="C63" s="20" t="s">
         <v>67</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
+      </c>
+    </row>
+    <row r="64" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B64" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="65" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="D65" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="66" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="D66" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="67" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="D67" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="68" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="D68" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="69" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B69" s="22" t="s">
+        <v>189</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="F69" s="3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="70" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B70" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="71" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="D71" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="72" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="D72" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>197</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="F3:F5"/>
+    <mergeCell ref="F48:F49"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="F36:F42"/>
+    <mergeCell ref="C36:C42"/>
+    <mergeCell ref="B36:B42"/>
     <mergeCell ref="B54:B55"/>
     <mergeCell ref="F29:F31"/>
     <mergeCell ref="B29:B31"/>
@@ -2076,18 +2278,6 @@
     <mergeCell ref="C22:C23"/>
     <mergeCell ref="F22:F23"/>
     <mergeCell ref="B11:B13"/>
-    <mergeCell ref="F48:F49"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="F36:F42"/>
-    <mergeCell ref="C36:C42"/>
-    <mergeCell ref="B36:B42"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="F3:F5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/文档/接口.xlsx
+++ b/文档/接口.xlsx
@@ -714,10 +714,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>api/ShopOrderApi/GetOrders/{订单id}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>api/ShopOrderApi/GetOrderStatus/{订单id}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -782,30 +778,30 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>post</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改个人密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旧密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>短信验证码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>api/userapi/ChangePwd</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>post</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改个人密码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>旧密码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新密码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>短信验证码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>OldPwd</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -815,6 +811,10 @@
   </si>
   <si>
     <t>ValidCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/ShopOrderApi/GetOrder/{订单id}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -964,18 +964,28 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -986,21 +996,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1308,7 +1308,7 @@
   <dimension ref="B1:G72"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="B73" sqref="B73"/>
+      <selection activeCell="D64" sqref="D64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1323,30 +1323,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="C1" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="34" t="s">
+      <c r="D1" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="34"/>
-      <c r="F1" s="36" t="s">
+      <c r="E1" s="23"/>
+      <c r="F1" s="25" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B2" s="35"/>
-      <c r="C2" s="36"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="25"/>
       <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="36"/>
+      <c r="F2" s="25"/>
       <c r="G2" s="2" t="s">
         <v>116</v>
       </c>
@@ -1364,7 +1364,7 @@
       <c r="E3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="37" t="s">
+      <c r="F3" s="28" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1464,7 +1464,7 @@
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="29" t="s">
         <v>145</v>
       </c>
       <c r="C11" s="27" t="s">
@@ -1489,7 +1489,7 @@
       <c r="F12" s="27"/>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B13" s="24"/>
+      <c r="B13" s="30"/>
       <c r="C13" s="11"/>
       <c r="D13" s="2" t="s">
         <v>126</v>
@@ -1517,10 +1517,10 @@
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B15" s="28" t="s">
+      <c r="B15" s="32" t="s">
         <v>174</v>
       </c>
-      <c r="C15" s="23" t="s">
+      <c r="C15" s="29" t="s">
         <v>39</v>
       </c>
       <c r="D15" s="2" t="s">
@@ -1529,12 +1529,12 @@
       <c r="E15" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="F15" s="23" t="s">
+      <c r="F15" s="29" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B16" s="29"/>
+      <c r="B16" s="33"/>
       <c r="C16" s="31"/>
       <c r="D16" s="2" t="s">
         <v>86</v>
@@ -1545,7 +1545,7 @@
       <c r="F16" s="31"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B17" s="29"/>
+      <c r="B17" s="33"/>
       <c r="C17" s="31"/>
       <c r="D17" s="2" t="s">
         <v>92</v>
@@ -1556,7 +1556,7 @@
       <c r="F17" s="31"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B18" s="29"/>
+      <c r="B18" s="33"/>
       <c r="C18" s="31"/>
       <c r="D18" s="2" t="s">
         <v>41</v>
@@ -1567,7 +1567,7 @@
       <c r="F18" s="31"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B19" s="29"/>
+      <c r="B19" s="33"/>
       <c r="C19" s="31"/>
       <c r="D19" s="2" t="s">
         <v>42</v>
@@ -1578,15 +1578,15 @@
       <c r="F19" s="31"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B20" s="30"/>
-      <c r="C20" s="24"/>
+      <c r="B20" s="34"/>
+      <c r="C20" s="30"/>
       <c r="D20" s="2" t="s">
         <v>43</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F20" s="24"/>
+      <c r="F20" s="30"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B21" s="7" t="s">
@@ -1606,10 +1606,10 @@
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B22" s="32" t="s">
+      <c r="B22" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="C22" s="23" t="s">
+      <c r="C22" s="29" t="s">
         <v>50</v>
       </c>
       <c r="D22" s="2" t="s">
@@ -1618,26 +1618,26 @@
       <c r="E22" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="F22" s="23" t="s">
+      <c r="F22" s="29" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B23" s="33"/>
-      <c r="C23" s="24"/>
+      <c r="B23" s="37"/>
+      <c r="C23" s="30"/>
       <c r="D23" s="2" t="s">
         <v>109</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="F23" s="24"/>
+      <c r="F23" s="30"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B24" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="C24" s="25" t="s">
+      <c r="C24" s="35" t="s">
         <v>50</v>
       </c>
       <c r="D24" s="2" t="s">
@@ -1646,59 +1646,59 @@
       <c r="E24" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F24" s="25" t="s">
+      <c r="F24" s="35" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B25" s="26"/>
-      <c r="C25" s="25"/>
+      <c r="C25" s="35"/>
       <c r="D25" s="2" t="s">
         <v>104</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="F25" s="25"/>
+      <c r="F25" s="35"/>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B26" s="26"/>
-      <c r="C26" s="25"/>
+      <c r="C26" s="35"/>
       <c r="D26" s="2" t="s">
         <v>53</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="F26" s="25"/>
+      <c r="F26" s="35"/>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B27" s="26"/>
-      <c r="C27" s="25"/>
+      <c r="C27" s="35"/>
       <c r="D27" s="2" t="s">
         <v>105</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="F27" s="25"/>
+      <c r="F27" s="35"/>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B28" s="26"/>
-      <c r="C28" s="25"/>
+      <c r="C28" s="35"/>
       <c r="D28" s="2" t="s">
         <v>106</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="F28" s="25"/>
+      <c r="F28" s="35"/>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B29" s="26" t="s">
-        <v>188</v>
-      </c>
-      <c r="C29" s="25" t="s">
+        <v>187</v>
+      </c>
+      <c r="C29" s="35" t="s">
         <v>50</v>
       </c>
       <c r="D29" s="2" t="s">
@@ -1707,31 +1707,31 @@
       <c r="E29" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="F29" s="25" t="s">
+      <c r="F29" s="35" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B30" s="26"/>
-      <c r="C30" s="25"/>
+      <c r="C30" s="35"/>
       <c r="D30" s="2" t="s">
         <v>111</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="F30" s="25"/>
+      <c r="F30" s="35"/>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B31" s="26"/>
-      <c r="C31" s="25"/>
+      <c r="C31" s="35"/>
       <c r="D31" s="2" t="s">
         <v>112</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="F31" s="25"/>
+      <c r="F31" s="35"/>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B32" s="7" t="s">
@@ -1796,10 +1796,10 @@
       </c>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B36" s="28" t="s">
+      <c r="B36" s="32" t="s">
         <v>94</v>
       </c>
-      <c r="C36" s="23" t="s">
+      <c r="C36" s="29" t="s">
         <v>68</v>
       </c>
       <c r="D36" s="2" t="s">
@@ -1808,7 +1808,7 @@
       <c r="E36" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="F36" s="23" t="s">
+      <c r="F36" s="29" t="s">
         <v>66</v>
       </c>
       <c r="G36" s="2" t="s">
@@ -1816,7 +1816,7 @@
       </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B37" s="29"/>
+      <c r="B37" s="33"/>
       <c r="C37" s="31"/>
       <c r="D37" s="2" t="s">
         <v>96</v>
@@ -1830,7 +1830,7 @@
       </c>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B38" s="29"/>
+      <c r="B38" s="33"/>
       <c r="C38" s="31"/>
       <c r="D38" s="2" t="s">
         <v>97</v>
@@ -1844,7 +1844,7 @@
       </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B39" s="29"/>
+      <c r="B39" s="33"/>
       <c r="C39" s="31"/>
       <c r="D39" s="2" t="s">
         <v>98</v>
@@ -1858,7 +1858,7 @@
       </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B40" s="29"/>
+      <c r="B40" s="33"/>
       <c r="C40" s="31"/>
       <c r="D40" s="2" t="s">
         <v>99</v>
@@ -1869,7 +1869,7 @@
       <c r="F40" s="31"/>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B41" s="29"/>
+      <c r="B41" s="33"/>
       <c r="C41" s="31"/>
       <c r="D41" s="2" t="s">
         <v>101</v>
@@ -1880,9 +1880,9 @@
       <c r="F41" s="31"/>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B42" s="30"/>
-      <c r="C42" s="24"/>
-      <c r="F42" s="24"/>
+      <c r="B42" s="34"/>
+      <c r="C42" s="30"/>
+      <c r="F42" s="30"/>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B43" s="7" t="s">
@@ -1956,7 +1956,7 @@
       </c>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B48" s="23" t="s">
+      <c r="B48" s="29" t="s">
         <v>134</v>
       </c>
       <c r="C48" s="11" t="s">
@@ -1968,19 +1968,19 @@
       <c r="E48" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="F48" s="23" t="s">
+      <c r="F48" s="29" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B49" s="24"/>
+      <c r="B49" s="30"/>
       <c r="D49" s="2" t="s">
         <v>130</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="F49" s="24"/>
+      <c r="F49" s="30"/>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B50" s="7" t="s">
@@ -2042,7 +2042,7 @@
       </c>
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B54" s="23" t="s">
+      <c r="B54" s="29" t="s">
         <v>164</v>
       </c>
       <c r="D54" s="2" t="s">
@@ -2053,7 +2053,7 @@
       </c>
     </row>
     <row r="55" spans="2:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B55" s="24"/>
+      <c r="B55" s="30"/>
       <c r="D55" s="2" t="s">
         <v>151</v>
       </c>
@@ -2146,7 +2146,7 @@
     </row>
     <row r="63" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B63" s="19" t="s">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="C63" s="20" t="s">
         <v>67</v>
@@ -2157,111 +2157,99 @@
     </row>
     <row r="64" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B64" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="C64" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="C64" s="3" t="s">
+      <c r="D64" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="F64" s="3" t="s">
         <v>177</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="F64" s="3" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="65" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D65" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="66" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D66" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="67" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D67" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="68" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D68" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="69" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B69" s="22" t="s">
+        <v>188</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="F69" s="3" t="s">
         <v>189</v>
-      </c>
-      <c r="C69" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="F69" s="3" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="70" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B70" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="F70" s="3" t="s">
         <v>192</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="F70" s="3" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="71" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D71" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="72" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D72" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="F3:F5"/>
-    <mergeCell ref="F48:F49"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="F36:F42"/>
-    <mergeCell ref="C36:C42"/>
-    <mergeCell ref="B36:B42"/>
     <mergeCell ref="B54:B55"/>
     <mergeCell ref="F29:F31"/>
     <mergeCell ref="B29:B31"/>
@@ -2278,6 +2266,18 @@
     <mergeCell ref="C22:C23"/>
     <mergeCell ref="F22:F23"/>
     <mergeCell ref="B11:B13"/>
+    <mergeCell ref="F48:F49"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="F36:F42"/>
+    <mergeCell ref="C36:C42"/>
+    <mergeCell ref="B36:B42"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="F3:F5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/文档/接口.xlsx
+++ b/文档/接口.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="254">
   <si>
     <t>调用方式</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -228,10 +228,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>手机验证码类型， 0,注册、1.登录、2.购物等</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Pwd</t>
   </si>
   <si>
@@ -643,178 +639,389 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>提交订单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参照  文档\订单提交传递参数说明.txt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPXX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/ShopCartAPI/CardInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">api/ShopOrderApi/CreateOrder    </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">api/ShopOrderApi/PostOrder  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">         api/app/GetProductsByCategoryStation/{商品分类ID}/{pageindex}/{pagesize}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>页数</t>
+  </si>
+  <si>
+    <t>从1开始</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/ShopOrderApi/GetOrders/{页数}/{订单状态}/{其他where条件}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取订单列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取订单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不传递 或-1 是查所有状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他where条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完整的where条件(不包含where关键字)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/ShopCartAPI/Post</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/ShopOrderApi/GetOrderStatus/{订单id}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取订单状态变更记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActionDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActionName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Remark</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Username</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动作改变时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动作名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作人名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/userapi/Login</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/userapi/GetMySelf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取当前登录的个人信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回值 参照src\EasyCms.Model\ViewModel\AccountModel.cs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>post</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改个人密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旧密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>短信验证码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OldPwd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NewPwd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ValidCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/ShopOrderApi/GetOrder/{订单id}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/ShopOrderApi/PayOrder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OrderNo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PayTypeID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>付款方式（可空，
+当原付款方式是货到付款时，需要重新选择付款方式并传递到接口）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单生成后，后续付款，
+获取付款签名信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>/api/app/GetNews/{页数}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>提交订单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参照  文档\订单提交传递参数说明.txt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SPXX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/ShopCartAPI/CardInfo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">api/ShopOrderApi/CreateOrder    </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">api/ShopOrderApi/PostOrder  </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">         api/app/GetProductsByCategoryStation/{商品分类ID}/{pageindex}/{pagesize}</t>
+    <t>/api/app/CatchException</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Info</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ExtInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Token</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>错误信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发生错误时，环境的信息，例如系统版本等等，可空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果是登陆用户，尽量传递当前用户的token信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>捕获APP异常信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机验证码类型， 1,注册、2.修改密码、3.忘记密码等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SendType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0手机短信 1，邮箱，2手机和邮箱（暂不支持）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/userapi/ChangePwd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/userapi/ResetPwd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>忘记密码引导接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>忘记密码提交新密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>忘记密码引导接口，主要返回验证方式和手机尾号确认</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Account</t>
+  </si>
+  <si>
+    <t>VaryType</t>
+  </si>
+  <si>
+    <t>0.手机短信1 邮箱 2 手机和邮箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>处理后的手机号，只显示后4位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Account</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VaryType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NewPwd</t>
+  </si>
+  <si>
+    <t>ConfirmNewPwd</t>
+  </si>
+  <si>
+    <t>ValidCode</t>
+  </si>
+  <si>
+    <t>新密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码确认</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证码 2222</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/userapi/ResetPwdPost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/ShopCommentApi/get</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>pageIndex</t>
+  </si>
+  <si>
+    <t>商品id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>页数</t>
-  </si>
-  <si>
-    <t>从1开始</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>api/ShopOrderApi/GetOrders/{页数}/{订单状态}/{其他where条件}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取订单列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取订单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>订单状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不传递 或-1 是查所有状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>其他where条件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完整的where条件(不包含where关键字)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/ShopCartAPI/Post</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>api/ShopOrderApi/GetOrderStatus/{订单id}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>get</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取订单状态变更记录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ActionDate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ActionName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Remark</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Username</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>动作改变时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>动作名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>操作人名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>api/userapi/Login</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>api/userapi/GetMySelf</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取当前登录的个人信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回值 参照src\EasyCms.Model\ViewModel\AccountModel.cs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>post</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改个人密码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>旧密码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新密码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>短信验证码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>api/userapi/ChangePwd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OldPwd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NewPwd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ValidCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>api/ShopOrderApi/GetOrder/{订单id}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">get </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取商品评论</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/ShopCommentApi/Post</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Post</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加评论</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProductId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKUID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReviewText</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OrderId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKUid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>评论内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -916,7 +1123,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -964,6 +1171,20 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1000,6 +1221,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -1016,6 +1238,49 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1247775</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>381000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>465099</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>151486</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11049000" y="14220825"/>
+          <a:ext cx="13009524" cy="7314286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1305,10 +1570,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G72"/>
+  <dimension ref="B1:G94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="D64" sqref="D64"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="B96" sqref="B96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1323,39 +1588,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="23"/>
-      <c r="F1" s="25" t="s">
+      <c r="E1" s="29"/>
+      <c r="F1" s="31" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B2" s="24"/>
-      <c r="C2" s="25"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="31"/>
       <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="25"/>
+      <c r="F2" s="31"/>
       <c r="G2" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="2:7" ht="94.5" x14ac:dyDescent="0.15">
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="33" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -1364,35 +1629,35 @@
       <c r="E3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="28" t="s">
+      <c r="F3" s="34" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B4" s="26"/>
-      <c r="C4" s="27"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="33"/>
       <c r="D4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="27"/>
+      <c r="F4" s="33"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B5" s="26"/>
-      <c r="C5" s="27"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="33"/>
       <c r="D5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="27"/>
+      <c r="F5" s="33"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B6" s="7" t="s">
-        <v>157</v>
+        <v>204</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>19</v>
@@ -1451,7 +1716,7 @@
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B10" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>19</v>
@@ -1464,63 +1729,63 @@
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B11" s="29" t="s">
-        <v>145</v>
-      </c>
-      <c r="C11" s="27" t="s">
+      <c r="B11" s="35" t="s">
+        <v>144</v>
+      </c>
+      <c r="C11" s="33" t="s">
         <v>18</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="27" t="s">
+      <c r="F11" s="33" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B12" s="31"/>
-      <c r="C12" s="27"/>
+      <c r="B12" s="37"/>
+      <c r="C12" s="33"/>
       <c r="D12" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="F12" s="27"/>
+      <c r="F12" s="33"/>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B13" s="30"/>
+      <c r="B13" s="36"/>
       <c r="C13" s="11"/>
       <c r="D13" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E13" s="11" t="s">
         <v>126</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>127</v>
       </c>
       <c r="F13" s="11"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B14" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B15" s="32" t="s">
-        <v>174</v>
-      </c>
-      <c r="C15" s="29" t="s">
+      <c r="B15" s="38" t="s">
+        <v>172</v>
+      </c>
+      <c r="C15" s="35" t="s">
         <v>39</v>
       </c>
       <c r="D15" s="2" t="s">
@@ -1529,64 +1794,64 @@
       <c r="E15" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="F15" s="29" t="s">
+      <c r="F15" s="35" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B16" s="33"/>
-      <c r="C16" s="31"/>
+      <c r="B16" s="39"/>
+      <c r="C16" s="37"/>
       <c r="D16" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E16" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="E16" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="F16" s="31"/>
+      <c r="F16" s="37"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B17" s="33"/>
-      <c r="C17" s="31"/>
+      <c r="B17" s="39"/>
+      <c r="C17" s="37"/>
       <c r="D17" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="F17" s="31"/>
+        <v>88</v>
+      </c>
+      <c r="F17" s="37"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B18" s="33"/>
-      <c r="C18" s="31"/>
+      <c r="B18" s="39"/>
+      <c r="C18" s="37"/>
       <c r="D18" s="2" t="s">
         <v>41</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F18" s="31"/>
+      <c r="F18" s="37"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B19" s="33"/>
-      <c r="C19" s="31"/>
+      <c r="B19" s="39"/>
+      <c r="C19" s="37"/>
       <c r="D19" s="2" t="s">
         <v>42</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="F19" s="31"/>
+      <c r="F19" s="37"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B20" s="34"/>
-      <c r="C20" s="30"/>
+      <c r="B20" s="40"/>
+      <c r="C20" s="36"/>
       <c r="D20" s="2" t="s">
         <v>43</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F20" s="30"/>
+      <c r="F20" s="36"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B21" s="7" t="s">
@@ -1606,671 +1871,890 @@
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B22" s="36" t="s">
+      <c r="B22" s="42" t="s">
+        <v>106</v>
+      </c>
+      <c r="C22" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>107</v>
-      </c>
-      <c r="C22" s="29" t="s">
-        <v>50</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>108</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="F22" s="29" t="s">
+      <c r="F22" s="35" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B23" s="37"/>
-      <c r="C23" s="30"/>
+      <c r="B23" s="43"/>
+      <c r="C23" s="37"/>
       <c r="D23" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="F23" s="37"/>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B24" s="44"/>
+      <c r="C24" s="36"/>
+      <c r="D24" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="F24" s="36"/>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B25" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="C25" s="41" t="s">
+        <v>50</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F25" s="41" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B26" s="32"/>
+      <c r="C26" s="41"/>
+      <c r="D26" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F26" s="41"/>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B27" s="32"/>
+      <c r="C27" s="41"/>
+      <c r="D27" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F27" s="41"/>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B28" s="32"/>
+      <c r="C28" s="41"/>
+      <c r="D28" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F28" s="41"/>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B29" s="32"/>
+      <c r="C29" s="41"/>
+      <c r="D29" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F29" s="41"/>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B30" s="32" t="s">
+        <v>185</v>
+      </c>
+      <c r="C30" s="41" t="s">
+        <v>50</v>
+      </c>
+      <c r="D30" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="E23" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F23" s="30"/>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B24" s="26" t="s">
-        <v>102</v>
-      </c>
-      <c r="C24" s="35" t="s">
-        <v>50</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E24" s="3" t="s">
+      <c r="E30" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F30" s="41" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B31" s="32"/>
+      <c r="C31" s="41"/>
+      <c r="D31" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E31" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F24" s="35" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B25" s="26"/>
-      <c r="C25" s="35"/>
-      <c r="D25" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="F25" s="35"/>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B26" s="26"/>
-      <c r="C26" s="35"/>
-      <c r="D26" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F26" s="35"/>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B27" s="26"/>
-      <c r="C27" s="35"/>
-      <c r="D27" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="F27" s="35"/>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B28" s="26"/>
-      <c r="C28" s="35"/>
-      <c r="D28" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="F28" s="35"/>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B29" s="26" t="s">
-        <v>187</v>
-      </c>
-      <c r="C29" s="35" t="s">
-        <v>50</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E29" s="3" t="s">
+      <c r="F31" s="41"/>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B32" s="32"/>
+      <c r="C32" s="41"/>
+      <c r="D32" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E32" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="F29" s="35" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B30" s="26"/>
-      <c r="C30" s="35"/>
-      <c r="D30" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F30" s="35"/>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B31" s="26"/>
-      <c r="C31" s="35"/>
-      <c r="D31" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="F31" s="35"/>
-    </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B32" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>62</v>
-      </c>
+      <c r="F32" s="41"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B33" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B34" s="7" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>69</v>
+        <v>87</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>92</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B35" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>85</v>
+        <v>123</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>66</v>
       </c>
       <c r="D35" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B36" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B37" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="C37" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E37" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="F35" s="3" t="s">
+      <c r="F37" s="35" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B36" s="32" t="s">
-        <v>94</v>
-      </c>
-      <c r="C36" s="29" t="s">
-        <v>68</v>
-      </c>
-      <c r="D36" s="2" t="s">
+      <c r="G37" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B38" s="39"/>
+      <c r="C38" s="37"/>
+      <c r="D38" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="E36" s="3" t="s">
+      <c r="E38" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="F36" s="29" t="s">
+      <c r="F38" s="37"/>
+      <c r="G38" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B39" s="39"/>
+      <c r="C39" s="37"/>
+      <c r="D39" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F39" s="37"/>
+      <c r="G39" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B40" s="39"/>
+      <c r="C40" s="37"/>
+      <c r="D40" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F40" s="37"/>
+      <c r="G40" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B41" s="39"/>
+      <c r="C41" s="37"/>
+      <c r="D41" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="F41" s="37"/>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B42" s="39"/>
+      <c r="C42" s="37"/>
+      <c r="D42" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F42" s="37"/>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B43" s="40"/>
+      <c r="C43" s="36"/>
+      <c r="F43" s="36"/>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B44" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C44" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="G36" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B37" s="33"/>
-      <c r="C37" s="31"/>
-      <c r="D37" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="F37" s="31"/>
-      <c r="G37" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B38" s="33"/>
-      <c r="C38" s="31"/>
-      <c r="D38" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="F38" s="31"/>
-      <c r="G38" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B39" s="33"/>
-      <c r="C39" s="31"/>
-      <c r="D39" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="F39" s="31"/>
-      <c r="G39" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B40" s="33"/>
-      <c r="C40" s="31"/>
-      <c r="D40" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="F40" s="31"/>
-    </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B41" s="33"/>
-      <c r="C41" s="31"/>
-      <c r="D41" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="E41" s="3" t="s">
+      <c r="D44" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F44" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="F41" s="31"/>
-    </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B42" s="34"/>
-      <c r="C42" s="30"/>
-      <c r="F42" s="30"/>
-    </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B43" s="7" t="s">
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B45" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="C43" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B44" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="C44" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="E44" s="10"/>
-      <c r="F44" s="10" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B45" s="7" t="s">
+      <c r="C45" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E45" s="10"/>
+      <c r="F45" s="10" t="s">
         <v>77</v>
-      </c>
-      <c r="C45" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B46" s="7" t="s">
-        <v>123</v>
+        <v>76</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E46" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="E46" s="3" t="s">
         <v>81</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B47" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="C47" s="11" t="s">
-        <v>67</v>
+        <v>122</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E47" s="10" t="s">
+        <v>80</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>125</v>
+        <v>83</v>
       </c>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B48" s="29" t="s">
+      <c r="B48" s="7" t="s">
         <v>134</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="F48" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B49" s="35" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B49" s="30"/>
+      <c r="C49" s="11" t="s">
+        <v>66</v>
+      </c>
       <c r="D49" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="F49" s="30"/>
+      <c r="F49" s="35" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B50" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="C50" s="12" t="s">
-        <v>67</v>
-      </c>
+      <c r="B50" s="36"/>
       <c r="D50" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F50" s="3" t="s">
-        <v>138</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="F50" s="36"/>
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B51" s="7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C51" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F51" s="12" t="s">
-        <v>139</v>
+      <c r="F51" s="3" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B52" s="13" t="s">
-        <v>161</v>
-      </c>
-      <c r="C52" s="3" t="s">
+      <c r="B52" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="C52" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F52" s="12" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B53" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E53" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="D52" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="E52" s="3" t="s">
+      <c r="F53" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="F52" s="3" t="s">
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B54" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="C54" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F54" s="3" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B53" s="14" t="s">
-        <v>147</v>
-      </c>
-      <c r="C53" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="F53" s="3" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B54" s="29" t="s">
-        <v>164</v>
-      </c>
-      <c r="D54" s="2" t="s">
+    <row r="55" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B55" s="35" t="s">
+        <v>162</v>
+      </c>
+      <c r="D55" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E54" s="16" t="s">
+      <c r="E55" s="16" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="55" spans="2:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B55" s="30"/>
-      <c r="D55" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="E55" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="F55" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B56" s="21"/>
+    <row r="56" spans="2:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B56" s="36"/>
       <c r="D56" s="2" t="s">
         <v>150</v>
       </c>
       <c r="E56" s="3" t="s">
         <v>152</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="57" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B57" s="21"/>
       <c r="D57" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B58" s="21"/>
+      <c r="D58" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E57" s="3" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B58" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="C58" s="3" t="s">
+      <c r="E58" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B59" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="F59" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="D58" s="2" t="s">
+    </row>
+    <row r="60" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B60" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="C60" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E60" s="18"/>
+      <c r="F60" s="18" t="s">
         <v>156</v>
       </c>
-      <c r="F58" s="3" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B59" s="17" t="s">
+    </row>
+    <row r="61" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B61" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="C61" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="D61" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="C59" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="E59" s="18"/>
-      <c r="F59" s="18" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B60" s="19" t="s">
-        <v>167</v>
-      </c>
-      <c r="C60" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="E60" s="3" t="s">
+      <c r="E61" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="F61" s="3" t="s">
         <v>166</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="D61" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="E61" s="3" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="62" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D62" s="2" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="E62" s="3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="63" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="D63" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="64" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B64" s="19" t="s">
+        <v>197</v>
+      </c>
+      <c r="C64" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="65" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B65" s="7" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="63" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B63" s="19" t="s">
-        <v>200</v>
-      </c>
-      <c r="C63" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="F63" s="3" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="64" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B64" s="7" t="s">
+      <c r="C65" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F65" s="3" t="s">
         <v>175</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="F64" s="3" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="D65" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="E65" s="3" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="66" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D66" s="2" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="67" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D67" s="2" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="68" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D68" s="2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="E68" s="3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="69" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="D69" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="70" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B70" s="22" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="69" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B69" s="22" t="s">
+      <c r="C70" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="D70" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="C69" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="D69" s="2" t="s">
+      <c r="F70" s="3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="71" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B71" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="F71" s="3" t="s">
         <v>190</v>
-      </c>
-      <c r="F69" s="3" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="70" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B70" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="F70" s="3" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="71" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="D71" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="72" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D72" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="73" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="D73" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="74" spans="2:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="B74" s="23" t="s">
+        <v>198</v>
+      </c>
+      <c r="C74" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="D74" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="E72" s="2" t="s">
-        <v>195</v>
+      <c r="E74" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="F74" s="25" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="75" spans="2:6" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="D75" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E75" s="25" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="76" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B76" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="C76" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="77" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="D77" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="78" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="D78" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="79" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B79" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="F79" s="3" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="80" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B80" s="27" t="s">
+        <v>220</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="81" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="D81" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="82" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="D82" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="84" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B84" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="E84" s="27" t="s">
+        <v>228</v>
+      </c>
+      <c r="F84" s="3" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="85" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B85" s="27" t="s">
+        <v>219</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="E85" s="27" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="86" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="D86" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="E86" s="3" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="87" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="D87" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="E87" s="3" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="88" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="D88" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="E88" s="3" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="89" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B89" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="90" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B90" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="E90" s="3" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="91" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B91" s="28" t="s">
+        <v>243</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="92" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B92" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="E92" s="3" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="93" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="D93" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="E93" s="3" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="94" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="D94" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>253</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="F29:F31"/>
-    <mergeCell ref="B29:B31"/>
-    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="F30:F32"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="C30:C32"/>
     <mergeCell ref="C11:C12"/>
     <mergeCell ref="F11:F12"/>
     <mergeCell ref="B15:B20"/>
     <mergeCell ref="C15:C20"/>
     <mergeCell ref="F15:F20"/>
-    <mergeCell ref="B24:B28"/>
-    <mergeCell ref="C24:C28"/>
-    <mergeCell ref="F24:F28"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="B25:B29"/>
+    <mergeCell ref="C25:C29"/>
+    <mergeCell ref="F25:F29"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="F22:F24"/>
     <mergeCell ref="B11:B13"/>
-    <mergeCell ref="F48:F49"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="F36:F42"/>
-    <mergeCell ref="C36:C42"/>
-    <mergeCell ref="B36:B42"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="F37:F43"/>
+    <mergeCell ref="C37:C43"/>
+    <mergeCell ref="B37:B43"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="F1:F2"/>
@@ -2282,5 +2766,6 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/文档/接口.xlsx
+++ b/文档/接口.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="263">
   <si>
     <t>调用方式</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -981,47 +981,83 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Post</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加评论</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProductId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKUID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReviewText</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OrderId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKUid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>评论内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>api/ShopCommentApi/Post</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Post</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>添加评论</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ProductId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SKUID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ReviewText</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OrderId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SKUid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>订单ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>评论内容</t>
+    <t>api/ShopOrderApi/CancleOrder/订单id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回值说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>错误的还是通用的处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功的时候，data对象里包含两个字段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Msg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:直接取消成功，2：提交了取消申请，需要人工处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>code=2的描述文字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取消订单</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1123,7 +1159,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1185,19 +1221,8 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1205,8 +1230,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1217,12 +1246,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1570,7 +1609,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G94"/>
+  <dimension ref="B1:G99"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
       <selection activeCell="B96" sqref="B96"/>
@@ -1588,39 +1627,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="29"/>
-      <c r="F1" s="31" t="s">
+      <c r="E1" s="42"/>
+      <c r="F1" s="44" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B2" s="30"/>
-      <c r="C2" s="31"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="44"/>
       <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="31"/>
+      <c r="F2" s="44"/>
       <c r="G2" s="2" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="3" spans="2:7" ht="94.5" x14ac:dyDescent="0.15">
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="33" t="s">
+      <c r="C3" s="34" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -1629,31 +1668,31 @@
       <c r="E3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="34" t="s">
+      <c r="F3" s="45" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B4" s="32"/>
-      <c r="C4" s="33"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="34"/>
       <c r="D4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="33"/>
+      <c r="F4" s="34"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B5" s="32"/>
-      <c r="C5" s="33"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="34"/>
       <c r="D5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="33"/>
+      <c r="F5" s="34"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B6" s="7" t="s">
@@ -1729,32 +1768,32 @@
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B11" s="35" t="s">
+      <c r="B11" s="30" t="s">
         <v>144</v>
       </c>
-      <c r="C11" s="33" t="s">
+      <c r="C11" s="34" t="s">
         <v>18</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="33" t="s">
+      <c r="F11" s="34" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B12" s="37"/>
-      <c r="C12" s="33"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="34"/>
       <c r="D12" s="2" t="s">
         <v>127</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="F12" s="33"/>
+      <c r="F12" s="34"/>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B13" s="36"/>
+      <c r="B13" s="31"/>
       <c r="C13" s="11"/>
       <c r="D13" s="2" t="s">
         <v>125</v>
@@ -1782,10 +1821,10 @@
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B15" s="38" t="s">
+      <c r="B15" s="35" t="s">
         <v>172</v>
       </c>
-      <c r="C15" s="35" t="s">
+      <c r="C15" s="30" t="s">
         <v>39</v>
       </c>
       <c r="D15" s="2" t="s">
@@ -1794,64 +1833,64 @@
       <c r="E15" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="F15" s="35" t="s">
+      <c r="F15" s="30" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B16" s="39"/>
-      <c r="C16" s="37"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="38"/>
       <c r="D16" s="2" t="s">
         <v>85</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="F16" s="37"/>
+      <c r="F16" s="38"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B17" s="39"/>
-      <c r="C17" s="37"/>
+      <c r="B17" s="36"/>
+      <c r="C17" s="38"/>
       <c r="D17" s="2" t="s">
         <v>91</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="F17" s="37"/>
+      <c r="F17" s="38"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B18" s="39"/>
-      <c r="C18" s="37"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="38"/>
       <c r="D18" s="2" t="s">
         <v>41</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F18" s="37"/>
+      <c r="F18" s="38"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B19" s="39"/>
-      <c r="C19" s="37"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="38"/>
       <c r="D19" s="2" t="s">
         <v>42</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="F19" s="37"/>
+      <c r="F19" s="38"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B20" s="40"/>
-      <c r="C20" s="36"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="31"/>
       <c r="D20" s="2" t="s">
         <v>43</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F20" s="36"/>
+      <c r="F20" s="31"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B21" s="7" t="s">
@@ -1871,10 +1910,10 @@
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B22" s="42" t="s">
+      <c r="B22" s="39" t="s">
         <v>106</v>
       </c>
-      <c r="C22" s="35" t="s">
+      <c r="C22" s="30" t="s">
         <v>50</v>
       </c>
       <c r="D22" s="2" t="s">
@@ -1883,37 +1922,37 @@
       <c r="E22" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="F22" s="35" t="s">
+      <c r="F22" s="30" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B23" s="43"/>
-      <c r="C23" s="37"/>
+      <c r="B23" s="40"/>
+      <c r="C23" s="38"/>
       <c r="D23" s="2" t="s">
         <v>108</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="F23" s="37"/>
+      <c r="F23" s="38"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B24" s="44"/>
-      <c r="C24" s="36"/>
+      <c r="B24" s="41"/>
+      <c r="C24" s="31"/>
       <c r="D24" s="2" t="s">
         <v>214</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="F24" s="36"/>
+      <c r="F24" s="31"/>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B25" s="32" t="s">
+      <c r="B25" s="33" t="s">
         <v>101</v>
       </c>
-      <c r="C25" s="41" t="s">
+      <c r="C25" s="32" t="s">
         <v>50</v>
       </c>
       <c r="D25" s="2" t="s">
@@ -1922,59 +1961,59 @@
       <c r="E25" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="F25" s="41" t="s">
+      <c r="F25" s="32" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B26" s="32"/>
-      <c r="C26" s="41"/>
+      <c r="B26" s="33"/>
+      <c r="C26" s="32"/>
       <c r="D26" s="2" t="s">
         <v>103</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="F26" s="41"/>
+      <c r="F26" s="32"/>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B27" s="32"/>
-      <c r="C27" s="41"/>
+      <c r="B27" s="33"/>
+      <c r="C27" s="32"/>
       <c r="D27" s="2" t="s">
         <v>52</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F27" s="41"/>
+      <c r="F27" s="32"/>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B28" s="32"/>
-      <c r="C28" s="41"/>
+      <c r="B28" s="33"/>
+      <c r="C28" s="32"/>
       <c r="D28" s="2" t="s">
         <v>104</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="F28" s="41"/>
+      <c r="F28" s="32"/>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B29" s="32"/>
-      <c r="C29" s="41"/>
+      <c r="B29" s="33"/>
+      <c r="C29" s="32"/>
       <c r="D29" s="2" t="s">
         <v>105</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="F29" s="41"/>
+      <c r="F29" s="32"/>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B30" s="32" t="s">
+      <c r="B30" s="33" t="s">
         <v>185</v>
       </c>
-      <c r="C30" s="41" t="s">
+      <c r="C30" s="32" t="s">
         <v>50</v>
       </c>
       <c r="D30" s="2" t="s">
@@ -1983,31 +2022,31 @@
       <c r="E30" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="F30" s="41" t="s">
+      <c r="F30" s="32" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B31" s="32"/>
-      <c r="C31" s="41"/>
+      <c r="B31" s="33"/>
+      <c r="C31" s="32"/>
       <c r="D31" s="2" t="s">
         <v>110</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F31" s="41"/>
+      <c r="F31" s="32"/>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B32" s="32"/>
-      <c r="C32" s="41"/>
+      <c r="B32" s="33"/>
+      <c r="C32" s="32"/>
       <c r="D32" s="2" t="s">
         <v>111</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="F32" s="41"/>
+      <c r="F32" s="32"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B33" s="7" t="s">
@@ -2072,10 +2111,10 @@
       </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B37" s="38" t="s">
+      <c r="B37" s="35" t="s">
         <v>93</v>
       </c>
-      <c r="C37" s="35" t="s">
+      <c r="C37" s="30" t="s">
         <v>67</v>
       </c>
       <c r="D37" s="2" t="s">
@@ -2084,7 +2123,7 @@
       <c r="E37" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="F37" s="35" t="s">
+      <c r="F37" s="30" t="s">
         <v>65</v>
       </c>
       <c r="G37" s="2" t="s">
@@ -2092,73 +2131,73 @@
       </c>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B38" s="39"/>
-      <c r="C38" s="37"/>
+      <c r="B38" s="36"/>
+      <c r="C38" s="38"/>
       <c r="D38" s="2" t="s">
         <v>95</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="F38" s="37"/>
+      <c r="F38" s="38"/>
       <c r="G38" s="2" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B39" s="39"/>
-      <c r="C39" s="37"/>
+      <c r="B39" s="36"/>
+      <c r="C39" s="38"/>
       <c r="D39" s="2" t="s">
         <v>96</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="F39" s="37"/>
+      <c r="F39" s="38"/>
       <c r="G39" s="2" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B40" s="39"/>
-      <c r="C40" s="37"/>
+      <c r="B40" s="36"/>
+      <c r="C40" s="38"/>
       <c r="D40" s="2" t="s">
         <v>97</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="F40" s="37"/>
+      <c r="F40" s="38"/>
       <c r="G40" s="2" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B41" s="39"/>
-      <c r="C41" s="37"/>
+      <c r="B41" s="36"/>
+      <c r="C41" s="38"/>
       <c r="D41" s="2" t="s">
         <v>98</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="F41" s="37"/>
+      <c r="F41" s="38"/>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B42" s="39"/>
-      <c r="C42" s="37"/>
+      <c r="B42" s="36"/>
+      <c r="C42" s="38"/>
       <c r="D42" s="2" t="s">
         <v>100</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="F42" s="37"/>
+      <c r="F42" s="38"/>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B43" s="40"/>
-      <c r="C43" s="36"/>
-      <c r="F43" s="36"/>
+      <c r="B43" s="37"/>
+      <c r="C43" s="31"/>
+      <c r="F43" s="31"/>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B44" s="7" t="s">
@@ -2232,7 +2271,7 @@
       </c>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B49" s="35" t="s">
+      <c r="B49" s="30" t="s">
         <v>133</v>
       </c>
       <c r="C49" s="11" t="s">
@@ -2244,19 +2283,19 @@
       <c r="E49" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="F49" s="35" t="s">
+      <c r="F49" s="30" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B50" s="36"/>
+      <c r="B50" s="31"/>
       <c r="D50" s="2" t="s">
         <v>129</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="F50" s="36"/>
+      <c r="F50" s="31"/>
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B51" s="7" t="s">
@@ -2318,7 +2357,7 @@
       </c>
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B55" s="35" t="s">
+      <c r="B55" s="30" t="s">
         <v>162</v>
       </c>
       <c r="D55" s="2" t="s">
@@ -2329,7 +2368,7 @@
       </c>
     </row>
     <row r="56" spans="2:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B56" s="36"/>
+      <c r="B56" s="31"/>
       <c r="D56" s="2" t="s">
         <v>150</v>
       </c>
@@ -2693,47 +2732,99 @@
     </row>
     <row r="91" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B91" s="28" t="s">
+        <v>253</v>
+      </c>
+      <c r="C91" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="C91" s="3" t="s">
-        <v>244</v>
-      </c>
       <c r="D91" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="92" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B92" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="93" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D93" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="94" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D94" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
+      </c>
+    </row>
+    <row r="95" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B95" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="C95" s="29" t="s">
+        <v>241</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="96" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B96" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="97" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="D97" s="2" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="98" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="D98" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="E98" s="3" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="99" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="D99" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="E99" s="3" t="s">
+        <v>261</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="F3:F5"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="F37:F43"/>
+    <mergeCell ref="C37:C43"/>
+    <mergeCell ref="B37:B43"/>
     <mergeCell ref="B55:B56"/>
     <mergeCell ref="F30:F32"/>
     <mergeCell ref="B30:B32"/>
@@ -2750,18 +2841,6 @@
     <mergeCell ref="C22:C24"/>
     <mergeCell ref="F22:F24"/>
     <mergeCell ref="B11:B13"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="F37:F43"/>
-    <mergeCell ref="C37:C43"/>
-    <mergeCell ref="B37:B43"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="F3:F5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/文档/接口.xlsx
+++ b/文档/接口.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="271">
   <si>
     <t>调用方式</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -884,144 +884,192 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>忘记密码引导接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>忘记密码提交新密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>忘记密码引导接口，主要返回验证方式和手机尾号确认</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Account</t>
+  </si>
+  <si>
+    <t>VaryType</t>
+  </si>
+  <si>
+    <t>0.手机短信1 邮箱 2 手机和邮箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>处理后的手机号，只显示后4位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Account</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VaryType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NewPwd</t>
+  </si>
+  <si>
+    <t>ConfirmNewPwd</t>
+  </si>
+  <si>
+    <t>ValidCode</t>
+  </si>
+  <si>
+    <t>新密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码确认</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证码 2222</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/ShopCommentApi/get</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>pageIndex</t>
+  </si>
+  <si>
+    <t>商品id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>页数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">get </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取商品评论</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Post</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加评论</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProductId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKUID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReviewText</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OrderId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKUid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>评论内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/ShopCommentApi/Post</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回值说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>错误的还是通用的处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功的时候，data对象里包含两个字段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Msg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:直接取消成功，2：提交了取消申请，需要人工处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>code=2的描述文字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取消订单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>api/userapi/ResetPwd</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>忘记密码引导接口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>忘记密码提交新密码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>忘记密码引导接口，主要返回验证方式和手机尾号确认</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Account</t>
-  </si>
-  <si>
-    <t>VaryType</t>
-  </si>
-  <si>
-    <t>0.手机短信1 邮箱 2 手机和邮箱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>处理后的手机号，只显示后4位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Account</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VaryType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>账号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NewPwd</t>
-  </si>
-  <si>
-    <t>ConfirmNewPwd</t>
-  </si>
-  <si>
-    <t>ValidCode</t>
-  </si>
-  <si>
-    <t>新密码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>密码确认</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>验证码 2222</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>api/userapi/ResetPwdPost</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>api/ShopCommentApi/get</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>pageIndex</t>
-  </si>
-  <si>
-    <t>商品id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>页数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">get </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取商品评论</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Post</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>添加评论</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ProductId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SKUID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ReviewText</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OrderId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SKUid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>订单ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>评论内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>api/ShopCommentApi/Post</t>
+    <t>api/userapi/GetForgetValiCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TelNo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账号（不是手机号，虽然目前手机号和账号一样，后台是安装账号来处理的）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果不用密码引导接口，采用直接获取验证码的方式，通过这个接口获取验证码</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1029,35 +1077,20 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>返回值说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>错误的还是通用的处理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>成功的时候，data对象里包含两个字段</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Msg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1:直接取消成功，2：提交了取消申请，需要人工处理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>code=2的描述文字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>取消订单</t>
+    <t>api/ShopOrderApi/PaySuccess</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>传递订单ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>付款成功的时候调用下，失败了就调用通用异常接口就行
+这地方后台把付款状态改成了付款待确认，但是前台展示付款状态的时候，为了不必要的纠纷，还是显示付款成功</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1159,7 +1192,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1224,19 +1257,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1246,21 +1296,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1291,7 +1334,7 @@
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>465099</xdr:colOff>
-      <xdr:row>116</xdr:row>
+      <xdr:row>114</xdr:row>
       <xdr:rowOff>151486</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1609,10 +1652,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G99"/>
+  <dimension ref="B1:G102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="B96" sqref="B96"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="B102" sqref="B102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1627,39 +1670,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="44" t="s">
+      <c r="C1" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="42" t="s">
+      <c r="D1" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="42"/>
-      <c r="F1" s="44" t="s">
+      <c r="E1" s="33"/>
+      <c r="F1" s="35" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B2" s="43"/>
-      <c r="C2" s="44"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="35"/>
       <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="44"/>
+      <c r="F2" s="35"/>
       <c r="G2" s="2" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="3" spans="2:7" ht="94.5" x14ac:dyDescent="0.15">
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="34" t="s">
+      <c r="C3" s="37" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -1668,31 +1711,31 @@
       <c r="E3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="45" t="s">
+      <c r="F3" s="38" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B4" s="33"/>
-      <c r="C4" s="34"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="37"/>
       <c r="D4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="34"/>
+      <c r="F4" s="37"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B5" s="33"/>
-      <c r="C5" s="34"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="37"/>
       <c r="D5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="34"/>
+      <c r="F5" s="37"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B6" s="7" t="s">
@@ -1768,32 +1811,32 @@
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B11" s="30" t="s">
+      <c r="B11" s="39" t="s">
         <v>144</v>
       </c>
-      <c r="C11" s="34" t="s">
+      <c r="C11" s="37" t="s">
         <v>18</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="34" t="s">
+      <c r="F11" s="37" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B12" s="38"/>
-      <c r="C12" s="34"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="37"/>
       <c r="D12" s="2" t="s">
         <v>127</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="F12" s="34"/>
+      <c r="F12" s="37"/>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B13" s="31"/>
+      <c r="B13" s="40"/>
       <c r="C13" s="11"/>
       <c r="D13" s="2" t="s">
         <v>125</v>
@@ -1821,10 +1864,10 @@
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B15" s="35" t="s">
+      <c r="B15" s="42" t="s">
         <v>172</v>
       </c>
-      <c r="C15" s="30" t="s">
+      <c r="C15" s="39" t="s">
         <v>39</v>
       </c>
       <c r="D15" s="2" t="s">
@@ -1833,64 +1876,64 @@
       <c r="E15" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="F15" s="30" t="s">
+      <c r="F15" s="39" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B16" s="36"/>
-      <c r="C16" s="38"/>
+      <c r="B16" s="43"/>
+      <c r="C16" s="41"/>
       <c r="D16" s="2" t="s">
         <v>85</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="F16" s="38"/>
+      <c r="F16" s="41"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B17" s="36"/>
-      <c r="C17" s="38"/>
+      <c r="B17" s="43"/>
+      <c r="C17" s="41"/>
       <c r="D17" s="2" t="s">
         <v>91</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="F17" s="38"/>
+      <c r="F17" s="41"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B18" s="36"/>
-      <c r="C18" s="38"/>
+      <c r="B18" s="43"/>
+      <c r="C18" s="41"/>
       <c r="D18" s="2" t="s">
         <v>41</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F18" s="38"/>
+      <c r="F18" s="41"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B19" s="36"/>
-      <c r="C19" s="38"/>
+      <c r="B19" s="43"/>
+      <c r="C19" s="41"/>
       <c r="D19" s="2" t="s">
         <v>42</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="F19" s="38"/>
+      <c r="F19" s="41"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B20" s="37"/>
-      <c r="C20" s="31"/>
+      <c r="B20" s="44"/>
+      <c r="C20" s="40"/>
       <c r="D20" s="2" t="s">
         <v>43</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F20" s="31"/>
+      <c r="F20" s="40"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B21" s="7" t="s">
@@ -1910,10 +1953,10 @@
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B22" s="39" t="s">
+      <c r="B22" s="46" t="s">
         <v>106</v>
       </c>
-      <c r="C22" s="30" t="s">
+      <c r="C22" s="39" t="s">
         <v>50</v>
       </c>
       <c r="D22" s="2" t="s">
@@ -1922,37 +1965,37 @@
       <c r="E22" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="F22" s="30" t="s">
+      <c r="F22" s="39" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B23" s="40"/>
-      <c r="C23" s="38"/>
+      <c r="B23" s="47"/>
+      <c r="C23" s="41"/>
       <c r="D23" s="2" t="s">
         <v>108</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="F23" s="38"/>
+      <c r="F23" s="41"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B24" s="41"/>
-      <c r="C24" s="31"/>
+      <c r="B24" s="48"/>
+      <c r="C24" s="40"/>
       <c r="D24" s="2" t="s">
         <v>214</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="F24" s="31"/>
+      <c r="F24" s="40"/>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B25" s="33" t="s">
+      <c r="B25" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="C25" s="32" t="s">
+      <c r="C25" s="45" t="s">
         <v>50</v>
       </c>
       <c r="D25" s="2" t="s">
@@ -1961,59 +2004,59 @@
       <c r="E25" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="F25" s="32" t="s">
+      <c r="F25" s="45" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B26" s="33"/>
-      <c r="C26" s="32"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="45"/>
       <c r="D26" s="2" t="s">
         <v>103</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="F26" s="32"/>
+      <c r="F26" s="45"/>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B27" s="33"/>
-      <c r="C27" s="32"/>
+      <c r="B27" s="36"/>
+      <c r="C27" s="45"/>
       <c r="D27" s="2" t="s">
         <v>52</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F27" s="32"/>
+      <c r="F27" s="45"/>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B28" s="33"/>
-      <c r="C28" s="32"/>
+      <c r="B28" s="36"/>
+      <c r="C28" s="45"/>
       <c r="D28" s="2" t="s">
         <v>104</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="F28" s="32"/>
+      <c r="F28" s="45"/>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B29" s="33"/>
-      <c r="C29" s="32"/>
+      <c r="B29" s="36"/>
+      <c r="C29" s="45"/>
       <c r="D29" s="2" t="s">
         <v>105</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="F29" s="32"/>
+      <c r="F29" s="45"/>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B30" s="33" t="s">
+      <c r="B30" s="36" t="s">
         <v>185</v>
       </c>
-      <c r="C30" s="32" t="s">
+      <c r="C30" s="45" t="s">
         <v>50</v>
       </c>
       <c r="D30" s="2" t="s">
@@ -2022,31 +2065,31 @@
       <c r="E30" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="F30" s="32" t="s">
+      <c r="F30" s="45" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B31" s="33"/>
-      <c r="C31" s="32"/>
+      <c r="B31" s="36"/>
+      <c r="C31" s="45"/>
       <c r="D31" s="2" t="s">
         <v>110</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F31" s="32"/>
+      <c r="F31" s="45"/>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B32" s="33"/>
-      <c r="C32" s="32"/>
+      <c r="B32" s="36"/>
+      <c r="C32" s="45"/>
       <c r="D32" s="2" t="s">
         <v>111</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="F32" s="32"/>
+      <c r="F32" s="45"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B33" s="7" t="s">
@@ -2111,10 +2154,10 @@
       </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B37" s="35" t="s">
+      <c r="B37" s="42" t="s">
         <v>93</v>
       </c>
-      <c r="C37" s="30" t="s">
+      <c r="C37" s="39" t="s">
         <v>67</v>
       </c>
       <c r="D37" s="2" t="s">
@@ -2123,7 +2166,7 @@
       <c r="E37" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="F37" s="30" t="s">
+      <c r="F37" s="39" t="s">
         <v>65</v>
       </c>
       <c r="G37" s="2" t="s">
@@ -2131,73 +2174,73 @@
       </c>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B38" s="36"/>
-      <c r="C38" s="38"/>
+      <c r="B38" s="43"/>
+      <c r="C38" s="41"/>
       <c r="D38" s="2" t="s">
         <v>95</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="F38" s="38"/>
+      <c r="F38" s="41"/>
       <c r="G38" s="2" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B39" s="36"/>
-      <c r="C39" s="38"/>
+      <c r="B39" s="43"/>
+      <c r="C39" s="41"/>
       <c r="D39" s="2" t="s">
         <v>96</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="F39" s="38"/>
+      <c r="F39" s="41"/>
       <c r="G39" s="2" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B40" s="36"/>
-      <c r="C40" s="38"/>
+      <c r="B40" s="43"/>
+      <c r="C40" s="41"/>
       <c r="D40" s="2" t="s">
         <v>97</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="F40" s="38"/>
+      <c r="F40" s="41"/>
       <c r="G40" s="2" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B41" s="36"/>
-      <c r="C41" s="38"/>
+      <c r="B41" s="43"/>
+      <c r="C41" s="41"/>
       <c r="D41" s="2" t="s">
         <v>98</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="F41" s="38"/>
+      <c r="F41" s="41"/>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B42" s="36"/>
-      <c r="C42" s="38"/>
+      <c r="B42" s="43"/>
+      <c r="C42" s="41"/>
       <c r="D42" s="2" t="s">
         <v>100</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="F42" s="38"/>
+      <c r="F42" s="41"/>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B43" s="37"/>
-      <c r="C43" s="31"/>
-      <c r="F43" s="31"/>
+      <c r="B43" s="44"/>
+      <c r="C43" s="40"/>
+      <c r="F43" s="40"/>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B44" s="7" t="s">
@@ -2271,7 +2314,7 @@
       </c>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B49" s="30" t="s">
+      <c r="B49" s="39" t="s">
         <v>133</v>
       </c>
       <c r="C49" s="11" t="s">
@@ -2283,19 +2326,19 @@
       <c r="E49" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="F49" s="30" t="s">
+      <c r="F49" s="39" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B50" s="31"/>
+      <c r="B50" s="40"/>
       <c r="D50" s="2" t="s">
         <v>129</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="F50" s="31"/>
+      <c r="F50" s="40"/>
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B51" s="7" t="s">
@@ -2357,7 +2400,7 @@
       </c>
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B55" s="30" t="s">
+      <c r="B55" s="39" t="s">
         <v>162</v>
       </c>
       <c r="D55" s="2" t="s">
@@ -2368,7 +2411,7 @@
       </c>
     </row>
     <row r="56" spans="2:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B56" s="31"/>
+      <c r="B56" s="40"/>
       <c r="D56" s="2" t="s">
         <v>150</v>
       </c>
@@ -2623,208 +2666,234 @@
     </row>
     <row r="79" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B79" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="F79" s="3" t="s">
         <v>217</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="E79" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="F79" s="3" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="80" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B80" s="27" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D80" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="E80" s="3" t="s">
         <v>222</v>
-      </c>
-      <c r="E80" s="3" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="81" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D81" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="82" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D82" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="83" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B83" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="E83" s="31" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="84" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B84" s="30" t="s">
+        <v>265</v>
+      </c>
+      <c r="C84" s="31"/>
+      <c r="E84" s="31"/>
+      <c r="F84" s="31"/>
+    </row>
+    <row r="85" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B85" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="D85" s="2" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="84" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B84" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="D84" s="2" t="s">
+      <c r="E85" s="27" t="s">
+        <v>227</v>
+      </c>
+      <c r="F85" s="3" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="86" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B86" s="27" t="s">
+        <v>218</v>
+      </c>
+      <c r="D86" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="E84" s="27" t="s">
-        <v>228</v>
-      </c>
-      <c r="F84" s="3" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="85" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B85" s="27" t="s">
-        <v>219</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="E85" s="27" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="86" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="D86" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="E86" s="3" t="s">
-        <v>232</v>
+      <c r="E86" s="27" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="87" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D87" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="88" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D88" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="89" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B89" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="C89" s="3" t="s">
-        <v>241</v>
-      </c>
       <c r="D89" s="2" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
     </row>
     <row r="90" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B90" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="E90" s="3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="91" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B91" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="92" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B92" s="28" t="s">
+        <v>251</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="E92" s="3" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="93" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B93" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="D90" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="E90" s="3" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="91" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B91" s="28" t="s">
-        <v>253</v>
-      </c>
-      <c r="C91" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="92" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B92" s="7" t="s">
+      <c r="D93" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="D92" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="E92" s="3" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="93" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="D93" s="2" t="s">
+      <c r="E93" s="3" t="s">
         <v>248</v>
-      </c>
-      <c r="E93" s="3" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="94" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D94" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="95" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B95" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="C95" s="29" t="s">
-        <v>241</v>
-      </c>
       <c r="D95" s="2" t="s">
-        <v>255</v>
+        <v>245</v>
+      </c>
+      <c r="E95" s="3" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="96" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B96" s="7" t="s">
-        <v>262</v>
+        <v>266</v>
+      </c>
+      <c r="C96" s="29" t="s">
+        <v>239</v>
       </c>
       <c r="D96" s="2" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="97" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B97" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="98" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D98" s="2" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="99" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D99" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="E99" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="100" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D100" s="2" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="97" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D97" s="2" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="98" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D98" s="2" t="s">
+      <c r="E100" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="E98" s="3" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="99" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D99" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="E99" s="3" t="s">
-        <v>261</v>
+    </row>
+    <row r="101" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B101" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="C101" s="32" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="102" spans="2:5" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="B102" s="49" t="s">
+        <v>270</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>269</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="F3:F5"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="F37:F43"/>
-    <mergeCell ref="C37:C43"/>
-    <mergeCell ref="B37:B43"/>
     <mergeCell ref="B55:B56"/>
     <mergeCell ref="F30:F32"/>
     <mergeCell ref="B30:B32"/>
@@ -2841,6 +2910,18 @@
     <mergeCell ref="C22:C24"/>
     <mergeCell ref="F22:F24"/>
     <mergeCell ref="B11:B13"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="F37:F43"/>
+    <mergeCell ref="C37:C43"/>
+    <mergeCell ref="B37:B43"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="F3:F5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/文档/接口.xlsx
+++ b/文档/接口.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="273">
   <si>
     <t>调用方式</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1091,6 +1091,14 @@
   <si>
     <t>付款成功的时候调用下，失败了就调用通用异常接口就行
 这地方后台把付款状态改成了付款待确认，但是前台展示付款状态的时候，为了不必要的纠纷，还是显示付款成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CommentOrder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>评论等级（0差评 1中评，2好评）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1192,7 +1200,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1264,6 +1272,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1271,39 +1314,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1652,10 +1664,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G102"/>
+  <dimension ref="B1:G103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="B102" sqref="B102"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="B92" sqref="B92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1670,39 +1682,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="35" t="s">
+      <c r="C1" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="D1" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="33"/>
-      <c r="F1" s="35" t="s">
+      <c r="E1" s="48"/>
+      <c r="F1" s="50" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B2" s="34"/>
-      <c r="C2" s="35"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="50"/>
       <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="35"/>
+      <c r="F2" s="50"/>
       <c r="G2" s="2" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="3" spans="2:7" ht="94.5" x14ac:dyDescent="0.15">
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="37" t="s">
+      <c r="C3" s="40" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -1711,31 +1723,31 @@
       <c r="E3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="38" t="s">
+      <c r="F3" s="51" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B4" s="36"/>
-      <c r="C4" s="37"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="40"/>
       <c r="D4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="37"/>
+      <c r="F4" s="40"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B5" s="36"/>
-      <c r="C5" s="37"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="40"/>
       <c r="D5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="37"/>
+      <c r="F5" s="40"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B6" s="7" t="s">
@@ -1811,32 +1823,32 @@
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B11" s="39" t="s">
+      <c r="B11" s="36" t="s">
         <v>144</v>
       </c>
-      <c r="C11" s="37" t="s">
+      <c r="C11" s="40" t="s">
         <v>18</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="37" t="s">
+      <c r="F11" s="40" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B12" s="41"/>
-      <c r="C12" s="37"/>
+      <c r="B12" s="44"/>
+      <c r="C12" s="40"/>
       <c r="D12" s="2" t="s">
         <v>127</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="F12" s="37"/>
+      <c r="F12" s="40"/>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B13" s="40"/>
+      <c r="B13" s="37"/>
       <c r="C13" s="11"/>
       <c r="D13" s="2" t="s">
         <v>125</v>
@@ -1864,10 +1876,10 @@
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B15" s="42" t="s">
+      <c r="B15" s="41" t="s">
         <v>172</v>
       </c>
-      <c r="C15" s="39" t="s">
+      <c r="C15" s="36" t="s">
         <v>39</v>
       </c>
       <c r="D15" s="2" t="s">
@@ -1876,64 +1888,64 @@
       <c r="E15" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="F15" s="39" t="s">
+      <c r="F15" s="36" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B16" s="43"/>
-      <c r="C16" s="41"/>
+      <c r="B16" s="42"/>
+      <c r="C16" s="44"/>
       <c r="D16" s="2" t="s">
         <v>85</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="F16" s="41"/>
+      <c r="F16" s="44"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B17" s="43"/>
-      <c r="C17" s="41"/>
+      <c r="B17" s="42"/>
+      <c r="C17" s="44"/>
       <c r="D17" s="2" t="s">
         <v>91</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="F17" s="41"/>
+      <c r="F17" s="44"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B18" s="43"/>
-      <c r="C18" s="41"/>
+      <c r="B18" s="42"/>
+      <c r="C18" s="44"/>
       <c r="D18" s="2" t="s">
         <v>41</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F18" s="41"/>
+      <c r="F18" s="44"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B19" s="43"/>
-      <c r="C19" s="41"/>
+      <c r="B19" s="42"/>
+      <c r="C19" s="44"/>
       <c r="D19" s="2" t="s">
         <v>42</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="F19" s="41"/>
+      <c r="F19" s="44"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B20" s="44"/>
-      <c r="C20" s="40"/>
+      <c r="B20" s="43"/>
+      <c r="C20" s="37"/>
       <c r="D20" s="2" t="s">
         <v>43</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F20" s="40"/>
+      <c r="F20" s="37"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B21" s="7" t="s">
@@ -1953,10 +1965,10 @@
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B22" s="46" t="s">
+      <c r="B22" s="45" t="s">
         <v>106</v>
       </c>
-      <c r="C22" s="39" t="s">
+      <c r="C22" s="36" t="s">
         <v>50</v>
       </c>
       <c r="D22" s="2" t="s">
@@ -1965,37 +1977,37 @@
       <c r="E22" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="F22" s="39" t="s">
+      <c r="F22" s="36" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B23" s="47"/>
-      <c r="C23" s="41"/>
+      <c r="B23" s="46"/>
+      <c r="C23" s="44"/>
       <c r="D23" s="2" t="s">
         <v>108</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="F23" s="41"/>
+      <c r="F23" s="44"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B24" s="48"/>
-      <c r="C24" s="40"/>
+      <c r="B24" s="47"/>
+      <c r="C24" s="37"/>
       <c r="D24" s="2" t="s">
         <v>214</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="F24" s="40"/>
+      <c r="F24" s="37"/>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B25" s="36" t="s">
+      <c r="B25" s="39" t="s">
         <v>101</v>
       </c>
-      <c r="C25" s="45" t="s">
+      <c r="C25" s="38" t="s">
         <v>50</v>
       </c>
       <c r="D25" s="2" t="s">
@@ -2004,59 +2016,59 @@
       <c r="E25" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="F25" s="45" t="s">
+      <c r="F25" s="38" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B26" s="36"/>
-      <c r="C26" s="45"/>
+      <c r="B26" s="39"/>
+      <c r="C26" s="38"/>
       <c r="D26" s="2" t="s">
         <v>103</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="F26" s="45"/>
+      <c r="F26" s="38"/>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B27" s="36"/>
-      <c r="C27" s="45"/>
+      <c r="B27" s="39"/>
+      <c r="C27" s="38"/>
       <c r="D27" s="2" t="s">
         <v>52</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F27" s="45"/>
+      <c r="F27" s="38"/>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B28" s="36"/>
-      <c r="C28" s="45"/>
+      <c r="B28" s="39"/>
+      <c r="C28" s="38"/>
       <c r="D28" s="2" t="s">
         <v>104</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="F28" s="45"/>
+      <c r="F28" s="38"/>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B29" s="36"/>
-      <c r="C29" s="45"/>
+      <c r="B29" s="39"/>
+      <c r="C29" s="38"/>
       <c r="D29" s="2" t="s">
         <v>105</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="F29" s="45"/>
+      <c r="F29" s="38"/>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B30" s="36" t="s">
+      <c r="B30" s="39" t="s">
         <v>185</v>
       </c>
-      <c r="C30" s="45" t="s">
+      <c r="C30" s="38" t="s">
         <v>50</v>
       </c>
       <c r="D30" s="2" t="s">
@@ -2065,31 +2077,31 @@
       <c r="E30" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="F30" s="45" t="s">
+      <c r="F30" s="38" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B31" s="36"/>
-      <c r="C31" s="45"/>
+      <c r="B31" s="39"/>
+      <c r="C31" s="38"/>
       <c r="D31" s="2" t="s">
         <v>110</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F31" s="45"/>
+      <c r="F31" s="38"/>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B32" s="36"/>
-      <c r="C32" s="45"/>
+      <c r="B32" s="39"/>
+      <c r="C32" s="38"/>
       <c r="D32" s="2" t="s">
         <v>111</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="F32" s="45"/>
+      <c r="F32" s="38"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B33" s="7" t="s">
@@ -2154,10 +2166,10 @@
       </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B37" s="42" t="s">
+      <c r="B37" s="41" t="s">
         <v>93</v>
       </c>
-      <c r="C37" s="39" t="s">
+      <c r="C37" s="36" t="s">
         <v>67</v>
       </c>
       <c r="D37" s="2" t="s">
@@ -2166,7 +2178,7 @@
       <c r="E37" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="F37" s="39" t="s">
+      <c r="F37" s="36" t="s">
         <v>65</v>
       </c>
       <c r="G37" s="2" t="s">
@@ -2174,73 +2186,73 @@
       </c>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B38" s="43"/>
-      <c r="C38" s="41"/>
+      <c r="B38" s="42"/>
+      <c r="C38" s="44"/>
       <c r="D38" s="2" t="s">
         <v>95</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="F38" s="41"/>
+      <c r="F38" s="44"/>
       <c r="G38" s="2" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B39" s="43"/>
-      <c r="C39" s="41"/>
+      <c r="B39" s="42"/>
+      <c r="C39" s="44"/>
       <c r="D39" s="2" t="s">
         <v>96</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="F39" s="41"/>
+      <c r="F39" s="44"/>
       <c r="G39" s="2" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B40" s="43"/>
-      <c r="C40" s="41"/>
+      <c r="B40" s="42"/>
+      <c r="C40" s="44"/>
       <c r="D40" s="2" t="s">
         <v>97</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="F40" s="41"/>
+      <c r="F40" s="44"/>
       <c r="G40" s="2" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B41" s="43"/>
-      <c r="C41" s="41"/>
+      <c r="B41" s="42"/>
+      <c r="C41" s="44"/>
       <c r="D41" s="2" t="s">
         <v>98</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="F41" s="41"/>
+      <c r="F41" s="44"/>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B42" s="43"/>
-      <c r="C42" s="41"/>
+      <c r="B42" s="42"/>
+      <c r="C42" s="44"/>
       <c r="D42" s="2" t="s">
         <v>100</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="F42" s="41"/>
+      <c r="F42" s="44"/>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B43" s="44"/>
-      <c r="C43" s="40"/>
-      <c r="F43" s="40"/>
+      <c r="B43" s="43"/>
+      <c r="C43" s="37"/>
+      <c r="F43" s="37"/>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B44" s="7" t="s">
@@ -2314,7 +2326,7 @@
       </c>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B49" s="39" t="s">
+      <c r="B49" s="36" t="s">
         <v>133</v>
       </c>
       <c r="C49" s="11" t="s">
@@ -2326,19 +2338,19 @@
       <c r="E49" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="F49" s="39" t="s">
+      <c r="F49" s="36" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B50" s="40"/>
+      <c r="B50" s="37"/>
       <c r="D50" s="2" t="s">
         <v>129</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="F50" s="40"/>
+      <c r="F50" s="37"/>
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B51" s="7" t="s">
@@ -2400,7 +2412,7 @@
       </c>
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B55" s="39" t="s">
+      <c r="B55" s="36" t="s">
         <v>162</v>
       </c>
       <c r="D55" s="2" t="s">
@@ -2411,7 +2423,7 @@
       </c>
     </row>
     <row r="56" spans="2:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B56" s="40"/>
+      <c r="B56" s="37"/>
       <c r="D56" s="2" t="s">
         <v>150</v>
       </c>
@@ -2834,66 +2846,89 @@
       </c>
     </row>
     <row r="96" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B96" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="C96" s="29" t="s">
-        <v>239</v>
-      </c>
+      <c r="B96" s="33"/>
+      <c r="C96" s="34"/>
       <c r="D96" s="2" t="s">
-        <v>252</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="E96" s="34" t="s">
+        <v>272</v>
+      </c>
+      <c r="F96" s="34"/>
     </row>
     <row r="97" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B97" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="C97" s="29" t="s">
+        <v>239</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="98" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B98" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="D97" s="2" t="s">
+      <c r="D98" s="2" t="s">
         <v>253</v>
-      </c>
-    </row>
-    <row r="98" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="D98" s="2" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="99" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D99" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="E99" s="3" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="100" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D100" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="101" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D101" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="E100" s="3" t="s">
+      <c r="E101" s="3" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="101" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B101" s="7" t="s">
+    <row r="102" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B102" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="C101" s="32" t="s">
+      <c r="C102" s="32" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="102" spans="2:5" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="B102" s="49" t="s">
+    <row r="103" spans="2:5" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="B103" s="35" t="s">
         <v>270</v>
       </c>
-      <c r="D102" s="2" t="s">
+      <c r="D103" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="E102" s="3" t="s">
+      <c r="E103" s="3" t="s">
         <v>269</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="F3:F5"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="F37:F43"/>
+    <mergeCell ref="C37:C43"/>
+    <mergeCell ref="B37:B43"/>
     <mergeCell ref="B55:B56"/>
     <mergeCell ref="F30:F32"/>
     <mergeCell ref="B30:B32"/>
@@ -2910,18 +2945,6 @@
     <mergeCell ref="C22:C24"/>
     <mergeCell ref="F22:F24"/>
     <mergeCell ref="B11:B13"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="F37:F43"/>
-    <mergeCell ref="C37:C43"/>
-    <mergeCell ref="B37:B43"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="F3:F5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/文档/接口.xlsx
+++ b/文档/接口.xlsx
@@ -1098,7 +1098,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>评论等级（0差评 1中评，2好评）</t>
+    <t>评论等级（0无 1差评 2中评，3好评）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1666,8 +1666,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="B92" sqref="B92"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="D96" sqref="D96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/文档/接口.xlsx
+++ b/文档/接口.xlsx
@@ -1366,6 +1366,44 @@
         <a:xfrm>
           <a:off x="11049000" y="14220825"/>
           <a:ext cx="13009524" cy="7314286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2076402</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2857500</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>132958</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2762202" y="16897351"/>
+          <a:ext cx="781098" cy="504432"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1664,10 +1702,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G103"/>
+  <dimension ref="B1:G104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="D96" sqref="D96"/>
+    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
+      <selection activeCell="D92" sqref="D92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2805,113 +2843,119 @@
       </c>
     </row>
     <row r="92" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B92" s="28" t="s">
+      <c r="B92" s="33"/>
+      <c r="C92" s="34"/>
+      <c r="E92" s="34"/>
+      <c r="F92" s="34"/>
+    </row>
+    <row r="93" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B93" s="28" t="s">
         <v>251</v>
       </c>
-      <c r="C92" s="3" t="s">
+      <c r="C93" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="D92" s="2" t="s">
+      <c r="D93" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="E92" s="3" t="s">
+      <c r="E93" s="3" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="93" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B93" s="7" t="s">
+    <row r="94" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B94" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="D93" s="2" t="s">
+      <c r="D94" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="E93" s="3" t="s">
+      <c r="E94" s="3" t="s">
         <v>248</v>
-      </c>
-    </row>
-    <row r="94" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="D94" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="95" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D95" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="E95" s="3" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="96" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="D96" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="E95" s="3" t="s">
+      <c r="E96" s="3" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="96" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B96" s="33"/>
-      <c r="C96" s="34"/>
-      <c r="D96" s="2" t="s">
+    <row r="97" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B97" s="33"/>
+      <c r="C97" s="34"/>
+      <c r="D97" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="E96" s="34" t="s">
+      <c r="E97" s="34" t="s">
         <v>272</v>
       </c>
-      <c r="F96" s="34"/>
-    </row>
-    <row r="97" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B97" s="7" t="s">
+      <c r="F97" s="34"/>
+    </row>
+    <row r="98" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B98" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="C97" s="29" t="s">
+      <c r="C98" s="29" t="s">
         <v>239</v>
       </c>
-      <c r="D97" s="2" t="s">
+      <c r="D98" s="2" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="98" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B98" s="7" t="s">
+    <row r="99" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B99" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="D98" s="2" t="s">
+      <c r="D99" s="2" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="99" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="D99" s="2" t="s">
+    <row r="100" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="D100" s="2" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="100" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="D100" s="2" t="s">
+    <row r="101" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="D101" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="E100" s="3" t="s">
+      <c r="E101" s="3" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="101" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="D101" s="2" t="s">
+    <row r="102" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="D102" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="E101" s="3" t="s">
+      <c r="E102" s="3" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="102" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B102" s="7" t="s">
+    <row r="103" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B103" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="C102" s="32" t="s">
+      <c r="C103" s="32" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="103" spans="2:5" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="B103" s="35" t="s">
+    <row r="104" spans="2:6" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="B104" s="35" t="s">
         <v>270</v>
       </c>
-      <c r="D103" s="2" t="s">
+      <c r="D104" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="E103" s="3" t="s">
+      <c r="E104" s="3" t="s">
         <v>269</v>
       </c>
     </row>

--- a/文档/接口.xlsx
+++ b/文档/接口.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="275">
   <si>
     <t>调用方式</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1099,6 +1099,14 @@
   </si>
   <si>
     <t>评论等级（0无 1差评 2中评，3好评）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IsAnony</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否匿名</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1200,7 +1208,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1279,19 +1287,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1301,22 +1323,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1702,10 +1714,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G104"/>
+  <dimension ref="B1:G105"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
-      <selection activeCell="D92" sqref="D92"/>
+      <selection activeCell="B97" sqref="B97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1720,39 +1732,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="50" t="s">
+      <c r="C1" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="48" t="s">
+      <c r="D1" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="48"/>
-      <c r="F1" s="50" t="s">
+      <c r="E1" s="38"/>
+      <c r="F1" s="40" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B2" s="49"/>
-      <c r="C2" s="50"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="40"/>
       <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="50"/>
+      <c r="F2" s="40"/>
       <c r="G2" s="2" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="3" spans="2:7" ht="94.5" x14ac:dyDescent="0.15">
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="40" t="s">
+      <c r="C3" s="42" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -1761,31 +1773,31 @@
       <c r="E3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="51" t="s">
+      <c r="F3" s="43" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B4" s="39"/>
-      <c r="C4" s="40"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="42"/>
       <c r="D4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="40"/>
+      <c r="F4" s="42"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B5" s="39"/>
-      <c r="C5" s="40"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="42"/>
       <c r="D5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="40"/>
+      <c r="F5" s="42"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B6" s="7" t="s">
@@ -1861,32 +1873,32 @@
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B11" s="36" t="s">
+      <c r="B11" s="44" t="s">
         <v>144</v>
       </c>
-      <c r="C11" s="40" t="s">
+      <c r="C11" s="42" t="s">
         <v>18</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="40" t="s">
+      <c r="F11" s="42" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B12" s="44"/>
-      <c r="C12" s="40"/>
+      <c r="B12" s="46"/>
+      <c r="C12" s="42"/>
       <c r="D12" s="2" t="s">
         <v>127</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="F12" s="40"/>
+      <c r="F12" s="42"/>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B13" s="37"/>
+      <c r="B13" s="45"/>
       <c r="C13" s="11"/>
       <c r="D13" s="2" t="s">
         <v>125</v>
@@ -1914,10 +1926,10 @@
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B15" s="41" t="s">
+      <c r="B15" s="47" t="s">
         <v>172</v>
       </c>
-      <c r="C15" s="36" t="s">
+      <c r="C15" s="44" t="s">
         <v>39</v>
       </c>
       <c r="D15" s="2" t="s">
@@ -1926,64 +1938,64 @@
       <c r="E15" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="F15" s="36" t="s">
+      <c r="F15" s="44" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B16" s="42"/>
-      <c r="C16" s="44"/>
+      <c r="B16" s="48"/>
+      <c r="C16" s="46"/>
       <c r="D16" s="2" t="s">
         <v>85</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="F16" s="44"/>
+      <c r="F16" s="46"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B17" s="42"/>
-      <c r="C17" s="44"/>
+      <c r="B17" s="48"/>
+      <c r="C17" s="46"/>
       <c r="D17" s="2" t="s">
         <v>91</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="F17" s="44"/>
+      <c r="F17" s="46"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B18" s="42"/>
-      <c r="C18" s="44"/>
+      <c r="B18" s="48"/>
+      <c r="C18" s="46"/>
       <c r="D18" s="2" t="s">
         <v>41</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F18" s="44"/>
+      <c r="F18" s="46"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B19" s="42"/>
-      <c r="C19" s="44"/>
+      <c r="B19" s="48"/>
+      <c r="C19" s="46"/>
       <c r="D19" s="2" t="s">
         <v>42</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="F19" s="44"/>
+      <c r="F19" s="46"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B20" s="43"/>
-      <c r="C20" s="37"/>
+      <c r="B20" s="49"/>
+      <c r="C20" s="45"/>
       <c r="D20" s="2" t="s">
         <v>43</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F20" s="37"/>
+      <c r="F20" s="45"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B21" s="7" t="s">
@@ -2003,10 +2015,10 @@
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B22" s="45" t="s">
+      <c r="B22" s="51" t="s">
         <v>106</v>
       </c>
-      <c r="C22" s="36" t="s">
+      <c r="C22" s="44" t="s">
         <v>50</v>
       </c>
       <c r="D22" s="2" t="s">
@@ -2015,37 +2027,37 @@
       <c r="E22" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="F22" s="36" t="s">
+      <c r="F22" s="44" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B23" s="46"/>
-      <c r="C23" s="44"/>
+      <c r="B23" s="52"/>
+      <c r="C23" s="46"/>
       <c r="D23" s="2" t="s">
         <v>108</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="F23" s="44"/>
+      <c r="F23" s="46"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B24" s="47"/>
-      <c r="C24" s="37"/>
+      <c r="B24" s="53"/>
+      <c r="C24" s="45"/>
       <c r="D24" s="2" t="s">
         <v>214</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="F24" s="37"/>
+      <c r="F24" s="45"/>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B25" s="39" t="s">
+      <c r="B25" s="41" t="s">
         <v>101</v>
       </c>
-      <c r="C25" s="38" t="s">
+      <c r="C25" s="50" t="s">
         <v>50</v>
       </c>
       <c r="D25" s="2" t="s">
@@ -2054,59 +2066,59 @@
       <c r="E25" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="F25" s="38" t="s">
+      <c r="F25" s="50" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B26" s="39"/>
-      <c r="C26" s="38"/>
+      <c r="B26" s="41"/>
+      <c r="C26" s="50"/>
       <c r="D26" s="2" t="s">
         <v>103</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="F26" s="38"/>
+      <c r="F26" s="50"/>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B27" s="39"/>
-      <c r="C27" s="38"/>
+      <c r="B27" s="41"/>
+      <c r="C27" s="50"/>
       <c r="D27" s="2" t="s">
         <v>52</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F27" s="38"/>
+      <c r="F27" s="50"/>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B28" s="39"/>
-      <c r="C28" s="38"/>
+      <c r="B28" s="41"/>
+      <c r="C28" s="50"/>
       <c r="D28" s="2" t="s">
         <v>104</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="F28" s="38"/>
+      <c r="F28" s="50"/>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B29" s="39"/>
-      <c r="C29" s="38"/>
+      <c r="B29" s="41"/>
+      <c r="C29" s="50"/>
       <c r="D29" s="2" t="s">
         <v>105</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="F29" s="38"/>
+      <c r="F29" s="50"/>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B30" s="39" t="s">
+      <c r="B30" s="41" t="s">
         <v>185</v>
       </c>
-      <c r="C30" s="38" t="s">
+      <c r="C30" s="50" t="s">
         <v>50</v>
       </c>
       <c r="D30" s="2" t="s">
@@ -2115,31 +2127,31 @@
       <c r="E30" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="F30" s="38" t="s">
+      <c r="F30" s="50" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B31" s="39"/>
-      <c r="C31" s="38"/>
+      <c r="B31" s="41"/>
+      <c r="C31" s="50"/>
       <c r="D31" s="2" t="s">
         <v>110</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F31" s="38"/>
+      <c r="F31" s="50"/>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B32" s="39"/>
-      <c r="C32" s="38"/>
+      <c r="B32" s="41"/>
+      <c r="C32" s="50"/>
       <c r="D32" s="2" t="s">
         <v>111</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="F32" s="38"/>
+      <c r="F32" s="50"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B33" s="7" t="s">
@@ -2204,10 +2216,10 @@
       </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B37" s="41" t="s">
+      <c r="B37" s="47" t="s">
         <v>93</v>
       </c>
-      <c r="C37" s="36" t="s">
+      <c r="C37" s="44" t="s">
         <v>67</v>
       </c>
       <c r="D37" s="2" t="s">
@@ -2216,7 +2228,7 @@
       <c r="E37" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="F37" s="36" t="s">
+      <c r="F37" s="44" t="s">
         <v>65</v>
       </c>
       <c r="G37" s="2" t="s">
@@ -2224,73 +2236,73 @@
       </c>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B38" s="42"/>
-      <c r="C38" s="44"/>
+      <c r="B38" s="48"/>
+      <c r="C38" s="46"/>
       <c r="D38" s="2" t="s">
         <v>95</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="F38" s="44"/>
+      <c r="F38" s="46"/>
       <c r="G38" s="2" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B39" s="42"/>
-      <c r="C39" s="44"/>
+      <c r="B39" s="48"/>
+      <c r="C39" s="46"/>
       <c r="D39" s="2" t="s">
         <v>96</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="F39" s="44"/>
+      <c r="F39" s="46"/>
       <c r="G39" s="2" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B40" s="42"/>
-      <c r="C40" s="44"/>
+      <c r="B40" s="48"/>
+      <c r="C40" s="46"/>
       <c r="D40" s="2" t="s">
         <v>97</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="F40" s="44"/>
+      <c r="F40" s="46"/>
       <c r="G40" s="2" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B41" s="42"/>
-      <c r="C41" s="44"/>
+      <c r="B41" s="48"/>
+      <c r="C41" s="46"/>
       <c r="D41" s="2" t="s">
         <v>98</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="F41" s="44"/>
+      <c r="F41" s="46"/>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B42" s="42"/>
-      <c r="C42" s="44"/>
+      <c r="B42" s="48"/>
+      <c r="C42" s="46"/>
       <c r="D42" s="2" t="s">
         <v>100</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="F42" s="44"/>
+      <c r="F42" s="46"/>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B43" s="43"/>
-      <c r="C43" s="37"/>
-      <c r="F43" s="37"/>
+      <c r="B43" s="49"/>
+      <c r="C43" s="45"/>
+      <c r="F43" s="45"/>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B44" s="7" t="s">
@@ -2364,7 +2376,7 @@
       </c>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B49" s="36" t="s">
+      <c r="B49" s="44" t="s">
         <v>133</v>
       </c>
       <c r="C49" s="11" t="s">
@@ -2376,19 +2388,19 @@
       <c r="E49" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="F49" s="36" t="s">
+      <c r="F49" s="44" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B50" s="37"/>
+      <c r="B50" s="45"/>
       <c r="D50" s="2" t="s">
         <v>129</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="F50" s="37"/>
+      <c r="F50" s="45"/>
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B51" s="7" t="s">
@@ -2450,7 +2462,7 @@
       </c>
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B55" s="36" t="s">
+      <c r="B55" s="44" t="s">
         <v>162</v>
       </c>
       <c r="D55" s="2" t="s">
@@ -2461,7 +2473,7 @@
       </c>
     </row>
     <row r="56" spans="2:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B56" s="37"/>
+      <c r="B56" s="45"/>
       <c r="D56" s="2" t="s">
         <v>150</v>
       </c>
@@ -2901,78 +2913,77 @@
       <c r="F97" s="34"/>
     </row>
     <row r="98" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B98" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="C98" s="29" t="s">
-        <v>239</v>
-      </c>
+      <c r="B98" s="36"/>
+      <c r="C98" s="37"/>
       <c r="D98" s="2" t="s">
-        <v>252</v>
-      </c>
+        <v>273</v>
+      </c>
+      <c r="E98" s="37" t="s">
+        <v>274</v>
+      </c>
+      <c r="F98" s="37"/>
     </row>
     <row r="99" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B99" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="C99" s="29" t="s">
+        <v>239</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="100" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B100" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="D99" s="2" t="s">
+      <c r="D100" s="2" t="s">
         <v>253</v>
-      </c>
-    </row>
-    <row r="100" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="D100" s="2" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="101" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D101" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="E101" s="3" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="102" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D102" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="103" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="D103" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="E102" s="3" t="s">
+      <c r="E103" s="3" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="103" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B103" s="7" t="s">
+    <row r="104" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B104" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="C103" s="32" t="s">
+      <c r="C104" s="32" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="104" spans="2:6" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="B104" s="35" t="s">
+    <row r="105" spans="2:6" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="B105" s="35" t="s">
         <v>270</v>
       </c>
-      <c r="D104" s="2" t="s">
+      <c r="D105" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="E104" s="3" t="s">
+      <c r="E105" s="3" t="s">
         <v>269</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="F3:F5"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="F37:F43"/>
-    <mergeCell ref="C37:C43"/>
-    <mergeCell ref="B37:B43"/>
     <mergeCell ref="B55:B56"/>
     <mergeCell ref="F30:F32"/>
     <mergeCell ref="B30:B32"/>
@@ -2989,6 +3000,18 @@
     <mergeCell ref="C22:C24"/>
     <mergeCell ref="F22:F24"/>
     <mergeCell ref="B11:B13"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="F37:F43"/>
+    <mergeCell ref="C37:C43"/>
+    <mergeCell ref="B37:B43"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="F3:F5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/文档/接口.xlsx
+++ b/文档/接口.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView minimized="1" xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="285">
   <si>
     <t>调用方式</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1077,10 +1077,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>api/ShopOrderApi/PaySuccess</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Data</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1107,6 +1103,50 @@
   </si>
   <si>
     <t>是否匿名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/ShopOrderApi/PaySuccess</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">get </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取评论的商品（全部、待评论、已评论）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/ShopCommentApi/GetCommentProduct/{id}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OrderId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>state</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pageIndex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0查所有，1查待评论的，2.查已评论的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 空查所有，非空查当前订单下所有商品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>页数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数说明</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1291,6 +1331,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1298,37 +1366,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1714,10 +1754,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G105"/>
+  <dimension ref="B1:G109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
-      <selection activeCell="B97" sqref="B97"/>
+    <sheetView tabSelected="1" topLeftCell="A99" workbookViewId="0">
+      <selection activeCell="C116" sqref="C116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1726,36 +1766,36 @@
     <col min="2" max="2" width="48.875" style="7" customWidth="1"/>
     <col min="3" max="3" width="9" style="3" customWidth="1"/>
     <col min="4" max="4" width="29.875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="31.875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="36.875" style="3" customWidth="1"/>
     <col min="6" max="6" width="28" style="3" customWidth="1"/>
     <col min="7" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="40" t="s">
+      <c r="C1" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="38" t="s">
+      <c r="D1" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="38"/>
-      <c r="F1" s="40" t="s">
+      <c r="E1" s="50"/>
+      <c r="F1" s="52" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B2" s="39"/>
-      <c r="C2" s="40"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="52"/>
       <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="40"/>
+      <c r="F2" s="52"/>
       <c r="G2" s="2" t="s">
         <v>115</v>
       </c>
@@ -1773,7 +1813,7 @@
       <c r="E3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="43" t="s">
+      <c r="F3" s="53" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1873,7 +1913,7 @@
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B11" s="44" t="s">
+      <c r="B11" s="38" t="s">
         <v>144</v>
       </c>
       <c r="C11" s="42" t="s">
@@ -1898,7 +1938,7 @@
       <c r="F12" s="42"/>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B13" s="45"/>
+      <c r="B13" s="39"/>
       <c r="C13" s="11"/>
       <c r="D13" s="2" t="s">
         <v>125</v>
@@ -1926,10 +1966,10 @@
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B15" s="47" t="s">
+      <c r="B15" s="43" t="s">
         <v>172</v>
       </c>
-      <c r="C15" s="44" t="s">
+      <c r="C15" s="38" t="s">
         <v>39</v>
       </c>
       <c r="D15" s="2" t="s">
@@ -1938,12 +1978,12 @@
       <c r="E15" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="F15" s="44" t="s">
+      <c r="F15" s="38" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B16" s="48"/>
+      <c r="B16" s="44"/>
       <c r="C16" s="46"/>
       <c r="D16" s="2" t="s">
         <v>85</v>
@@ -1954,7 +1994,7 @@
       <c r="F16" s="46"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B17" s="48"/>
+      <c r="B17" s="44"/>
       <c r="C17" s="46"/>
       <c r="D17" s="2" t="s">
         <v>91</v>
@@ -1965,7 +2005,7 @@
       <c r="F17" s="46"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B18" s="48"/>
+      <c r="B18" s="44"/>
       <c r="C18" s="46"/>
       <c r="D18" s="2" t="s">
         <v>41</v>
@@ -1976,7 +2016,7 @@
       <c r="F18" s="46"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B19" s="48"/>
+      <c r="B19" s="44"/>
       <c r="C19" s="46"/>
       <c r="D19" s="2" t="s">
         <v>42</v>
@@ -1987,15 +2027,15 @@
       <c r="F19" s="46"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B20" s="49"/>
-      <c r="C20" s="45"/>
+      <c r="B20" s="45"/>
+      <c r="C20" s="39"/>
       <c r="D20" s="2" t="s">
         <v>43</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F20" s="45"/>
+      <c r="F20" s="39"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B21" s="7" t="s">
@@ -2015,10 +2055,10 @@
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B22" s="51" t="s">
+      <c r="B22" s="47" t="s">
         <v>106</v>
       </c>
-      <c r="C22" s="44" t="s">
+      <c r="C22" s="38" t="s">
         <v>50</v>
       </c>
       <c r="D22" s="2" t="s">
@@ -2027,12 +2067,12 @@
       <c r="E22" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="F22" s="44" t="s">
+      <c r="F22" s="38" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B23" s="52"/>
+      <c r="B23" s="48"/>
       <c r="C23" s="46"/>
       <c r="D23" s="2" t="s">
         <v>108</v>
@@ -2043,21 +2083,21 @@
       <c r="F23" s="46"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B24" s="53"/>
-      <c r="C24" s="45"/>
+      <c r="B24" s="49"/>
+      <c r="C24" s="39"/>
       <c r="D24" s="2" t="s">
         <v>214</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="F24" s="45"/>
+      <c r="F24" s="39"/>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B25" s="41" t="s">
         <v>101</v>
       </c>
-      <c r="C25" s="50" t="s">
+      <c r="C25" s="40" t="s">
         <v>50</v>
       </c>
       <c r="D25" s="2" t="s">
@@ -2066,59 +2106,59 @@
       <c r="E25" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="F25" s="50" t="s">
+      <c r="F25" s="40" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B26" s="41"/>
-      <c r="C26" s="50"/>
+      <c r="C26" s="40"/>
       <c r="D26" s="2" t="s">
         <v>103</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="F26" s="50"/>
+      <c r="F26" s="40"/>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B27" s="41"/>
-      <c r="C27" s="50"/>
+      <c r="C27" s="40"/>
       <c r="D27" s="2" t="s">
         <v>52</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F27" s="50"/>
+      <c r="F27" s="40"/>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B28" s="41"/>
-      <c r="C28" s="50"/>
+      <c r="C28" s="40"/>
       <c r="D28" s="2" t="s">
         <v>104</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="F28" s="50"/>
+      <c r="F28" s="40"/>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B29" s="41"/>
-      <c r="C29" s="50"/>
+      <c r="C29" s="40"/>
       <c r="D29" s="2" t="s">
         <v>105</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="F29" s="50"/>
+      <c r="F29" s="40"/>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B30" s="41" t="s">
         <v>185</v>
       </c>
-      <c r="C30" s="50" t="s">
+      <c r="C30" s="40" t="s">
         <v>50</v>
       </c>
       <c r="D30" s="2" t="s">
@@ -2127,31 +2167,31 @@
       <c r="E30" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="F30" s="50" t="s">
+      <c r="F30" s="40" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B31" s="41"/>
-      <c r="C31" s="50"/>
+      <c r="C31" s="40"/>
       <c r="D31" s="2" t="s">
         <v>110</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F31" s="50"/>
+      <c r="F31" s="40"/>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B32" s="41"/>
-      <c r="C32" s="50"/>
+      <c r="C32" s="40"/>
       <c r="D32" s="2" t="s">
         <v>111</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="F32" s="50"/>
+      <c r="F32" s="40"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B33" s="7" t="s">
@@ -2216,10 +2256,10 @@
       </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B37" s="47" t="s">
+      <c r="B37" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="C37" s="44" t="s">
+      <c r="C37" s="38" t="s">
         <v>67</v>
       </c>
       <c r="D37" s="2" t="s">
@@ -2228,7 +2268,7 @@
       <c r="E37" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="F37" s="44" t="s">
+      <c r="F37" s="38" t="s">
         <v>65</v>
       </c>
       <c r="G37" s="2" t="s">
@@ -2236,7 +2276,7 @@
       </c>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B38" s="48"/>
+      <c r="B38" s="44"/>
       <c r="C38" s="46"/>
       <c r="D38" s="2" t="s">
         <v>95</v>
@@ -2250,7 +2290,7 @@
       </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B39" s="48"/>
+      <c r="B39" s="44"/>
       <c r="C39" s="46"/>
       <c r="D39" s="2" t="s">
         <v>96</v>
@@ -2264,7 +2304,7 @@
       </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B40" s="48"/>
+      <c r="B40" s="44"/>
       <c r="C40" s="46"/>
       <c r="D40" s="2" t="s">
         <v>97</v>
@@ -2278,7 +2318,7 @@
       </c>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B41" s="48"/>
+      <c r="B41" s="44"/>
       <c r="C41" s="46"/>
       <c r="D41" s="2" t="s">
         <v>98</v>
@@ -2289,7 +2329,7 @@
       <c r="F41" s="46"/>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B42" s="48"/>
+      <c r="B42" s="44"/>
       <c r="C42" s="46"/>
       <c r="D42" s="2" t="s">
         <v>100</v>
@@ -2300,9 +2340,9 @@
       <c r="F42" s="46"/>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B43" s="49"/>
-      <c r="C43" s="45"/>
-      <c r="F43" s="45"/>
+      <c r="B43" s="45"/>
+      <c r="C43" s="39"/>
+      <c r="F43" s="39"/>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B44" s="7" t="s">
@@ -2376,7 +2416,7 @@
       </c>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B49" s="44" t="s">
+      <c r="B49" s="38" t="s">
         <v>133</v>
       </c>
       <c r="C49" s="11" t="s">
@@ -2388,19 +2428,19 @@
       <c r="E49" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="F49" s="44" t="s">
+      <c r="F49" s="38" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B50" s="45"/>
+      <c r="B50" s="39"/>
       <c r="D50" s="2" t="s">
         <v>129</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="F50" s="45"/>
+      <c r="F50" s="39"/>
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B51" s="7" t="s">
@@ -2462,7 +2502,7 @@
       </c>
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B55" s="44" t="s">
+      <c r="B55" s="38" t="s">
         <v>162</v>
       </c>
       <c r="D55" s="2" t="s">
@@ -2473,7 +2513,7 @@
       </c>
     </row>
     <row r="56" spans="2:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B56" s="45"/>
+      <c r="B56" s="39"/>
       <c r="D56" s="2" t="s">
         <v>150</v>
       </c>
@@ -2905,10 +2945,10 @@
       <c r="B97" s="33"/>
       <c r="C97" s="34"/>
       <c r="D97" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="E97" s="34" t="s">
         <v>271</v>
-      </c>
-      <c r="E97" s="34" t="s">
-        <v>272</v>
       </c>
       <c r="F97" s="34"/>
     </row>
@@ -2916,10 +2956,10 @@
       <c r="B98" s="36"/>
       <c r="C98" s="37"/>
       <c r="D98" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="E98" s="37" t="s">
         <v>273</v>
-      </c>
-      <c r="E98" s="37" t="s">
-        <v>274</v>
       </c>
       <c r="F98" s="37"/>
     </row>
@@ -2965,7 +3005,7 @@
     </row>
     <row r="104" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B104" s="7" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="C104" s="32" t="s">
         <v>39</v>
@@ -2973,17 +3013,67 @@
     </row>
     <row r="105" spans="2:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B105" s="35" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D105" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="E105" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="E105" s="3" t="s">
-        <v>269</v>
+    </row>
+    <row r="106" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B106" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="107" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B107" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="E107" s="3" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="108" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="D108" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="E108" s="3" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="109" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="D109" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="E109" s="3" t="s">
+        <v>283</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="F3:F5"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="F37:F43"/>
+    <mergeCell ref="C37:C43"/>
+    <mergeCell ref="B37:B43"/>
     <mergeCell ref="B55:B56"/>
     <mergeCell ref="F30:F32"/>
     <mergeCell ref="B30:B32"/>
@@ -3000,18 +3090,6 @@
     <mergeCell ref="C22:C24"/>
     <mergeCell ref="F22:F24"/>
     <mergeCell ref="B11:B13"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="F37:F43"/>
-    <mergeCell ref="C37:C43"/>
-    <mergeCell ref="B37:B43"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="F3:F5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/文档/接口.xlsx
+++ b/文档/接口.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="310">
   <si>
     <t>调用方式</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1037,14 +1037,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1:直接取消成功，2：提交了取消申请，需要人工处理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>code=2的描述文字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>取消订单</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1070,10 +1062,6 @@
   </si>
   <si>
     <t>如果不用密码引导接口，采用直接获取验证码的方式，通过这个接口获取验证码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>api/ShopOrderApi/CancleOrder/订单id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1147,6 +1135,117 @@
   </si>
   <si>
     <t>参数说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0：取消失败 1:直接取消成功，2：提交了取消申请，需要人工处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>code=1和2的描述文字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/ShopOrderApi/CancleOrder/订单id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/ShopOrderApi/ReturnOrder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>退货单接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OrderId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原订单ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>退货原因</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ImageUrlID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瑕疵图片（先空着，先不处理）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReturnType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>退货类型0 整单退 1 部分退</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非整单退额外参数(是个集合)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JSON格式是 OrderItems:{属性名：值}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字符串格式是 OrderItems[0].属性名1&amp;OrderItems[0].属性名2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProductId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKUID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RequestQuantity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品SKUID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求退回数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>传递参数说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回值说明，都在data里</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>退货单ID</t>
+  </si>
+  <si>
+    <t>ReturnOrderID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Msg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述信息</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1248,7 +1347,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1328,6 +1427,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1754,10 +1856,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G109"/>
+  <dimension ref="B1:G123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A99" workbookViewId="0">
-      <selection activeCell="C116" sqref="C116"/>
+    <sheetView tabSelected="1" topLeftCell="A102" workbookViewId="0">
+      <selection activeCell="B121" sqref="B121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1765,46 +1867,46 @@
     <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="2" width="48.875" style="7" customWidth="1"/>
     <col min="3" max="3" width="9" style="3" customWidth="1"/>
-    <col min="4" max="4" width="29.875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="42.125" style="2" customWidth="1"/>
     <col min="5" max="5" width="36.875" style="3" customWidth="1"/>
     <col min="6" max="6" width="28" style="3" customWidth="1"/>
     <col min="7" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="52" t="s">
+      <c r="C1" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="50" t="s">
+      <c r="D1" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="50"/>
-      <c r="F1" s="52" t="s">
+      <c r="E1" s="51"/>
+      <c r="F1" s="53" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B2" s="51"/>
-      <c r="C2" s="52"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="53"/>
       <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="52"/>
+      <c r="F2" s="53"/>
       <c r="G2" s="2" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="3" spans="2:7" ht="94.5" x14ac:dyDescent="0.15">
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="42" t="s">
+      <c r="C3" s="43" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -1813,31 +1915,31 @@
       <c r="E3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="53" t="s">
+      <c r="F3" s="54" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B4" s="41"/>
-      <c r="C4" s="42"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="43"/>
       <c r="D4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="42"/>
+      <c r="F4" s="43"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B5" s="41"/>
-      <c r="C5" s="42"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="43"/>
       <c r="D5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="42"/>
+      <c r="F5" s="43"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B6" s="7" t="s">
@@ -1913,32 +2015,32 @@
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B11" s="38" t="s">
+      <c r="B11" s="39" t="s">
         <v>144</v>
       </c>
-      <c r="C11" s="42" t="s">
+      <c r="C11" s="43" t="s">
         <v>18</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="42" t="s">
+      <c r="F11" s="43" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B12" s="46"/>
-      <c r="C12" s="42"/>
+      <c r="B12" s="47"/>
+      <c r="C12" s="43"/>
       <c r="D12" s="2" t="s">
         <v>127</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="F12" s="42"/>
+      <c r="F12" s="43"/>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B13" s="39"/>
+      <c r="B13" s="40"/>
       <c r="C13" s="11"/>
       <c r="D13" s="2" t="s">
         <v>125</v>
@@ -1966,10 +2068,10 @@
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B15" s="43" t="s">
+      <c r="B15" s="44" t="s">
         <v>172</v>
       </c>
-      <c r="C15" s="38" t="s">
+      <c r="C15" s="39" t="s">
         <v>39</v>
       </c>
       <c r="D15" s="2" t="s">
@@ -1978,64 +2080,64 @@
       <c r="E15" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="F15" s="38" t="s">
+      <c r="F15" s="39" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B16" s="44"/>
-      <c r="C16" s="46"/>
+      <c r="B16" s="45"/>
+      <c r="C16" s="47"/>
       <c r="D16" s="2" t="s">
         <v>85</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="F16" s="46"/>
+      <c r="F16" s="47"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B17" s="44"/>
-      <c r="C17" s="46"/>
+      <c r="B17" s="45"/>
+      <c r="C17" s="47"/>
       <c r="D17" s="2" t="s">
         <v>91</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="F17" s="46"/>
+      <c r="F17" s="47"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B18" s="44"/>
-      <c r="C18" s="46"/>
+      <c r="B18" s="45"/>
+      <c r="C18" s="47"/>
       <c r="D18" s="2" t="s">
         <v>41</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F18" s="46"/>
+      <c r="F18" s="47"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B19" s="44"/>
-      <c r="C19" s="46"/>
+      <c r="B19" s="45"/>
+      <c r="C19" s="47"/>
       <c r="D19" s="2" t="s">
         <v>42</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="F19" s="46"/>
+      <c r="F19" s="47"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B20" s="45"/>
-      <c r="C20" s="39"/>
+      <c r="B20" s="46"/>
+      <c r="C20" s="40"/>
       <c r="D20" s="2" t="s">
         <v>43</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F20" s="39"/>
+      <c r="F20" s="40"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B21" s="7" t="s">
@@ -2055,10 +2157,10 @@
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B22" s="47" t="s">
+      <c r="B22" s="48" t="s">
         <v>106</v>
       </c>
-      <c r="C22" s="38" t="s">
+      <c r="C22" s="39" t="s">
         <v>50</v>
       </c>
       <c r="D22" s="2" t="s">
@@ -2067,37 +2169,37 @@
       <c r="E22" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="F22" s="38" t="s">
+      <c r="F22" s="39" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B23" s="48"/>
-      <c r="C23" s="46"/>
+      <c r="B23" s="49"/>
+      <c r="C23" s="47"/>
       <c r="D23" s="2" t="s">
         <v>108</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="F23" s="46"/>
+      <c r="F23" s="47"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B24" s="49"/>
-      <c r="C24" s="39"/>
+      <c r="B24" s="50"/>
+      <c r="C24" s="40"/>
       <c r="D24" s="2" t="s">
         <v>214</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="F24" s="39"/>
+      <c r="F24" s="40"/>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B25" s="41" t="s">
+      <c r="B25" s="42" t="s">
         <v>101</v>
       </c>
-      <c r="C25" s="40" t="s">
+      <c r="C25" s="41" t="s">
         <v>50</v>
       </c>
       <c r="D25" s="2" t="s">
@@ -2106,59 +2208,59 @@
       <c r="E25" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="F25" s="40" t="s">
+      <c r="F25" s="41" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B26" s="41"/>
-      <c r="C26" s="40"/>
+      <c r="B26" s="42"/>
+      <c r="C26" s="41"/>
       <c r="D26" s="2" t="s">
         <v>103</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="F26" s="40"/>
+      <c r="F26" s="41"/>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B27" s="41"/>
-      <c r="C27" s="40"/>
+      <c r="B27" s="42"/>
+      <c r="C27" s="41"/>
       <c r="D27" s="2" t="s">
         <v>52</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F27" s="40"/>
+      <c r="F27" s="41"/>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B28" s="41"/>
-      <c r="C28" s="40"/>
+      <c r="B28" s="42"/>
+      <c r="C28" s="41"/>
       <c r="D28" s="2" t="s">
         <v>104</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="F28" s="40"/>
+      <c r="F28" s="41"/>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B29" s="41"/>
-      <c r="C29" s="40"/>
+      <c r="B29" s="42"/>
+      <c r="C29" s="41"/>
       <c r="D29" s="2" t="s">
         <v>105</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="F29" s="40"/>
+      <c r="F29" s="41"/>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B30" s="41" t="s">
+      <c r="B30" s="42" t="s">
         <v>185</v>
       </c>
-      <c r="C30" s="40" t="s">
+      <c r="C30" s="41" t="s">
         <v>50</v>
       </c>
       <c r="D30" s="2" t="s">
@@ -2167,31 +2269,31 @@
       <c r="E30" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="F30" s="40" t="s">
+      <c r="F30" s="41" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B31" s="41"/>
-      <c r="C31" s="40"/>
+      <c r="B31" s="42"/>
+      <c r="C31" s="41"/>
       <c r="D31" s="2" t="s">
         <v>110</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F31" s="40"/>
+      <c r="F31" s="41"/>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B32" s="41"/>
-      <c r="C32" s="40"/>
+      <c r="B32" s="42"/>
+      <c r="C32" s="41"/>
       <c r="D32" s="2" t="s">
         <v>111</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="F32" s="40"/>
+      <c r="F32" s="41"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B33" s="7" t="s">
@@ -2256,10 +2358,10 @@
       </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B37" s="43" t="s">
+      <c r="B37" s="44" t="s">
         <v>93</v>
       </c>
-      <c r="C37" s="38" t="s">
+      <c r="C37" s="39" t="s">
         <v>67</v>
       </c>
       <c r="D37" s="2" t="s">
@@ -2268,7 +2370,7 @@
       <c r="E37" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="F37" s="38" t="s">
+      <c r="F37" s="39" t="s">
         <v>65</v>
       </c>
       <c r="G37" s="2" t="s">
@@ -2276,73 +2378,73 @@
       </c>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B38" s="44"/>
-      <c r="C38" s="46"/>
+      <c r="B38" s="45"/>
+      <c r="C38" s="47"/>
       <c r="D38" s="2" t="s">
         <v>95</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="F38" s="46"/>
+      <c r="F38" s="47"/>
       <c r="G38" s="2" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B39" s="44"/>
-      <c r="C39" s="46"/>
+      <c r="B39" s="45"/>
+      <c r="C39" s="47"/>
       <c r="D39" s="2" t="s">
         <v>96</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="F39" s="46"/>
+      <c r="F39" s="47"/>
       <c r="G39" s="2" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B40" s="44"/>
-      <c r="C40" s="46"/>
+      <c r="B40" s="45"/>
+      <c r="C40" s="47"/>
       <c r="D40" s="2" t="s">
         <v>97</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="F40" s="46"/>
+      <c r="F40" s="47"/>
       <c r="G40" s="2" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B41" s="44"/>
-      <c r="C41" s="46"/>
+      <c r="B41" s="45"/>
+      <c r="C41" s="47"/>
       <c r="D41" s="2" t="s">
         <v>98</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="F41" s="46"/>
+      <c r="F41" s="47"/>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B42" s="44"/>
-      <c r="C42" s="46"/>
+      <c r="B42" s="45"/>
+      <c r="C42" s="47"/>
       <c r="D42" s="2" t="s">
         <v>100</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="F42" s="46"/>
+      <c r="F42" s="47"/>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B43" s="45"/>
-      <c r="C43" s="39"/>
-      <c r="F43" s="39"/>
+      <c r="B43" s="46"/>
+      <c r="C43" s="40"/>
+      <c r="F43" s="40"/>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B44" s="7" t="s">
@@ -2416,7 +2518,7 @@
       </c>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B49" s="38" t="s">
+      <c r="B49" s="39" t="s">
         <v>133</v>
       </c>
       <c r="C49" s="11" t="s">
@@ -2428,19 +2530,19 @@
       <c r="E49" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="F49" s="38" t="s">
+      <c r="F49" s="39" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B50" s="39"/>
+      <c r="B50" s="40"/>
       <c r="D50" s="2" t="s">
         <v>129</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="F50" s="39"/>
+      <c r="F50" s="40"/>
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B51" s="7" t="s">
@@ -2502,7 +2604,7 @@
       </c>
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B55" s="38" t="s">
+      <c r="B55" s="39" t="s">
         <v>162</v>
       </c>
       <c r="D55" s="2" t="s">
@@ -2513,7 +2615,7 @@
       </c>
     </row>
     <row r="56" spans="2:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B56" s="39"/>
+      <c r="B56" s="40"/>
       <c r="D56" s="2" t="s">
         <v>150</v>
       </c>
@@ -2768,7 +2870,7 @@
     </row>
     <row r="79" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B79" s="7" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>220</v>
@@ -2803,18 +2905,18 @@
     </row>
     <row r="83" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B83" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="E83" s="31" t="s">
         <v>262</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="E83" s="31" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="84" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B84" s="30" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C84" s="31"/>
       <c r="E84" s="31"/>
@@ -2822,7 +2924,7 @@
     </row>
     <row r="85" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B85" s="7" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D85" s="2" t="s">
         <v>225</v>
@@ -2945,10 +3047,10 @@
       <c r="B97" s="33"/>
       <c r="C97" s="34"/>
       <c r="D97" s="2" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E97" s="34" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F97" s="34"/>
     </row>
@@ -2956,16 +3058,16 @@
       <c r="B98" s="36"/>
       <c r="C98" s="37"/>
       <c r="D98" s="2" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="E98" s="37" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="F98" s="37"/>
     </row>
     <row r="99" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B99" s="7" t="s">
-        <v>266</v>
+        <v>284</v>
       </c>
       <c r="C99" s="29" t="s">
         <v>239</v>
@@ -2976,7 +3078,7 @@
     </row>
     <row r="100" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B100" s="7" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D100" s="2" t="s">
         <v>253</v>
@@ -2992,7 +3094,7 @@
         <v>255</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>257</v>
+        <v>282</v>
       </c>
     </row>
     <row r="103" spans="2:6" x14ac:dyDescent="0.15">
@@ -3000,12 +3102,12 @@
         <v>256</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>258</v>
+        <v>283</v>
       </c>
     </row>
     <row r="104" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B104" s="7" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C104" s="32" t="s">
         <v>39</v>
@@ -3013,51 +3115,157 @@
     </row>
     <row r="105" spans="2:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B105" s="35" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="106" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B106" s="7" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="107" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B107" s="7" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="108" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D108" s="2" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="109" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D109" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="E109" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="E109" s="3" t="s">
-        <v>283</v>
+    </row>
+    <row r="110" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B110" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="C110" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="111" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B111" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="E111" s="3" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="112" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="D112" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="E112" s="3" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="113" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="D113" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="E113" s="3" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="114" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="D114" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="E114" s="3" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="115" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="D115" s="2" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="116" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="D116" s="2" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="117" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="D117" s="2" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="118" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="D118" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="E118" s="3" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="119" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="D119" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="E119" s="3" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="120" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="D120" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="E120" s="3" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="121" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="D121" s="2" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="122" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="D122" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="E122" s="38" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="123" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="D123" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="E123" s="3" t="s">
+        <v>309</v>
       </c>
     </row>
   </sheetData>

--- a/文档/接口.xlsx
+++ b/文档/接口.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="308">
   <si>
     <t>调用方式</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1098,15 +1098,51 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">get </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>获取评论的商品（全部、待评论、已评论）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>api/ShopCommentApi/GetCommentProduct/{id}</t>
+    <t>state</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pageIndex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0查所有，1查待评论的，2.查已评论的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 空查所有，非空查当前订单下所有商品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>页数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0：取消失败 1:直接取消成功，2：提交了取消申请，需要人工处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>code=1和2的描述文字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/ShopOrderApi/CancleOrder/订单id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/ShopOrderApi/ReturnOrder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>退货单接口</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1114,54 +1150,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>state</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pageIndex</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0查所有，1查待评论的，2.查已评论的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 空查所有，非空查当前订单下所有商品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>页数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参数说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0：取消失败 1:直接取消成功，2：提交了取消申请，需要人工处理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>code=1和2的描述文字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>api/ShopOrderApi/CancleOrder/订单id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>api/ShopOrderApi/ReturnOrder</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>退货单接口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OrderId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>原订单ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1246,6 +1234,10 @@
   </si>
   <si>
     <t>描述信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/ShopCommentApi/GetCommentProduct</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1347,7 +1339,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1433,19 +1425,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1455,22 +1460,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1859,13 +1854,13 @@
   <dimension ref="B1:G123"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A102" workbookViewId="0">
-      <selection activeCell="B121" sqref="B121"/>
+      <selection activeCell="B108" sqref="B108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="48.875" style="7" customWidth="1"/>
+    <col min="2" max="2" width="54.625" style="7" customWidth="1"/>
     <col min="3" max="3" width="9" style="3" customWidth="1"/>
     <col min="4" max="4" width="42.125" style="2" customWidth="1"/>
     <col min="5" max="5" width="36.875" style="3" customWidth="1"/>
@@ -1874,39 +1869,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B1" s="52" t="s">
+      <c r="B1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="53" t="s">
+      <c r="C1" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="51" t="s">
+      <c r="D1" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="51"/>
-      <c r="F1" s="53" t="s">
+      <c r="E1" s="40"/>
+      <c r="F1" s="42" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B2" s="52"/>
-      <c r="C2" s="53"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="42"/>
       <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="53"/>
+      <c r="F2" s="42"/>
       <c r="G2" s="2" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="3" spans="2:7" ht="94.5" x14ac:dyDescent="0.15">
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="43" t="s">
+      <c r="C3" s="44" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -1915,31 +1910,31 @@
       <c r="E3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="54" t="s">
+      <c r="F3" s="45" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B4" s="42"/>
-      <c r="C4" s="43"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="44"/>
       <c r="D4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="43"/>
+      <c r="F4" s="44"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B5" s="42"/>
-      <c r="C5" s="43"/>
+      <c r="B5" s="43"/>
+      <c r="C5" s="44"/>
       <c r="D5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="43"/>
+      <c r="F5" s="44"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B6" s="7" t="s">
@@ -2015,32 +2010,32 @@
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B11" s="39" t="s">
+      <c r="B11" s="46" t="s">
         <v>144</v>
       </c>
-      <c r="C11" s="43" t="s">
+      <c r="C11" s="44" t="s">
         <v>18</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="43" t="s">
+      <c r="F11" s="44" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B12" s="47"/>
-      <c r="C12" s="43"/>
+      <c r="B12" s="48"/>
+      <c r="C12" s="44"/>
       <c r="D12" s="2" t="s">
         <v>127</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="F12" s="43"/>
+      <c r="F12" s="44"/>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B13" s="40"/>
+      <c r="B13" s="47"/>
       <c r="C13" s="11"/>
       <c r="D13" s="2" t="s">
         <v>125</v>
@@ -2068,10 +2063,10 @@
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B15" s="44" t="s">
+      <c r="B15" s="49" t="s">
         <v>172</v>
       </c>
-      <c r="C15" s="39" t="s">
+      <c r="C15" s="46" t="s">
         <v>39</v>
       </c>
       <c r="D15" s="2" t="s">
@@ -2080,64 +2075,64 @@
       <c r="E15" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="F15" s="39" t="s">
+      <c r="F15" s="46" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B16" s="45"/>
-      <c r="C16" s="47"/>
+      <c r="B16" s="50"/>
+      <c r="C16" s="48"/>
       <c r="D16" s="2" t="s">
         <v>85</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="F16" s="47"/>
+      <c r="F16" s="48"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B17" s="45"/>
-      <c r="C17" s="47"/>
+      <c r="B17" s="50"/>
+      <c r="C17" s="48"/>
       <c r="D17" s="2" t="s">
         <v>91</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="F17" s="47"/>
+      <c r="F17" s="48"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B18" s="45"/>
-      <c r="C18" s="47"/>
+      <c r="B18" s="50"/>
+      <c r="C18" s="48"/>
       <c r="D18" s="2" t="s">
         <v>41</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F18" s="47"/>
+      <c r="F18" s="48"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B19" s="45"/>
-      <c r="C19" s="47"/>
+      <c r="B19" s="50"/>
+      <c r="C19" s="48"/>
       <c r="D19" s="2" t="s">
         <v>42</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="F19" s="47"/>
+      <c r="F19" s="48"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B20" s="46"/>
-      <c r="C20" s="40"/>
+      <c r="B20" s="51"/>
+      <c r="C20" s="47"/>
       <c r="D20" s="2" t="s">
         <v>43</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F20" s="40"/>
+      <c r="F20" s="47"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B21" s="7" t="s">
@@ -2157,10 +2152,10 @@
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B22" s="48" t="s">
+      <c r="B22" s="53" t="s">
         <v>106</v>
       </c>
-      <c r="C22" s="39" t="s">
+      <c r="C22" s="46" t="s">
         <v>50</v>
       </c>
       <c r="D22" s="2" t="s">
@@ -2169,37 +2164,37 @@
       <c r="E22" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="F22" s="39" t="s">
+      <c r="F22" s="46" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B23" s="49"/>
-      <c r="C23" s="47"/>
+      <c r="B23" s="54"/>
+      <c r="C23" s="48"/>
       <c r="D23" s="2" t="s">
         <v>108</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="F23" s="47"/>
+      <c r="F23" s="48"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B24" s="50"/>
-      <c r="C24" s="40"/>
+      <c r="B24" s="55"/>
+      <c r="C24" s="47"/>
       <c r="D24" s="2" t="s">
         <v>214</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="F24" s="40"/>
+      <c r="F24" s="47"/>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B25" s="42" t="s">
+      <c r="B25" s="43" t="s">
         <v>101</v>
       </c>
-      <c r="C25" s="41" t="s">
+      <c r="C25" s="52" t="s">
         <v>50</v>
       </c>
       <c r="D25" s="2" t="s">
@@ -2208,59 +2203,59 @@
       <c r="E25" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="F25" s="41" t="s">
+      <c r="F25" s="52" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B26" s="42"/>
-      <c r="C26" s="41"/>
+      <c r="B26" s="43"/>
+      <c r="C26" s="52"/>
       <c r="D26" s="2" t="s">
         <v>103</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="F26" s="41"/>
+      <c r="F26" s="52"/>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B27" s="42"/>
-      <c r="C27" s="41"/>
+      <c r="B27" s="43"/>
+      <c r="C27" s="52"/>
       <c r="D27" s="2" t="s">
         <v>52</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F27" s="41"/>
+      <c r="F27" s="52"/>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B28" s="42"/>
-      <c r="C28" s="41"/>
+      <c r="B28" s="43"/>
+      <c r="C28" s="52"/>
       <c r="D28" s="2" t="s">
         <v>104</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="F28" s="41"/>
+      <c r="F28" s="52"/>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B29" s="42"/>
-      <c r="C29" s="41"/>
+      <c r="B29" s="43"/>
+      <c r="C29" s="52"/>
       <c r="D29" s="2" t="s">
         <v>105</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="F29" s="41"/>
+      <c r="F29" s="52"/>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B30" s="42" t="s">
+      <c r="B30" s="43" t="s">
         <v>185</v>
       </c>
-      <c r="C30" s="41" t="s">
+      <c r="C30" s="52" t="s">
         <v>50</v>
       </c>
       <c r="D30" s="2" t="s">
@@ -2269,31 +2264,31 @@
       <c r="E30" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="F30" s="41" t="s">
+      <c r="F30" s="52" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B31" s="42"/>
-      <c r="C31" s="41"/>
+      <c r="B31" s="43"/>
+      <c r="C31" s="52"/>
       <c r="D31" s="2" t="s">
         <v>110</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F31" s="41"/>
+      <c r="F31" s="52"/>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B32" s="42"/>
-      <c r="C32" s="41"/>
+      <c r="B32" s="43"/>
+      <c r="C32" s="52"/>
       <c r="D32" s="2" t="s">
         <v>111</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="F32" s="41"/>
+      <c r="F32" s="52"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B33" s="7" t="s">
@@ -2358,10 +2353,10 @@
       </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B37" s="44" t="s">
+      <c r="B37" s="49" t="s">
         <v>93</v>
       </c>
-      <c r="C37" s="39" t="s">
+      <c r="C37" s="46" t="s">
         <v>67</v>
       </c>
       <c r="D37" s="2" t="s">
@@ -2370,7 +2365,7 @@
       <c r="E37" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="F37" s="39" t="s">
+      <c r="F37" s="46" t="s">
         <v>65</v>
       </c>
       <c r="G37" s="2" t="s">
@@ -2378,73 +2373,73 @@
       </c>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B38" s="45"/>
-      <c r="C38" s="47"/>
+      <c r="B38" s="50"/>
+      <c r="C38" s="48"/>
       <c r="D38" s="2" t="s">
         <v>95</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="F38" s="47"/>
+      <c r="F38" s="48"/>
       <c r="G38" s="2" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B39" s="45"/>
-      <c r="C39" s="47"/>
+      <c r="B39" s="50"/>
+      <c r="C39" s="48"/>
       <c r="D39" s="2" t="s">
         <v>96</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="F39" s="47"/>
+      <c r="F39" s="48"/>
       <c r="G39" s="2" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B40" s="45"/>
-      <c r="C40" s="47"/>
+      <c r="B40" s="50"/>
+      <c r="C40" s="48"/>
       <c r="D40" s="2" t="s">
         <v>97</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="F40" s="47"/>
+      <c r="F40" s="48"/>
       <c r="G40" s="2" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B41" s="45"/>
-      <c r="C41" s="47"/>
+      <c r="B41" s="50"/>
+      <c r="C41" s="48"/>
       <c r="D41" s="2" t="s">
         <v>98</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="F41" s="47"/>
+      <c r="F41" s="48"/>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B42" s="45"/>
-      <c r="C42" s="47"/>
+      <c r="B42" s="50"/>
+      <c r="C42" s="48"/>
       <c r="D42" s="2" t="s">
         <v>100</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="F42" s="47"/>
+      <c r="F42" s="48"/>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B43" s="46"/>
-      <c r="C43" s="40"/>
-      <c r="F43" s="40"/>
+      <c r="B43" s="51"/>
+      <c r="C43" s="47"/>
+      <c r="F43" s="47"/>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B44" s="7" t="s">
@@ -2518,7 +2513,7 @@
       </c>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B49" s="39" t="s">
+      <c r="B49" s="46" t="s">
         <v>133</v>
       </c>
       <c r="C49" s="11" t="s">
@@ -2530,19 +2525,19 @@
       <c r="E49" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="F49" s="39" t="s">
+      <c r="F49" s="46" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B50" s="40"/>
+      <c r="B50" s="47"/>
       <c r="D50" s="2" t="s">
         <v>129</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="F50" s="40"/>
+      <c r="F50" s="47"/>
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B51" s="7" t="s">
@@ -2604,7 +2599,7 @@
       </c>
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B55" s="39" t="s">
+      <c r="B55" s="46" t="s">
         <v>162</v>
       </c>
       <c r="D55" s="2" t="s">
@@ -2615,7 +2610,7 @@
       </c>
     </row>
     <row r="56" spans="2:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B56" s="40"/>
+      <c r="B56" s="47"/>
       <c r="D56" s="2" t="s">
         <v>150</v>
       </c>
@@ -3067,7 +3062,7 @@
     </row>
     <row r="99" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B99" s="7" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C99" s="29" t="s">
         <v>239</v>
@@ -3094,7 +3089,7 @@
         <v>255</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="103" spans="2:6" x14ac:dyDescent="0.15">
@@ -3102,7 +3097,7 @@
         <v>256</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="104" spans="2:6" x14ac:dyDescent="0.15">
@@ -3126,162 +3121,153 @@
     </row>
     <row r="106" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B106" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="C106" s="3" t="s">
-        <v>272</v>
+        <v>307</v>
+      </c>
+      <c r="C106" s="39" t="s">
+        <v>39</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="107" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B107" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="D107" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="D107" s="2" t="s">
+      <c r="E107" s="39" t="s">
         <v>275</v>
-      </c>
-      <c r="E107" s="3" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="108" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D108" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="E108" s="3" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="109" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B109" s="39" t="s">
+        <v>275</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="E109" s="39" t="s">
         <v>276</v>
-      </c>
-      <c r="E108" s="3" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="109" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="D109" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="E109" s="3" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="110" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B110" s="7" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C110" s="38" t="s">
         <v>39</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="111" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B111" s="7" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="E111" s="3" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="112" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D112" s="2" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="113" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D113" s="2" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="E113" s="3" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="114" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D114" s="2" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="115" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D115" s="2" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="116" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D116" s="2" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="117" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D117" s="2" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="118" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D118" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="E118" s="3" t="s">
         <v>298</v>
-      </c>
-      <c r="E118" s="3" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="119" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D119" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="E119" s="3" t="s">
         <v>299</v>
-      </c>
-      <c r="E119" s="3" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="120" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D120" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="E120" s="3" t="s">
         <v>300</v>
-      </c>
-      <c r="E120" s="3" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="121" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D121" s="2" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="122" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D122" s="2" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="E122" s="38" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="123" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D123" s="2" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="E123" s="3" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="F3:F5"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="F37:F43"/>
-    <mergeCell ref="C37:C43"/>
-    <mergeCell ref="B37:B43"/>
     <mergeCell ref="B55:B56"/>
     <mergeCell ref="F30:F32"/>
     <mergeCell ref="B30:B32"/>
@@ -3298,6 +3284,18 @@
     <mergeCell ref="C22:C24"/>
     <mergeCell ref="F22:F24"/>
     <mergeCell ref="B11:B13"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="F37:F43"/>
+    <mergeCell ref="C37:C43"/>
+    <mergeCell ref="B37:B43"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="F3:F5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/文档/接口.xlsx
+++ b/文档/接口.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="待办事项" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="309">
   <si>
     <t>调用方式</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1138,19 +1139,102 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>退货单接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原订单ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>退货原因</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ImageUrlID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瑕疵图片（先空着，先不处理）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>退货类型0 整单退 1 部分退</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非整单退额外参数(是个集合)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JSON格式是 OrderItems:{属性名：值}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字符串格式是 OrderItems[0].属性名1&amp;OrderItems[0].属性名2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProductId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKUID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RequestQuantity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品SKUID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求退回数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>传递参数说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回值说明，都在data里</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>退货单ID</t>
+  </si>
+  <si>
+    <t>ReturnOrderID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Msg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/ShopCommentApi/GetCommentProduct</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>api/ShopOrderApi/ReturnOrder</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>退货单接口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>OrderId</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>原订单ID</t>
+    <t>ReturnType</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1158,86 +1242,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>退货原因</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ImageUrlID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>瑕疵图片（先空着，先不处理）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ReturnType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>退货类型0 整单退 1 部分退</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>非整单退额外参数(是个集合)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JSON格式是 OrderItems:{属性名：值}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字符串格式是 OrderItems[0].属性名1&amp;OrderItems[0].属性名2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ProductId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SKUID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RequestQuantity</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品SKUID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>请求退回数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>传递参数说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回值说明，都在data里</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>退货单ID</t>
-  </si>
-  <si>
-    <t>ReturnOrderID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Msg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>描述信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>api/ShopCommentApi/GetCommentProduct</t>
+    <t>评论时 检测是否增加会员积分或其他奖励</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1428,6 +1433,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1435,37 +1468,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1853,8 +1858,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A102" workbookViewId="0">
-      <selection activeCell="B108" sqref="B108"/>
+    <sheetView topLeftCell="A87" workbookViewId="0">
+      <selection activeCell="D93" sqref="D93:D98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1869,30 +1874,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="42" t="s">
+      <c r="C1" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="40" t="s">
+      <c r="D1" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="40"/>
-      <c r="F1" s="42" t="s">
+      <c r="E1" s="52"/>
+      <c r="F1" s="54" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B2" s="41"/>
-      <c r="C2" s="42"/>
+      <c r="B2" s="53"/>
+      <c r="C2" s="54"/>
       <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="42"/>
+      <c r="F2" s="54"/>
       <c r="G2" s="2" t="s">
         <v>115</v>
       </c>
@@ -1910,7 +1915,7 @@
       <c r="E3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="45" t="s">
+      <c r="F3" s="55" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2010,7 +2015,7 @@
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B11" s="46" t="s">
+      <c r="B11" s="40" t="s">
         <v>144</v>
       </c>
       <c r="C11" s="44" t="s">
@@ -2035,7 +2040,7 @@
       <c r="F12" s="44"/>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B13" s="47"/>
+      <c r="B13" s="41"/>
       <c r="C13" s="11"/>
       <c r="D13" s="2" t="s">
         <v>125</v>
@@ -2063,10 +2068,10 @@
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B15" s="49" t="s">
+      <c r="B15" s="45" t="s">
         <v>172</v>
       </c>
-      <c r="C15" s="46" t="s">
+      <c r="C15" s="40" t="s">
         <v>39</v>
       </c>
       <c r="D15" s="2" t="s">
@@ -2075,12 +2080,12 @@
       <c r="E15" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="F15" s="46" t="s">
+      <c r="F15" s="40" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B16" s="50"/>
+      <c r="B16" s="46"/>
       <c r="C16" s="48"/>
       <c r="D16" s="2" t="s">
         <v>85</v>
@@ -2091,7 +2096,7 @@
       <c r="F16" s="48"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B17" s="50"/>
+      <c r="B17" s="46"/>
       <c r="C17" s="48"/>
       <c r="D17" s="2" t="s">
         <v>91</v>
@@ -2102,7 +2107,7 @@
       <c r="F17" s="48"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B18" s="50"/>
+      <c r="B18" s="46"/>
       <c r="C18" s="48"/>
       <c r="D18" s="2" t="s">
         <v>41</v>
@@ -2113,7 +2118,7 @@
       <c r="F18" s="48"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B19" s="50"/>
+      <c r="B19" s="46"/>
       <c r="C19" s="48"/>
       <c r="D19" s="2" t="s">
         <v>42</v>
@@ -2124,15 +2129,15 @@
       <c r="F19" s="48"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B20" s="51"/>
-      <c r="C20" s="47"/>
+      <c r="B20" s="47"/>
+      <c r="C20" s="41"/>
       <c r="D20" s="2" t="s">
         <v>43</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F20" s="47"/>
+      <c r="F20" s="41"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B21" s="7" t="s">
@@ -2152,10 +2157,10 @@
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B22" s="53" t="s">
+      <c r="B22" s="49" t="s">
         <v>106</v>
       </c>
-      <c r="C22" s="46" t="s">
+      <c r="C22" s="40" t="s">
         <v>50</v>
       </c>
       <c r="D22" s="2" t="s">
@@ -2164,12 +2169,12 @@
       <c r="E22" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="F22" s="46" t="s">
+      <c r="F22" s="40" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B23" s="54"/>
+      <c r="B23" s="50"/>
       <c r="C23" s="48"/>
       <c r="D23" s="2" t="s">
         <v>108</v>
@@ -2180,21 +2185,21 @@
       <c r="F23" s="48"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B24" s="55"/>
-      <c r="C24" s="47"/>
+      <c r="B24" s="51"/>
+      <c r="C24" s="41"/>
       <c r="D24" s="2" t="s">
         <v>214</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="F24" s="47"/>
+      <c r="F24" s="41"/>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B25" s="43" t="s">
         <v>101</v>
       </c>
-      <c r="C25" s="52" t="s">
+      <c r="C25" s="42" t="s">
         <v>50</v>
       </c>
       <c r="D25" s="2" t="s">
@@ -2203,59 +2208,59 @@
       <c r="E25" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="F25" s="52" t="s">
+      <c r="F25" s="42" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B26" s="43"/>
-      <c r="C26" s="52"/>
+      <c r="C26" s="42"/>
       <c r="D26" s="2" t="s">
         <v>103</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="F26" s="52"/>
+      <c r="F26" s="42"/>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B27" s="43"/>
-      <c r="C27" s="52"/>
+      <c r="C27" s="42"/>
       <c r="D27" s="2" t="s">
         <v>52</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F27" s="52"/>
+      <c r="F27" s="42"/>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B28" s="43"/>
-      <c r="C28" s="52"/>
+      <c r="C28" s="42"/>
       <c r="D28" s="2" t="s">
         <v>104</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="F28" s="52"/>
+      <c r="F28" s="42"/>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B29" s="43"/>
-      <c r="C29" s="52"/>
+      <c r="C29" s="42"/>
       <c r="D29" s="2" t="s">
         <v>105</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="F29" s="52"/>
+      <c r="F29" s="42"/>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B30" s="43" t="s">
         <v>185</v>
       </c>
-      <c r="C30" s="52" t="s">
+      <c r="C30" s="42" t="s">
         <v>50</v>
       </c>
       <c r="D30" s="2" t="s">
@@ -2264,31 +2269,31 @@
       <c r="E30" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="F30" s="52" t="s">
+      <c r="F30" s="42" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B31" s="43"/>
-      <c r="C31" s="52"/>
+      <c r="C31" s="42"/>
       <c r="D31" s="2" t="s">
         <v>110</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F31" s="52"/>
+      <c r="F31" s="42"/>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B32" s="43"/>
-      <c r="C32" s="52"/>
+      <c r="C32" s="42"/>
       <c r="D32" s="2" t="s">
         <v>111</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="F32" s="52"/>
+      <c r="F32" s="42"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B33" s="7" t="s">
@@ -2353,10 +2358,10 @@
       </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B37" s="49" t="s">
+      <c r="B37" s="45" t="s">
         <v>93</v>
       </c>
-      <c r="C37" s="46" t="s">
+      <c r="C37" s="40" t="s">
         <v>67</v>
       </c>
       <c r="D37" s="2" t="s">
@@ -2365,7 +2370,7 @@
       <c r="E37" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="F37" s="46" t="s">
+      <c r="F37" s="40" t="s">
         <v>65</v>
       </c>
       <c r="G37" s="2" t="s">
@@ -2373,7 +2378,7 @@
       </c>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B38" s="50"/>
+      <c r="B38" s="46"/>
       <c r="C38" s="48"/>
       <c r="D38" s="2" t="s">
         <v>95</v>
@@ -2387,7 +2392,7 @@
       </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B39" s="50"/>
+      <c r="B39" s="46"/>
       <c r="C39" s="48"/>
       <c r="D39" s="2" t="s">
         <v>96</v>
@@ -2401,7 +2406,7 @@
       </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B40" s="50"/>
+      <c r="B40" s="46"/>
       <c r="C40" s="48"/>
       <c r="D40" s="2" t="s">
         <v>97</v>
@@ -2415,7 +2420,7 @@
       </c>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B41" s="50"/>
+      <c r="B41" s="46"/>
       <c r="C41" s="48"/>
       <c r="D41" s="2" t="s">
         <v>98</v>
@@ -2426,7 +2431,7 @@
       <c r="F41" s="48"/>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B42" s="50"/>
+      <c r="B42" s="46"/>
       <c r="C42" s="48"/>
       <c r="D42" s="2" t="s">
         <v>100</v>
@@ -2437,9 +2442,9 @@
       <c r="F42" s="48"/>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B43" s="51"/>
-      <c r="C43" s="47"/>
-      <c r="F43" s="47"/>
+      <c r="B43" s="47"/>
+      <c r="C43" s="41"/>
+      <c r="F43" s="41"/>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B44" s="7" t="s">
@@ -2513,7 +2518,7 @@
       </c>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B49" s="46" t="s">
+      <c r="B49" s="40" t="s">
         <v>133</v>
       </c>
       <c r="C49" s="11" t="s">
@@ -2525,19 +2530,19 @@
       <c r="E49" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="F49" s="46" t="s">
+      <c r="F49" s="40" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B50" s="47"/>
+      <c r="B50" s="41"/>
       <c r="D50" s="2" t="s">
         <v>129</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="F50" s="47"/>
+      <c r="F50" s="41"/>
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B51" s="7" t="s">
@@ -2599,7 +2604,7 @@
       </c>
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B55" s="46" t="s">
+      <c r="B55" s="40" t="s">
         <v>162</v>
       </c>
       <c r="D55" s="2" t="s">
@@ -2610,7 +2615,7 @@
       </c>
     </row>
     <row r="56" spans="2:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B56" s="47"/>
+      <c r="B56" s="41"/>
       <c r="D56" s="2" t="s">
         <v>150</v>
       </c>
@@ -3121,7 +3126,7 @@
     </row>
     <row r="106" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B106" s="7" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="C106" s="39" t="s">
         <v>39</v>
@@ -3162,112 +3167,124 @@
     </row>
     <row r="110" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B110" s="7" t="s">
-        <v>282</v>
+        <v>304</v>
       </c>
       <c r="C110" s="38" t="s">
         <v>39</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
     </row>
     <row r="111" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B111" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="E111" s="3" t="s">
         <v>283</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="E111" s="3" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="112" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D112" s="2" t="s">
-        <v>290</v>
+        <v>306</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
     </row>
     <row r="113" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D113" s="2" t="s">
-        <v>286</v>
+        <v>307</v>
       </c>
       <c r="E113" s="3" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="114" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D114" s="2" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="115" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D115" s="2" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
     </row>
     <row r="116" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D116" s="2" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
     </row>
     <row r="117" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D117" s="2" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
     </row>
     <row r="118" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D118" s="2" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="E118" s="3" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
     </row>
     <row r="119" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D119" s="2" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="E119" s="3" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="120" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D120" s="2" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="E120" s="3" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
     </row>
     <row r="121" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D121" s="2" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
     </row>
     <row r="122" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D122" s="2" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="E122" s="38" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="123" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D123" s="2" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="E123" s="3" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="F3:F5"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="F37:F43"/>
+    <mergeCell ref="C37:C43"/>
+    <mergeCell ref="B37:B43"/>
     <mergeCell ref="B55:B56"/>
     <mergeCell ref="F30:F32"/>
     <mergeCell ref="B30:B32"/>
@@ -3284,22 +3301,32 @@
     <mergeCell ref="C22:C24"/>
     <mergeCell ref="F22:F24"/>
     <mergeCell ref="B11:B13"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="F37:F43"/>
-    <mergeCell ref="C37:C43"/>
-    <mergeCell ref="B37:B43"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="F3:F5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>308</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
 </file>
--- a/文档/接口.xlsx
+++ b/文档/接口.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -715,10 +715,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>获取订单状态变更记录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>返回值</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1222,27 +1218,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>api/ShopOrderApi/ReturnOrder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OrderId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReturnType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>评论时 检测是否增加会员积分或其他奖励</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>api/ShopCommentApi/GetCommentProduct</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>api/ShopOrderApi/ReturnOrder</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OrderId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ReturnType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Description</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>评论时 检测是否增加会员积分或其他奖励</t>
+    <t>获取订单状态变更记录</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1858,8 +1858,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G123"/>
   <sheetViews>
-    <sheetView topLeftCell="A87" workbookViewId="0">
-      <selection activeCell="D93" sqref="D93:D98"/>
+    <sheetView tabSelected="1" topLeftCell="C57" workbookViewId="0">
+      <selection activeCell="F65" sqref="F65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1943,7 +1943,7 @@
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B6" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>19</v>
@@ -2180,7 +2180,7 @@
         <v>108</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F23" s="48"/>
     </row>
@@ -2188,10 +2188,10 @@
       <c r="B24" s="51"/>
       <c r="C24" s="41"/>
       <c r="D24" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>214</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>215</v>
       </c>
       <c r="F24" s="41"/>
     </row>
@@ -2258,7 +2258,7 @@
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B30" s="43" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C30" s="42" t="s">
         <v>50</v>
@@ -2708,7 +2708,7 @@
     </row>
     <row r="64" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B64" s="19" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C64" s="20" t="s">
         <v>66</v>
@@ -2725,198 +2725,198 @@
         <v>174</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>175</v>
+        <v>308</v>
       </c>
     </row>
     <row r="66" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D66" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="67" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D67" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="68" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D68" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="69" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D69" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="70" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B70" s="22" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C70" s="3" t="s">
         <v>174</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="71" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B71" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C71" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="F71" s="3" t="s">
         <v>189</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="F71" s="3" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="72" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D72" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="73" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D73" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="74" spans="2:6" ht="27" x14ac:dyDescent="0.15">
       <c r="B74" s="23" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C74" s="24" t="s">
         <v>153</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F74" s="25" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="75" spans="2:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="D75" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E75" s="25" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="76" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B76" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C76" s="26" t="s">
         <v>50</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="77" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D77" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="78" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D78" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="79" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B79" s="7" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="80" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B80" s="27" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D80" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E80" s="3" t="s">
         <v>221</v>
-      </c>
-      <c r="E80" s="3" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="81" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D81" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="82" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D82" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="83" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B83" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="D83" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="D83" s="2" t="s">
+      <c r="E83" s="31" t="s">
         <v>261</v>
-      </c>
-      <c r="E83" s="31" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="84" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B84" s="30" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C84" s="31"/>
       <c r="E84" s="31"/>
@@ -2924,76 +2924,76 @@
     </row>
     <row r="85" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B85" s="7" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E85" s="27" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="86" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B86" s="27" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E86" s="27" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="87" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D87" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="88" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D88" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="89" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D89" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="90" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B90" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="D90" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="C90" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>235</v>
-      </c>
       <c r="E90" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="91" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B91" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="92" spans="2:6" x14ac:dyDescent="0.15">
@@ -3004,53 +3004,53 @@
     </row>
     <row r="93" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B93" s="28" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="94" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B94" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="95" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D95" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="96" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D96" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="97" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B97" s="33"/>
       <c r="C97" s="34"/>
       <c r="D97" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="E97" s="34" t="s">
         <v>267</v>
-      </c>
-      <c r="E97" s="34" t="s">
-        <v>268</v>
       </c>
       <c r="F97" s="34"/>
     </row>
@@ -3058,56 +3058,56 @@
       <c r="B98" s="36"/>
       <c r="C98" s="37"/>
       <c r="D98" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="E98" s="37" t="s">
         <v>269</v>
-      </c>
-      <c r="E98" s="37" t="s">
-        <v>270</v>
       </c>
       <c r="F98" s="37"/>
     </row>
     <row r="99" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B99" s="7" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C99" s="29" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="100" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B100" s="7" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="101" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D101" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="102" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D102" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="103" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D103" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="104" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B104" s="7" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C104" s="32" t="s">
         <v>39</v>
@@ -3115,160 +3115,160 @@
     </row>
     <row r="105" spans="2:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B105" s="35" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D105" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="E105" s="3" t="s">
         <v>264</v>
-      </c>
-      <c r="E105" s="3" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="106" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B106" s="7" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="C106" s="39" t="s">
         <v>39</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="107" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B107" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="D107" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="D107" s="2" t="s">
-        <v>273</v>
-      </c>
       <c r="E107" s="39" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="108" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D108" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="109" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B109" s="39" t="s">
+        <v>274</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="E109" s="39" t="s">
         <v>275</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="E109" s="39" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="110" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B110" s="7" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C110" s="38" t="s">
         <v>39</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="111" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B111" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="E111" s="3" t="s">
         <v>282</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="E111" s="3" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="112" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D112" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="113" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D113" s="2" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="E113" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="114" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D114" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="E114" s="3" t="s">
         <v>285</v>
-      </c>
-      <c r="E114" s="3" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="115" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D115" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="116" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D116" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="117" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D117" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="118" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D118" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E118" s="3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="119" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D119" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E119" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="120" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D120" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E120" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="121" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D121" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="122" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D122" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E122" s="38" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="123" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D123" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="E123" s="3" t="s">
         <v>301</v>
-      </c>
-      <c r="E123" s="3" t="s">
-        <v>302</v>
       </c>
     </row>
   </sheetData>
@@ -3313,7 +3313,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -3321,7 +3321,7 @@
   <sheetData>
     <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
   </sheetData>

--- a/文档/接口.xlsx
+++ b/文档/接口.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="327">
   <si>
     <t>调用方式</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -755,10 +755,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>api/userapi/GetMySelf</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>获取当前登录的个人信息</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1243,6 +1239,79 @@
   </si>
   <si>
     <t>获取订单状态变更记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/userapi/GetMySelf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/userapi/ModifyInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>post</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改个人信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Email</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NickyName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Signature</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Birthday</t>
+  </si>
+  <si>
+    <t>Sex</t>
+  </si>
+  <si>
+    <t>ContactPhone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,1,2 =》保密,男,女 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不可空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>昵称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个性签名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生日   yyyy-MM-dd</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1344,7 +1413,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1433,19 +1502,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1455,22 +1537,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1856,10 +1928,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G123"/>
+  <dimension ref="B1:G131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C57" workbookViewId="0">
-      <selection activeCell="F65" sqref="F65"/>
+    <sheetView tabSelected="1" topLeftCell="A111" workbookViewId="0">
+      <selection activeCell="B125" sqref="B125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1874,39 +1946,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B1" s="53" t="s">
+      <c r="B1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="54" t="s">
+      <c r="C1" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="52" t="s">
+      <c r="D1" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="52"/>
-      <c r="F1" s="54" t="s">
+      <c r="E1" s="41"/>
+      <c r="F1" s="43" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B2" s="53"/>
-      <c r="C2" s="54"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="43"/>
       <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="54"/>
+      <c r="F2" s="43"/>
       <c r="G2" s="2" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="3" spans="2:7" ht="94.5" x14ac:dyDescent="0.15">
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="44" t="s">
+      <c r="C3" s="45" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -1915,35 +1987,35 @@
       <c r="E3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="55" t="s">
+      <c r="F3" s="46" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B4" s="43"/>
-      <c r="C4" s="44"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="45"/>
       <c r="D4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="44"/>
+      <c r="F4" s="45"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B5" s="43"/>
-      <c r="C5" s="44"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="45"/>
       <c r="D5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="44"/>
+      <c r="F5" s="45"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B6" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>19</v>
@@ -2015,32 +2087,32 @@
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B11" s="40" t="s">
+      <c r="B11" s="47" t="s">
         <v>144</v>
       </c>
-      <c r="C11" s="44" t="s">
+      <c r="C11" s="45" t="s">
         <v>18</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="44" t="s">
+      <c r="F11" s="45" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B12" s="48"/>
-      <c r="C12" s="44"/>
+      <c r="B12" s="49"/>
+      <c r="C12" s="45"/>
       <c r="D12" s="2" t="s">
         <v>127</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="F12" s="44"/>
+      <c r="F12" s="45"/>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B13" s="41"/>
+      <c r="B13" s="48"/>
       <c r="C13" s="11"/>
       <c r="D13" s="2" t="s">
         <v>125</v>
@@ -2068,10 +2140,10 @@
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B15" s="45" t="s">
+      <c r="B15" s="50" t="s">
         <v>172</v>
       </c>
-      <c r="C15" s="40" t="s">
+      <c r="C15" s="47" t="s">
         <v>39</v>
       </c>
       <c r="D15" s="2" t="s">
@@ -2080,64 +2152,64 @@
       <c r="E15" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="F15" s="40" t="s">
+      <c r="F15" s="47" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B16" s="46"/>
-      <c r="C16" s="48"/>
+      <c r="B16" s="51"/>
+      <c r="C16" s="49"/>
       <c r="D16" s="2" t="s">
         <v>85</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="F16" s="48"/>
+      <c r="F16" s="49"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B17" s="46"/>
-      <c r="C17" s="48"/>
+      <c r="B17" s="51"/>
+      <c r="C17" s="49"/>
       <c r="D17" s="2" t="s">
         <v>91</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="F17" s="48"/>
+      <c r="F17" s="49"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B18" s="46"/>
-      <c r="C18" s="48"/>
+      <c r="B18" s="51"/>
+      <c r="C18" s="49"/>
       <c r="D18" s="2" t="s">
         <v>41</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F18" s="48"/>
+      <c r="F18" s="49"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B19" s="46"/>
-      <c r="C19" s="48"/>
+      <c r="B19" s="51"/>
+      <c r="C19" s="49"/>
       <c r="D19" s="2" t="s">
         <v>42</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="F19" s="48"/>
+      <c r="F19" s="49"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B20" s="47"/>
-      <c r="C20" s="41"/>
+      <c r="B20" s="52"/>
+      <c r="C20" s="48"/>
       <c r="D20" s="2" t="s">
         <v>43</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F20" s="41"/>
+      <c r="F20" s="48"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B21" s="7" t="s">
@@ -2157,10 +2229,10 @@
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B22" s="49" t="s">
+      <c r="B22" s="54" t="s">
         <v>106</v>
       </c>
-      <c r="C22" s="40" t="s">
+      <c r="C22" s="47" t="s">
         <v>50</v>
       </c>
       <c r="D22" s="2" t="s">
@@ -2169,37 +2241,37 @@
       <c r="E22" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="F22" s="40" t="s">
+      <c r="F22" s="47" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B23" s="50"/>
-      <c r="C23" s="48"/>
+      <c r="B23" s="55"/>
+      <c r="C23" s="49"/>
       <c r="D23" s="2" t="s">
         <v>108</v>
       </c>
       <c r="E23" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="F23" s="49"/>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B24" s="56"/>
+      <c r="C24" s="48"/>
+      <c r="D24" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="F23" s="48"/>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B24" s="51"/>
-      <c r="C24" s="41"/>
-      <c r="D24" s="2" t="s">
+      <c r="E24" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="E24" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="F24" s="41"/>
+      <c r="F24" s="48"/>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B25" s="43" t="s">
+      <c r="B25" s="44" t="s">
         <v>101</v>
       </c>
-      <c r="C25" s="42" t="s">
+      <c r="C25" s="53" t="s">
         <v>50</v>
       </c>
       <c r="D25" s="2" t="s">
@@ -2208,59 +2280,59 @@
       <c r="E25" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="F25" s="42" t="s">
+      <c r="F25" s="53" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B26" s="43"/>
-      <c r="C26" s="42"/>
+      <c r="B26" s="44"/>
+      <c r="C26" s="53"/>
       <c r="D26" s="2" t="s">
         <v>103</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="F26" s="42"/>
+      <c r="F26" s="53"/>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B27" s="43"/>
-      <c r="C27" s="42"/>
+      <c r="B27" s="44"/>
+      <c r="C27" s="53"/>
       <c r="D27" s="2" t="s">
         <v>52</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F27" s="42"/>
+      <c r="F27" s="53"/>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B28" s="43"/>
-      <c r="C28" s="42"/>
+      <c r="B28" s="44"/>
+      <c r="C28" s="53"/>
       <c r="D28" s="2" t="s">
         <v>104</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="F28" s="42"/>
+      <c r="F28" s="53"/>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B29" s="43"/>
-      <c r="C29" s="42"/>
+      <c r="B29" s="44"/>
+      <c r="C29" s="53"/>
       <c r="D29" s="2" t="s">
         <v>105</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="F29" s="42"/>
+      <c r="F29" s="53"/>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B30" s="43" t="s">
+      <c r="B30" s="44" t="s">
         <v>184</v>
       </c>
-      <c r="C30" s="42" t="s">
+      <c r="C30" s="53" t="s">
         <v>50</v>
       </c>
       <c r="D30" s="2" t="s">
@@ -2269,31 +2341,31 @@
       <c r="E30" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="F30" s="42" t="s">
+      <c r="F30" s="53" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B31" s="43"/>
-      <c r="C31" s="42"/>
+      <c r="B31" s="44"/>
+      <c r="C31" s="53"/>
       <c r="D31" s="2" t="s">
         <v>110</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F31" s="42"/>
+      <c r="F31" s="53"/>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B32" s="43"/>
-      <c r="C32" s="42"/>
+      <c r="B32" s="44"/>
+      <c r="C32" s="53"/>
       <c r="D32" s="2" t="s">
         <v>111</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="F32" s="42"/>
+      <c r="F32" s="53"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B33" s="7" t="s">
@@ -2358,10 +2430,10 @@
       </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B37" s="45" t="s">
+      <c r="B37" s="50" t="s">
         <v>93</v>
       </c>
-      <c r="C37" s="40" t="s">
+      <c r="C37" s="47" t="s">
         <v>67</v>
       </c>
       <c r="D37" s="2" t="s">
@@ -2370,7 +2442,7 @@
       <c r="E37" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="F37" s="40" t="s">
+      <c r="F37" s="47" t="s">
         <v>65</v>
       </c>
       <c r="G37" s="2" t="s">
@@ -2378,73 +2450,73 @@
       </c>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B38" s="46"/>
-      <c r="C38" s="48"/>
+      <c r="B38" s="51"/>
+      <c r="C38" s="49"/>
       <c r="D38" s="2" t="s">
         <v>95</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="F38" s="48"/>
+      <c r="F38" s="49"/>
       <c r="G38" s="2" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B39" s="46"/>
-      <c r="C39" s="48"/>
+      <c r="B39" s="51"/>
+      <c r="C39" s="49"/>
       <c r="D39" s="2" t="s">
         <v>96</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="F39" s="48"/>
+      <c r="F39" s="49"/>
       <c r="G39" s="2" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B40" s="46"/>
-      <c r="C40" s="48"/>
+      <c r="B40" s="51"/>
+      <c r="C40" s="49"/>
       <c r="D40" s="2" t="s">
         <v>97</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="F40" s="48"/>
+      <c r="F40" s="49"/>
       <c r="G40" s="2" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B41" s="46"/>
-      <c r="C41" s="48"/>
+      <c r="B41" s="51"/>
+      <c r="C41" s="49"/>
       <c r="D41" s="2" t="s">
         <v>98</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="F41" s="48"/>
+      <c r="F41" s="49"/>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B42" s="46"/>
-      <c r="C42" s="48"/>
+      <c r="B42" s="51"/>
+      <c r="C42" s="49"/>
       <c r="D42" s="2" t="s">
         <v>100</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="F42" s="48"/>
+      <c r="F42" s="49"/>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B43" s="47"/>
-      <c r="C43" s="41"/>
-      <c r="F43" s="41"/>
+      <c r="B43" s="52"/>
+      <c r="C43" s="48"/>
+      <c r="F43" s="48"/>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B44" s="7" t="s">
@@ -2518,7 +2590,7 @@
       </c>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B49" s="40" t="s">
+      <c r="B49" s="47" t="s">
         <v>133</v>
       </c>
       <c r="C49" s="11" t="s">
@@ -2530,19 +2602,19 @@
       <c r="E49" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="F49" s="40" t="s">
+      <c r="F49" s="47" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B50" s="41"/>
+      <c r="B50" s="48"/>
       <c r="D50" s="2" t="s">
         <v>129</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="F50" s="41"/>
+      <c r="F50" s="48"/>
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B51" s="7" t="s">
@@ -2604,7 +2676,7 @@
       </c>
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B55" s="40" t="s">
+      <c r="B55" s="47" t="s">
         <v>162</v>
       </c>
       <c r="D55" s="2" t="s">
@@ -2615,7 +2687,7 @@
       </c>
     </row>
     <row r="56" spans="2:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B56" s="41"/>
+      <c r="B56" s="48"/>
       <c r="D56" s="2" t="s">
         <v>150</v>
       </c>
@@ -2708,7 +2780,7 @@
     </row>
     <row r="64" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B64" s="19" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C64" s="20" t="s">
         <v>66</v>
@@ -2728,7 +2800,7 @@
         <v>175</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="66" spans="2:6" x14ac:dyDescent="0.15">
@@ -2765,158 +2837,158 @@
     </row>
     <row r="70" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B70" s="22" t="s">
-        <v>185</v>
+        <v>308</v>
       </c>
       <c r="C70" s="3" t="s">
         <v>174</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="71" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B71" s="7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C71" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="F71" s="3" t="s">
         <v>188</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="F71" s="3" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="72" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D72" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="73" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D73" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="74" spans="2:6" ht="27" x14ac:dyDescent="0.15">
       <c r="B74" s="23" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C74" s="24" t="s">
         <v>153</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F74" s="25" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="75" spans="2:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="D75" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E75" s="25" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="76" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B76" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C76" s="26" t="s">
         <v>50</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="77" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D77" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="78" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D78" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="79" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B79" s="7" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="80" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B80" s="27" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D80" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="E80" s="3" t="s">
         <v>220</v>
-      </c>
-      <c r="E80" s="3" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="81" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D81" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="82" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D82" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="83" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B83" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="D83" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="D83" s="2" t="s">
+      <c r="E83" s="31" t="s">
         <v>260</v>
-      </c>
-      <c r="E83" s="31" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="84" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B84" s="30" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C84" s="31"/>
       <c r="E84" s="31"/>
@@ -2924,76 +2996,76 @@
     </row>
     <row r="85" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B85" s="7" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E85" s="27" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="86" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B86" s="27" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E86" s="27" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="87" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D87" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="88" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D88" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="89" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D89" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="90" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B90" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="D90" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="C90" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>234</v>
-      </c>
       <c r="E90" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="91" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B91" s="7" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="92" spans="2:6" x14ac:dyDescent="0.15">
@@ -3004,53 +3076,53 @@
     </row>
     <row r="93" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B93" s="28" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="94" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B94" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="95" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D95" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="96" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D96" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="97" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B97" s="33"/>
       <c r="C97" s="34"/>
       <c r="D97" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="E97" s="34" t="s">
         <v>266</v>
-      </c>
-      <c r="E97" s="34" t="s">
-        <v>267</v>
       </c>
       <c r="F97" s="34"/>
     </row>
@@ -3058,56 +3130,56 @@
       <c r="B98" s="36"/>
       <c r="C98" s="37"/>
       <c r="D98" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="E98" s="37" t="s">
         <v>268</v>
-      </c>
-      <c r="E98" s="37" t="s">
-        <v>269</v>
       </c>
       <c r="F98" s="37"/>
     </row>
     <row r="99" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B99" s="7" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C99" s="29" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="100" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B100" s="7" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="101" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D101" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="102" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D102" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="103" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D103" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="104" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B104" s="7" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C104" s="32" t="s">
         <v>39</v>
@@ -3115,176 +3187,237 @@
     </row>
     <row r="105" spans="2:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B105" s="35" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D105" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="E105" s="3" t="s">
         <v>263</v>
-      </c>
-      <c r="E105" s="3" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="106" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B106" s="7" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C106" s="39" t="s">
         <v>39</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="107" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B107" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="D107" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="D107" s="2" t="s">
-        <v>272</v>
-      </c>
       <c r="E107" s="39" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="108" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D108" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="109" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B109" s="39" t="s">
+        <v>273</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="E109" s="39" t="s">
         <v>274</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="E109" s="39" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="110" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B110" s="7" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C110" s="38" t="s">
         <v>39</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="111" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B111" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="E111" s="3" t="s">
         <v>281</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="E111" s="3" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="112" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D112" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="E112" s="3" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="113" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D113" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="E112" s="3" t="s">
+      <c r="E113" s="3" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="114" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D114" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="E114" s="3" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="115" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D115" s="2" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="113" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D113" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="E113" s="3" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="114" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D114" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="E114" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="115" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D115" s="2" t="s">
+    <row r="116" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D116" s="2" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="116" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D116" s="2" t="s">
+    <row r="117" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D117" s="2" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="117" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D117" s="2" t="s">
+    <row r="118" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D118" s="2" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="118" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D118" s="2" t="s">
+      <c r="E118" s="3" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="119" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D119" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="E118" s="3" t="s">
+      <c r="E119" s="3" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="119" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D119" s="2" t="s">
+    <row r="120" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D120" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="E119" s="3" t="s">
+      <c r="E120" s="3" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="120" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D120" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="E120" s="3" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="121" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="121" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D121" s="2" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="122" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D122" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="E122" s="38" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="122" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D122" s="2" t="s">
+    <row r="123" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D123" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="E122" s="38" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="123" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D123" s="2" t="s">
+      <c r="E123" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="E123" s="3" t="s">
-        <v>301</v>
+    </row>
+    <row r="124" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B124" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="C124" s="3" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="125" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B125" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="C125" s="40" t="s">
+        <v>320</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="E125" s="3" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="126" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C126" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="E126" s="3" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="127" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D127" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="E127" s="3" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="128" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D128" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="E128" s="3" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="129" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="D129" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="E129" s="3" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="130" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="D130" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="E130" s="3" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="131" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="D131" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="E131" s="3" t="s">
+        <v>319</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="F3:F5"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="F37:F43"/>
-    <mergeCell ref="C37:C43"/>
-    <mergeCell ref="B37:B43"/>
     <mergeCell ref="B55:B56"/>
     <mergeCell ref="F30:F32"/>
     <mergeCell ref="B30:B32"/>
@@ -3301,6 +3434,18 @@
     <mergeCell ref="C22:C24"/>
     <mergeCell ref="F22:F24"/>
     <mergeCell ref="B11:B13"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="F37:F43"/>
+    <mergeCell ref="C37:C43"/>
+    <mergeCell ref="B37:B43"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="F3:F5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3321,7 +3466,7 @@
   <sheetData>
     <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
   </sheetData>

--- a/文档/接口.xlsx
+++ b/文档/接口.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="329">
   <si>
     <t>调用方式</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -799,10 +799,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>api/ShopOrderApi/PayOrder</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>OrderNo</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1312,6 +1308,18 @@
   </si>
   <si>
     <t>生日   yyyy-MM-dd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/ShopOrderApi/PayOrder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/ShopOrderApi/Delete/{订单id}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除订单</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1413,7 +1421,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1502,6 +1510,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1928,10 +1937,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G131"/>
+  <dimension ref="B1:G133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A111" workbookViewId="0">
-      <selection activeCell="B125" sqref="B125"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B129" sqref="B129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1946,39 +1955,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="C1" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="41" t="s">
+      <c r="D1" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="41"/>
-      <c r="F1" s="43" t="s">
+      <c r="E1" s="42"/>
+      <c r="F1" s="44" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B2" s="42"/>
-      <c r="C2" s="43"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="44"/>
       <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="43"/>
+      <c r="F2" s="44"/>
       <c r="G2" s="2" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="3" spans="2:7" ht="94.5" x14ac:dyDescent="0.15">
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="45" t="s">
+      <c r="C3" s="46" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -1987,35 +1996,35 @@
       <c r="E3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="46" t="s">
+      <c r="F3" s="47" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B4" s="44"/>
-      <c r="C4" s="45"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="46"/>
       <c r="D4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="45"/>
+      <c r="F4" s="46"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B5" s="44"/>
-      <c r="C5" s="45"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="46"/>
       <c r="D5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="45"/>
+      <c r="F5" s="46"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B6" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>19</v>
@@ -2087,32 +2096,32 @@
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B11" s="47" t="s">
+      <c r="B11" s="48" t="s">
         <v>144</v>
       </c>
-      <c r="C11" s="45" t="s">
+      <c r="C11" s="46" t="s">
         <v>18</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="45" t="s">
+      <c r="F11" s="46" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B12" s="49"/>
-      <c r="C12" s="45"/>
+      <c r="B12" s="50"/>
+      <c r="C12" s="46"/>
       <c r="D12" s="2" t="s">
         <v>127</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="F12" s="45"/>
+      <c r="F12" s="46"/>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B13" s="48"/>
+      <c r="B13" s="49"/>
       <c r="C13" s="11"/>
       <c r="D13" s="2" t="s">
         <v>125</v>
@@ -2140,10 +2149,10 @@
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B15" s="50" t="s">
+      <c r="B15" s="51" t="s">
         <v>172</v>
       </c>
-      <c r="C15" s="47" t="s">
+      <c r="C15" s="48" t="s">
         <v>39</v>
       </c>
       <c r="D15" s="2" t="s">
@@ -2152,64 +2161,64 @@
       <c r="E15" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="F15" s="47" t="s">
+      <c r="F15" s="48" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B16" s="51"/>
-      <c r="C16" s="49"/>
+      <c r="B16" s="52"/>
+      <c r="C16" s="50"/>
       <c r="D16" s="2" t="s">
         <v>85</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="F16" s="49"/>
+      <c r="F16" s="50"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B17" s="51"/>
-      <c r="C17" s="49"/>
+      <c r="B17" s="52"/>
+      <c r="C17" s="50"/>
       <c r="D17" s="2" t="s">
         <v>91</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="F17" s="49"/>
+      <c r="F17" s="50"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B18" s="51"/>
-      <c r="C18" s="49"/>
+      <c r="B18" s="52"/>
+      <c r="C18" s="50"/>
       <c r="D18" s="2" t="s">
         <v>41</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F18" s="49"/>
+      <c r="F18" s="50"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B19" s="51"/>
-      <c r="C19" s="49"/>
+      <c r="B19" s="52"/>
+      <c r="C19" s="50"/>
       <c r="D19" s="2" t="s">
         <v>42</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="F19" s="49"/>
+      <c r="F19" s="50"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B20" s="52"/>
-      <c r="C20" s="48"/>
+      <c r="B20" s="53"/>
+      <c r="C20" s="49"/>
       <c r="D20" s="2" t="s">
         <v>43</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F20" s="48"/>
+      <c r="F20" s="49"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B21" s="7" t="s">
@@ -2229,10 +2238,10 @@
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B22" s="54" t="s">
+      <c r="B22" s="55" t="s">
         <v>106</v>
       </c>
-      <c r="C22" s="47" t="s">
+      <c r="C22" s="48" t="s">
         <v>50</v>
       </c>
       <c r="D22" s="2" t="s">
@@ -2241,37 +2250,37 @@
       <c r="E22" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="F22" s="47" t="s">
+      <c r="F22" s="48" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B23" s="55"/>
-      <c r="C23" s="49"/>
+      <c r="B23" s="56"/>
+      <c r="C23" s="50"/>
       <c r="D23" s="2" t="s">
         <v>108</v>
       </c>
       <c r="E23" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="F23" s="50"/>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B24" s="57"/>
+      <c r="C24" s="49"/>
+      <c r="D24" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="F23" s="49"/>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B24" s="56"/>
-      <c r="C24" s="48"/>
-      <c r="D24" s="2" t="s">
+      <c r="E24" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="E24" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="F24" s="48"/>
+      <c r="F24" s="49"/>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B25" s="44" t="s">
+      <c r="B25" s="45" t="s">
         <v>101</v>
       </c>
-      <c r="C25" s="53" t="s">
+      <c r="C25" s="54" t="s">
         <v>50</v>
       </c>
       <c r="D25" s="2" t="s">
@@ -2280,59 +2289,59 @@
       <c r="E25" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="F25" s="53" t="s">
+      <c r="F25" s="54" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B26" s="44"/>
-      <c r="C26" s="53"/>
+      <c r="B26" s="45"/>
+      <c r="C26" s="54"/>
       <c r="D26" s="2" t="s">
         <v>103</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="F26" s="53"/>
+      <c r="F26" s="54"/>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B27" s="44"/>
-      <c r="C27" s="53"/>
+      <c r="B27" s="45"/>
+      <c r="C27" s="54"/>
       <c r="D27" s="2" t="s">
         <v>52</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F27" s="53"/>
+      <c r="F27" s="54"/>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B28" s="44"/>
-      <c r="C28" s="53"/>
+      <c r="B28" s="45"/>
+      <c r="C28" s="54"/>
       <c r="D28" s="2" t="s">
         <v>104</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="F28" s="53"/>
+      <c r="F28" s="54"/>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B29" s="44"/>
-      <c r="C29" s="53"/>
+      <c r="B29" s="45"/>
+      <c r="C29" s="54"/>
       <c r="D29" s="2" t="s">
         <v>105</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="F29" s="53"/>
+      <c r="F29" s="54"/>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B30" s="44" t="s">
+      <c r="B30" s="45" t="s">
         <v>184</v>
       </c>
-      <c r="C30" s="53" t="s">
+      <c r="C30" s="54" t="s">
         <v>50</v>
       </c>
       <c r="D30" s="2" t="s">
@@ -2341,31 +2350,31 @@
       <c r="E30" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="F30" s="53" t="s">
+      <c r="F30" s="54" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B31" s="44"/>
-      <c r="C31" s="53"/>
+      <c r="B31" s="45"/>
+      <c r="C31" s="54"/>
       <c r="D31" s="2" t="s">
         <v>110</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F31" s="53"/>
+      <c r="F31" s="54"/>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B32" s="44"/>
-      <c r="C32" s="53"/>
+      <c r="B32" s="45"/>
+      <c r="C32" s="54"/>
       <c r="D32" s="2" t="s">
         <v>111</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="F32" s="53"/>
+      <c r="F32" s="54"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B33" s="7" t="s">
@@ -2430,10 +2439,10 @@
       </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B37" s="50" t="s">
+      <c r="B37" s="51" t="s">
         <v>93</v>
       </c>
-      <c r="C37" s="47" t="s">
+      <c r="C37" s="48" t="s">
         <v>67</v>
       </c>
       <c r="D37" s="2" t="s">
@@ -2442,7 +2451,7 @@
       <c r="E37" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="F37" s="47" t="s">
+      <c r="F37" s="48" t="s">
         <v>65</v>
       </c>
       <c r="G37" s="2" t="s">
@@ -2450,73 +2459,73 @@
       </c>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B38" s="51"/>
-      <c r="C38" s="49"/>
+      <c r="B38" s="52"/>
+      <c r="C38" s="50"/>
       <c r="D38" s="2" t="s">
         <v>95</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="F38" s="49"/>
+      <c r="F38" s="50"/>
       <c r="G38" s="2" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B39" s="51"/>
-      <c r="C39" s="49"/>
+      <c r="B39" s="52"/>
+      <c r="C39" s="50"/>
       <c r="D39" s="2" t="s">
         <v>96</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="F39" s="49"/>
+      <c r="F39" s="50"/>
       <c r="G39" s="2" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B40" s="51"/>
-      <c r="C40" s="49"/>
+      <c r="B40" s="52"/>
+      <c r="C40" s="50"/>
       <c r="D40" s="2" t="s">
         <v>97</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="F40" s="49"/>
+      <c r="F40" s="50"/>
       <c r="G40" s="2" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B41" s="51"/>
-      <c r="C41" s="49"/>
+      <c r="B41" s="52"/>
+      <c r="C41" s="50"/>
       <c r="D41" s="2" t="s">
         <v>98</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="F41" s="49"/>
+      <c r="F41" s="50"/>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B42" s="51"/>
-      <c r="C42" s="49"/>
+      <c r="B42" s="52"/>
+      <c r="C42" s="50"/>
       <c r="D42" s="2" t="s">
         <v>100</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="F42" s="49"/>
+      <c r="F42" s="50"/>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B43" s="52"/>
-      <c r="C43" s="48"/>
-      <c r="F43" s="48"/>
+      <c r="B43" s="53"/>
+      <c r="C43" s="49"/>
+      <c r="F43" s="49"/>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B44" s="7" t="s">
@@ -2590,7 +2599,7 @@
       </c>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B49" s="47" t="s">
+      <c r="B49" s="48" t="s">
         <v>133</v>
       </c>
       <c r="C49" s="11" t="s">
@@ -2602,19 +2611,19 @@
       <c r="E49" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="F49" s="47" t="s">
+      <c r="F49" s="48" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B50" s="48"/>
+      <c r="B50" s="49"/>
       <c r="D50" s="2" t="s">
         <v>129</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="F50" s="48"/>
+      <c r="F50" s="49"/>
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B51" s="7" t="s">
@@ -2676,7 +2685,7 @@
       </c>
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B55" s="47" t="s">
+      <c r="B55" s="48" t="s">
         <v>162</v>
       </c>
       <c r="D55" s="2" t="s">
@@ -2687,7 +2696,7 @@
       </c>
     </row>
     <row r="56" spans="2:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B56" s="48"/>
+      <c r="B56" s="49"/>
       <c r="D56" s="2" t="s">
         <v>150</v>
       </c>
@@ -2800,7 +2809,7 @@
         <v>175</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="66" spans="2:6" x14ac:dyDescent="0.15">
@@ -2837,7 +2846,7 @@
     </row>
     <row r="70" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B70" s="22" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C70" s="3" t="s">
         <v>174</v>
@@ -2851,7 +2860,7 @@
     </row>
     <row r="71" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B71" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C71" s="3" t="s">
         <v>187</v>
@@ -2884,111 +2893,111 @@
     </row>
     <row r="74" spans="2:6" ht="27" x14ac:dyDescent="0.15">
       <c r="B74" s="23" t="s">
-        <v>196</v>
+        <v>326</v>
       </c>
       <c r="C74" s="24" t="s">
         <v>153</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F74" s="25" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="75" spans="2:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="D75" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E75" s="25" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="76" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B76" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C76" s="26" t="s">
         <v>50</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="77" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D77" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="78" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D78" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="79" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B79" s="7" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="80" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B80" s="27" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D80" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E80" s="3" t="s">
         <v>219</v>
-      </c>
-      <c r="E80" s="3" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="81" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D81" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="82" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D82" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="83" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B83" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="D83" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="D83" s="2" t="s">
+      <c r="E83" s="31" t="s">
         <v>259</v>
-      </c>
-      <c r="E83" s="31" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="84" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B84" s="30" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C84" s="31"/>
       <c r="E84" s="31"/>
@@ -2996,76 +3005,76 @@
     </row>
     <row r="85" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B85" s="7" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E85" s="27" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="86" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B86" s="27" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E86" s="27" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="87" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D87" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="88" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D88" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="89" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D89" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="90" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B90" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="D90" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="C90" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>233</v>
-      </c>
       <c r="E90" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="91" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B91" s="7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="92" spans="2:6" x14ac:dyDescent="0.15">
@@ -3076,53 +3085,53 @@
     </row>
     <row r="93" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B93" s="28" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="94" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B94" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="95" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D95" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="96" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D96" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="97" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B97" s="33"/>
       <c r="C97" s="34"/>
       <c r="D97" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="E97" s="34" t="s">
         <v>265</v>
-      </c>
-      <c r="E97" s="34" t="s">
-        <v>266</v>
       </c>
       <c r="F97" s="34"/>
     </row>
@@ -3130,56 +3139,56 @@
       <c r="B98" s="36"/>
       <c r="C98" s="37"/>
       <c r="D98" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="E98" s="37" t="s">
         <v>267</v>
-      </c>
-      <c r="E98" s="37" t="s">
-        <v>268</v>
       </c>
       <c r="F98" s="37"/>
     </row>
     <row r="99" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B99" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C99" s="29" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="100" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B100" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="101" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D101" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="102" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D102" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="103" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D103" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="104" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B104" s="7" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C104" s="32" t="s">
         <v>39</v>
@@ -3187,233 +3196,243 @@
     </row>
     <row r="105" spans="2:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B105" s="35" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D105" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="E105" s="3" t="s">
         <v>262</v>
-      </c>
-      <c r="E105" s="3" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="106" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B106" s="7" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C106" s="39" t="s">
         <v>39</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="107" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B107" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="D107" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="D107" s="2" t="s">
-        <v>271</v>
-      </c>
       <c r="E107" s="39" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="108" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D108" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="109" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B109" s="39" t="s">
+        <v>272</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="E109" s="39" t="s">
         <v>273</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="E109" s="39" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="110" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B110" s="7" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C110" s="38" t="s">
         <v>39</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="111" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B111" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="E111" s="3" t="s">
         <v>280</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="E111" s="3" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="112" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D112" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="113" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D113" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E113" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="114" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D114" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="E114" s="3" t="s">
         <v>283</v>
-      </c>
-      <c r="E114" s="3" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="115" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D115" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="116" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D116" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="117" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D117" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="118" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D118" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E118" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="119" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D119" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E119" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="120" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D120" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E120" s="3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="121" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D121" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="122" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D122" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E122" s="38" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="123" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D123" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="E123" s="3" t="s">
         <v>299</v>
-      </c>
-      <c r="E123" s="3" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="124" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B124" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="C124" s="3" t="s">
         <v>309</v>
-      </c>
-      <c r="C124" s="3" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="125" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B125" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="C125" s="40" t="s">
+        <v>310</v>
+      </c>
+      <c r="C125" s="41" t="s">
+        <v>319</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="E125" s="3" t="s">
         <v>320</v>
-      </c>
-      <c r="D125" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="E125" s="3" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="126" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C126" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E126" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="127" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D127" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E127" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="128" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D128" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="E128" s="3" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="129" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D129" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="E128" s="3" t="s">
+      <c r="E129" s="3" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="129" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D129" s="2" t="s">
+    <row r="130" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D130" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="E129" s="3" t="s">
+      <c r="E130" s="3" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="130" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D130" s="2" t="s">
+    <row r="131" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D131" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="E130" s="3" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="131" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D131" s="2" t="s">
-        <v>317</v>
-      </c>
       <c r="E131" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
+      </c>
+    </row>
+    <row r="132" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B132" s="40" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="133" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B133" s="7" t="s">
+        <v>328</v>
       </c>
     </row>
   </sheetData>
@@ -3466,7 +3485,7 @@
   <sheetData>
     <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
   </sheetData>

--- a/文档/接口.xlsx
+++ b/文档/接口.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="331">
   <si>
     <t>调用方式</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1071,255 +1071,263 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>IsAnony</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否匿名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/ShopOrderApi/PaySuccess</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取评论的商品（全部、待评论、已评论）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>state</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pageIndex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0查所有，1查待评论的，2.查已评论的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 空查所有，非空查当前订单下所有商品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>页数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0：取消失败 1:直接取消成功，2：提交了取消申请，需要人工处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>code=1和2的描述文字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/ShopOrderApi/CancleOrder/订单id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>退货单接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原订单ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>退货原因</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ImageUrlID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瑕疵图片（先空着，先不处理）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>退货类型0 整单退 1 部分退</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非整单退额外参数(是个集合)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JSON格式是 OrderItems:{属性名：值}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字符串格式是 OrderItems[0].属性名1&amp;OrderItems[0].属性名2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProductId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKUID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RequestQuantity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品SKUID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求退回数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>传递参数说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回值说明，都在data里</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>退货单ID</t>
+  </si>
+  <si>
+    <t>ReturnOrderID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Msg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/ShopOrderApi/ReturnOrder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OrderId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReturnType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>评论时 检测是否增加会员积分或其他奖励</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/ShopCommentApi/GetCommentProduct</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取订单状态变更记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/userapi/GetMySelf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/userapi/ModifyInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>post</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改个人信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Email</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NickyName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Signature</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Birthday</t>
+  </si>
+  <si>
+    <t>Sex</t>
+  </si>
+  <si>
+    <t>ContactPhone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,1,2 =》保密,男,女 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不可空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>昵称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个性签名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生日   yyyy-MM-dd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/ShopOrderApi/PayOrder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/ShopOrderApi/Delete/{订单id}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除订单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>评价等级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>评论等级（0无 1差评 2中评，3好评）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>IsAnony</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否匿名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>api/ShopOrderApi/PaySuccess</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取评论的商品（全部、待评论、已评论）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>state</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pageIndex</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0查所有，1查待评论的，2.查已评论的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 空查所有，非空查当前订单下所有商品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>页数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参数说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0：取消失败 1:直接取消成功，2：提交了取消申请，需要人工处理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>code=1和2的描述文字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>api/ShopOrderApi/CancleOrder/订单id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>退货单接口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>原订单ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>退货原因</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ImageUrlID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>瑕疵图片（先空着，先不处理）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>退货类型0 整单退 1 部分退</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>非整单退额外参数(是个集合)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JSON格式是 OrderItems:{属性名：值}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字符串格式是 OrderItems[0].属性名1&amp;OrderItems[0].属性名2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ProductId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SKUID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RequestQuantity</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品SKUID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>请求退回数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>传递参数说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回值说明，都在data里</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>退货单ID</t>
-  </si>
-  <si>
-    <t>ReturnOrderID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Msg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>描述信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>api/ShopOrderApi/ReturnOrder</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OrderId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ReturnType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Description</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>评论时 检测是否增加会员积分或其他奖励</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>api/ShopCommentApi/GetCommentProduct</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取订单状态变更记录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>api/userapi/GetMySelf</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>api/userapi/ModifyInfo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>post</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改个人信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Email</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NickyName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Signature</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Birthday</t>
-  </si>
-  <si>
-    <t>Sex</t>
-  </si>
-  <si>
-    <t>ContactPhone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,1,2 =》保密,男,女 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不可空</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>手机号码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>姓名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>邮箱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>昵称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>个性签名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>生日   yyyy-MM-dd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>api/ShopOrderApi/PayOrder</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>api/ShopOrderApi/Delete/{订单id}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除订单</t>
+    <t>空查全部（0全部 1差评 2中评，3好评）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1514,28 +1522,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1546,12 +1544,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1939,8 +1947,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G133"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B129" sqref="B129"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="B90" sqref="B90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1955,30 +1963,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="44" t="s">
+      <c r="C1" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="42" t="s">
+      <c r="D1" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="42"/>
-      <c r="F1" s="44" t="s">
+      <c r="E1" s="54"/>
+      <c r="F1" s="56" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B2" s="43"/>
-      <c r="C2" s="44"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="56"/>
       <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="44"/>
+      <c r="F2" s="56"/>
       <c r="G2" s="2" t="s">
         <v>115</v>
       </c>
@@ -1996,7 +2004,7 @@
       <c r="E3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="47" t="s">
+      <c r="F3" s="57" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2096,7 +2104,7 @@
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B11" s="48" t="s">
+      <c r="B11" s="42" t="s">
         <v>144</v>
       </c>
       <c r="C11" s="46" t="s">
@@ -2121,7 +2129,7 @@
       <c r="F12" s="46"/>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B13" s="49"/>
+      <c r="B13" s="43"/>
       <c r="C13" s="11"/>
       <c r="D13" s="2" t="s">
         <v>125</v>
@@ -2149,10 +2157,10 @@
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B15" s="51" t="s">
+      <c r="B15" s="47" t="s">
         <v>172</v>
       </c>
-      <c r="C15" s="48" t="s">
+      <c r="C15" s="42" t="s">
         <v>39</v>
       </c>
       <c r="D15" s="2" t="s">
@@ -2161,12 +2169,12 @@
       <c r="E15" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="F15" s="48" t="s">
+      <c r="F15" s="42" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B16" s="52"/>
+      <c r="B16" s="48"/>
       <c r="C16" s="50"/>
       <c r="D16" s="2" t="s">
         <v>85</v>
@@ -2177,7 +2185,7 @@
       <c r="F16" s="50"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B17" s="52"/>
+      <c r="B17" s="48"/>
       <c r="C17" s="50"/>
       <c r="D17" s="2" t="s">
         <v>91</v>
@@ -2188,7 +2196,7 @@
       <c r="F17" s="50"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B18" s="52"/>
+      <c r="B18" s="48"/>
       <c r="C18" s="50"/>
       <c r="D18" s="2" t="s">
         <v>41</v>
@@ -2199,7 +2207,7 @@
       <c r="F18" s="50"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B19" s="52"/>
+      <c r="B19" s="48"/>
       <c r="C19" s="50"/>
       <c r="D19" s="2" t="s">
         <v>42</v>
@@ -2210,15 +2218,15 @@
       <c r="F19" s="50"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B20" s="53"/>
-      <c r="C20" s="49"/>
+      <c r="B20" s="49"/>
+      <c r="C20" s="43"/>
       <c r="D20" s="2" t="s">
         <v>43</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F20" s="49"/>
+      <c r="F20" s="43"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B21" s="7" t="s">
@@ -2238,10 +2246,10 @@
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B22" s="55" t="s">
+      <c r="B22" s="51" t="s">
         <v>106</v>
       </c>
-      <c r="C22" s="48" t="s">
+      <c r="C22" s="42" t="s">
         <v>50</v>
       </c>
       <c r="D22" s="2" t="s">
@@ -2250,12 +2258,12 @@
       <c r="E22" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="F22" s="48" t="s">
+      <c r="F22" s="42" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B23" s="56"/>
+      <c r="B23" s="52"/>
       <c r="C23" s="50"/>
       <c r="D23" s="2" t="s">
         <v>108</v>
@@ -2266,21 +2274,21 @@
       <c r="F23" s="50"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B24" s="57"/>
-      <c r="C24" s="49"/>
+      <c r="B24" s="53"/>
+      <c r="C24" s="43"/>
       <c r="D24" s="2" t="s">
         <v>211</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="F24" s="49"/>
+      <c r="F24" s="43"/>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B25" s="45" t="s">
         <v>101</v>
       </c>
-      <c r="C25" s="54" t="s">
+      <c r="C25" s="44" t="s">
         <v>50</v>
       </c>
       <c r="D25" s="2" t="s">
@@ -2289,59 +2297,59 @@
       <c r="E25" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="F25" s="54" t="s">
+      <c r="F25" s="44" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B26" s="45"/>
-      <c r="C26" s="54"/>
+      <c r="C26" s="44"/>
       <c r="D26" s="2" t="s">
         <v>103</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="F26" s="54"/>
+      <c r="F26" s="44"/>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B27" s="45"/>
-      <c r="C27" s="54"/>
+      <c r="C27" s="44"/>
       <c r="D27" s="2" t="s">
         <v>52</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F27" s="54"/>
+      <c r="F27" s="44"/>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B28" s="45"/>
-      <c r="C28" s="54"/>
+      <c r="C28" s="44"/>
       <c r="D28" s="2" t="s">
         <v>104</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="F28" s="54"/>
+      <c r="F28" s="44"/>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B29" s="45"/>
-      <c r="C29" s="54"/>
+      <c r="C29" s="44"/>
       <c r="D29" s="2" t="s">
         <v>105</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="F29" s="54"/>
+      <c r="F29" s="44"/>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B30" s="45" t="s">
         <v>184</v>
       </c>
-      <c r="C30" s="54" t="s">
+      <c r="C30" s="44" t="s">
         <v>50</v>
       </c>
       <c r="D30" s="2" t="s">
@@ -2350,31 +2358,31 @@
       <c r="E30" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="F30" s="54" t="s">
+      <c r="F30" s="44" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B31" s="45"/>
-      <c r="C31" s="54"/>
+      <c r="C31" s="44"/>
       <c r="D31" s="2" t="s">
         <v>110</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F31" s="54"/>
+      <c r="F31" s="44"/>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B32" s="45"/>
-      <c r="C32" s="54"/>
+      <c r="C32" s="44"/>
       <c r="D32" s="2" t="s">
         <v>111</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="F32" s="54"/>
+      <c r="F32" s="44"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B33" s="7" t="s">
@@ -2439,10 +2447,10 @@
       </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B37" s="51" t="s">
+      <c r="B37" s="47" t="s">
         <v>93</v>
       </c>
-      <c r="C37" s="48" t="s">
+      <c r="C37" s="42" t="s">
         <v>67</v>
       </c>
       <c r="D37" s="2" t="s">
@@ -2451,7 +2459,7 @@
       <c r="E37" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="F37" s="48" t="s">
+      <c r="F37" s="42" t="s">
         <v>65</v>
       </c>
       <c r="G37" s="2" t="s">
@@ -2459,7 +2467,7 @@
       </c>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B38" s="52"/>
+      <c r="B38" s="48"/>
       <c r="C38" s="50"/>
       <c r="D38" s="2" t="s">
         <v>95</v>
@@ -2473,7 +2481,7 @@
       </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B39" s="52"/>
+      <c r="B39" s="48"/>
       <c r="C39" s="50"/>
       <c r="D39" s="2" t="s">
         <v>96</v>
@@ -2487,7 +2495,7 @@
       </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B40" s="52"/>
+      <c r="B40" s="48"/>
       <c r="C40" s="50"/>
       <c r="D40" s="2" t="s">
         <v>97</v>
@@ -2501,7 +2509,7 @@
       </c>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B41" s="52"/>
+      <c r="B41" s="48"/>
       <c r="C41" s="50"/>
       <c r="D41" s="2" t="s">
         <v>98</v>
@@ -2512,7 +2520,7 @@
       <c r="F41" s="50"/>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B42" s="52"/>
+      <c r="B42" s="48"/>
       <c r="C42" s="50"/>
       <c r="D42" s="2" t="s">
         <v>100</v>
@@ -2523,9 +2531,9 @@
       <c r="F42" s="50"/>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B43" s="53"/>
-      <c r="C43" s="49"/>
-      <c r="F43" s="49"/>
+      <c r="B43" s="49"/>
+      <c r="C43" s="43"/>
+      <c r="F43" s="43"/>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B44" s="7" t="s">
@@ -2599,7 +2607,7 @@
       </c>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B49" s="48" t="s">
+      <c r="B49" s="42" t="s">
         <v>133</v>
       </c>
       <c r="C49" s="11" t="s">
@@ -2611,19 +2619,19 @@
       <c r="E49" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="F49" s="48" t="s">
+      <c r="F49" s="42" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B50" s="49"/>
+      <c r="B50" s="43"/>
       <c r="D50" s="2" t="s">
         <v>129</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="F50" s="49"/>
+      <c r="F50" s="43"/>
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B51" s="7" t="s">
@@ -2685,7 +2693,7 @@
       </c>
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B55" s="48" t="s">
+      <c r="B55" s="42" t="s">
         <v>162</v>
       </c>
       <c r="D55" s="2" t="s">
@@ -2696,7 +2704,7 @@
       </c>
     </row>
     <row r="56" spans="2:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B56" s="49"/>
+      <c r="B56" s="43"/>
       <c r="D56" s="2" t="s">
         <v>150</v>
       </c>
@@ -2809,7 +2817,7 @@
         <v>175</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="66" spans="2:6" x14ac:dyDescent="0.15">
@@ -2846,7 +2854,7 @@
     </row>
     <row r="70" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B70" s="22" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C70" s="3" t="s">
         <v>174</v>
@@ -2893,7 +2901,7 @@
     </row>
     <row r="74" spans="2:6" ht="27" x14ac:dyDescent="0.15">
       <c r="B74" s="23" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C74" s="24" t="s">
         <v>153</v>
@@ -3080,7 +3088,12 @@
     <row r="92" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B92" s="33"/>
       <c r="C92" s="34"/>
-      <c r="E92" s="34"/>
+      <c r="D92" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="E92" s="34" t="s">
+        <v>330</v>
+      </c>
       <c r="F92" s="34"/>
     </row>
     <row r="93" spans="2:6" x14ac:dyDescent="0.15">
@@ -3131,7 +3144,7 @@
         <v>264</v>
       </c>
       <c r="E97" s="34" t="s">
-        <v>265</v>
+        <v>329</v>
       </c>
       <c r="F97" s="34"/>
     </row>
@@ -3139,16 +3152,16 @@
       <c r="B98" s="36"/>
       <c r="C98" s="37"/>
       <c r="D98" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="E98" s="37" t="s">
         <v>266</v>
-      </c>
-      <c r="E98" s="37" t="s">
-        <v>267</v>
       </c>
       <c r="F98" s="37"/>
     </row>
     <row r="99" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B99" s="7" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C99" s="29" t="s">
         <v>236</v>
@@ -3175,7 +3188,7 @@
         <v>252</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="103" spans="2:6" x14ac:dyDescent="0.15">
@@ -3183,12 +3196,12 @@
         <v>253</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="104" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B104" s="7" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C104" s="32" t="s">
         <v>39</v>
@@ -3207,236 +3220,248 @@
     </row>
     <row r="106" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B106" s="7" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C106" s="39" t="s">
         <v>39</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="107" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B107" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="D107" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="D107" s="2" t="s">
-        <v>270</v>
-      </c>
       <c r="E107" s="39" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="108" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D108" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="109" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B109" s="39" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D109" s="2" t="s">
         <v>243</v>
       </c>
       <c r="E109" s="39" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="110" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B110" s="7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C110" s="38" t="s">
         <v>39</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="111" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B111" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="E111" s="3" t="s">
         <v>279</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="E111" s="3" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="112" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D112" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="113" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D113" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E113" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="114" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D114" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="E114" s="3" t="s">
         <v>282</v>
-      </c>
-      <c r="E114" s="3" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="115" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D115" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="116" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D116" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="117" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D117" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="118" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D118" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E118" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="119" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D119" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E119" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="120" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D120" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E120" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="121" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D121" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="122" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D122" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E122" s="38" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="123" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D123" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="E123" s="3" t="s">
         <v>298</v>
-      </c>
-      <c r="E123" s="3" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="124" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B124" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="C124" s="3" t="s">
         <v>308</v>
-      </c>
-      <c r="C124" s="3" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="125" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B125" s="7" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C125" s="41" t="s">
+        <v>318</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="E125" s="3" t="s">
         <v>319</v>
-      </c>
-      <c r="D125" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="E125" s="3" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="126" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C126" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E126" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="127" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D127" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E127" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="128" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D128" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E128" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="129" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D129" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E129" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="130" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D130" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E130" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="131" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D131" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E131" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="132" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B132" s="40" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="133" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B133" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="F3:F5"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="F37:F43"/>
+    <mergeCell ref="C37:C43"/>
+    <mergeCell ref="B37:B43"/>
     <mergeCell ref="B55:B56"/>
     <mergeCell ref="F30:F32"/>
     <mergeCell ref="B30:B32"/>
@@ -3453,18 +3478,6 @@
     <mergeCell ref="C22:C24"/>
     <mergeCell ref="F22:F24"/>
     <mergeCell ref="B11:B13"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="F37:F43"/>
-    <mergeCell ref="C37:C43"/>
-    <mergeCell ref="B37:B43"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="F3:F5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3485,7 +3498,7 @@
   <sheetData>
     <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
   </sheetData>

--- a/文档/接口.xlsx
+++ b/文档/接口.xlsx
@@ -691,10 +691,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>不传递 或-1 是查所有状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>其他where条件</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1155,6 +1151,166 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>商品ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品SKUID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求退回数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>传递参数说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回值说明，都在data里</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>退货单ID</t>
+  </si>
+  <si>
+    <t>ReturnOrderID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Msg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/ShopOrderApi/ReturnOrder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>评论时 检测是否增加会员积分或其他奖励</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/ShopCommentApi/GetCommentProduct</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取订单状态变更记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/userapi/GetMySelf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/userapi/ModifyInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>post</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改个人信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Email</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NickyName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Signature</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Birthday</t>
+  </si>
+  <si>
+    <t>Sex</t>
+  </si>
+  <si>
+    <t>ContactPhone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,1,2 =》保密,男,女 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不可空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>昵称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个性签名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生日   yyyy-MM-dd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/ShopOrderApi/PayOrder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/ShopOrderApi/Delete/{订单id}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除订单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>评价等级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>评论等级（0无 1差评 2中评，3好评）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空查全部（0全部 1差评 2中评，3好评）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OrderId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReturnType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>字符串格式是 OrderItems[0].属性名1&amp;OrderItems[0].属性名2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1163,171 +1319,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>RequestQuantity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>SKUID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>RequestQuantity</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品SKUID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>请求退回数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>传递参数说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回值说明，都在data里</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>退货单ID</t>
-  </si>
-  <si>
-    <t>ReturnOrderID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Msg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>描述信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>api/ShopOrderApi/ReturnOrder</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OrderId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ReturnType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Description</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>评论时 检测是否增加会员积分或其他奖励</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>api/ShopCommentApi/GetCommentProduct</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取订单状态变更记录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>api/userapi/GetMySelf</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>api/userapi/ModifyInfo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>post</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改个人信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Email</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NickyName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Signature</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Birthday</t>
-  </si>
-  <si>
-    <t>Sex</t>
-  </si>
-  <si>
-    <t>ContactPhone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,1,2 =》保密,男,女 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不可空</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>手机号码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>姓名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>邮箱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>昵称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>个性签名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>生日   yyyy-MM-dd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>api/ShopOrderApi/PayOrder</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>api/ShopOrderApi/Delete/{订单id}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除订单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>评价等级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>评论等级（0无 1差评 2中评，3好评）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>空查全部（0全部 1差评 2中评，3好评）</t>
+    <t>不传递 或-1 是查所有状态（多个状态用英文逗号号分割）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1522,18 +1522,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1544,22 +1554,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1947,8 +1947,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="B90" sqref="B90"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1963,30 +1963,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B1" s="55" t="s">
+      <c r="B1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="56" t="s">
+      <c r="C1" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="54" t="s">
+      <c r="D1" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="54"/>
-      <c r="F1" s="56" t="s">
+      <c r="E1" s="42"/>
+      <c r="F1" s="44" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B2" s="55"/>
-      <c r="C2" s="56"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="44"/>
       <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="56"/>
+      <c r="F2" s="44"/>
       <c r="G2" s="2" t="s">
         <v>115</v>
       </c>
@@ -2004,7 +2004,7 @@
       <c r="E3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="57" t="s">
+      <c r="F3" s="47" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2032,7 +2032,7 @@
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B6" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>19</v>
@@ -2104,7 +2104,7 @@
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B11" s="42" t="s">
+      <c r="B11" s="48" t="s">
         <v>144</v>
       </c>
       <c r="C11" s="46" t="s">
@@ -2129,7 +2129,7 @@
       <c r="F12" s="46"/>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B13" s="43"/>
+      <c r="B13" s="49"/>
       <c r="C13" s="11"/>
       <c r="D13" s="2" t="s">
         <v>125</v>
@@ -2157,10 +2157,10 @@
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B15" s="47" t="s">
-        <v>172</v>
-      </c>
-      <c r="C15" s="42" t="s">
+      <c r="B15" s="51" t="s">
+        <v>171</v>
+      </c>
+      <c r="C15" s="48" t="s">
         <v>39</v>
       </c>
       <c r="D15" s="2" t="s">
@@ -2169,12 +2169,12 @@
       <c r="E15" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="F15" s="42" t="s">
+      <c r="F15" s="48" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B16" s="48"/>
+      <c r="B16" s="52"/>
       <c r="C16" s="50"/>
       <c r="D16" s="2" t="s">
         <v>85</v>
@@ -2185,7 +2185,7 @@
       <c r="F16" s="50"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B17" s="48"/>
+      <c r="B17" s="52"/>
       <c r="C17" s="50"/>
       <c r="D17" s="2" t="s">
         <v>91</v>
@@ -2196,7 +2196,7 @@
       <c r="F17" s="50"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B18" s="48"/>
+      <c r="B18" s="52"/>
       <c r="C18" s="50"/>
       <c r="D18" s="2" t="s">
         <v>41</v>
@@ -2207,7 +2207,7 @@
       <c r="F18" s="50"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B19" s="48"/>
+      <c r="B19" s="52"/>
       <c r="C19" s="50"/>
       <c r="D19" s="2" t="s">
         <v>42</v>
@@ -2218,15 +2218,15 @@
       <c r="F19" s="50"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B20" s="49"/>
-      <c r="C20" s="43"/>
+      <c r="B20" s="53"/>
+      <c r="C20" s="49"/>
       <c r="D20" s="2" t="s">
         <v>43</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F20" s="43"/>
+      <c r="F20" s="49"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B21" s="7" t="s">
@@ -2246,10 +2246,10 @@
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B22" s="51" t="s">
+      <c r="B22" s="55" t="s">
         <v>106</v>
       </c>
-      <c r="C22" s="42" t="s">
+      <c r="C22" s="48" t="s">
         <v>50</v>
       </c>
       <c r="D22" s="2" t="s">
@@ -2258,37 +2258,37 @@
       <c r="E22" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="F22" s="42" t="s">
+      <c r="F22" s="48" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B23" s="52"/>
+      <c r="B23" s="56"/>
       <c r="C23" s="50"/>
       <c r="D23" s="2" t="s">
         <v>108</v>
       </c>
       <c r="E23" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="F23" s="50"/>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B24" s="57"/>
+      <c r="C24" s="49"/>
+      <c r="D24" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="F23" s="50"/>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B24" s="53"/>
-      <c r="C24" s="43"/>
-      <c r="D24" s="2" t="s">
+      <c r="E24" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="E24" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="F24" s="43"/>
+      <c r="F24" s="49"/>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B25" s="45" t="s">
         <v>101</v>
       </c>
-      <c r="C25" s="44" t="s">
+      <c r="C25" s="54" t="s">
         <v>50</v>
       </c>
       <c r="D25" s="2" t="s">
@@ -2297,59 +2297,59 @@
       <c r="E25" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="F25" s="44" t="s">
+      <c r="F25" s="54" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B26" s="45"/>
-      <c r="C26" s="44"/>
+      <c r="C26" s="54"/>
       <c r="D26" s="2" t="s">
         <v>103</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="F26" s="44"/>
+      <c r="F26" s="54"/>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B27" s="45"/>
-      <c r="C27" s="44"/>
+      <c r="C27" s="54"/>
       <c r="D27" s="2" t="s">
         <v>52</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F27" s="44"/>
+      <c r="F27" s="54"/>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B28" s="45"/>
-      <c r="C28" s="44"/>
+      <c r="C28" s="54"/>
       <c r="D28" s="2" t="s">
         <v>104</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="F28" s="44"/>
+      <c r="F28" s="54"/>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B29" s="45"/>
-      <c r="C29" s="44"/>
+      <c r="C29" s="54"/>
       <c r="D29" s="2" t="s">
         <v>105</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="F29" s="44"/>
+      <c r="F29" s="54"/>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B30" s="45" t="s">
-        <v>184</v>
-      </c>
-      <c r="C30" s="44" t="s">
+        <v>183</v>
+      </c>
+      <c r="C30" s="54" t="s">
         <v>50</v>
       </c>
       <c r="D30" s="2" t="s">
@@ -2358,31 +2358,31 @@
       <c r="E30" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="F30" s="44" t="s">
+      <c r="F30" s="54" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B31" s="45"/>
-      <c r="C31" s="44"/>
+      <c r="C31" s="54"/>
       <c r="D31" s="2" t="s">
         <v>110</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F31" s="44"/>
+      <c r="F31" s="54"/>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B32" s="45"/>
-      <c r="C32" s="44"/>
+      <c r="C32" s="54"/>
       <c r="D32" s="2" t="s">
         <v>111</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="F32" s="44"/>
+      <c r="F32" s="54"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B33" s="7" t="s">
@@ -2447,10 +2447,10 @@
       </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B37" s="47" t="s">
+      <c r="B37" s="51" t="s">
         <v>93</v>
       </c>
-      <c r="C37" s="42" t="s">
+      <c r="C37" s="48" t="s">
         <v>67</v>
       </c>
       <c r="D37" s="2" t="s">
@@ -2459,7 +2459,7 @@
       <c r="E37" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="F37" s="42" t="s">
+      <c r="F37" s="48" t="s">
         <v>65</v>
       </c>
       <c r="G37" s="2" t="s">
@@ -2467,7 +2467,7 @@
       </c>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B38" s="48"/>
+      <c r="B38" s="52"/>
       <c r="C38" s="50"/>
       <c r="D38" s="2" t="s">
         <v>95</v>
@@ -2481,7 +2481,7 @@
       </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B39" s="48"/>
+      <c r="B39" s="52"/>
       <c r="C39" s="50"/>
       <c r="D39" s="2" t="s">
         <v>96</v>
@@ -2495,7 +2495,7 @@
       </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B40" s="48"/>
+      <c r="B40" s="52"/>
       <c r="C40" s="50"/>
       <c r="D40" s="2" t="s">
         <v>97</v>
@@ -2509,7 +2509,7 @@
       </c>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B41" s="48"/>
+      <c r="B41" s="52"/>
       <c r="C41" s="50"/>
       <c r="D41" s="2" t="s">
         <v>98</v>
@@ -2520,7 +2520,7 @@
       <c r="F41" s="50"/>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B42" s="48"/>
+      <c r="B42" s="52"/>
       <c r="C42" s="50"/>
       <c r="D42" s="2" t="s">
         <v>100</v>
@@ -2531,9 +2531,9 @@
       <c r="F42" s="50"/>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B43" s="49"/>
-      <c r="C43" s="43"/>
-      <c r="F43" s="43"/>
+      <c r="B43" s="53"/>
+      <c r="C43" s="49"/>
+      <c r="F43" s="49"/>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B44" s="7" t="s">
@@ -2607,7 +2607,7 @@
       </c>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B49" s="42" t="s">
+      <c r="B49" s="48" t="s">
         <v>133</v>
       </c>
       <c r="C49" s="11" t="s">
@@ -2619,19 +2619,19 @@
       <c r="E49" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="F49" s="42" t="s">
+      <c r="F49" s="48" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B50" s="43"/>
+      <c r="B50" s="49"/>
       <c r="D50" s="2" t="s">
         <v>129</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="F50" s="43"/>
+      <c r="F50" s="49"/>
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B51" s="7" t="s">
@@ -2693,7 +2693,7 @@
       </c>
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B55" s="42" t="s">
+      <c r="B55" s="48" t="s">
         <v>162</v>
       </c>
       <c r="D55" s="2" t="s">
@@ -2704,7 +2704,7 @@
       </c>
     </row>
     <row r="56" spans="2:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B56" s="43"/>
+      <c r="B56" s="49"/>
       <c r="D56" s="2" t="s">
         <v>150</v>
       </c>
@@ -2784,20 +2784,20 @@
         <v>168</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>169</v>
+        <v>330</v>
       </c>
     </row>
     <row r="63" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D63" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E63" s="3" t="s">
         <v>170</v>
-      </c>
-      <c r="E63" s="3" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="64" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B64" s="19" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C64" s="20" t="s">
         <v>66</v>
@@ -2808,204 +2808,204 @@
     </row>
     <row r="65" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B65" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="C65" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="C65" s="3" t="s">
+      <c r="D65" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="D65" s="2" t="s">
-        <v>175</v>
-      </c>
       <c r="F65" s="3" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
     </row>
     <row r="66" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D66" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="67" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D67" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="68" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D68" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="69" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D69" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="70" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B70" s="22" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="71" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B71" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C71" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="F71" s="3" t="s">
         <v>187</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="F71" s="3" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="72" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D72" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="73" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D73" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="74" spans="2:6" ht="27" x14ac:dyDescent="0.15">
       <c r="B74" s="23" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="C74" s="24" t="s">
         <v>153</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F74" s="25" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="75" spans="2:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="D75" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E75" s="25" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="76" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B76" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C76" s="26" t="s">
         <v>50</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="77" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D77" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="78" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D78" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="79" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B79" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="80" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B80" s="27" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D80" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="E80" s="3" t="s">
         <v>218</v>
-      </c>
-      <c r="E80" s="3" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="81" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D81" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="82" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D82" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="83" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B83" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="D83" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="D83" s="2" t="s">
+      <c r="E83" s="31" t="s">
         <v>258</v>
-      </c>
-      <c r="E83" s="31" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="84" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B84" s="30" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C84" s="31"/>
       <c r="E84" s="31"/>
@@ -3013,138 +3013,138 @@
     </row>
     <row r="85" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B85" s="7" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E85" s="27" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="86" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B86" s="27" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E86" s="27" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="87" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D87" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="88" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D88" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="89" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D89" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="90" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B90" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="D90" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="C90" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>232</v>
-      </c>
       <c r="E90" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="91" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B91" s="7" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="92" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B92" s="33"/>
       <c r="C92" s="34"/>
       <c r="D92" s="2" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="E92" s="34" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="F92" s="34"/>
     </row>
     <row r="93" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B93" s="28" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="94" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B94" s="7" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="95" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D95" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="96" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D96" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="97" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B97" s="33"/>
       <c r="C97" s="34"/>
       <c r="D97" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E97" s="34" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="F97" s="34"/>
     </row>
@@ -3152,56 +3152,56 @@
       <c r="B98" s="36"/>
       <c r="C98" s="37"/>
       <c r="D98" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="E98" s="37" t="s">
         <v>265</v>
-      </c>
-      <c r="E98" s="37" t="s">
-        <v>266</v>
       </c>
       <c r="F98" s="37"/>
     </row>
     <row r="99" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B99" s="7" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C99" s="29" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="100" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B100" s="7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="101" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D101" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="102" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D102" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="103" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D103" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="104" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B104" s="7" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C104" s="32" t="s">
         <v>39</v>
@@ -3209,259 +3209,247 @@
     </row>
     <row r="105" spans="2:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B105" s="35" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D105" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="E105" s="3" t="s">
         <v>261</v>
-      </c>
-      <c r="E105" s="3" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="106" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B106" s="7" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="C106" s="39" t="s">
         <v>39</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="107" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B107" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="D107" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="D107" s="2" t="s">
-        <v>269</v>
-      </c>
       <c r="E107" s="39" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="108" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D108" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="109" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B109" s="39" t="s">
+        <v>270</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="E109" s="39" t="s">
         <v>271</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="E109" s="39" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="110" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B110" s="7" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="C110" s="38" t="s">
         <v>39</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
     </row>
     <row r="111" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B111" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="E111" s="3" t="s">
         <v>278</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="E111" s="3" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="112" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D112" s="2" t="s">
-        <v>301</v>
+        <v>324</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="113" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D113" s="2" t="s">
-        <v>302</v>
+        <v>325</v>
       </c>
       <c r="E113" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="114" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D114" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="E114" s="3" t="s">
         <v>281</v>
-      </c>
-      <c r="E114" s="3" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="115" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D115" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="116" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D116" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="117" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D117" s="2" t="s">
-        <v>286</v>
+        <v>326</v>
       </c>
     </row>
     <row r="118" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D118" s="2" t="s">
-        <v>287</v>
+        <v>327</v>
       </c>
       <c r="E118" s="3" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
     </row>
     <row r="119" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D119" s="2" t="s">
-        <v>288</v>
+        <v>329</v>
       </c>
       <c r="E119" s="3" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
     </row>
     <row r="120" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D120" s="2" t="s">
-        <v>289</v>
+        <v>328</v>
       </c>
       <c r="E120" s="3" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
     </row>
     <row r="121" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D121" s="2" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
     </row>
     <row r="122" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D122" s="2" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="E122" s="38" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
     </row>
     <row r="123" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D123" s="2" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="E123" s="3" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
     </row>
     <row r="124" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B124" s="7" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
     </row>
     <row r="125" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B125" s="7" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="C125" s="41" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="E125" s="3" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
     </row>
     <row r="126" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C126" s="3" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="E126" s="3" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
     </row>
     <row r="127" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D127" s="2" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="E127" s="3" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
     </row>
     <row r="128" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D128" s="2" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="E128" s="3" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
     </row>
     <row r="129" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D129" s="2" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="E129" s="3" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
     </row>
     <row r="130" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D130" s="2" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="E130" s="3" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
     </row>
     <row r="131" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D131" s="2" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="E131" s="3" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
     </row>
     <row r="132" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B132" s="40" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
     </row>
     <row r="133" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B133" s="7" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="F3:F5"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="F37:F43"/>
-    <mergeCell ref="C37:C43"/>
-    <mergeCell ref="B37:B43"/>
     <mergeCell ref="B55:B56"/>
     <mergeCell ref="F30:F32"/>
     <mergeCell ref="B30:B32"/>
@@ -3478,6 +3466,18 @@
     <mergeCell ref="C22:C24"/>
     <mergeCell ref="F22:F24"/>
     <mergeCell ref="B11:B13"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="F37:F43"/>
+    <mergeCell ref="C37:C43"/>
+    <mergeCell ref="B37:B43"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="F3:F5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3498,7 +3498,7 @@
   <sheetData>
     <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
     </row>
   </sheetData>

--- a/文档/接口.xlsx
+++ b/文档/接口.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="334">
   <si>
     <t>调用方式</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1167,167 +1167,179 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>退货单ID</t>
+  </si>
+  <si>
+    <t>Msg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>评论时 检测是否增加会员积分或其他奖励</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/ShopCommentApi/GetCommentProduct</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取订单状态变更记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/userapi/GetMySelf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>post</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改个人信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Email</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NickyName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Signature</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Birthday</t>
+  </si>
+  <si>
+    <t>Sex</t>
+  </si>
+  <si>
+    <t>ContactPhone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,1,2 =》保密,男,女 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不可空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>昵称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个性签名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生日   yyyy-MM-dd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/ShopOrderApi/PayOrder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/ShopOrderApi/Delete/{订单id}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除订单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>评价等级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>评论等级（0无 1差评 2中评，3好评）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空查全部（0全部 1差评 2中评，3好评）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OrderId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReturnType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字符串格式是 OrderItems[0].属性名1&amp;OrderItems[0].属性名2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProductId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RequestQuantity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKUID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不传递 或-1 是查所有状态（多个状态用英文逗号号分割）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>返回值说明，都在data里</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>退货单ID</t>
-  </si>
-  <si>
     <t>ReturnOrderID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Msg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>描述信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>api/ShopOrderApi/ReturnOrder</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>评论时 检测是否增加会员积分或其他奖励</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>api/ShopCommentApi/GetCommentProduct</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取订单状态变更记录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>api/userapi/GetMySelf</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>api/userapi/ModifyInfo</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>post</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改个人信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Email</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NickyName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Signature</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Birthday</t>
-  </si>
-  <si>
-    <t>Sex</t>
-  </si>
-  <si>
-    <t>ContactPhone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,1,2 =》保密,男,女 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不可空</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>手机号码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>姓名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>邮箱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>昵称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>个性签名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>生日   yyyy-MM-dd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>api/ShopOrderApi/PayOrder</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>api/ShopOrderApi/Delete/{订单id}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除订单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>评价等级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>评论等级（0无 1差评 2中评，3好评）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>空查全部（0全部 1差评 2中评，3好评）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OrderId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ReturnType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Description</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字符串格式是 OrderItems[0].属性名1&amp;OrderItems[0].属性名2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ProductId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RequestQuantity</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SKUID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不传递 或-1 是查所有状态（多个状态用英文逗号号分割）</t>
+    <t>api/userapi/LogOut</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注销账户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无参数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1945,10 +1957,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G133"/>
+  <dimension ref="B1:G135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="B61" sqref="B61"/>
+    <sheetView tabSelected="1" topLeftCell="A119" workbookViewId="0">
+      <selection activeCell="B134" sqref="B134:D135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2784,7 +2796,7 @@
         <v>168</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
     <row r="63" spans="2:6" x14ac:dyDescent="0.15">
@@ -2817,7 +2829,7 @@
         <v>174</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="66" spans="2:6" x14ac:dyDescent="0.15">
@@ -2854,7 +2866,7 @@
     </row>
     <row r="70" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B70" s="22" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C70" s="3" t="s">
         <v>173</v>
@@ -2901,7 +2913,7 @@
     </row>
     <row r="74" spans="2:6" ht="27" x14ac:dyDescent="0.15">
       <c r="B74" s="23" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="C74" s="24" t="s">
         <v>153</v>
@@ -3089,10 +3101,10 @@
       <c r="B92" s="33"/>
       <c r="C92" s="34"/>
       <c r="D92" s="2" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="E92" s="34" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="F92" s="34"/>
     </row>
@@ -3144,7 +3156,7 @@
         <v>263</v>
       </c>
       <c r="E97" s="34" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="F97" s="34"/>
     </row>
@@ -3220,7 +3232,7 @@
     </row>
     <row r="106" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B106" s="7" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C106" s="39" t="s">
         <v>39</v>
@@ -3261,7 +3273,7 @@
     </row>
     <row r="110" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B110" s="7" t="s">
-        <v>294</v>
+        <v>329</v>
       </c>
       <c r="C110" s="38" t="s">
         <v>39</v>
@@ -3275,7 +3287,7 @@
         <v>277</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="E111" s="3" t="s">
         <v>278</v>
@@ -3283,7 +3295,7 @@
     </row>
     <row r="112" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D112" s="2" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="E112" s="3" t="s">
         <v>282</v>
@@ -3291,7 +3303,7 @@
     </row>
     <row r="113" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D113" s="2" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="E113" s="3" t="s">
         <v>279</v>
@@ -3317,12 +3329,12 @@
     </row>
     <row r="117" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D117" s="2" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
     </row>
     <row r="118" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D118" s="2" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="E118" s="3" t="s">
         <v>285</v>
@@ -3330,7 +3342,7 @@
     </row>
     <row r="119" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D119" s="2" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="E119" s="3" t="s">
         <v>286</v>
@@ -3338,7 +3350,7 @@
     </row>
     <row r="120" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D120" s="2" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="E120" s="3" t="s">
         <v>287</v>
@@ -3346,106 +3358,119 @@
     </row>
     <row r="121" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D121" s="2" t="s">
-        <v>289</v>
+        <v>327</v>
       </c>
     </row>
     <row r="122" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D122" s="2" t="s">
-        <v>291</v>
+        <v>328</v>
       </c>
       <c r="E122" s="38" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="123" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D123" s="2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E123" s="3" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="124" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B124" s="7" t="s">
-        <v>299</v>
+        <v>330</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
     </row>
     <row r="125" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B125" s="7" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="C125" s="41" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="E125" s="3" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
     </row>
     <row r="126" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C126" s="3" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="E126" s="3" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="127" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D127" s="2" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="E127" s="3" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="128" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D128" s="2" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="E128" s="3" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
     </row>
     <row r="129" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D129" s="2" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="E129" s="3" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
     </row>
     <row r="130" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D130" s="2" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="E130" s="3" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
     </row>
     <row r="131" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D131" s="2" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="E131" s="3" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
     </row>
     <row r="132" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B132" s="40" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
     </row>
     <row r="133" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B133" s="7" t="s">
-        <v>319</v>
+        <v>315</v>
+      </c>
+    </row>
+    <row r="134" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B134" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="135" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B135" s="7" t="s">
+        <v>332</v>
       </c>
     </row>
   </sheetData>
@@ -3498,7 +3523,7 @@
   <sheetData>
     <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
   </sheetData>

--- a/文档/接口.xlsx
+++ b/文档/接口.xlsx
@@ -932,13 +932,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>api/ShopCommentApi/get</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
     <t>pageIndex</t>
   </si>
   <si>
@@ -1340,6 +1333,14 @@
   </si>
   <si>
     <t>无参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/ShopCommentApi/get</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1534,28 +1535,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1566,12 +1557,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1959,8 +1960,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A119" workbookViewId="0">
-      <selection activeCell="B134" sqref="B134:D135"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="D61" sqref="D61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1975,30 +1976,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="44" t="s">
+      <c r="C1" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="42" t="s">
+      <c r="D1" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="42"/>
-      <c r="F1" s="44" t="s">
+      <c r="E1" s="54"/>
+      <c r="F1" s="56" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B2" s="43"/>
-      <c r="C2" s="44"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="56"/>
       <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="44"/>
+      <c r="F2" s="56"/>
       <c r="G2" s="2" t="s">
         <v>115</v>
       </c>
@@ -2016,7 +2017,7 @@
       <c r="E3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="47" t="s">
+      <c r="F3" s="57" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2116,7 +2117,7 @@
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B11" s="48" t="s">
+      <c r="B11" s="42" t="s">
         <v>144</v>
       </c>
       <c r="C11" s="46" t="s">
@@ -2141,7 +2142,7 @@
       <c r="F12" s="46"/>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B13" s="49"/>
+      <c r="B13" s="43"/>
       <c r="C13" s="11"/>
       <c r="D13" s="2" t="s">
         <v>125</v>
@@ -2169,10 +2170,10 @@
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B15" s="51" t="s">
+      <c r="B15" s="47" t="s">
         <v>171</v>
       </c>
-      <c r="C15" s="48" t="s">
+      <c r="C15" s="42" t="s">
         <v>39</v>
       </c>
       <c r="D15" s="2" t="s">
@@ -2181,12 +2182,12 @@
       <c r="E15" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="F15" s="48" t="s">
+      <c r="F15" s="42" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B16" s="52"/>
+      <c r="B16" s="48"/>
       <c r="C16" s="50"/>
       <c r="D16" s="2" t="s">
         <v>85</v>
@@ -2197,7 +2198,7 @@
       <c r="F16" s="50"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B17" s="52"/>
+      <c r="B17" s="48"/>
       <c r="C17" s="50"/>
       <c r="D17" s="2" t="s">
         <v>91</v>
@@ -2208,7 +2209,7 @@
       <c r="F17" s="50"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B18" s="52"/>
+      <c r="B18" s="48"/>
       <c r="C18" s="50"/>
       <c r="D18" s="2" t="s">
         <v>41</v>
@@ -2219,7 +2220,7 @@
       <c r="F18" s="50"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B19" s="52"/>
+      <c r="B19" s="48"/>
       <c r="C19" s="50"/>
       <c r="D19" s="2" t="s">
         <v>42</v>
@@ -2230,15 +2231,15 @@
       <c r="F19" s="50"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B20" s="53"/>
-      <c r="C20" s="49"/>
+      <c r="B20" s="49"/>
+      <c r="C20" s="43"/>
       <c r="D20" s="2" t="s">
         <v>43</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F20" s="49"/>
+      <c r="F20" s="43"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B21" s="7" t="s">
@@ -2258,10 +2259,10 @@
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B22" s="55" t="s">
+      <c r="B22" s="51" t="s">
         <v>106</v>
       </c>
-      <c r="C22" s="48" t="s">
+      <c r="C22" s="42" t="s">
         <v>50</v>
       </c>
       <c r="D22" s="2" t="s">
@@ -2270,12 +2271,12 @@
       <c r="E22" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="F22" s="48" t="s">
+      <c r="F22" s="42" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B23" s="56"/>
+      <c r="B23" s="52"/>
       <c r="C23" s="50"/>
       <c r="D23" s="2" t="s">
         <v>108</v>
@@ -2286,21 +2287,21 @@
       <c r="F23" s="50"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B24" s="57"/>
-      <c r="C24" s="49"/>
+      <c r="B24" s="53"/>
+      <c r="C24" s="43"/>
       <c r="D24" s="2" t="s">
         <v>210</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="F24" s="49"/>
+      <c r="F24" s="43"/>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B25" s="45" t="s">
         <v>101</v>
       </c>
-      <c r="C25" s="54" t="s">
+      <c r="C25" s="44" t="s">
         <v>50</v>
       </c>
       <c r="D25" s="2" t="s">
@@ -2309,59 +2310,59 @@
       <c r="E25" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="F25" s="54" t="s">
+      <c r="F25" s="44" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B26" s="45"/>
-      <c r="C26" s="54"/>
+      <c r="C26" s="44"/>
       <c r="D26" s="2" t="s">
         <v>103</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="F26" s="54"/>
+      <c r="F26" s="44"/>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B27" s="45"/>
-      <c r="C27" s="54"/>
+      <c r="C27" s="44"/>
       <c r="D27" s="2" t="s">
         <v>52</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F27" s="54"/>
+      <c r="F27" s="44"/>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B28" s="45"/>
-      <c r="C28" s="54"/>
+      <c r="C28" s="44"/>
       <c r="D28" s="2" t="s">
         <v>104</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="F28" s="54"/>
+      <c r="F28" s="44"/>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B29" s="45"/>
-      <c r="C29" s="54"/>
+      <c r="C29" s="44"/>
       <c r="D29" s="2" t="s">
         <v>105</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="F29" s="54"/>
+      <c r="F29" s="44"/>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B30" s="45" t="s">
         <v>183</v>
       </c>
-      <c r="C30" s="54" t="s">
+      <c r="C30" s="44" t="s">
         <v>50</v>
       </c>
       <c r="D30" s="2" t="s">
@@ -2370,31 +2371,31 @@
       <c r="E30" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="F30" s="54" t="s">
+      <c r="F30" s="44" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B31" s="45"/>
-      <c r="C31" s="54"/>
+      <c r="C31" s="44"/>
       <c r="D31" s="2" t="s">
         <v>110</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F31" s="54"/>
+      <c r="F31" s="44"/>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B32" s="45"/>
-      <c r="C32" s="54"/>
+      <c r="C32" s="44"/>
       <c r="D32" s="2" t="s">
         <v>111</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="F32" s="54"/>
+      <c r="F32" s="44"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B33" s="7" t="s">
@@ -2459,10 +2460,10 @@
       </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B37" s="51" t="s">
+      <c r="B37" s="47" t="s">
         <v>93</v>
       </c>
-      <c r="C37" s="48" t="s">
+      <c r="C37" s="42" t="s">
         <v>67</v>
       </c>
       <c r="D37" s="2" t="s">
@@ -2471,7 +2472,7 @@
       <c r="E37" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="F37" s="48" t="s">
+      <c r="F37" s="42" t="s">
         <v>65</v>
       </c>
       <c r="G37" s="2" t="s">
@@ -2479,7 +2480,7 @@
       </c>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B38" s="52"/>
+      <c r="B38" s="48"/>
       <c r="C38" s="50"/>
       <c r="D38" s="2" t="s">
         <v>95</v>
@@ -2493,7 +2494,7 @@
       </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B39" s="52"/>
+      <c r="B39" s="48"/>
       <c r="C39" s="50"/>
       <c r="D39" s="2" t="s">
         <v>96</v>
@@ -2507,7 +2508,7 @@
       </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B40" s="52"/>
+      <c r="B40" s="48"/>
       <c r="C40" s="50"/>
       <c r="D40" s="2" t="s">
         <v>97</v>
@@ -2521,7 +2522,7 @@
       </c>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B41" s="52"/>
+      <c r="B41" s="48"/>
       <c r="C41" s="50"/>
       <c r="D41" s="2" t="s">
         <v>98</v>
@@ -2532,7 +2533,7 @@
       <c r="F41" s="50"/>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B42" s="52"/>
+      <c r="B42" s="48"/>
       <c r="C42" s="50"/>
       <c r="D42" s="2" t="s">
         <v>100</v>
@@ -2543,9 +2544,9 @@
       <c r="F42" s="50"/>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B43" s="53"/>
-      <c r="C43" s="49"/>
-      <c r="F43" s="49"/>
+      <c r="B43" s="49"/>
+      <c r="C43" s="43"/>
+      <c r="F43" s="43"/>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B44" s="7" t="s">
@@ -2619,7 +2620,7 @@
       </c>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B49" s="48" t="s">
+      <c r="B49" s="42" t="s">
         <v>133</v>
       </c>
       <c r="C49" s="11" t="s">
@@ -2631,19 +2632,19 @@
       <c r="E49" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="F49" s="48" t="s">
+      <c r="F49" s="42" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B50" s="49"/>
+      <c r="B50" s="43"/>
       <c r="D50" s="2" t="s">
         <v>129</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="F50" s="49"/>
+      <c r="F50" s="43"/>
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B51" s="7" t="s">
@@ -2705,7 +2706,7 @@
       </c>
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B55" s="48" t="s">
+      <c r="B55" s="42" t="s">
         <v>162</v>
       </c>
       <c r="D55" s="2" t="s">
@@ -2716,7 +2717,7 @@
       </c>
     </row>
     <row r="56" spans="2:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B56" s="49"/>
+      <c r="B56" s="43"/>
       <c r="D56" s="2" t="s">
         <v>150</v>
       </c>
@@ -2796,7 +2797,7 @@
         <v>168</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="63" spans="2:6" x14ac:dyDescent="0.15">
@@ -2829,7 +2830,7 @@
         <v>174</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="66" spans="2:6" x14ac:dyDescent="0.15">
@@ -2866,7 +2867,7 @@
     </row>
     <row r="70" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B70" s="22" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C70" s="3" t="s">
         <v>173</v>
@@ -2913,7 +2914,7 @@
     </row>
     <row r="74" spans="2:6" ht="27" x14ac:dyDescent="0.15">
       <c r="B74" s="23" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C74" s="24" t="s">
         <v>153</v>
@@ -2971,7 +2972,7 @@
     </row>
     <row r="79" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B79" s="7" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>216</v>
@@ -3006,18 +3007,18 @@
     </row>
     <row r="83" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B83" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="E83" s="31" t="s">
         <v>256</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="E83" s="31" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="84" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B84" s="30" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C84" s="31"/>
       <c r="E84" s="31"/>
@@ -3025,7 +3026,7 @@
     </row>
     <row r="85" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B85" s="7" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D85" s="2" t="s">
         <v>221</v>
@@ -3074,89 +3075,89 @@
     </row>
     <row r="90" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B90" s="7" t="s">
-        <v>230</v>
+        <v>332</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D90" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="E90" s="3" t="s">
         <v>231</v>
-      </c>
-      <c r="E90" s="3" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="91" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B91" s="7" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D91" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="E91" s="3" t="s">
         <v>232</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="92" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B92" s="33"/>
       <c r="C92" s="34"/>
       <c r="D92" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="E92" s="34" t="s">
         <v>316</v>
-      </c>
-      <c r="E92" s="34" t="s">
-        <v>318</v>
       </c>
       <c r="F92" s="34"/>
     </row>
     <row r="93" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B93" s="28" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C93" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="D93" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="D93" s="2" t="s">
-        <v>239</v>
-      </c>
       <c r="E93" s="3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="94" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B94" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="D94" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="D94" s="2" t="s">
-        <v>240</v>
-      </c>
       <c r="E94" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="95" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D95" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="96" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D96" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="97" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B97" s="33"/>
       <c r="C97" s="34"/>
       <c r="D97" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E97" s="34" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F97" s="34"/>
     </row>
@@ -3164,56 +3165,56 @@
       <c r="B98" s="36"/>
       <c r="C98" s="37"/>
       <c r="D98" s="2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E98" s="37" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F98" s="37"/>
     </row>
     <row r="99" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B99" s="7" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C99" s="29" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="100" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B100" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="101" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D101" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="102" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D102" s="2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="103" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D103" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="104" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B104" s="7" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C104" s="32" t="s">
         <v>39</v>
@@ -3221,260 +3222,272 @@
     </row>
     <row r="105" spans="2:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B105" s="35" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="106" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B106" s="7" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C106" s="39" t="s">
         <v>39</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="107" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B107" s="7" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D107" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="E107" s="39" t="s">
         <v>268</v>
-      </c>
-      <c r="E107" s="39" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="108" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D108" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="109" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B109" s="39" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E109" s="39" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="110" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B110" s="7" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C110" s="38" t="s">
         <v>39</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="111" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B111" s="7" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E111" s="3" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="112" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D112" s="2" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="113" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D113" s="2" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="E113" s="3" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="114" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D114" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="115" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D115" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="116" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D116" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="117" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D117" s="2" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="118" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D118" s="2" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E118" s="3" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="119" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D119" s="2" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="E119" s="3" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="120" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D120" s="2" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="E120" s="3" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="121" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D121" s="2" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="122" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D122" s="2" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="E122" s="38" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="123" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D123" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E123" s="3" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="124" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B124" s="7" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="125" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B125" s="7" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C125" s="41" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E125" s="3" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="126" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C126" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="E126" s="3" t="s">
         <v>306</v>
-      </c>
-      <c r="D126" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="E126" s="3" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="127" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D127" s="2" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="E127" s="3" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="128" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D128" s="2" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E128" s="3" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="129" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D129" s="2" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E129" s="3" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="130" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D130" s="2" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E130" s="3" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="131" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D131" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="E131" s="3" t="s">
         <v>303</v>
-      </c>
-      <c r="E131" s="3" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="132" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B132" s="40" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="133" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B133" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="134" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B134" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="D134" s="2" t="s">
         <v>331</v>
-      </c>
-      <c r="D134" s="2" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="135" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B135" s="7" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="F3:F5"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="F37:F43"/>
+    <mergeCell ref="C37:C43"/>
+    <mergeCell ref="B37:B43"/>
     <mergeCell ref="B55:B56"/>
     <mergeCell ref="F30:F32"/>
     <mergeCell ref="B30:B32"/>
@@ -3491,18 +3504,6 @@
     <mergeCell ref="C22:C24"/>
     <mergeCell ref="F22:F24"/>
     <mergeCell ref="B11:B13"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="F37:F43"/>
-    <mergeCell ref="C37:C43"/>
-    <mergeCell ref="B37:B43"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="F3:F5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3523,7 +3524,7 @@
   <sheetData>
     <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
   </sheetData>

--- a/文档/接口.xlsx
+++ b/文档/接口.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="363">
   <si>
     <t>调用方式</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -675,10 +675,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>api/ShopOrderApi/GetOrders/{页数}/{订单状态}/{其他where条件}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>获取订单列表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1341,6 +1337,124 @@
   </si>
   <si>
     <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/ShopOrderApi/GetCanReturnDetail/{订单ID}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据订单获取可退商品列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单ID</t>
+  </si>
+  <si>
+    <t>返回参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OrderID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProductID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProductSKU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProductName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProductThumb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReturnCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CanReturnCount</t>
+  </si>
+  <si>
+    <t>明细ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品skuID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图像</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已退回数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可退回数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/ShopOrderApi/GetOrders/{页数}/{订单状态}/{其他where条件}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/ShopOrderApi/GetReturnOrders/{页数}/{订单状态}/{其他where条件}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取我的退货单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看某个退货单的详情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/ShopOrderApi/GetReturnOrder/{订单id}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1442,7 +1556,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1530,6 +1644,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1958,10 +2079,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G135"/>
+  <dimension ref="B1:G155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="D61" sqref="D61"/>
+    <sheetView tabSelected="1" topLeftCell="A144" workbookViewId="0">
+      <selection activeCell="B158" sqref="B158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1976,39 +2097,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B1" s="55" t="s">
+      <c r="B1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="56" t="s">
+      <c r="C1" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="54" t="s">
+      <c r="D1" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="54"/>
-      <c r="F1" s="56" t="s">
+      <c r="E1" s="57"/>
+      <c r="F1" s="59" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B2" s="55"/>
-      <c r="C2" s="56"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="59"/>
       <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="56"/>
+      <c r="F2" s="59"/>
       <c r="G2" s="2" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="3" spans="2:7" ht="94.5" x14ac:dyDescent="0.15">
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="46" t="s">
+      <c r="C3" s="49" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -2017,35 +2138,35 @@
       <c r="E3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="57" t="s">
+      <c r="F3" s="60" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B4" s="45"/>
-      <c r="C4" s="46"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="49"/>
       <c r="D4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="46"/>
+      <c r="F4" s="49"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B5" s="45"/>
-      <c r="C5" s="46"/>
+      <c r="B5" s="48"/>
+      <c r="C5" s="49"/>
       <c r="D5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="46"/>
+      <c r="F5" s="49"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B6" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>19</v>
@@ -2117,32 +2238,32 @@
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B11" s="42" t="s">
+      <c r="B11" s="45" t="s">
         <v>144</v>
       </c>
-      <c r="C11" s="46" t="s">
+      <c r="C11" s="49" t="s">
         <v>18</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="46" t="s">
+      <c r="F11" s="49" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B12" s="50"/>
-      <c r="C12" s="46"/>
+      <c r="B12" s="53"/>
+      <c r="C12" s="49"/>
       <c r="D12" s="2" t="s">
         <v>127</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="F12" s="46"/>
+      <c r="F12" s="49"/>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B13" s="43"/>
+      <c r="B13" s="46"/>
       <c r="C13" s="11"/>
       <c r="D13" s="2" t="s">
         <v>125</v>
@@ -2170,10 +2291,10 @@
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B15" s="47" t="s">
-        <v>171</v>
-      </c>
-      <c r="C15" s="42" t="s">
+      <c r="B15" s="50" t="s">
+        <v>170</v>
+      </c>
+      <c r="C15" s="45" t="s">
         <v>39</v>
       </c>
       <c r="D15" s="2" t="s">
@@ -2182,64 +2303,64 @@
       <c r="E15" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="F15" s="42" t="s">
+      <c r="F15" s="45" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B16" s="48"/>
-      <c r="C16" s="50"/>
+      <c r="B16" s="51"/>
+      <c r="C16" s="53"/>
       <c r="D16" s="2" t="s">
         <v>85</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="F16" s="50"/>
+      <c r="F16" s="53"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B17" s="48"/>
-      <c r="C17" s="50"/>
+      <c r="B17" s="51"/>
+      <c r="C17" s="53"/>
       <c r="D17" s="2" t="s">
         <v>91</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="F17" s="50"/>
+      <c r="F17" s="53"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B18" s="48"/>
-      <c r="C18" s="50"/>
+      <c r="B18" s="51"/>
+      <c r="C18" s="53"/>
       <c r="D18" s="2" t="s">
         <v>41</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F18" s="50"/>
+      <c r="F18" s="53"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B19" s="48"/>
-      <c r="C19" s="50"/>
+      <c r="B19" s="51"/>
+      <c r="C19" s="53"/>
       <c r="D19" s="2" t="s">
         <v>42</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="F19" s="50"/>
+      <c r="F19" s="53"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B20" s="49"/>
-      <c r="C20" s="43"/>
+      <c r="B20" s="52"/>
+      <c r="C20" s="46"/>
       <c r="D20" s="2" t="s">
         <v>43</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F20" s="43"/>
+      <c r="F20" s="46"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B21" s="7" t="s">
@@ -2259,10 +2380,10 @@
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B22" s="51" t="s">
+      <c r="B22" s="54" t="s">
         <v>106</v>
       </c>
-      <c r="C22" s="42" t="s">
+      <c r="C22" s="45" t="s">
         <v>50</v>
       </c>
       <c r="D22" s="2" t="s">
@@ -2271,37 +2392,37 @@
       <c r="E22" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="F22" s="42" t="s">
+      <c r="F22" s="45" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B23" s="52"/>
-      <c r="C23" s="50"/>
+      <c r="B23" s="55"/>
+      <c r="C23" s="53"/>
       <c r="D23" s="2" t="s">
         <v>108</v>
       </c>
       <c r="E23" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="F23" s="53"/>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B24" s="56"/>
+      <c r="C24" s="46"/>
+      <c r="D24" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="F23" s="50"/>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B24" s="53"/>
-      <c r="C24" s="43"/>
-      <c r="D24" s="2" t="s">
+      <c r="E24" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="E24" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="F24" s="43"/>
+      <c r="F24" s="46"/>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B25" s="45" t="s">
+      <c r="B25" s="48" t="s">
         <v>101</v>
       </c>
-      <c r="C25" s="44" t="s">
+      <c r="C25" s="47" t="s">
         <v>50</v>
       </c>
       <c r="D25" s="2" t="s">
@@ -2310,59 +2431,59 @@
       <c r="E25" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="F25" s="44" t="s">
+      <c r="F25" s="47" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B26" s="45"/>
-      <c r="C26" s="44"/>
+      <c r="B26" s="48"/>
+      <c r="C26" s="47"/>
       <c r="D26" s="2" t="s">
         <v>103</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="F26" s="44"/>
+      <c r="F26" s="47"/>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B27" s="45"/>
-      <c r="C27" s="44"/>
+      <c r="B27" s="48"/>
+      <c r="C27" s="47"/>
       <c r="D27" s="2" t="s">
         <v>52</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F27" s="44"/>
+      <c r="F27" s="47"/>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B28" s="45"/>
-      <c r="C28" s="44"/>
+      <c r="B28" s="48"/>
+      <c r="C28" s="47"/>
       <c r="D28" s="2" t="s">
         <v>104</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="F28" s="44"/>
+      <c r="F28" s="47"/>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B29" s="45"/>
-      <c r="C29" s="44"/>
+      <c r="B29" s="48"/>
+      <c r="C29" s="47"/>
       <c r="D29" s="2" t="s">
         <v>105</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="F29" s="44"/>
+      <c r="F29" s="47"/>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B30" s="45" t="s">
-        <v>183</v>
-      </c>
-      <c r="C30" s="44" t="s">
+      <c r="B30" s="48" t="s">
+        <v>182</v>
+      </c>
+      <c r="C30" s="47" t="s">
         <v>50</v>
       </c>
       <c r="D30" s="2" t="s">
@@ -2371,31 +2492,31 @@
       <c r="E30" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="F30" s="44" t="s">
+      <c r="F30" s="47" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B31" s="45"/>
-      <c r="C31" s="44"/>
+      <c r="B31" s="48"/>
+      <c r="C31" s="47"/>
       <c r="D31" s="2" t="s">
         <v>110</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F31" s="44"/>
+      <c r="F31" s="47"/>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B32" s="45"/>
-      <c r="C32" s="44"/>
+      <c r="B32" s="48"/>
+      <c r="C32" s="47"/>
       <c r="D32" s="2" t="s">
         <v>111</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="F32" s="44"/>
+      <c r="F32" s="47"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B33" s="7" t="s">
@@ -2460,10 +2581,10 @@
       </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B37" s="47" t="s">
+      <c r="B37" s="50" t="s">
         <v>93</v>
       </c>
-      <c r="C37" s="42" t="s">
+      <c r="C37" s="45" t="s">
         <v>67</v>
       </c>
       <c r="D37" s="2" t="s">
@@ -2472,7 +2593,7 @@
       <c r="E37" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="F37" s="42" t="s">
+      <c r="F37" s="45" t="s">
         <v>65</v>
       </c>
       <c r="G37" s="2" t="s">
@@ -2480,73 +2601,73 @@
       </c>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B38" s="48"/>
-      <c r="C38" s="50"/>
+      <c r="B38" s="51"/>
+      <c r="C38" s="53"/>
       <c r="D38" s="2" t="s">
         <v>95</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="F38" s="50"/>
+      <c r="F38" s="53"/>
       <c r="G38" s="2" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B39" s="48"/>
-      <c r="C39" s="50"/>
+      <c r="B39" s="51"/>
+      <c r="C39" s="53"/>
       <c r="D39" s="2" t="s">
         <v>96</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="F39" s="50"/>
+      <c r="F39" s="53"/>
       <c r="G39" s="2" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B40" s="48"/>
-      <c r="C40" s="50"/>
+      <c r="B40" s="51"/>
+      <c r="C40" s="53"/>
       <c r="D40" s="2" t="s">
         <v>97</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="F40" s="50"/>
+      <c r="F40" s="53"/>
       <c r="G40" s="2" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B41" s="48"/>
-      <c r="C41" s="50"/>
+      <c r="B41" s="51"/>
+      <c r="C41" s="53"/>
       <c r="D41" s="2" t="s">
         <v>98</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="F41" s="50"/>
+      <c r="F41" s="53"/>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B42" s="48"/>
-      <c r="C42" s="50"/>
+      <c r="B42" s="51"/>
+      <c r="C42" s="53"/>
       <c r="D42" s="2" t="s">
         <v>100</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="F42" s="50"/>
+      <c r="F42" s="53"/>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B43" s="49"/>
-      <c r="C43" s="43"/>
-      <c r="F43" s="43"/>
+      <c r="B43" s="52"/>
+      <c r="C43" s="46"/>
+      <c r="F43" s="46"/>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B44" s="7" t="s">
@@ -2620,7 +2741,7 @@
       </c>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B49" s="42" t="s">
+      <c r="B49" s="45" t="s">
         <v>133</v>
       </c>
       <c r="C49" s="11" t="s">
@@ -2632,19 +2753,19 @@
       <c r="E49" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="F49" s="42" t="s">
+      <c r="F49" s="45" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B50" s="43"/>
+      <c r="B50" s="46"/>
       <c r="D50" s="2" t="s">
         <v>129</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="F50" s="43"/>
+      <c r="F50" s="46"/>
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B51" s="7" t="s">
@@ -2706,7 +2827,7 @@
       </c>
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B55" s="42" t="s">
+      <c r="B55" s="45" t="s">
         <v>162</v>
       </c>
       <c r="D55" s="2" t="s">
@@ -2717,7 +2838,7 @@
       </c>
     </row>
     <row r="56" spans="2:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B56" s="43"/>
+      <c r="B56" s="46"/>
       <c r="D56" s="2" t="s">
         <v>150</v>
       </c>
@@ -2777,7 +2898,7 @@
     </row>
     <row r="61" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B61" s="19" t="s">
-        <v>165</v>
+        <v>358</v>
       </c>
       <c r="C61" s="20" t="s">
         <v>66</v>
@@ -2789,236 +2910,236 @@
         <v>164</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="62" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D62" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="63" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D63" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E63" s="3" t="s">
         <v>169</v>
-      </c>
-      <c r="E63" s="3" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="64" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B64" s="19" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C64" s="20" t="s">
         <v>66</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="65" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B65" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="C65" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="C65" s="3" t="s">
+      <c r="D65" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="D65" s="2" t="s">
-        <v>174</v>
-      </c>
       <c r="F65" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="66" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D66" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="67" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D67" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="68" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D68" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="69" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D69" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="70" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B70" s="22" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="71" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B71" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C71" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="F71" s="3" t="s">
         <v>186</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="F71" s="3" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="72" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D72" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="73" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D73" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="74" spans="2:6" ht="27" x14ac:dyDescent="0.15">
       <c r="B74" s="23" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C74" s="24" t="s">
         <v>153</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F74" s="25" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="75" spans="2:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="D75" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E75" s="25" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="76" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B76" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C76" s="26" t="s">
         <v>50</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="77" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D77" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="78" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D78" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="79" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B79" s="7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="80" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B80" s="27" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D80" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="E80" s="3" t="s">
         <v>217</v>
-      </c>
-      <c r="E80" s="3" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="81" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D81" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="82" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D82" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="83" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B83" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="D83" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="D83" s="2" t="s">
+      <c r="E83" s="31" t="s">
         <v>255</v>
-      </c>
-      <c r="E83" s="31" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="84" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B84" s="30" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C84" s="31"/>
       <c r="E84" s="31"/>
@@ -3026,138 +3147,138 @@
     </row>
     <row r="85" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B85" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E85" s="27" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="86" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B86" s="27" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E86" s="27" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="87" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D87" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="88" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D88" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="89" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D89" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="90" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B90" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="D90" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="C90" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>333</v>
-      </c>
       <c r="E90" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="91" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B91" s="7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="92" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B92" s="33"/>
       <c r="C92" s="34"/>
       <c r="D92" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E92" s="34" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F92" s="34"/>
     </row>
     <row r="93" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B93" s="28" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="94" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B94" s="7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="95" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D95" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="96" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D96" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="97" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B97" s="33"/>
       <c r="C97" s="34"/>
       <c r="D97" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E97" s="34" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F97" s="34"/>
     </row>
@@ -3165,56 +3286,56 @@
       <c r="B98" s="36"/>
       <c r="C98" s="37"/>
       <c r="D98" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="E98" s="37" t="s">
         <v>262</v>
-      </c>
-      <c r="E98" s="37" t="s">
-        <v>263</v>
       </c>
       <c r="F98" s="37"/>
     </row>
     <row r="99" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B99" s="7" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C99" s="29" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="100" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B100" s="7" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="101" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D101" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="102" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D102" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="103" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D103" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="104" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B104" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C104" s="32" t="s">
         <v>39</v>
@@ -3222,256 +3343,411 @@
     </row>
     <row r="105" spans="2:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B105" s="35" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D105" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="E105" s="3" t="s">
         <v>258</v>
-      </c>
-      <c r="E105" s="3" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="106" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B106" s="7" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C106" s="39" t="s">
         <v>39</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="107" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B107" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="D107" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="D107" s="2" t="s">
-        <v>266</v>
-      </c>
       <c r="E107" s="39" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="108" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D108" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="109" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B109" s="39" t="s">
+        <v>267</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="E109" s="39" t="s">
         <v>268</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="E109" s="39" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="110" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B110" s="7" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C110" s="38" t="s">
         <v>39</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="111" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B111" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="E111" s="3" t="s">
         <v>275</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="E111" s="3" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="112" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D112" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="113" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D113" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E113" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="114" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D114" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="E114" s="3" t="s">
         <v>278</v>
-      </c>
-      <c r="E114" s="3" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="115" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D115" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="116" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D116" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="117" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D117" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="118" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D118" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E118" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="119" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D119" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E119" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="120" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D120" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E120" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="121" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D121" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="122" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D122" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E122" s="38" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="123" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D123" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="E123" s="3" t="s">
         <v>288</v>
-      </c>
-      <c r="E123" s="3" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="124" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B124" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="125" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B125" s="7" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C125" s="41" t="s">
+        <v>303</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="E125" s="3" t="s">
         <v>304</v>
-      </c>
-      <c r="D125" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="E125" s="3" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="126" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C126" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E126" s="3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="127" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D127" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E127" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="128" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D128" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E128" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="129" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D129" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E129" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="130" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D130" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E130" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="131" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D131" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E131" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="132" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B132" s="40" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="133" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B133" s="7" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="134" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B134" s="7" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="135" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B135" s="7" t="s">
-        <v>330</v>
+        <v>329</v>
+      </c>
+    </row>
+    <row r="136" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B136" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="137" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B137" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="138" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D138" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="E138" s="42"/>
+    </row>
+    <row r="139" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D139" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="E139" s="3" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="140" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D140" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="E140" s="3" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="141" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D141" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="E141" s="3" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="142" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D142" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="E142" s="3" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="143" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D143" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="E143" s="3" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="144" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D144" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="E144" s="3" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="145" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D145" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="E145" s="3" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="146" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D146" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="E146" s="3" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="147" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D147" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="E147" s="3" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="148" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D148" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="E148" s="3" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="149" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B149" s="43"/>
+    </row>
+    <row r="151" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B151" s="43" t="s">
+        <v>359</v>
+      </c>
+      <c r="C151" s="44" t="s">
+        <v>66</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E151" s="44" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="152" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B152" s="43" t="s">
+        <v>360</v>
+      </c>
+      <c r="C152" s="44"/>
+      <c r="D152" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E152" s="44" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="153" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B153" s="43"/>
+      <c r="C153" s="44"/>
+      <c r="D153" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E153" s="44" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="154" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B154" s="43" t="s">
+        <v>362</v>
+      </c>
+      <c r="C154" s="44" t="s">
+        <v>66</v>
+      </c>
+      <c r="E154" s="44"/>
+    </row>
+    <row r="155" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B155" s="7" t="s">
+        <v>361</v>
       </c>
     </row>
   </sheetData>
@@ -3524,7 +3800,7 @@
   <sheetData>
     <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
   </sheetData>

--- a/文档/接口.xlsx
+++ b/文档/接口.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="367">
   <si>
     <t>调用方式</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1455,6 +1455,22 @@
   </si>
   <si>
     <t>api/ShopOrderApi/GetReturnOrder/{订单id}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/CouponApi/GetMyCoupon/{优惠券状态}/{页数}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">获取我的优惠券 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1未使用 2 已使用 3 已过期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1556,7 +1572,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1656,18 +1672,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1678,22 +1707,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2079,10 +2098,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G155"/>
+  <dimension ref="B1:G158"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A144" workbookViewId="0">
-      <selection activeCell="B158" sqref="B158"/>
+      <selection activeCell="D157" sqref="D157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2097,39 +2116,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B1" s="58" t="s">
+      <c r="B1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="59" t="s">
+      <c r="C1" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="57" t="s">
+      <c r="D1" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="57"/>
-      <c r="F1" s="59" t="s">
+      <c r="E1" s="46"/>
+      <c r="F1" s="48" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B2" s="58"/>
-      <c r="C2" s="59"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="48"/>
       <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="59"/>
+      <c r="F2" s="48"/>
       <c r="G2" s="2" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="3" spans="2:7" ht="94.5" x14ac:dyDescent="0.15">
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="49" t="s">
+      <c r="C3" s="50" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -2138,31 +2157,31 @@
       <c r="E3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="60" t="s">
+      <c r="F3" s="51" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B4" s="48"/>
-      <c r="C4" s="49"/>
+      <c r="B4" s="49"/>
+      <c r="C4" s="50"/>
       <c r="D4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="49"/>
+      <c r="F4" s="50"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B5" s="48"/>
-      <c r="C5" s="49"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="50"/>
       <c r="D5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="49"/>
+      <c r="F5" s="50"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B6" s="7" t="s">
@@ -2238,32 +2257,32 @@
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B11" s="45" t="s">
+      <c r="B11" s="52" t="s">
         <v>144</v>
       </c>
-      <c r="C11" s="49" t="s">
+      <c r="C11" s="50" t="s">
         <v>18</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="49" t="s">
+      <c r="F11" s="50" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B12" s="53"/>
-      <c r="C12" s="49"/>
+      <c r="B12" s="54"/>
+      <c r="C12" s="50"/>
       <c r="D12" s="2" t="s">
         <v>127</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="F12" s="49"/>
+      <c r="F12" s="50"/>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B13" s="46"/>
+      <c r="B13" s="53"/>
       <c r="C13" s="11"/>
       <c r="D13" s="2" t="s">
         <v>125</v>
@@ -2291,10 +2310,10 @@
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B15" s="50" t="s">
+      <c r="B15" s="55" t="s">
         <v>170</v>
       </c>
-      <c r="C15" s="45" t="s">
+      <c r="C15" s="52" t="s">
         <v>39</v>
       </c>
       <c r="D15" s="2" t="s">
@@ -2303,64 +2322,64 @@
       <c r="E15" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="F15" s="45" t="s">
+      <c r="F15" s="52" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B16" s="51"/>
-      <c r="C16" s="53"/>
+      <c r="B16" s="56"/>
+      <c r="C16" s="54"/>
       <c r="D16" s="2" t="s">
         <v>85</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="F16" s="53"/>
+      <c r="F16" s="54"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B17" s="51"/>
-      <c r="C17" s="53"/>
+      <c r="B17" s="56"/>
+      <c r="C17" s="54"/>
       <c r="D17" s="2" t="s">
         <v>91</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="F17" s="53"/>
+      <c r="F17" s="54"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B18" s="51"/>
-      <c r="C18" s="53"/>
+      <c r="B18" s="56"/>
+      <c r="C18" s="54"/>
       <c r="D18" s="2" t="s">
         <v>41</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F18" s="53"/>
+      <c r="F18" s="54"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B19" s="51"/>
-      <c r="C19" s="53"/>
+      <c r="B19" s="56"/>
+      <c r="C19" s="54"/>
       <c r="D19" s="2" t="s">
         <v>42</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="F19" s="53"/>
+      <c r="F19" s="54"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B20" s="52"/>
-      <c r="C20" s="46"/>
+      <c r="B20" s="57"/>
+      <c r="C20" s="53"/>
       <c r="D20" s="2" t="s">
         <v>43</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F20" s="46"/>
+      <c r="F20" s="53"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B21" s="7" t="s">
@@ -2380,10 +2399,10 @@
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B22" s="54" t="s">
+      <c r="B22" s="59" t="s">
         <v>106</v>
       </c>
-      <c r="C22" s="45" t="s">
+      <c r="C22" s="52" t="s">
         <v>50</v>
       </c>
       <c r="D22" s="2" t="s">
@@ -2392,37 +2411,37 @@
       <c r="E22" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="F22" s="45" t="s">
+      <c r="F22" s="52" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B23" s="55"/>
-      <c r="C23" s="53"/>
+      <c r="B23" s="60"/>
+      <c r="C23" s="54"/>
       <c r="D23" s="2" t="s">
         <v>108</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="F23" s="53"/>
+      <c r="F23" s="54"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B24" s="56"/>
-      <c r="C24" s="46"/>
+      <c r="B24" s="61"/>
+      <c r="C24" s="53"/>
       <c r="D24" s="2" t="s">
         <v>209</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="F24" s="46"/>
+      <c r="F24" s="53"/>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B25" s="48" t="s">
+      <c r="B25" s="49" t="s">
         <v>101</v>
       </c>
-      <c r="C25" s="47" t="s">
+      <c r="C25" s="58" t="s">
         <v>50</v>
       </c>
       <c r="D25" s="2" t="s">
@@ -2431,59 +2450,59 @@
       <c r="E25" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="F25" s="47" t="s">
+      <c r="F25" s="58" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B26" s="48"/>
-      <c r="C26" s="47"/>
+      <c r="B26" s="49"/>
+      <c r="C26" s="58"/>
       <c r="D26" s="2" t="s">
         <v>103</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="F26" s="47"/>
+      <c r="F26" s="58"/>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B27" s="48"/>
-      <c r="C27" s="47"/>
+      <c r="B27" s="49"/>
+      <c r="C27" s="58"/>
       <c r="D27" s="2" t="s">
         <v>52</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F27" s="47"/>
+      <c r="F27" s="58"/>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B28" s="48"/>
-      <c r="C28" s="47"/>
+      <c r="B28" s="49"/>
+      <c r="C28" s="58"/>
       <c r="D28" s="2" t="s">
         <v>104</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="F28" s="47"/>
+      <c r="F28" s="58"/>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B29" s="48"/>
-      <c r="C29" s="47"/>
+      <c r="B29" s="49"/>
+      <c r="C29" s="58"/>
       <c r="D29" s="2" t="s">
         <v>105</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="F29" s="47"/>
+      <c r="F29" s="58"/>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B30" s="48" t="s">
+      <c r="B30" s="49" t="s">
         <v>182</v>
       </c>
-      <c r="C30" s="47" t="s">
+      <c r="C30" s="58" t="s">
         <v>50</v>
       </c>
       <c r="D30" s="2" t="s">
@@ -2492,31 +2511,31 @@
       <c r="E30" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="F30" s="47" t="s">
+      <c r="F30" s="58" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B31" s="48"/>
-      <c r="C31" s="47"/>
+      <c r="B31" s="49"/>
+      <c r="C31" s="58"/>
       <c r="D31" s="2" t="s">
         <v>110</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F31" s="47"/>
+      <c r="F31" s="58"/>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B32" s="48"/>
-      <c r="C32" s="47"/>
+      <c r="B32" s="49"/>
+      <c r="C32" s="58"/>
       <c r="D32" s="2" t="s">
         <v>111</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="F32" s="47"/>
+      <c r="F32" s="58"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B33" s="7" t="s">
@@ -2581,10 +2600,10 @@
       </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B37" s="50" t="s">
+      <c r="B37" s="55" t="s">
         <v>93</v>
       </c>
-      <c r="C37" s="45" t="s">
+      <c r="C37" s="52" t="s">
         <v>67</v>
       </c>
       <c r="D37" s="2" t="s">
@@ -2593,7 +2612,7 @@
       <c r="E37" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="F37" s="45" t="s">
+      <c r="F37" s="52" t="s">
         <v>65</v>
       </c>
       <c r="G37" s="2" t="s">
@@ -2601,73 +2620,73 @@
       </c>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B38" s="51"/>
-      <c r="C38" s="53"/>
+      <c r="B38" s="56"/>
+      <c r="C38" s="54"/>
       <c r="D38" s="2" t="s">
         <v>95</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="F38" s="53"/>
+      <c r="F38" s="54"/>
       <c r="G38" s="2" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B39" s="51"/>
-      <c r="C39" s="53"/>
+      <c r="B39" s="56"/>
+      <c r="C39" s="54"/>
       <c r="D39" s="2" t="s">
         <v>96</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="F39" s="53"/>
+      <c r="F39" s="54"/>
       <c r="G39" s="2" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B40" s="51"/>
-      <c r="C40" s="53"/>
+      <c r="B40" s="56"/>
+      <c r="C40" s="54"/>
       <c r="D40" s="2" t="s">
         <v>97</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="F40" s="53"/>
+      <c r="F40" s="54"/>
       <c r="G40" s="2" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B41" s="51"/>
-      <c r="C41" s="53"/>
+      <c r="B41" s="56"/>
+      <c r="C41" s="54"/>
       <c r="D41" s="2" t="s">
         <v>98</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="F41" s="53"/>
+      <c r="F41" s="54"/>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B42" s="51"/>
-      <c r="C42" s="53"/>
+      <c r="B42" s="56"/>
+      <c r="C42" s="54"/>
       <c r="D42" s="2" t="s">
         <v>100</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="F42" s="53"/>
+      <c r="F42" s="54"/>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B43" s="52"/>
-      <c r="C43" s="46"/>
-      <c r="F43" s="46"/>
+      <c r="B43" s="57"/>
+      <c r="C43" s="53"/>
+      <c r="F43" s="53"/>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B44" s="7" t="s">
@@ -2741,7 +2760,7 @@
       </c>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B49" s="45" t="s">
+      <c r="B49" s="52" t="s">
         <v>133</v>
       </c>
       <c r="C49" s="11" t="s">
@@ -2753,19 +2772,19 @@
       <c r="E49" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="F49" s="45" t="s">
+      <c r="F49" s="52" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B50" s="46"/>
+      <c r="B50" s="53"/>
       <c r="D50" s="2" t="s">
         <v>129</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="F50" s="46"/>
+      <c r="F50" s="53"/>
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B51" s="7" t="s">
@@ -2827,7 +2846,7 @@
       </c>
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B55" s="45" t="s">
+      <c r="B55" s="52" t="s">
         <v>162</v>
       </c>
       <c r="D55" s="2" t="s">
@@ -2838,7 +2857,7 @@
       </c>
     </row>
     <row r="56" spans="2:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B56" s="46"/>
+      <c r="B56" s="53"/>
       <c r="D56" s="2" t="s">
         <v>150</v>
       </c>
@@ -3750,20 +3769,27 @@
         <v>361</v>
       </c>
     </row>
+    <row r="157" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B157" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="C157" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="E157" s="3" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="158" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B158" s="7" t="s">
+        <v>364</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="F3:F5"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="F37:F43"/>
-    <mergeCell ref="C37:C43"/>
-    <mergeCell ref="B37:B43"/>
     <mergeCell ref="B55:B56"/>
     <mergeCell ref="F30:F32"/>
     <mergeCell ref="B30:B32"/>
@@ -3780,6 +3806,18 @@
     <mergeCell ref="C22:C24"/>
     <mergeCell ref="F22:F24"/>
     <mergeCell ref="B11:B13"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="F37:F43"/>
+    <mergeCell ref="C37:C43"/>
+    <mergeCell ref="B37:B43"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="F3:F5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/文档/接口.xlsx
+++ b/文档/接口.xlsx
@@ -1272,6 +1272,196 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>字符串格式是 OrderItems[0].属性名1&amp;OrderItems[0].属性名2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProductId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RequestQuantity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKUID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不传递 或-1 是查所有状态（多个状态用英文逗号号分割）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回值说明，都在data里</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReturnOrderID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/ShopOrderApi/ReturnOrder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/userapi/ModifyInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/userapi/LogOut</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注销账户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/ShopCommentApi/get</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/ShopOrderApi/GetCanReturnDetail/{订单ID}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据订单获取可退商品列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单ID</t>
+  </si>
+  <si>
+    <t>返回参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OrderID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProductID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProductSKU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProductName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProductThumb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReturnCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CanReturnCount</t>
+  </si>
+  <si>
+    <t>明细ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品skuID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图像</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已退回数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可退回数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/ShopOrderApi/GetOrders/{页数}/{订单状态}/{其他where条件}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/ShopOrderApi/GetReturnOrders/{页数}/{订单状态}/{其他where条件}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取我的退货单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看某个退货单的详情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/ShopOrderApi/GetReturnOrder/{订单id}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/CouponApi/GetMyCoupon/{优惠券状态}/{页数}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">获取我的优惠券 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1未使用 2 已使用 3 已过期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>OrderId</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1281,196 +1471,6 @@
   </si>
   <si>
     <t>Description</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字符串格式是 OrderItems[0].属性名1&amp;OrderItems[0].属性名2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ProductId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RequestQuantity</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SKUID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不传递 或-1 是查所有状态（多个状态用英文逗号号分割）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回值说明，都在data里</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ReturnOrderID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>api/ShopOrderApi/ReturnOrder</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>api/userapi/ModifyInfo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>api/userapi/LogOut</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>注销账户</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无参数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>api/ShopCommentApi/get</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>api/ShopOrderApi/GetCanReturnDetail/{订单ID}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>根据订单获取可退商品列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>订单ID</t>
-  </si>
-  <si>
-    <t>返回参数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OrderID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ProductID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ProductSKU</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ProductName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Count</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Price</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ProductThumb</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ReturnCount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CanReturnCount</t>
-  </si>
-  <si>
-    <t>明细ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>订单ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品skuID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>购买数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单价</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>图像</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已退回数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可退回数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>api/ShopOrderApi/GetOrders/{页数}/{订单状态}/{其他where条件}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>api/ShopOrderApi/GetReturnOrders/{页数}/{订单状态}/{其他where条件}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取我的退货单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看某个退货单的详情</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>api/ShopOrderApi/GetReturnOrder/{订单id}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>api/CouponApi/GetMyCoupon/{优惠券状态}/{页数}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">获取我的优惠券 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1未使用 2 已使用 3 已过期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>状态</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1675,28 +1675,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1707,12 +1697,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2100,8 +2100,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G158"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A144" workbookViewId="0">
-      <selection activeCell="D157" sqref="D157"/>
+    <sheetView tabSelected="1" topLeftCell="A96" workbookViewId="0">
+      <selection activeCell="D113" sqref="D113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2116,30 +2116,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="48" t="s">
+      <c r="C1" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="46" t="s">
+      <c r="D1" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="46"/>
-      <c r="F1" s="48" t="s">
+      <c r="E1" s="58"/>
+      <c r="F1" s="60" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B2" s="47"/>
-      <c r="C2" s="48"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="60"/>
       <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="48"/>
+      <c r="F2" s="60"/>
       <c r="G2" s="2" t="s">
         <v>115</v>
       </c>
@@ -2157,7 +2157,7 @@
       <c r="E3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="51" t="s">
+      <c r="F3" s="61" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2257,7 +2257,7 @@
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B11" s="52" t="s">
+      <c r="B11" s="46" t="s">
         <v>144</v>
       </c>
       <c r="C11" s="50" t="s">
@@ -2282,7 +2282,7 @@
       <c r="F12" s="50"/>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B13" s="53"/>
+      <c r="B13" s="47"/>
       <c r="C13" s="11"/>
       <c r="D13" s="2" t="s">
         <v>125</v>
@@ -2310,10 +2310,10 @@
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B15" s="55" t="s">
+      <c r="B15" s="51" t="s">
         <v>170</v>
       </c>
-      <c r="C15" s="52" t="s">
+      <c r="C15" s="46" t="s">
         <v>39</v>
       </c>
       <c r="D15" s="2" t="s">
@@ -2322,12 +2322,12 @@
       <c r="E15" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="F15" s="52" t="s">
+      <c r="F15" s="46" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B16" s="56"/>
+      <c r="B16" s="52"/>
       <c r="C16" s="54"/>
       <c r="D16" s="2" t="s">
         <v>85</v>
@@ -2338,7 +2338,7 @@
       <c r="F16" s="54"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B17" s="56"/>
+      <c r="B17" s="52"/>
       <c r="C17" s="54"/>
       <c r="D17" s="2" t="s">
         <v>91</v>
@@ -2349,7 +2349,7 @@
       <c r="F17" s="54"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B18" s="56"/>
+      <c r="B18" s="52"/>
       <c r="C18" s="54"/>
       <c r="D18" s="2" t="s">
         <v>41</v>
@@ -2360,7 +2360,7 @@
       <c r="F18" s="54"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B19" s="56"/>
+      <c r="B19" s="52"/>
       <c r="C19" s="54"/>
       <c r="D19" s="2" t="s">
         <v>42</v>
@@ -2371,15 +2371,15 @@
       <c r="F19" s="54"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B20" s="57"/>
-      <c r="C20" s="53"/>
+      <c r="B20" s="53"/>
+      <c r="C20" s="47"/>
       <c r="D20" s="2" t="s">
         <v>43</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F20" s="53"/>
+      <c r="F20" s="47"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B21" s="7" t="s">
@@ -2399,10 +2399,10 @@
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B22" s="59" t="s">
+      <c r="B22" s="55" t="s">
         <v>106</v>
       </c>
-      <c r="C22" s="52" t="s">
+      <c r="C22" s="46" t="s">
         <v>50</v>
       </c>
       <c r="D22" s="2" t="s">
@@ -2411,12 +2411,12 @@
       <c r="E22" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="F22" s="52" t="s">
+      <c r="F22" s="46" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B23" s="60"/>
+      <c r="B23" s="56"/>
       <c r="C23" s="54"/>
       <c r="D23" s="2" t="s">
         <v>108</v>
@@ -2427,21 +2427,21 @@
       <c r="F23" s="54"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B24" s="61"/>
-      <c r="C24" s="53"/>
+      <c r="B24" s="57"/>
+      <c r="C24" s="47"/>
       <c r="D24" s="2" t="s">
         <v>209</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="F24" s="53"/>
+      <c r="F24" s="47"/>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B25" s="49" t="s">
         <v>101</v>
       </c>
-      <c r="C25" s="58" t="s">
+      <c r="C25" s="48" t="s">
         <v>50</v>
       </c>
       <c r="D25" s="2" t="s">
@@ -2450,59 +2450,59 @@
       <c r="E25" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="F25" s="58" t="s">
+      <c r="F25" s="48" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B26" s="49"/>
-      <c r="C26" s="58"/>
+      <c r="C26" s="48"/>
       <c r="D26" s="2" t="s">
         <v>103</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="F26" s="58"/>
+      <c r="F26" s="48"/>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B27" s="49"/>
-      <c r="C27" s="58"/>
+      <c r="C27" s="48"/>
       <c r="D27" s="2" t="s">
         <v>52</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F27" s="58"/>
+      <c r="F27" s="48"/>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B28" s="49"/>
-      <c r="C28" s="58"/>
+      <c r="C28" s="48"/>
       <c r="D28" s="2" t="s">
         <v>104</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="F28" s="58"/>
+      <c r="F28" s="48"/>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B29" s="49"/>
-      <c r="C29" s="58"/>
+      <c r="C29" s="48"/>
       <c r="D29" s="2" t="s">
         <v>105</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="F29" s="58"/>
+      <c r="F29" s="48"/>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B30" s="49" t="s">
         <v>182</v>
       </c>
-      <c r="C30" s="58" t="s">
+      <c r="C30" s="48" t="s">
         <v>50</v>
       </c>
       <c r="D30" s="2" t="s">
@@ -2511,31 +2511,31 @@
       <c r="E30" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="F30" s="58" t="s">
+      <c r="F30" s="48" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B31" s="49"/>
-      <c r="C31" s="58"/>
+      <c r="C31" s="48"/>
       <c r="D31" s="2" t="s">
         <v>110</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F31" s="58"/>
+      <c r="F31" s="48"/>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B32" s="49"/>
-      <c r="C32" s="58"/>
+      <c r="C32" s="48"/>
       <c r="D32" s="2" t="s">
         <v>111</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="F32" s="58"/>
+      <c r="F32" s="48"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B33" s="7" t="s">
@@ -2600,10 +2600,10 @@
       </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B37" s="55" t="s">
+      <c r="B37" s="51" t="s">
         <v>93</v>
       </c>
-      <c r="C37" s="52" t="s">
+      <c r="C37" s="46" t="s">
         <v>67</v>
       </c>
       <c r="D37" s="2" t="s">
@@ -2612,7 +2612,7 @@
       <c r="E37" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="F37" s="52" t="s">
+      <c r="F37" s="46" t="s">
         <v>65</v>
       </c>
       <c r="G37" s="2" t="s">
@@ -2620,7 +2620,7 @@
       </c>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B38" s="56"/>
+      <c r="B38" s="52"/>
       <c r="C38" s="54"/>
       <c r="D38" s="2" t="s">
         <v>95</v>
@@ -2634,7 +2634,7 @@
       </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B39" s="56"/>
+      <c r="B39" s="52"/>
       <c r="C39" s="54"/>
       <c r="D39" s="2" t="s">
         <v>96</v>
@@ -2648,7 +2648,7 @@
       </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B40" s="56"/>
+      <c r="B40" s="52"/>
       <c r="C40" s="54"/>
       <c r="D40" s="2" t="s">
         <v>97</v>
@@ -2662,7 +2662,7 @@
       </c>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B41" s="56"/>
+      <c r="B41" s="52"/>
       <c r="C41" s="54"/>
       <c r="D41" s="2" t="s">
         <v>98</v>
@@ -2673,7 +2673,7 @@
       <c r="F41" s="54"/>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B42" s="56"/>
+      <c r="B42" s="52"/>
       <c r="C42" s="54"/>
       <c r="D42" s="2" t="s">
         <v>100</v>
@@ -2684,9 +2684,9 @@
       <c r="F42" s="54"/>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B43" s="57"/>
-      <c r="C43" s="53"/>
-      <c r="F43" s="53"/>
+      <c r="B43" s="53"/>
+      <c r="C43" s="47"/>
+      <c r="F43" s="47"/>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B44" s="7" t="s">
@@ -2760,7 +2760,7 @@
       </c>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B49" s="52" t="s">
+      <c r="B49" s="46" t="s">
         <v>133</v>
       </c>
       <c r="C49" s="11" t="s">
@@ -2772,19 +2772,19 @@
       <c r="E49" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="F49" s="52" t="s">
+      <c r="F49" s="46" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B50" s="53"/>
+      <c r="B50" s="47"/>
       <c r="D50" s="2" t="s">
         <v>129</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="F50" s="53"/>
+      <c r="F50" s="47"/>
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B51" s="7" t="s">
@@ -2846,7 +2846,7 @@
       </c>
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B55" s="52" t="s">
+      <c r="B55" s="46" t="s">
         <v>162</v>
       </c>
       <c r="D55" s="2" t="s">
@@ -2857,7 +2857,7 @@
       </c>
     </row>
     <row r="56" spans="2:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B56" s="53"/>
+      <c r="B56" s="47"/>
       <c r="D56" s="2" t="s">
         <v>150</v>
       </c>
@@ -2917,7 +2917,7 @@
     </row>
     <row r="61" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B61" s="19" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C61" s="20" t="s">
         <v>66</v>
@@ -2937,7 +2937,7 @@
         <v>167</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="63" spans="2:6" x14ac:dyDescent="0.15">
@@ -3215,13 +3215,13 @@
     </row>
     <row r="90" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B90" s="7" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C90" s="3" t="s">
         <v>232</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="E90" s="3" t="s">
         <v>230</v>
@@ -3414,7 +3414,7 @@
     </row>
     <row r="110" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B110" s="7" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="C110" s="38" t="s">
         <v>39</v>
@@ -3428,7 +3428,7 @@
         <v>274</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>316</v>
+        <v>364</v>
       </c>
       <c r="E111" s="3" t="s">
         <v>275</v>
@@ -3436,7 +3436,7 @@
     </row>
     <row r="112" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D112" s="2" t="s">
-        <v>317</v>
+        <v>365</v>
       </c>
       <c r="E112" s="3" t="s">
         <v>279</v>
@@ -3444,7 +3444,7 @@
     </row>
     <row r="113" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D113" s="2" t="s">
-        <v>318</v>
+        <v>366</v>
       </c>
       <c r="E113" s="3" t="s">
         <v>276</v>
@@ -3470,12 +3470,12 @@
     </row>
     <row r="117" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D117" s="2" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="118" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D118" s="2" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="E118" s="3" t="s">
         <v>282</v>
@@ -3483,7 +3483,7 @@
     </row>
     <row r="119" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D119" s="2" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="E119" s="3" t="s">
         <v>283</v>
@@ -3491,7 +3491,7 @@
     </row>
     <row r="120" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D120" s="2" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="E120" s="3" t="s">
         <v>284</v>
@@ -3499,12 +3499,12 @@
     </row>
     <row r="121" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D121" s="2" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="122" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D122" s="2" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="E122" s="38" t="s">
         <v>286</v>
@@ -3520,7 +3520,7 @@
     </row>
     <row r="124" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B124" s="7" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C124" s="3" t="s">
         <v>293</v>
@@ -3603,117 +3603,117 @@
     </row>
     <row r="134" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B134" s="7" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
     <row r="135" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B135" s="7" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="136" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B136" s="7" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="137" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B137" s="7" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="138" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D138" s="2" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="E138" s="42"/>
     </row>
     <row r="139" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D139" s="2" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="E139" s="3" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
     </row>
     <row r="140" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D140" s="2" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="E140" s="3" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
     </row>
     <row r="141" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D141" s="2" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="E141" s="3" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
     </row>
     <row r="142" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D142" s="2" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="E142" s="3" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="143" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D143" s="2" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="E143" s="3" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="144" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D144" s="2" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="E144" s="3" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
     </row>
     <row r="145" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D145" s="2" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="E145" s="3" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
     </row>
     <row r="146" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D146" s="2" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="E146" s="3" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
     <row r="147" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D147" s="2" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="E147" s="3" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="148" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D148" s="2" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="E148" s="3" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
     <row r="149" spans="2:5" x14ac:dyDescent="0.15">
@@ -3721,7 +3721,7 @@
     </row>
     <row r="151" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B151" s="43" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="C151" s="44" t="s">
         <v>66</v>
@@ -3735,14 +3735,14 @@
     </row>
     <row r="152" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B152" s="43" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C152" s="44"/>
       <c r="D152" s="2" t="s">
         <v>167</v>
       </c>
       <c r="E152" s="44" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="153" spans="2:5" x14ac:dyDescent="0.15">
@@ -3757,7 +3757,7 @@
     </row>
     <row r="154" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B154" s="43" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C154" s="44" t="s">
         <v>66</v>
@@ -3766,30 +3766,42 @@
     </row>
     <row r="155" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B155" s="7" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
     </row>
     <row r="157" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B157" s="7" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C157" s="45" t="s">
         <v>66</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="E157" s="3" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
     </row>
     <row r="158" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B158" s="7" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="F3:F5"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="F37:F43"/>
+    <mergeCell ref="C37:C43"/>
+    <mergeCell ref="B37:B43"/>
     <mergeCell ref="B55:B56"/>
     <mergeCell ref="F30:F32"/>
     <mergeCell ref="B30:B32"/>
@@ -3806,18 +3818,6 @@
     <mergeCell ref="C22:C24"/>
     <mergeCell ref="F22:F24"/>
     <mergeCell ref="B11:B13"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="F37:F43"/>
-    <mergeCell ref="C37:C43"/>
-    <mergeCell ref="B37:B43"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="F3:F5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/文档/接口.xlsx
+++ b/文档/接口.xlsx
@@ -1430,10 +1430,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>api/ShopOrderApi/GetReturnOrders/{页数}/{订单状态}/{其他where条件}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>获取我的退货单</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1442,10 +1438,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>api/ShopOrderApi/GetReturnOrder/{订单id}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>api/CouponApi/GetMyCoupon/{优惠券状态}/{页数}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1471,6 +1463,14 @@
   </si>
   <si>
     <t>Description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/ShopOrderApi/GetReturnOrder/{退货单单id}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/ShopOrderApi/GetReturnOrders/{页数}/{退货单状态}/{其他where条件}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1675,18 +1675,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1697,22 +1707,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2100,8 +2100,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G158"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A96" workbookViewId="0">
-      <selection activeCell="D113" sqref="D113"/>
+    <sheetView tabSelected="1" topLeftCell="A141" workbookViewId="0">
+      <selection activeCell="B158" sqref="B158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2116,30 +2116,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B1" s="59" t="s">
+      <c r="B1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="60" t="s">
+      <c r="C1" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="58" t="s">
+      <c r="D1" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="58"/>
-      <c r="F1" s="60" t="s">
+      <c r="E1" s="46"/>
+      <c r="F1" s="48" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B2" s="59"/>
-      <c r="C2" s="60"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="48"/>
       <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="60"/>
+      <c r="F2" s="48"/>
       <c r="G2" s="2" t="s">
         <v>115</v>
       </c>
@@ -2157,7 +2157,7 @@
       <c r="E3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="61" t="s">
+      <c r="F3" s="51" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2257,7 +2257,7 @@
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B11" s="46" t="s">
+      <c r="B11" s="52" t="s">
         <v>144</v>
       </c>
       <c r="C11" s="50" t="s">
@@ -2282,7 +2282,7 @@
       <c r="F12" s="50"/>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B13" s="47"/>
+      <c r="B13" s="53"/>
       <c r="C13" s="11"/>
       <c r="D13" s="2" t="s">
         <v>125</v>
@@ -2310,10 +2310,10 @@
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B15" s="51" t="s">
+      <c r="B15" s="55" t="s">
         <v>170</v>
       </c>
-      <c r="C15" s="46" t="s">
+      <c r="C15" s="52" t="s">
         <v>39</v>
       </c>
       <c r="D15" s="2" t="s">
@@ -2322,12 +2322,12 @@
       <c r="E15" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="F15" s="46" t="s">
+      <c r="F15" s="52" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B16" s="52"/>
+      <c r="B16" s="56"/>
       <c r="C16" s="54"/>
       <c r="D16" s="2" t="s">
         <v>85</v>
@@ -2338,7 +2338,7 @@
       <c r="F16" s="54"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B17" s="52"/>
+      <c r="B17" s="56"/>
       <c r="C17" s="54"/>
       <c r="D17" s="2" t="s">
         <v>91</v>
@@ -2349,7 +2349,7 @@
       <c r="F17" s="54"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B18" s="52"/>
+      <c r="B18" s="56"/>
       <c r="C18" s="54"/>
       <c r="D18" s="2" t="s">
         <v>41</v>
@@ -2360,7 +2360,7 @@
       <c r="F18" s="54"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B19" s="52"/>
+      <c r="B19" s="56"/>
       <c r="C19" s="54"/>
       <c r="D19" s="2" t="s">
         <v>42</v>
@@ -2371,15 +2371,15 @@
       <c r="F19" s="54"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B20" s="53"/>
-      <c r="C20" s="47"/>
+      <c r="B20" s="57"/>
+      <c r="C20" s="53"/>
       <c r="D20" s="2" t="s">
         <v>43</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F20" s="47"/>
+      <c r="F20" s="53"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B21" s="7" t="s">
@@ -2399,10 +2399,10 @@
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B22" s="55" t="s">
+      <c r="B22" s="59" t="s">
         <v>106</v>
       </c>
-      <c r="C22" s="46" t="s">
+      <c r="C22" s="52" t="s">
         <v>50</v>
       </c>
       <c r="D22" s="2" t="s">
@@ -2411,12 +2411,12 @@
       <c r="E22" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="F22" s="46" t="s">
+      <c r="F22" s="52" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B23" s="56"/>
+      <c r="B23" s="60"/>
       <c r="C23" s="54"/>
       <c r="D23" s="2" t="s">
         <v>108</v>
@@ -2427,21 +2427,21 @@
       <c r="F23" s="54"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B24" s="57"/>
-      <c r="C24" s="47"/>
+      <c r="B24" s="61"/>
+      <c r="C24" s="53"/>
       <c r="D24" s="2" t="s">
         <v>209</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="F24" s="47"/>
+      <c r="F24" s="53"/>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B25" s="49" t="s">
         <v>101</v>
       </c>
-      <c r="C25" s="48" t="s">
+      <c r="C25" s="58" t="s">
         <v>50</v>
       </c>
       <c r="D25" s="2" t="s">
@@ -2450,59 +2450,59 @@
       <c r="E25" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="F25" s="48" t="s">
+      <c r="F25" s="58" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B26" s="49"/>
-      <c r="C26" s="48"/>
+      <c r="C26" s="58"/>
       <c r="D26" s="2" t="s">
         <v>103</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="F26" s="48"/>
+      <c r="F26" s="58"/>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B27" s="49"/>
-      <c r="C27" s="48"/>
+      <c r="C27" s="58"/>
       <c r="D27" s="2" t="s">
         <v>52</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F27" s="48"/>
+      <c r="F27" s="58"/>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B28" s="49"/>
-      <c r="C28" s="48"/>
+      <c r="C28" s="58"/>
       <c r="D28" s="2" t="s">
         <v>104</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="F28" s="48"/>
+      <c r="F28" s="58"/>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B29" s="49"/>
-      <c r="C29" s="48"/>
+      <c r="C29" s="58"/>
       <c r="D29" s="2" t="s">
         <v>105</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="F29" s="48"/>
+      <c r="F29" s="58"/>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B30" s="49" t="s">
         <v>182</v>
       </c>
-      <c r="C30" s="48" t="s">
+      <c r="C30" s="58" t="s">
         <v>50</v>
       </c>
       <c r="D30" s="2" t="s">
@@ -2511,31 +2511,31 @@
       <c r="E30" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="F30" s="48" t="s">
+      <c r="F30" s="58" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B31" s="49"/>
-      <c r="C31" s="48"/>
+      <c r="C31" s="58"/>
       <c r="D31" s="2" t="s">
         <v>110</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F31" s="48"/>
+      <c r="F31" s="58"/>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B32" s="49"/>
-      <c r="C32" s="48"/>
+      <c r="C32" s="58"/>
       <c r="D32" s="2" t="s">
         <v>111</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="F32" s="48"/>
+      <c r="F32" s="58"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B33" s="7" t="s">
@@ -2600,10 +2600,10 @@
       </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B37" s="51" t="s">
+      <c r="B37" s="55" t="s">
         <v>93</v>
       </c>
-      <c r="C37" s="46" t="s">
+      <c r="C37" s="52" t="s">
         <v>67</v>
       </c>
       <c r="D37" s="2" t="s">
@@ -2612,7 +2612,7 @@
       <c r="E37" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="F37" s="46" t="s">
+      <c r="F37" s="52" t="s">
         <v>65</v>
       </c>
       <c r="G37" s="2" t="s">
@@ -2620,7 +2620,7 @@
       </c>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B38" s="52"/>
+      <c r="B38" s="56"/>
       <c r="C38" s="54"/>
       <c r="D38" s="2" t="s">
         <v>95</v>
@@ -2634,7 +2634,7 @@
       </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B39" s="52"/>
+      <c r="B39" s="56"/>
       <c r="C39" s="54"/>
       <c r="D39" s="2" t="s">
         <v>96</v>
@@ -2648,7 +2648,7 @@
       </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B40" s="52"/>
+      <c r="B40" s="56"/>
       <c r="C40" s="54"/>
       <c r="D40" s="2" t="s">
         <v>97</v>
@@ -2662,7 +2662,7 @@
       </c>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B41" s="52"/>
+      <c r="B41" s="56"/>
       <c r="C41" s="54"/>
       <c r="D41" s="2" t="s">
         <v>98</v>
@@ -2673,7 +2673,7 @@
       <c r="F41" s="54"/>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B42" s="52"/>
+      <c r="B42" s="56"/>
       <c r="C42" s="54"/>
       <c r="D42" s="2" t="s">
         <v>100</v>
@@ -2684,9 +2684,9 @@
       <c r="F42" s="54"/>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B43" s="53"/>
-      <c r="C43" s="47"/>
-      <c r="F43" s="47"/>
+      <c r="B43" s="57"/>
+      <c r="C43" s="53"/>
+      <c r="F43" s="53"/>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B44" s="7" t="s">
@@ -2760,7 +2760,7 @@
       </c>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B49" s="46" t="s">
+      <c r="B49" s="52" t="s">
         <v>133</v>
       </c>
       <c r="C49" s="11" t="s">
@@ -2772,19 +2772,19 @@
       <c r="E49" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="F49" s="46" t="s">
+      <c r="F49" s="52" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B50" s="47"/>
+      <c r="B50" s="53"/>
       <c r="D50" s="2" t="s">
         <v>129</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="F50" s="47"/>
+      <c r="F50" s="53"/>
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B51" s="7" t="s">
@@ -2846,7 +2846,7 @@
       </c>
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B55" s="46" t="s">
+      <c r="B55" s="52" t="s">
         <v>162</v>
       </c>
       <c r="D55" s="2" t="s">
@@ -2857,7 +2857,7 @@
       </c>
     </row>
     <row r="56" spans="2:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B56" s="47"/>
+      <c r="B56" s="53"/>
       <c r="D56" s="2" t="s">
         <v>150</v>
       </c>
@@ -3428,7 +3428,7 @@
         <v>274</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="E111" s="3" t="s">
         <v>275</v>
@@ -3436,7 +3436,7 @@
     </row>
     <row r="112" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D112" s="2" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="E112" s="3" t="s">
         <v>279</v>
@@ -3444,7 +3444,7 @@
     </row>
     <row r="113" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D113" s="2" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="E113" s="3" t="s">
         <v>276</v>
@@ -3721,7 +3721,7 @@
     </row>
     <row r="151" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B151" s="43" t="s">
-        <v>356</v>
+        <v>366</v>
       </c>
       <c r="C151" s="44" t="s">
         <v>66</v>
@@ -3735,7 +3735,7 @@
     </row>
     <row r="152" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B152" s="43" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C152" s="44"/>
       <c r="D152" s="2" t="s">
@@ -3757,7 +3757,7 @@
     </row>
     <row r="154" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B154" s="43" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="C154" s="44" t="s">
         <v>66</v>
@@ -3766,42 +3766,30 @@
     </row>
     <row r="155" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B155" s="7" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="157" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B157" s="7" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C157" s="45" t="s">
         <v>66</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E157" s="3" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="158" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B158" s="7" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="F3:F5"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="F37:F43"/>
-    <mergeCell ref="C37:C43"/>
-    <mergeCell ref="B37:B43"/>
     <mergeCell ref="B55:B56"/>
     <mergeCell ref="F30:F32"/>
     <mergeCell ref="B30:B32"/>
@@ -3818,6 +3806,18 @@
     <mergeCell ref="C22:C24"/>
     <mergeCell ref="F22:F24"/>
     <mergeCell ref="B11:B13"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="F37:F43"/>
+    <mergeCell ref="C37:C43"/>
+    <mergeCell ref="B37:B43"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="F3:F5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/文档/接口.xlsx
+++ b/文档/接口.xlsx
@@ -1675,28 +1675,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1707,12 +1697,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2100,8 +2100,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G158"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A141" workbookViewId="0">
-      <selection activeCell="B158" sqref="B158"/>
+    <sheetView tabSelected="1" topLeftCell="A144" workbookViewId="0">
+      <selection activeCell="B151" sqref="B151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2116,30 +2116,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="48" t="s">
+      <c r="C1" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="46" t="s">
+      <c r="D1" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="46"/>
-      <c r="F1" s="48" t="s">
+      <c r="E1" s="58"/>
+      <c r="F1" s="60" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B2" s="47"/>
-      <c r="C2" s="48"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="60"/>
       <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="48"/>
+      <c r="F2" s="60"/>
       <c r="G2" s="2" t="s">
         <v>115</v>
       </c>
@@ -2157,7 +2157,7 @@
       <c r="E3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="51" t="s">
+      <c r="F3" s="61" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2257,7 +2257,7 @@
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B11" s="52" t="s">
+      <c r="B11" s="46" t="s">
         <v>144</v>
       </c>
       <c r="C11" s="50" t="s">
@@ -2282,7 +2282,7 @@
       <c r="F12" s="50"/>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B13" s="53"/>
+      <c r="B13" s="47"/>
       <c r="C13" s="11"/>
       <c r="D13" s="2" t="s">
         <v>125</v>
@@ -2310,10 +2310,10 @@
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B15" s="55" t="s">
+      <c r="B15" s="51" t="s">
         <v>170</v>
       </c>
-      <c r="C15" s="52" t="s">
+      <c r="C15" s="46" t="s">
         <v>39</v>
       </c>
       <c r="D15" s="2" t="s">
@@ -2322,12 +2322,12 @@
       <c r="E15" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="F15" s="52" t="s">
+      <c r="F15" s="46" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B16" s="56"/>
+      <c r="B16" s="52"/>
       <c r="C16" s="54"/>
       <c r="D16" s="2" t="s">
         <v>85</v>
@@ -2338,7 +2338,7 @@
       <c r="F16" s="54"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B17" s="56"/>
+      <c r="B17" s="52"/>
       <c r="C17" s="54"/>
       <c r="D17" s="2" t="s">
         <v>91</v>
@@ -2349,7 +2349,7 @@
       <c r="F17" s="54"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B18" s="56"/>
+      <c r="B18" s="52"/>
       <c r="C18" s="54"/>
       <c r="D18" s="2" t="s">
         <v>41</v>
@@ -2360,7 +2360,7 @@
       <c r="F18" s="54"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B19" s="56"/>
+      <c r="B19" s="52"/>
       <c r="C19" s="54"/>
       <c r="D19" s="2" t="s">
         <v>42</v>
@@ -2371,15 +2371,15 @@
       <c r="F19" s="54"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B20" s="57"/>
-      <c r="C20" s="53"/>
+      <c r="B20" s="53"/>
+      <c r="C20" s="47"/>
       <c r="D20" s="2" t="s">
         <v>43</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F20" s="53"/>
+      <c r="F20" s="47"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B21" s="7" t="s">
@@ -2399,10 +2399,10 @@
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B22" s="59" t="s">
+      <c r="B22" s="55" t="s">
         <v>106</v>
       </c>
-      <c r="C22" s="52" t="s">
+      <c r="C22" s="46" t="s">
         <v>50</v>
       </c>
       <c r="D22" s="2" t="s">
@@ -2411,12 +2411,12 @@
       <c r="E22" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="F22" s="52" t="s">
+      <c r="F22" s="46" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B23" s="60"/>
+      <c r="B23" s="56"/>
       <c r="C23" s="54"/>
       <c r="D23" s="2" t="s">
         <v>108</v>
@@ -2427,21 +2427,21 @@
       <c r="F23" s="54"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B24" s="61"/>
-      <c r="C24" s="53"/>
+      <c r="B24" s="57"/>
+      <c r="C24" s="47"/>
       <c r="D24" s="2" t="s">
         <v>209</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="F24" s="53"/>
+      <c r="F24" s="47"/>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B25" s="49" t="s">
         <v>101</v>
       </c>
-      <c r="C25" s="58" t="s">
+      <c r="C25" s="48" t="s">
         <v>50</v>
       </c>
       <c r="D25" s="2" t="s">
@@ -2450,59 +2450,59 @@
       <c r="E25" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="F25" s="58" t="s">
+      <c r="F25" s="48" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B26" s="49"/>
-      <c r="C26" s="58"/>
+      <c r="C26" s="48"/>
       <c r="D26" s="2" t="s">
         <v>103</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="F26" s="58"/>
+      <c r="F26" s="48"/>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B27" s="49"/>
-      <c r="C27" s="58"/>
+      <c r="C27" s="48"/>
       <c r="D27" s="2" t="s">
         <v>52</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F27" s="58"/>
+      <c r="F27" s="48"/>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B28" s="49"/>
-      <c r="C28" s="58"/>
+      <c r="C28" s="48"/>
       <c r="D28" s="2" t="s">
         <v>104</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="F28" s="58"/>
+      <c r="F28" s="48"/>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B29" s="49"/>
-      <c r="C29" s="58"/>
+      <c r="C29" s="48"/>
       <c r="D29" s="2" t="s">
         <v>105</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="F29" s="58"/>
+      <c r="F29" s="48"/>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B30" s="49" t="s">
         <v>182</v>
       </c>
-      <c r="C30" s="58" t="s">
+      <c r="C30" s="48" t="s">
         <v>50</v>
       </c>
       <c r="D30" s="2" t="s">
@@ -2511,31 +2511,31 @@
       <c r="E30" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="F30" s="58" t="s">
+      <c r="F30" s="48" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B31" s="49"/>
-      <c r="C31" s="58"/>
+      <c r="C31" s="48"/>
       <c r="D31" s="2" t="s">
         <v>110</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F31" s="58"/>
+      <c r="F31" s="48"/>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B32" s="49"/>
-      <c r="C32" s="58"/>
+      <c r="C32" s="48"/>
       <c r="D32" s="2" t="s">
         <v>111</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="F32" s="58"/>
+      <c r="F32" s="48"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B33" s="7" t="s">
@@ -2600,10 +2600,10 @@
       </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B37" s="55" t="s">
+      <c r="B37" s="51" t="s">
         <v>93</v>
       </c>
-      <c r="C37" s="52" t="s">
+      <c r="C37" s="46" t="s">
         <v>67</v>
       </c>
       <c r="D37" s="2" t="s">
@@ -2612,7 +2612,7 @@
       <c r="E37" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="F37" s="52" t="s">
+      <c r="F37" s="46" t="s">
         <v>65</v>
       </c>
       <c r="G37" s="2" t="s">
@@ -2620,7 +2620,7 @@
       </c>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B38" s="56"/>
+      <c r="B38" s="52"/>
       <c r="C38" s="54"/>
       <c r="D38" s="2" t="s">
         <v>95</v>
@@ -2634,7 +2634,7 @@
       </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B39" s="56"/>
+      <c r="B39" s="52"/>
       <c r="C39" s="54"/>
       <c r="D39" s="2" t="s">
         <v>96</v>
@@ -2648,7 +2648,7 @@
       </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B40" s="56"/>
+      <c r="B40" s="52"/>
       <c r="C40" s="54"/>
       <c r="D40" s="2" t="s">
         <v>97</v>
@@ -2662,7 +2662,7 @@
       </c>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B41" s="56"/>
+      <c r="B41" s="52"/>
       <c r="C41" s="54"/>
       <c r="D41" s="2" t="s">
         <v>98</v>
@@ -2673,7 +2673,7 @@
       <c r="F41" s="54"/>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B42" s="56"/>
+      <c r="B42" s="52"/>
       <c r="C42" s="54"/>
       <c r="D42" s="2" t="s">
         <v>100</v>
@@ -2684,9 +2684,9 @@
       <c r="F42" s="54"/>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B43" s="57"/>
-      <c r="C43" s="53"/>
-      <c r="F43" s="53"/>
+      <c r="B43" s="53"/>
+      <c r="C43" s="47"/>
+      <c r="F43" s="47"/>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B44" s="7" t="s">
@@ -2760,7 +2760,7 @@
       </c>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B49" s="52" t="s">
+      <c r="B49" s="46" t="s">
         <v>133</v>
       </c>
       <c r="C49" s="11" t="s">
@@ -2772,19 +2772,19 @@
       <c r="E49" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="F49" s="52" t="s">
+      <c r="F49" s="46" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B50" s="53"/>
+      <c r="B50" s="47"/>
       <c r="D50" s="2" t="s">
         <v>129</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="F50" s="53"/>
+      <c r="F50" s="47"/>
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B51" s="7" t="s">
@@ -2846,7 +2846,7 @@
       </c>
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B55" s="52" t="s">
+      <c r="B55" s="46" t="s">
         <v>162</v>
       </c>
       <c r="D55" s="2" t="s">
@@ -2857,7 +2857,7 @@
       </c>
     </row>
     <row r="56" spans="2:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B56" s="53"/>
+      <c r="B56" s="47"/>
       <c r="D56" s="2" t="s">
         <v>150</v>
       </c>
@@ -3790,6 +3790,18 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="F3:F5"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="F37:F43"/>
+    <mergeCell ref="C37:C43"/>
+    <mergeCell ref="B37:B43"/>
     <mergeCell ref="B55:B56"/>
     <mergeCell ref="F30:F32"/>
     <mergeCell ref="B30:B32"/>
@@ -3806,18 +3818,6 @@
     <mergeCell ref="C22:C24"/>
     <mergeCell ref="F22:F24"/>
     <mergeCell ref="B11:B13"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="F37:F43"/>
-    <mergeCell ref="C37:C43"/>
-    <mergeCell ref="B37:B43"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="F3:F5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/文档/接口.xlsx
+++ b/文档/接口.xlsx
@@ -1072,405 +1072,405 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>pageIndex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0查所有，1查待评论的，2.查已评论的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 空查所有，非空查当前订单下所有商品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>页数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0：取消失败 1:直接取消成功，2：提交了取消申请，需要人工处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>code=1和2的描述文字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/ShopOrderApi/CancleOrder/订单id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>退货单接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原订单ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>退货原因</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ImageUrlID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瑕疵图片（先空着，先不处理）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>退货类型0 整单退 1 部分退</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非整单退额外参数(是个集合)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JSON格式是 OrderItems:{属性名：值}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品SKUID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求退回数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>传递参数说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>退货单ID</t>
+  </si>
+  <si>
+    <t>Msg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>评论时 检测是否增加会员积分或其他奖励</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取订单状态变更记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/userapi/GetMySelf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>post</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改个人信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Email</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NickyName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Signature</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Birthday</t>
+  </si>
+  <si>
+    <t>Sex</t>
+  </si>
+  <si>
+    <t>ContactPhone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,1,2 =》保密,男,女 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不可空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>昵称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个性签名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生日   yyyy-MM-dd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/ShopOrderApi/PayOrder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/ShopOrderApi/Delete/{订单id}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除订单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>评价等级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>评论等级（0无 1差评 2中评，3好评）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空查全部（0全部 1差评 2中评，3好评）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字符串格式是 OrderItems[0].属性名1&amp;OrderItems[0].属性名2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProductId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RequestQuantity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKUID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不传递 或-1 是查所有状态（多个状态用英文逗号号分割）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回值说明，都在data里</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReturnOrderID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/userapi/ModifyInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/userapi/LogOut</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注销账户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据订单获取可退商品列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单ID</t>
+  </si>
+  <si>
+    <t>返回参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OrderID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProductID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProductSKU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProductName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProductThumb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReturnCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CanReturnCount</t>
+  </si>
+  <si>
+    <t>明细ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品skuID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图像</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已退回数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可退回数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/ShopOrderApi/GetOrders/{页数}/{订单状态}/{其他where条件}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取我的退货单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看某个退货单的详情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">获取我的优惠券 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1未使用 2 已使用 3 已过期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/ShopOrderApi/GetReturnOrder/{退货单单id}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/ShopOrderApi/GetReturnOrders/{页数}/{退货单状态}/{其他where条件}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/CouponApi/GetMyCoupon/{优惠券状态}/{页数}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/ShopOrderApi/GetCanReturnDetail/{订单ID}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/ShopCommentApi/GetCommentProduct</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>state</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>pageIndex</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0查所有，1查待评论的，2.查已评论的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 空查所有，非空查当前订单下所有商品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>页数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参数说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0：取消失败 1:直接取消成功，2：提交了取消申请，需要人工处理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>code=1和2的描述文字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>api/ShopOrderApi/CancleOrder/订单id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>退货单接口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>原订单ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>退货原因</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ImageUrlID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>瑕疵图片（先空着，先不处理）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>退货类型0 整单退 1 部分退</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>非整单退额外参数(是个集合)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JSON格式是 OrderItems:{属性名：值}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品SKUID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>请求退回数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>传递参数说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>退货单ID</t>
-  </si>
-  <si>
-    <t>Msg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>描述信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>评论时 检测是否增加会员积分或其他奖励</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>api/ShopCommentApi/GetCommentProduct</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取订单状态变更记录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>api/userapi/GetMySelf</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>post</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改个人信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Email</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NickyName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Signature</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Birthday</t>
-  </si>
-  <si>
-    <t>Sex</t>
-  </si>
-  <si>
-    <t>ContactPhone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,1,2 =》保密,男,女 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不可空</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>手机号码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>姓名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>邮箱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>昵称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>个性签名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>生日   yyyy-MM-dd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>api/ShopOrderApi/PayOrder</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>api/ShopOrderApi/Delete/{订单id}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除订单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>评价等级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>评论等级（0无 1差评 2中评，3好评）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>空查全部（0全部 1差评 2中评，3好评）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字符串格式是 OrderItems[0].属性名1&amp;OrderItems[0].属性名2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ProductId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RequestQuantity</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SKUID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不传递 或-1 是查所有状态（多个状态用英文逗号号分割）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回值说明，都在data里</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ReturnOrderID</t>
+    <t>api/ShopCommentApi/get</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OrderId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReturnType</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>api/ShopOrderApi/ReturnOrder</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>api/userapi/ModifyInfo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>api/userapi/LogOut</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>注销账户</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无参数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>api/ShopCommentApi/get</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>api/ShopOrderApi/GetCanReturnDetail/{订单ID}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>根据订单获取可退商品列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>订单ID</t>
-  </si>
-  <si>
-    <t>返回参数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OrderID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ProductID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ProductSKU</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ProductName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Count</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Price</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ProductThumb</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ReturnCount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CanReturnCount</t>
-  </si>
-  <si>
-    <t>明细ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>订单ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品skuID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>购买数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单价</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>图像</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已退回数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可退回数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>api/ShopOrderApi/GetOrders/{页数}/{订单状态}/{其他where条件}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取我的退货单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看某个退货单的详情</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>api/CouponApi/GetMyCoupon/{优惠券状态}/{页数}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">获取我的优惠券 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1未使用 2 已使用 3 已过期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OrderId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ReturnType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Description</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>api/ShopOrderApi/GetReturnOrder/{退货单单id}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>api/ShopOrderApi/GetReturnOrders/{页数}/{退货单状态}/{其他where条件}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1675,18 +1675,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1697,22 +1707,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2100,8 +2100,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G158"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A144" workbookViewId="0">
-      <selection activeCell="B151" sqref="B151"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2116,30 +2116,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B1" s="59" t="s">
+      <c r="B1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="60" t="s">
+      <c r="C1" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="58" t="s">
+      <c r="D1" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="58"/>
-      <c r="F1" s="60" t="s">
+      <c r="E1" s="46"/>
+      <c r="F1" s="48" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B2" s="59"/>
-      <c r="C2" s="60"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="48"/>
       <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="60"/>
+      <c r="F2" s="48"/>
       <c r="G2" s="2" t="s">
         <v>115</v>
       </c>
@@ -2157,7 +2157,7 @@
       <c r="E3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="61" t="s">
+      <c r="F3" s="51" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2257,7 +2257,7 @@
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B11" s="46" t="s">
+      <c r="B11" s="52" t="s">
         <v>144</v>
       </c>
       <c r="C11" s="50" t="s">
@@ -2282,7 +2282,7 @@
       <c r="F12" s="50"/>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B13" s="47"/>
+      <c r="B13" s="53"/>
       <c r="C13" s="11"/>
       <c r="D13" s="2" t="s">
         <v>125</v>
@@ -2310,10 +2310,10 @@
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B15" s="51" t="s">
+      <c r="B15" s="55" t="s">
         <v>170</v>
       </c>
-      <c r="C15" s="46" t="s">
+      <c r="C15" s="52" t="s">
         <v>39</v>
       </c>
       <c r="D15" s="2" t="s">
@@ -2322,12 +2322,12 @@
       <c r="E15" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="F15" s="46" t="s">
+      <c r="F15" s="52" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B16" s="52"/>
+      <c r="B16" s="56"/>
       <c r="C16" s="54"/>
       <c r="D16" s="2" t="s">
         <v>85</v>
@@ -2338,7 +2338,7 @@
       <c r="F16" s="54"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B17" s="52"/>
+      <c r="B17" s="56"/>
       <c r="C17" s="54"/>
       <c r="D17" s="2" t="s">
         <v>91</v>
@@ -2349,7 +2349,7 @@
       <c r="F17" s="54"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B18" s="52"/>
+      <c r="B18" s="56"/>
       <c r="C18" s="54"/>
       <c r="D18" s="2" t="s">
         <v>41</v>
@@ -2360,7 +2360,7 @@
       <c r="F18" s="54"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B19" s="52"/>
+      <c r="B19" s="56"/>
       <c r="C19" s="54"/>
       <c r="D19" s="2" t="s">
         <v>42</v>
@@ -2371,15 +2371,15 @@
       <c r="F19" s="54"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B20" s="53"/>
-      <c r="C20" s="47"/>
+      <c r="B20" s="57"/>
+      <c r="C20" s="53"/>
       <c r="D20" s="2" t="s">
         <v>43</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F20" s="47"/>
+      <c r="F20" s="53"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B21" s="7" t="s">
@@ -2399,10 +2399,10 @@
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B22" s="55" t="s">
+      <c r="B22" s="59" t="s">
         <v>106</v>
       </c>
-      <c r="C22" s="46" t="s">
+      <c r="C22" s="52" t="s">
         <v>50</v>
       </c>
       <c r="D22" s="2" t="s">
@@ -2411,12 +2411,12 @@
       <c r="E22" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="F22" s="46" t="s">
+      <c r="F22" s="52" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B23" s="56"/>
+      <c r="B23" s="60"/>
       <c r="C23" s="54"/>
       <c r="D23" s="2" t="s">
         <v>108</v>
@@ -2427,21 +2427,21 @@
       <c r="F23" s="54"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B24" s="57"/>
-      <c r="C24" s="47"/>
+      <c r="B24" s="61"/>
+      <c r="C24" s="53"/>
       <c r="D24" s="2" t="s">
         <v>209</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="F24" s="47"/>
+      <c r="F24" s="53"/>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B25" s="49" t="s">
         <v>101</v>
       </c>
-      <c r="C25" s="48" t="s">
+      <c r="C25" s="58" t="s">
         <v>50</v>
       </c>
       <c r="D25" s="2" t="s">
@@ -2450,59 +2450,59 @@
       <c r="E25" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="F25" s="48" t="s">
+      <c r="F25" s="58" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B26" s="49"/>
-      <c r="C26" s="48"/>
+      <c r="C26" s="58"/>
       <c r="D26" s="2" t="s">
         <v>103</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="F26" s="48"/>
+      <c r="F26" s="58"/>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B27" s="49"/>
-      <c r="C27" s="48"/>
+      <c r="C27" s="58"/>
       <c r="D27" s="2" t="s">
         <v>52</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F27" s="48"/>
+      <c r="F27" s="58"/>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B28" s="49"/>
-      <c r="C28" s="48"/>
+      <c r="C28" s="58"/>
       <c r="D28" s="2" t="s">
         <v>104</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="F28" s="48"/>
+      <c r="F28" s="58"/>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B29" s="49"/>
-      <c r="C29" s="48"/>
+      <c r="C29" s="58"/>
       <c r="D29" s="2" t="s">
         <v>105</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="F29" s="48"/>
+      <c r="F29" s="58"/>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B30" s="49" t="s">
         <v>182</v>
       </c>
-      <c r="C30" s="48" t="s">
+      <c r="C30" s="58" t="s">
         <v>50</v>
       </c>
       <c r="D30" s="2" t="s">
@@ -2511,31 +2511,31 @@
       <c r="E30" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="F30" s="48" t="s">
+      <c r="F30" s="58" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B31" s="49"/>
-      <c r="C31" s="48"/>
+      <c r="C31" s="58"/>
       <c r="D31" s="2" t="s">
         <v>110</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F31" s="48"/>
+      <c r="F31" s="58"/>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B32" s="49"/>
-      <c r="C32" s="48"/>
+      <c r="C32" s="58"/>
       <c r="D32" s="2" t="s">
         <v>111</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="F32" s="48"/>
+      <c r="F32" s="58"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B33" s="7" t="s">
@@ -2600,10 +2600,10 @@
       </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B37" s="51" t="s">
+      <c r="B37" s="55" t="s">
         <v>93</v>
       </c>
-      <c r="C37" s="46" t="s">
+      <c r="C37" s="52" t="s">
         <v>67</v>
       </c>
       <c r="D37" s="2" t="s">
@@ -2612,7 +2612,7 @@
       <c r="E37" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="F37" s="46" t="s">
+      <c r="F37" s="52" t="s">
         <v>65</v>
       </c>
       <c r="G37" s="2" t="s">
@@ -2620,7 +2620,7 @@
       </c>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B38" s="52"/>
+      <c r="B38" s="56"/>
       <c r="C38" s="54"/>
       <c r="D38" s="2" t="s">
         <v>95</v>
@@ -2634,7 +2634,7 @@
       </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B39" s="52"/>
+      <c r="B39" s="56"/>
       <c r="C39" s="54"/>
       <c r="D39" s="2" t="s">
         <v>96</v>
@@ -2648,7 +2648,7 @@
       </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B40" s="52"/>
+      <c r="B40" s="56"/>
       <c r="C40" s="54"/>
       <c r="D40" s="2" t="s">
         <v>97</v>
@@ -2662,7 +2662,7 @@
       </c>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B41" s="52"/>
+      <c r="B41" s="56"/>
       <c r="C41" s="54"/>
       <c r="D41" s="2" t="s">
         <v>98</v>
@@ -2673,7 +2673,7 @@
       <c r="F41" s="54"/>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B42" s="52"/>
+      <c r="B42" s="56"/>
       <c r="C42" s="54"/>
       <c r="D42" s="2" t="s">
         <v>100</v>
@@ -2684,9 +2684,9 @@
       <c r="F42" s="54"/>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B43" s="53"/>
-      <c r="C43" s="47"/>
-      <c r="F43" s="47"/>
+      <c r="B43" s="57"/>
+      <c r="C43" s="53"/>
+      <c r="F43" s="53"/>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B44" s="7" t="s">
@@ -2760,7 +2760,7 @@
       </c>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B49" s="46" t="s">
+      <c r="B49" s="52" t="s">
         <v>133</v>
       </c>
       <c r="C49" s="11" t="s">
@@ -2772,19 +2772,19 @@
       <c r="E49" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="F49" s="46" t="s">
+      <c r="F49" s="52" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B50" s="47"/>
+      <c r="B50" s="53"/>
       <c r="D50" s="2" t="s">
         <v>129</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="F50" s="47"/>
+      <c r="F50" s="53"/>
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B51" s="7" t="s">
@@ -2846,7 +2846,7 @@
       </c>
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B55" s="46" t="s">
+      <c r="B55" s="52" t="s">
         <v>162</v>
       </c>
       <c r="D55" s="2" t="s">
@@ -2857,7 +2857,7 @@
       </c>
     </row>
     <row r="56" spans="2:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B56" s="47"/>
+      <c r="B56" s="53"/>
       <c r="D56" s="2" t="s">
         <v>150</v>
       </c>
@@ -2917,7 +2917,7 @@
     </row>
     <row r="61" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B61" s="19" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="C61" s="20" t="s">
         <v>66</v>
@@ -2937,7 +2937,7 @@
         <v>167</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="63" spans="2:6" x14ac:dyDescent="0.15">
@@ -2970,7 +2970,7 @@
         <v>173</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="66" spans="2:6" x14ac:dyDescent="0.15">
@@ -3007,7 +3007,7 @@
     </row>
     <row r="70" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B70" s="22" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C70" s="3" t="s">
         <v>172</v>
@@ -3054,7 +3054,7 @@
     </row>
     <row r="74" spans="2:6" ht="27" x14ac:dyDescent="0.15">
       <c r="B74" s="23" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C74" s="24" t="s">
         <v>153</v>
@@ -3215,13 +3215,13 @@
     </row>
     <row r="90" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B90" s="7" t="s">
-        <v>328</v>
+        <v>363</v>
       </c>
       <c r="C90" s="3" t="s">
         <v>232</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="E90" s="3" t="s">
         <v>230</v>
@@ -3242,10 +3242,10 @@
       <c r="B92" s="33"/>
       <c r="C92" s="34"/>
       <c r="D92" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="E92" s="34" t="s">
         <v>313</v>
-      </c>
-      <c r="E92" s="34" t="s">
-        <v>315</v>
       </c>
       <c r="F92" s="34"/>
     </row>
@@ -3297,7 +3297,7 @@
         <v>260</v>
       </c>
       <c r="E97" s="34" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="F97" s="34"/>
     </row>
@@ -3314,7 +3314,7 @@
     </row>
     <row r="99" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B99" s="7" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C99" s="29" t="s">
         <v>232</v>
@@ -3341,7 +3341,7 @@
         <v>248</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="103" spans="2:6" x14ac:dyDescent="0.15">
@@ -3349,7 +3349,7 @@
         <v>249</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="104" spans="2:6" x14ac:dyDescent="0.15">
@@ -3373,13 +3373,13 @@
     </row>
     <row r="106" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B106" s="7" t="s">
-        <v>290</v>
+        <v>361</v>
       </c>
       <c r="C106" s="39" t="s">
         <v>39</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="107" spans="2:6" x14ac:dyDescent="0.15">
@@ -3387,333 +3387,333 @@
         <v>264</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>265</v>
+        <v>362</v>
       </c>
       <c r="E107" s="39" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="108" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D108" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="109" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B109" s="39" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D109" s="2" t="s">
         <v>239</v>
       </c>
       <c r="E109" s="39" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="110" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B110" s="7" t="s">
-        <v>323</v>
+        <v>366</v>
       </c>
       <c r="C110" s="38" t="s">
         <v>39</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="111" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B111" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="E111" s="3" t="s">
         <v>274</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="E111" s="3" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="112" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D112" s="2" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="113" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D113" s="2" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="E113" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="114" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D114" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="E114" s="3" t="s">
         <v>277</v>
-      </c>
-      <c r="E114" s="3" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="115" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D115" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="116" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D116" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="117" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D117" s="2" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="118" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D118" s="2" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="E118" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="119" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D119" s="2" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E119" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="120" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D120" s="2" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="E120" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="121" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D121" s="2" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="122" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D122" s="2" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="E122" s="38" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="123" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D123" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="E123" s="3" t="s">
         <v>287</v>
-      </c>
-      <c r="E123" s="3" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="124" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B124" s="7" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="125" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B125" s="7" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C125" s="41" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E125" s="3" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="126" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C126" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="E126" s="3" t="s">
         <v>303</v>
-      </c>
-      <c r="D126" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="E126" s="3" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="127" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D127" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E127" s="3" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="128" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D128" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E128" s="3" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="129" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D129" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E129" s="3" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="130" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D130" s="2" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="E130" s="3" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="131" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D131" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="E131" s="3" t="s">
         <v>300</v>
-      </c>
-      <c r="E131" s="3" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="132" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B132" s="40" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="133" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B133" s="7" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="134" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B134" s="7" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="135" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B135" s="7" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="136" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B136" s="7" t="s">
-        <v>330</v>
+        <v>360</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
     </row>
     <row r="137" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B137" s="7" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
     </row>
     <row r="138" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D138" s="2" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="E138" s="42"/>
     </row>
     <row r="139" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D139" s="2" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="E139" s="3" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
     </row>
     <row r="140" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D140" s="2" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="E140" s="3" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
     </row>
     <row r="141" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D141" s="2" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="E141" s="3" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
     </row>
     <row r="142" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D142" s="2" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="E142" s="3" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
     </row>
     <row r="143" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D143" s="2" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="E143" s="3" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
     </row>
     <row r="144" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D144" s="2" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="E144" s="3" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
     </row>
     <row r="145" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D145" s="2" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="E145" s="3" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
     </row>
     <row r="146" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D146" s="2" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="E146" s="3" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
     </row>
     <row r="147" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D147" s="2" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="E147" s="3" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
     </row>
     <row r="148" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D148" s="2" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="E148" s="3" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
     </row>
     <row r="149" spans="2:5" x14ac:dyDescent="0.15">
@@ -3721,7 +3721,7 @@
     </row>
     <row r="151" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B151" s="43" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="C151" s="44" t="s">
         <v>66</v>
@@ -3735,14 +3735,14 @@
     </row>
     <row r="152" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B152" s="43" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="C152" s="44"/>
       <c r="D152" s="2" t="s">
         <v>167</v>
       </c>
       <c r="E152" s="44" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="153" spans="2:5" x14ac:dyDescent="0.15">
@@ -3757,7 +3757,7 @@
     </row>
     <row r="154" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B154" s="43" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="C154" s="44" t="s">
         <v>66</v>
@@ -3766,42 +3766,30 @@
     </row>
     <row r="155" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B155" s="7" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
     </row>
     <row r="157" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B157" s="7" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C157" s="45" t="s">
         <v>66</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="E157" s="3" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
     </row>
     <row r="158" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B158" s="7" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="F3:F5"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="F37:F43"/>
-    <mergeCell ref="C37:C43"/>
-    <mergeCell ref="B37:B43"/>
     <mergeCell ref="B55:B56"/>
     <mergeCell ref="F30:F32"/>
     <mergeCell ref="B30:B32"/>
@@ -3818,6 +3806,18 @@
     <mergeCell ref="C22:C24"/>
     <mergeCell ref="F22:F24"/>
     <mergeCell ref="B11:B13"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="F37:F43"/>
+    <mergeCell ref="C37:C43"/>
+    <mergeCell ref="B37:B43"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="F3:F5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3838,7 +3838,7 @@
   <sheetData>
     <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
   </sheetData>

--- a/文档/接口.xlsx
+++ b/文档/接口.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="378">
   <si>
     <t>调用方式</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1471,6 +1471,52 @@
   </si>
   <si>
     <t>api/ShopOrderApi/ReturnOrder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/app/GetProductUrl/{商品ID}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取商品的详细信息的html 或者url   和视频连接url</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UrlStr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HtmlStr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VideoUrl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>详细信息的html 方式   html和url只能有一个有值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>详细信息的url 方式（后续可以考虑静态化处理）   html和url只能有一个有值 ，
+目前的使用方式是 判断该值是否为null或者空 如果是  则使用HtmlStr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 这个目前是个数组（最多三个），做的时候看看是数组好，还是字符串好用，
+如果是字符串，则可以规定好一个隔开方式，目前数据库是用 \r\n 隔开的</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1572,7 +1618,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1675,6 +1721,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1682,37 +1762,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2098,10 +2150,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G158"/>
+  <dimension ref="B1:G164"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="B57" sqref="B57"/>
+    <sheetView tabSelected="1" topLeftCell="A157" workbookViewId="0">
+      <selection activeCell="B160" sqref="B160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2109,46 +2161,46 @@
     <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="2" width="54.625" style="7" customWidth="1"/>
     <col min="3" max="3" width="9" style="3" customWidth="1"/>
-    <col min="4" max="4" width="42.125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="18.875" style="2" customWidth="1"/>
     <col min="5" max="5" width="36.875" style="3" customWidth="1"/>
     <col min="6" max="6" width="28" style="3" customWidth="1"/>
     <col min="7" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="48" t="s">
+      <c r="C1" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="46" t="s">
+      <c r="D1" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="46"/>
-      <c r="F1" s="48" t="s">
+      <c r="E1" s="60"/>
+      <c r="F1" s="62" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B2" s="47"/>
-      <c r="C2" s="48"/>
+      <c r="B2" s="61"/>
+      <c r="C2" s="62"/>
       <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="48"/>
+      <c r="F2" s="62"/>
       <c r="G2" s="2" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="3" spans="2:7" ht="94.5" x14ac:dyDescent="0.15">
-      <c r="B3" s="49" t="s">
+      <c r="B3" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="50" t="s">
+      <c r="C3" s="52" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -2157,31 +2209,31 @@
       <c r="E3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="51" t="s">
+      <c r="F3" s="63" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B4" s="49"/>
-      <c r="C4" s="50"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="52"/>
       <c r="D4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="50"/>
+      <c r="F4" s="52"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B5" s="49"/>
-      <c r="C5" s="50"/>
+      <c r="B5" s="51"/>
+      <c r="C5" s="52"/>
       <c r="D5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="50"/>
+      <c r="F5" s="52"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B6" s="7" t="s">
@@ -2257,32 +2309,32 @@
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B11" s="52" t="s">
+      <c r="B11" s="48" t="s">
         <v>144</v>
       </c>
-      <c r="C11" s="50" t="s">
+      <c r="C11" s="52" t="s">
         <v>18</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="50" t="s">
+      <c r="F11" s="52" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B12" s="54"/>
-      <c r="C12" s="50"/>
+      <c r="B12" s="56"/>
+      <c r="C12" s="52"/>
       <c r="D12" s="2" t="s">
         <v>127</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="F12" s="50"/>
+      <c r="F12" s="52"/>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B13" s="53"/>
+      <c r="B13" s="49"/>
       <c r="C13" s="11"/>
       <c r="D13" s="2" t="s">
         <v>125</v>
@@ -2310,10 +2362,10 @@
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B15" s="55" t="s">
+      <c r="B15" s="53" t="s">
         <v>170</v>
       </c>
-      <c r="C15" s="52" t="s">
+      <c r="C15" s="48" t="s">
         <v>39</v>
       </c>
       <c r="D15" s="2" t="s">
@@ -2322,64 +2374,64 @@
       <c r="E15" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="F15" s="52" t="s">
+      <c r="F15" s="48" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B16" s="56"/>
-      <c r="C16" s="54"/>
+      <c r="B16" s="54"/>
+      <c r="C16" s="56"/>
       <c r="D16" s="2" t="s">
         <v>85</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="F16" s="54"/>
+      <c r="F16" s="56"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B17" s="56"/>
-      <c r="C17" s="54"/>
+      <c r="B17" s="54"/>
+      <c r="C17" s="56"/>
       <c r="D17" s="2" t="s">
         <v>91</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="F17" s="54"/>
+      <c r="F17" s="56"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B18" s="56"/>
-      <c r="C18" s="54"/>
+      <c r="B18" s="54"/>
+      <c r="C18" s="56"/>
       <c r="D18" s="2" t="s">
         <v>41</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F18" s="54"/>
+      <c r="F18" s="56"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B19" s="56"/>
-      <c r="C19" s="54"/>
+      <c r="B19" s="54"/>
+      <c r="C19" s="56"/>
       <c r="D19" s="2" t="s">
         <v>42</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="F19" s="54"/>
+      <c r="F19" s="56"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B20" s="57"/>
-      <c r="C20" s="53"/>
+      <c r="B20" s="55"/>
+      <c r="C20" s="49"/>
       <c r="D20" s="2" t="s">
         <v>43</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F20" s="53"/>
+      <c r="F20" s="49"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B21" s="7" t="s">
@@ -2399,10 +2451,10 @@
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B22" s="59" t="s">
+      <c r="B22" s="57" t="s">
         <v>106</v>
       </c>
-      <c r="C22" s="52" t="s">
+      <c r="C22" s="48" t="s">
         <v>50</v>
       </c>
       <c r="D22" s="2" t="s">
@@ -2411,37 +2463,37 @@
       <c r="E22" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="F22" s="52" t="s">
+      <c r="F22" s="48" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B23" s="60"/>
-      <c r="C23" s="54"/>
+      <c r="B23" s="58"/>
+      <c r="C23" s="56"/>
       <c r="D23" s="2" t="s">
         <v>108</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="F23" s="54"/>
+      <c r="F23" s="56"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B24" s="61"/>
-      <c r="C24" s="53"/>
+      <c r="B24" s="59"/>
+      <c r="C24" s="49"/>
       <c r="D24" s="2" t="s">
         <v>209</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="F24" s="53"/>
+      <c r="F24" s="49"/>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B25" s="49" t="s">
+      <c r="B25" s="51" t="s">
         <v>101</v>
       </c>
-      <c r="C25" s="58" t="s">
+      <c r="C25" s="50" t="s">
         <v>50</v>
       </c>
       <c r="D25" s="2" t="s">
@@ -2450,59 +2502,59 @@
       <c r="E25" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="F25" s="58" t="s">
+      <c r="F25" s="50" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B26" s="49"/>
-      <c r="C26" s="58"/>
+      <c r="B26" s="51"/>
+      <c r="C26" s="50"/>
       <c r="D26" s="2" t="s">
         <v>103</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="F26" s="58"/>
+      <c r="F26" s="50"/>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B27" s="49"/>
-      <c r="C27" s="58"/>
+      <c r="B27" s="51"/>
+      <c r="C27" s="50"/>
       <c r="D27" s="2" t="s">
         <v>52</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F27" s="58"/>
+      <c r="F27" s="50"/>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B28" s="49"/>
-      <c r="C28" s="58"/>
+      <c r="B28" s="51"/>
+      <c r="C28" s="50"/>
       <c r="D28" s="2" t="s">
         <v>104</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="F28" s="58"/>
+      <c r="F28" s="50"/>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B29" s="49"/>
-      <c r="C29" s="58"/>
+      <c r="B29" s="51"/>
+      <c r="C29" s="50"/>
       <c r="D29" s="2" t="s">
         <v>105</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="F29" s="58"/>
+      <c r="F29" s="50"/>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B30" s="49" t="s">
+      <c r="B30" s="51" t="s">
         <v>182</v>
       </c>
-      <c r="C30" s="58" t="s">
+      <c r="C30" s="50" t="s">
         <v>50</v>
       </c>
       <c r="D30" s="2" t="s">
@@ -2511,31 +2563,31 @@
       <c r="E30" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="F30" s="58" t="s">
+      <c r="F30" s="50" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B31" s="49"/>
-      <c r="C31" s="58"/>
+      <c r="B31" s="51"/>
+      <c r="C31" s="50"/>
       <c r="D31" s="2" t="s">
         <v>110</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F31" s="58"/>
+      <c r="F31" s="50"/>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B32" s="49"/>
-      <c r="C32" s="58"/>
+      <c r="B32" s="51"/>
+      <c r="C32" s="50"/>
       <c r="D32" s="2" t="s">
         <v>111</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="F32" s="58"/>
+      <c r="F32" s="50"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B33" s="7" t="s">
@@ -2600,10 +2652,10 @@
       </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B37" s="55" t="s">
+      <c r="B37" s="53" t="s">
         <v>93</v>
       </c>
-      <c r="C37" s="52" t="s">
+      <c r="C37" s="48" t="s">
         <v>67</v>
       </c>
       <c r="D37" s="2" t="s">
@@ -2612,7 +2664,7 @@
       <c r="E37" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="F37" s="52" t="s">
+      <c r="F37" s="48" t="s">
         <v>65</v>
       </c>
       <c r="G37" s="2" t="s">
@@ -2620,73 +2672,73 @@
       </c>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B38" s="56"/>
-      <c r="C38" s="54"/>
+      <c r="B38" s="54"/>
+      <c r="C38" s="56"/>
       <c r="D38" s="2" t="s">
         <v>95</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="F38" s="54"/>
+      <c r="F38" s="56"/>
       <c r="G38" s="2" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B39" s="56"/>
-      <c r="C39" s="54"/>
+      <c r="B39" s="54"/>
+      <c r="C39" s="56"/>
       <c r="D39" s="2" t="s">
         <v>96</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="F39" s="54"/>
+      <c r="F39" s="56"/>
       <c r="G39" s="2" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B40" s="56"/>
-      <c r="C40" s="54"/>
+      <c r="B40" s="54"/>
+      <c r="C40" s="56"/>
       <c r="D40" s="2" t="s">
         <v>97</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="F40" s="54"/>
+      <c r="F40" s="56"/>
       <c r="G40" s="2" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B41" s="56"/>
-      <c r="C41" s="54"/>
+      <c r="B41" s="54"/>
+      <c r="C41" s="56"/>
       <c r="D41" s="2" t="s">
         <v>98</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="F41" s="54"/>
+      <c r="F41" s="56"/>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B42" s="56"/>
-      <c r="C42" s="54"/>
+      <c r="B42" s="54"/>
+      <c r="C42" s="56"/>
       <c r="D42" s="2" t="s">
         <v>100</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="F42" s="54"/>
+      <c r="F42" s="56"/>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B43" s="57"/>
-      <c r="C43" s="53"/>
-      <c r="F43" s="53"/>
+      <c r="B43" s="55"/>
+      <c r="C43" s="49"/>
+      <c r="F43" s="49"/>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B44" s="7" t="s">
@@ -2760,7 +2812,7 @@
       </c>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B49" s="52" t="s">
+      <c r="B49" s="48" t="s">
         <v>133</v>
       </c>
       <c r="C49" s="11" t="s">
@@ -2772,19 +2824,19 @@
       <c r="E49" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="F49" s="52" t="s">
+      <c r="F49" s="48" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B50" s="53"/>
+      <c r="B50" s="49"/>
       <c r="D50" s="2" t="s">
         <v>129</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="F50" s="53"/>
+      <c r="F50" s="49"/>
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B51" s="7" t="s">
@@ -2846,7 +2898,7 @@
       </c>
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B55" s="52" t="s">
+      <c r="B55" s="48" t="s">
         <v>162</v>
       </c>
       <c r="D55" s="2" t="s">
@@ -2857,7 +2909,7 @@
       </c>
     </row>
     <row r="56" spans="2:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B56" s="53"/>
+      <c r="B56" s="49"/>
       <c r="D56" s="2" t="s">
         <v>150</v>
       </c>
@@ -3788,8 +3840,66 @@
         <v>353</v>
       </c>
     </row>
+    <row r="160" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B160" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="C160" s="46" t="s">
+        <v>66</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="161" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B161" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="E161" s="3" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="162" spans="2:5" ht="54" x14ac:dyDescent="0.15">
+      <c r="D162" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="E162" s="47" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="163" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D163" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="E163" s="3" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="164" spans="2:5" ht="54" x14ac:dyDescent="0.15">
+      <c r="D164" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="E164" s="47" t="s">
+        <v>377</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="F3:F5"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="F37:F43"/>
+    <mergeCell ref="C37:C43"/>
+    <mergeCell ref="B37:B43"/>
     <mergeCell ref="B55:B56"/>
     <mergeCell ref="F30:F32"/>
     <mergeCell ref="B30:B32"/>
@@ -3806,18 +3916,6 @@
     <mergeCell ref="C22:C24"/>
     <mergeCell ref="F22:F24"/>
     <mergeCell ref="B11:B13"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="F37:F43"/>
-    <mergeCell ref="C37:C43"/>
-    <mergeCell ref="B37:B43"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="F3:F5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/文档/接口.xlsx
+++ b/文档/接口.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="397">
   <si>
     <t>调用方式</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -552,10 +552,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/api/app/GetRegistAgreement</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/api/app/GetGg/{商品ID}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1474,10 +1470,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/api/app/GetProductUrl/{商品ID}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>获取商品的详细信息的html 或者url   和视频连接url</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1517,6 +1509,91 @@
   <si>
     <t xml:space="preserve"> 这个目前是个数组（最多三个），做的时候看看是数组好，还是字符串好用，
 如果是字符串，则可以规定好一个隔开方式，目前数据库是用 \r\n 隔开的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/app/GetAbout</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/app/GetContact</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/app/GetBuyFlow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/app/GetReturnFlow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取关于我们</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取联系方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取购物指南</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取退货指南</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通用获取参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这几个接口都和
+返回用户注册协议一类的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/app/GetTravel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取旅游频道的设置信息，例如图标之类的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/app/GetTravleList/{页数}/{排序字段}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取旅游频道的旅游信息列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/app/GetRegistAgreement</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/app/GetPara/参数标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回参数说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这里返回的图片是视频的封面图片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/app/GetProductUrl/{商品ID}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VideoImg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>视频封面</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1618,7 +1695,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1727,19 +1804,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1749,21 +1840,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2150,15 +2234,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G164"/>
+  <dimension ref="A1:G177"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A157" workbookViewId="0">
-      <selection activeCell="B160" sqref="B160"/>
+      <selection activeCell="B162" sqref="B162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9" style="2"/>
+    <col min="1" max="1" width="17.5" style="2" customWidth="1"/>
     <col min="2" max="2" width="54.625" style="7" customWidth="1"/>
     <col min="3" max="3" width="9" style="3" customWidth="1"/>
     <col min="4" max="4" width="18.875" style="2" customWidth="1"/>
@@ -2168,39 +2252,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B1" s="61" t="s">
+      <c r="B1" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="62" t="s">
+      <c r="C1" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="60" t="s">
+      <c r="D1" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="60"/>
-      <c r="F1" s="62" t="s">
+      <c r="E1" s="50"/>
+      <c r="F1" s="52" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B2" s="61"/>
-      <c r="C2" s="62"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="52"/>
       <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="62"/>
+      <c r="F2" s="52"/>
       <c r="G2" s="2" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="3" spans="2:7" ht="94.5" x14ac:dyDescent="0.15">
-      <c r="B3" s="51" t="s">
+      <c r="B3" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="52" t="s">
+      <c r="C3" s="54" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -2209,35 +2293,35 @@
       <c r="E3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="63" t="s">
+      <c r="F3" s="55" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B4" s="51"/>
-      <c r="C4" s="52"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="54"/>
       <c r="D4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="52"/>
+      <c r="F4" s="54"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B5" s="51"/>
-      <c r="C5" s="52"/>
+      <c r="B5" s="53"/>
+      <c r="C5" s="54"/>
       <c r="D5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="52"/>
+      <c r="F5" s="54"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B6" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>19</v>
@@ -2296,7 +2380,7 @@
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B10" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>19</v>
@@ -2309,32 +2393,32 @@
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B11" s="48" t="s">
-        <v>144</v>
-      </c>
-      <c r="C11" s="52" t="s">
+      <c r="B11" s="56" t="s">
+        <v>143</v>
+      </c>
+      <c r="C11" s="54" t="s">
         <v>18</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="52" t="s">
+      <c r="F11" s="54" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B12" s="56"/>
-      <c r="C12" s="52"/>
+      <c r="B12" s="58"/>
+      <c r="C12" s="54"/>
       <c r="D12" s="2" t="s">
         <v>127</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="F12" s="52"/>
+      <c r="F12" s="54"/>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B13" s="49"/>
+      <c r="B13" s="57"/>
       <c r="C13" s="11"/>
       <c r="D13" s="2" t="s">
         <v>125</v>
@@ -2362,10 +2446,10 @@
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B15" s="53" t="s">
-        <v>170</v>
-      </c>
-      <c r="C15" s="48" t="s">
+      <c r="B15" s="59" t="s">
+        <v>169</v>
+      </c>
+      <c r="C15" s="56" t="s">
         <v>39</v>
       </c>
       <c r="D15" s="2" t="s">
@@ -2374,64 +2458,64 @@
       <c r="E15" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="F15" s="48" t="s">
+      <c r="F15" s="56" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B16" s="54"/>
-      <c r="C16" s="56"/>
+      <c r="B16" s="60"/>
+      <c r="C16" s="58"/>
       <c r="D16" s="2" t="s">
         <v>85</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="F16" s="56"/>
+      <c r="F16" s="58"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B17" s="54"/>
-      <c r="C17" s="56"/>
+      <c r="B17" s="60"/>
+      <c r="C17" s="58"/>
       <c r="D17" s="2" t="s">
         <v>91</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="F17" s="56"/>
+      <c r="F17" s="58"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B18" s="54"/>
-      <c r="C18" s="56"/>
+      <c r="B18" s="60"/>
+      <c r="C18" s="58"/>
       <c r="D18" s="2" t="s">
         <v>41</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F18" s="56"/>
+      <c r="F18" s="58"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B19" s="54"/>
-      <c r="C19" s="56"/>
+      <c r="B19" s="60"/>
+      <c r="C19" s="58"/>
       <c r="D19" s="2" t="s">
         <v>42</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="F19" s="56"/>
+      <c r="F19" s="58"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B20" s="55"/>
-      <c r="C20" s="49"/>
+      <c r="B20" s="61"/>
+      <c r="C20" s="57"/>
       <c r="D20" s="2" t="s">
         <v>43</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F20" s="49"/>
+      <c r="F20" s="57"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B21" s="7" t="s">
@@ -2451,10 +2535,10 @@
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B22" s="57" t="s">
+      <c r="B22" s="63" t="s">
         <v>106</v>
       </c>
-      <c r="C22" s="48" t="s">
+      <c r="C22" s="56" t="s">
         <v>50</v>
       </c>
       <c r="D22" s="2" t="s">
@@ -2463,37 +2547,37 @@
       <c r="E22" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="F22" s="48" t="s">
+      <c r="F22" s="56" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B23" s="58"/>
-      <c r="C23" s="56"/>
+      <c r="B23" s="64"/>
+      <c r="C23" s="58"/>
       <c r="D23" s="2" t="s">
         <v>108</v>
       </c>
       <c r="E23" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="F23" s="58"/>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B24" s="65"/>
+      <c r="C24" s="57"/>
+      <c r="D24" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="F23" s="56"/>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B24" s="59"/>
-      <c r="C24" s="49"/>
-      <c r="D24" s="2" t="s">
+      <c r="E24" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="E24" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="F24" s="49"/>
+      <c r="F24" s="57"/>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B25" s="51" t="s">
+      <c r="B25" s="53" t="s">
         <v>101</v>
       </c>
-      <c r="C25" s="50" t="s">
+      <c r="C25" s="62" t="s">
         <v>50</v>
       </c>
       <c r="D25" s="2" t="s">
@@ -2502,59 +2586,59 @@
       <c r="E25" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="F25" s="50" t="s">
+      <c r="F25" s="62" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B26" s="51"/>
-      <c r="C26" s="50"/>
+      <c r="B26" s="53"/>
+      <c r="C26" s="62"/>
       <c r="D26" s="2" t="s">
         <v>103</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="F26" s="50"/>
+      <c r="F26" s="62"/>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B27" s="51"/>
-      <c r="C27" s="50"/>
+      <c r="B27" s="53"/>
+      <c r="C27" s="62"/>
       <c r="D27" s="2" t="s">
         <v>52</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F27" s="50"/>
+      <c r="F27" s="62"/>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B28" s="51"/>
-      <c r="C28" s="50"/>
+      <c r="B28" s="53"/>
+      <c r="C28" s="62"/>
       <c r="D28" s="2" t="s">
         <v>104</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="F28" s="50"/>
+      <c r="F28" s="62"/>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B29" s="51"/>
-      <c r="C29" s="50"/>
+      <c r="B29" s="53"/>
+      <c r="C29" s="62"/>
       <c r="D29" s="2" t="s">
         <v>105</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="F29" s="50"/>
+      <c r="F29" s="62"/>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B30" s="51" t="s">
-        <v>182</v>
-      </c>
-      <c r="C30" s="50" t="s">
+      <c r="B30" s="53" t="s">
+        <v>181</v>
+      </c>
+      <c r="C30" s="62" t="s">
         <v>50</v>
       </c>
       <c r="D30" s="2" t="s">
@@ -2563,31 +2647,31 @@
       <c r="E30" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="F30" s="50" t="s">
+      <c r="F30" s="62" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B31" s="51"/>
-      <c r="C31" s="50"/>
+      <c r="B31" s="53"/>
+      <c r="C31" s="62"/>
       <c r="D31" s="2" t="s">
         <v>110</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F31" s="50"/>
+      <c r="F31" s="62"/>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B32" s="51"/>
-      <c r="C32" s="50"/>
+      <c r="B32" s="53"/>
+      <c r="C32" s="62"/>
       <c r="D32" s="2" t="s">
         <v>111</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="F32" s="50"/>
+      <c r="F32" s="62"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B33" s="7" t="s">
@@ -2652,10 +2736,10 @@
       </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B37" s="53" t="s">
+      <c r="B37" s="59" t="s">
         <v>93</v>
       </c>
-      <c r="C37" s="48" t="s">
+      <c r="C37" s="56" t="s">
         <v>67</v>
       </c>
       <c r="D37" s="2" t="s">
@@ -2664,7 +2748,7 @@
       <c r="E37" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="F37" s="48" t="s">
+      <c r="F37" s="56" t="s">
         <v>65</v>
       </c>
       <c r="G37" s="2" t="s">
@@ -2672,73 +2756,73 @@
       </c>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B38" s="54"/>
-      <c r="C38" s="56"/>
+      <c r="B38" s="60"/>
+      <c r="C38" s="58"/>
       <c r="D38" s="2" t="s">
         <v>95</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="F38" s="56"/>
+      <c r="F38" s="58"/>
       <c r="G38" s="2" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B39" s="54"/>
-      <c r="C39" s="56"/>
+      <c r="B39" s="60"/>
+      <c r="C39" s="58"/>
       <c r="D39" s="2" t="s">
         <v>96</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="F39" s="56"/>
+      <c r="F39" s="58"/>
       <c r="G39" s="2" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B40" s="54"/>
-      <c r="C40" s="56"/>
+      <c r="B40" s="60"/>
+      <c r="C40" s="58"/>
       <c r="D40" s="2" t="s">
         <v>97</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="F40" s="56"/>
+      <c r="F40" s="58"/>
       <c r="G40" s="2" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B41" s="54"/>
-      <c r="C41" s="56"/>
+      <c r="B41" s="60"/>
+      <c r="C41" s="58"/>
       <c r="D41" s="2" t="s">
         <v>98</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="F41" s="56"/>
+      <c r="F41" s="58"/>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B42" s="54"/>
-      <c r="C42" s="56"/>
+      <c r="B42" s="60"/>
+      <c r="C42" s="58"/>
       <c r="D42" s="2" t="s">
         <v>100</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="F42" s="56"/>
+      <c r="F42" s="58"/>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B43" s="55"/>
-      <c r="C43" s="49"/>
-      <c r="F43" s="49"/>
+      <c r="B43" s="61"/>
+      <c r="C43" s="57"/>
+      <c r="F43" s="57"/>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B44" s="7" t="s">
@@ -2802,7 +2886,7 @@
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B48" s="7" t="s">
-        <v>134</v>
+        <v>390</v>
       </c>
       <c r="C48" s="11" t="s">
         <v>66</v>
@@ -2812,7 +2896,7 @@
       </c>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B49" s="48" t="s">
+      <c r="B49" s="56" t="s">
         <v>133</v>
       </c>
       <c r="C49" s="11" t="s">
@@ -2824,23 +2908,23 @@
       <c r="E49" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="F49" s="48" t="s">
+      <c r="F49" s="56" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B50" s="49"/>
+      <c r="B50" s="57"/>
       <c r="D50" s="2" t="s">
         <v>129</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="F50" s="49"/>
+      <c r="F50" s="57"/>
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B51" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C51" s="12" t="s">
         <v>66</v>
@@ -2849,12 +2933,12 @@
         <v>30</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B52" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C52" s="12" t="s">
         <v>66</v>
@@ -2863,43 +2947,43 @@
         <v>30</v>
       </c>
       <c r="F52" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B53" s="13" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C53" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E53" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="D53" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="E53" s="3" t="s">
+      <c r="F53" s="3" t="s">
         <v>141</v>
-      </c>
-      <c r="F53" s="3" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B54" s="14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C54" s="15" t="s">
         <v>66</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B55" s="48" t="s">
-        <v>162</v>
+      <c r="B55" s="56" t="s">
+        <v>161</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>9</v>
@@ -2909,24 +2993,24 @@
       </c>
     </row>
     <row r="56" spans="2:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B56" s="49"/>
+      <c r="B56" s="57"/>
       <c r="D56" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="57" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B57" s="21"/>
       <c r="D57" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="58" spans="2:6" x14ac:dyDescent="0.15">
@@ -2935,282 +3019,282 @@
         <v>9</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="59" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B59" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C59" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F59" s="3" t="s">
         <v>153</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="60" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B60" s="17" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C60" s="18" t="s">
         <v>50</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E60" s="18"/>
       <c r="F60" s="18" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="61" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B61" s="19" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C61" s="20" t="s">
         <v>66</v>
       </c>
       <c r="D61" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E61" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="E61" s="3" t="s">
+      <c r="F61" s="3" t="s">
         <v>164</v>
-      </c>
-      <c r="F61" s="3" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="62" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D62" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="63" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D63" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E63" s="3" t="s">
         <v>168</v>
-      </c>
-      <c r="E63" s="3" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="64" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B64" s="19" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C64" s="20" t="s">
         <v>66</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="65" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B65" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="C65" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="C65" s="3" t="s">
+      <c r="D65" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="D65" s="2" t="s">
-        <v>173</v>
-      </c>
       <c r="F65" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="66" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D66" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="67" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D67" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="68" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D68" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="69" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D69" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="70" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B70" s="22" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="71" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B71" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C71" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="F71" s="3" t="s">
         <v>185</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="F71" s="3" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="72" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D72" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="73" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D73" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="74" spans="2:6" ht="27" x14ac:dyDescent="0.15">
       <c r="B74" s="23" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C74" s="24" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F74" s="25" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="75" spans="2:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="D75" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E75" s="25" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="76" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B76" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C76" s="26" t="s">
         <v>50</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="77" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D77" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="78" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D78" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="79" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B79" s="7" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="80" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B80" s="27" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D80" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E80" s="3" t="s">
         <v>216</v>
-      </c>
-      <c r="E80" s="3" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="81" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D81" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="82" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D82" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="83" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B83" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="D83" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="D83" s="2" t="s">
+      <c r="E83" s="31" t="s">
         <v>254</v>
-      </c>
-      <c r="E83" s="31" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="84" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B84" s="30" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C84" s="31"/>
       <c r="E84" s="31"/>
@@ -3218,138 +3302,138 @@
     </row>
     <row r="85" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B85" s="7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E85" s="27" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="86" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B86" s="27" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E86" s="27" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="87" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D87" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="88" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D88" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="89" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D89" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="90" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B90" s="7" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="91" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B91" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="92" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B92" s="33"/>
       <c r="C92" s="34"/>
       <c r="D92" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E92" s="34" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F92" s="34"/>
     </row>
     <row r="93" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B93" s="28" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="94" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B94" s="7" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="95" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D95" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="96" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D96" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="97" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B97" s="33"/>
       <c r="C97" s="34"/>
       <c r="D97" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E97" s="34" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F97" s="34"/>
     </row>
@@ -3357,56 +3441,56 @@
       <c r="B98" s="36"/>
       <c r="C98" s="37"/>
       <c r="D98" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="E98" s="37" t="s">
         <v>261</v>
-      </c>
-      <c r="E98" s="37" t="s">
-        <v>262</v>
       </c>
       <c r="F98" s="37"/>
     </row>
     <row r="99" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B99" s="7" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C99" s="29" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="100" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B100" s="7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="101" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D101" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="102" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D102" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="103" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D103" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="104" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B104" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C104" s="32" t="s">
         <v>39</v>
@@ -3414,358 +3498,358 @@
     </row>
     <row r="105" spans="2:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B105" s="35" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D105" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="E105" s="3" t="s">
         <v>257</v>
-      </c>
-      <c r="E105" s="3" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="106" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B106" s="7" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C106" s="39" t="s">
         <v>39</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="107" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B107" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E107" s="39" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="108" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D108" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="109" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B109" s="39" t="s">
+        <v>265</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="E109" s="39" t="s">
         <v>266</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="E109" s="39" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="110" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B110" s="7" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C110" s="38" t="s">
         <v>39</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="111" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B111" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="E111" s="3" t="s">
         <v>273</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="E111" s="3" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="112" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D112" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="113" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D113" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E113" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="114" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D114" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="E114" s="3" t="s">
         <v>276</v>
-      </c>
-      <c r="E114" s="3" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="115" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D115" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="116" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D116" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="117" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D117" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="118" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D118" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E118" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="119" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D119" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E119" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="120" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D120" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E120" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="121" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D121" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="122" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D122" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E122" s="38" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="123" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D123" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="E123" s="3" t="s">
         <v>286</v>
-      </c>
-      <c r="E123" s="3" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="124" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B124" s="7" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="125" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B125" s="7" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C125" s="41" t="s">
+        <v>300</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="E125" s="3" t="s">
         <v>301</v>
-      </c>
-      <c r="D125" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="E125" s="3" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="126" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C126" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E126" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="127" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D127" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E127" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="128" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D128" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E128" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="129" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D129" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E129" s="3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="130" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D130" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E130" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="131" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D131" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E131" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="132" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B132" s="40" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="133" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B133" s="7" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="134" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B134" s="7" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="135" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B135" s="7" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="136" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B136" s="7" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="137" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B137" s="7" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="138" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D138" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E138" s="42"/>
     </row>
     <row r="139" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D139" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E139" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="140" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D140" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E140" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="141" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D141" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E141" s="3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="142" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D142" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E142" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="143" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D143" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E143" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="144" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D144" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E144" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="145" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D145" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E145" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="146" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D146" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E146" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="147" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D147" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E147" s="3" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="148" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D148" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E148" s="3" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="149" spans="2:5" x14ac:dyDescent="0.15">
@@ -3773,43 +3857,43 @@
     </row>
     <row r="151" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B151" s="43" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C151" s="44" t="s">
         <v>66</v>
       </c>
       <c r="D151" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E151" s="44" t="s">
         <v>163</v>
-      </c>
-      <c r="E151" s="44" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="152" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B152" s="43" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C152" s="44"/>
       <c r="D152" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E152" s="44" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="153" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B153" s="43"/>
       <c r="C153" s="44"/>
       <c r="D153" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E153" s="44" t="s">
         <v>168</v>
-      </c>
-      <c r="E153" s="44" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="154" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B154" s="43" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C154" s="44" t="s">
         <v>66</v>
@@ -3818,88 +3902,211 @@
     </row>
     <row r="155" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B155" s="7" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="157" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B157" s="7" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C157" s="45" t="s">
         <v>66</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E157" s="3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="158" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B158" s="7" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="160" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B160" s="7" t="s">
-        <v>367</v>
+        <v>394</v>
       </c>
       <c r="C160" s="46" t="s">
         <v>66</v>
       </c>
       <c r="D160" s="2" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B161" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="E161" s="3" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" ht="54" x14ac:dyDescent="0.15">
+      <c r="D162" s="2" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="161" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B161" s="7" t="s">
-        <v>368</v>
-      </c>
-      <c r="D161" s="2" t="s">
+      <c r="E162" s="47" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="D163" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="E161" s="3" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="162" spans="2:5" ht="54" x14ac:dyDescent="0.15">
-      <c r="D162" s="2" t="s">
+      <c r="E163" s="3" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B164" s="48"/>
+      <c r="C164" s="49"/>
+      <c r="D164" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="E164" s="49" t="s">
+        <v>396</v>
+      </c>
+      <c r="F164" s="49"/>
+    </row>
+    <row r="165" spans="1:6" ht="54" x14ac:dyDescent="0.15">
+      <c r="D165" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="E162" s="47" t="s">
+      <c r="E165" s="47" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A166" s="66" t="s">
+        <v>385</v>
+      </c>
+      <c r="B166" s="48" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="163" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="D163" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="E163" s="3" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="164" spans="2:5" ht="54" x14ac:dyDescent="0.15">
-      <c r="D164" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="E164" s="47" t="s">
+      <c r="C166" s="49" t="s">
+        <v>66</v>
+      </c>
+      <c r="E166" s="49"/>
+      <c r="F166" s="49" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A167" s="58"/>
+      <c r="B167" s="7" t="s">
         <v>377</v>
       </c>
+      <c r="C167" s="49" t="s">
+        <v>66</v>
+      </c>
+      <c r="F167" s="3" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A168" s="58"/>
+      <c r="B168" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="C168" s="49" t="s">
+        <v>66</v>
+      </c>
+      <c r="F168" s="3" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A169" s="58"/>
+      <c r="B169" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="C169" s="49" t="s">
+        <v>66</v>
+      </c>
+      <c r="F169" s="3" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A170" s="57"/>
+      <c r="B170" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="C170" s="49" t="s">
+        <v>66</v>
+      </c>
+      <c r="F170" s="3" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B171" s="7" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B172" s="7" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B173" s="59" t="s">
+        <v>388</v>
+      </c>
+      <c r="C173" s="54" t="s">
+        <v>18</v>
+      </c>
+      <c r="E173" s="49"/>
+      <c r="F173" s="54" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B174" s="60"/>
+      <c r="C174" s="54"/>
+      <c r="D174" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E174" s="49" t="s">
+        <v>34</v>
+      </c>
+      <c r="F174" s="54"/>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B175" s="61"/>
+      <c r="C175" s="49"/>
+      <c r="D175" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E175" s="49" t="s">
+        <v>126</v>
+      </c>
+      <c r="F175" s="49"/>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B176" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="D176" s="2" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="177" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D177" s="2" t="s">
+        <v>393</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="28">
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="F3:F5"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="F37:F43"/>
-    <mergeCell ref="C37:C43"/>
-    <mergeCell ref="B37:B43"/>
+  <mergeCells count="32">
+    <mergeCell ref="A166:A170"/>
+    <mergeCell ref="B173:B175"/>
+    <mergeCell ref="C173:C174"/>
+    <mergeCell ref="F173:F174"/>
     <mergeCell ref="B55:B56"/>
     <mergeCell ref="F30:F32"/>
     <mergeCell ref="B30:B32"/>
@@ -3916,6 +4123,18 @@
     <mergeCell ref="C22:C24"/>
     <mergeCell ref="F22:F24"/>
     <mergeCell ref="B11:B13"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="F37:F43"/>
+    <mergeCell ref="C37:C43"/>
+    <mergeCell ref="B37:B43"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="F3:F5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3936,7 +4155,7 @@
   <sheetData>
     <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
   </sheetData>

--- a/文档/接口.xlsx
+++ b/文档/接口.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="405">
   <si>
     <t>调用方式</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -568,10 +568,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/api/app/GetProduct/{商品ID}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>POST</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1064,10 +1060,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>获取评论的商品（全部、待评论、已评论）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>pageIndex</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1100,10 +1092,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>退货单接口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>原订单ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1406,10 +1394,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>获取我的退货单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>查看某个退货单的详情</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1439,14 +1423,6 @@
   </si>
   <si>
     <t>api/CouponApi/GetMyCoupon/{优惠券状态}/{页数}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>api/ShopOrderApi/GetCanReturnDetail/{订单ID}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>api/ShopCommentApi/GetCommentProduct</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1585,15 +1561,84 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>VideoImg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>视频封面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/app/GetProduct/{商品ID}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>/api/app/GetProductUrl/{商品ID}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>VideoImg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>视频封面</t>
+    <t>退货单接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/ShopCommentApi/GetCommentProduct</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取评论的商品（全部、待评论、已评论）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/ShopOrderApi/GetCanReturnDetail/{订单ID}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取我的退货单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取广告牌信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/app/GetBrand/{位置}/{返回个数}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回个数： 空 默认返回5个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  旅游频道=0,
+        商城频道=1,
+        新闻频道=2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>位置：空代表返回旅游频道的广告牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回值例子：http://localhost:7161/api/app/GetBrand</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "IsSuccess": true,
+  "Msg": "操作成功",
+  "data": [
+    {
+      "Name": "23",
+      "AppHandleTag": 0,
+      "ActionValue": "",
+      "FilePath": "http://localhost:7161//Upload/image/20160311/49bb6412-3c4d-4ac9-b5d3-b5ae1182c727.jpg"
+    }
+  ]
+}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1695,7 +1740,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1808,6 +1853,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1815,39 +1895,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2234,10 +2283,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G177"/>
+  <dimension ref="A1:G182"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A157" workbookViewId="0">
-      <selection activeCell="B162" sqref="B162"/>
+    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
+      <selection activeCell="B155" sqref="B155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2245,46 +2294,46 @@
     <col min="1" max="1" width="17.5" style="2" customWidth="1"/>
     <col min="2" max="2" width="54.625" style="7" customWidth="1"/>
     <col min="3" max="3" width="9" style="3" customWidth="1"/>
-    <col min="4" max="4" width="18.875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="31.125" style="2" customWidth="1"/>
     <col min="5" max="5" width="36.875" style="3" customWidth="1"/>
     <col min="6" max="6" width="28" style="3" customWidth="1"/>
     <col min="7" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="52" t="s">
+      <c r="C1" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="50" t="s">
+      <c r="D1" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="50"/>
-      <c r="F1" s="52" t="s">
+      <c r="E1" s="65"/>
+      <c r="F1" s="67" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B2" s="51"/>
-      <c r="C2" s="52"/>
+      <c r="B2" s="66"/>
+      <c r="C2" s="67"/>
       <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="52"/>
+      <c r="F2" s="67"/>
       <c r="G2" s="2" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="3" spans="2:7" ht="94.5" x14ac:dyDescent="0.15">
-      <c r="B3" s="53" t="s">
+      <c r="B3" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="54" t="s">
+      <c r="C3" s="58" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -2293,35 +2342,35 @@
       <c r="E3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="55" t="s">
+      <c r="F3" s="68" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B4" s="53"/>
-      <c r="C4" s="54"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="58"/>
       <c r="D4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="54"/>
+      <c r="F4" s="58"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B5" s="53"/>
-      <c r="C5" s="54"/>
+      <c r="B5" s="61"/>
+      <c r="C5" s="58"/>
       <c r="D5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="54"/>
+      <c r="F5" s="58"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B6" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>19</v>
@@ -2380,7 +2429,7 @@
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B10" s="7" t="s">
-        <v>138</v>
+        <v>390</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>19</v>
@@ -2393,32 +2442,32 @@
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B11" s="56" t="s">
-        <v>143</v>
-      </c>
-      <c r="C11" s="54" t="s">
+      <c r="B11" s="59" t="s">
+        <v>142</v>
+      </c>
+      <c r="C11" s="58" t="s">
         <v>18</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="54" t="s">
+      <c r="F11" s="58" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B12" s="58"/>
-      <c r="C12" s="54"/>
+      <c r="B12" s="53"/>
+      <c r="C12" s="58"/>
       <c r="D12" s="2" t="s">
         <v>127</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="F12" s="54"/>
+      <c r="F12" s="58"/>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B13" s="57"/>
+      <c r="B13" s="54"/>
       <c r="C13" s="11"/>
       <c r="D13" s="2" t="s">
         <v>125</v>
@@ -2446,10 +2495,10 @@
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B15" s="59" t="s">
-        <v>169</v>
-      </c>
-      <c r="C15" s="56" t="s">
+      <c r="B15" s="55" t="s">
+        <v>168</v>
+      </c>
+      <c r="C15" s="59" t="s">
         <v>39</v>
       </c>
       <c r="D15" s="2" t="s">
@@ -2458,64 +2507,64 @@
       <c r="E15" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="F15" s="56" t="s">
+      <c r="F15" s="59" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B16" s="60"/>
-      <c r="C16" s="58"/>
+      <c r="B16" s="56"/>
+      <c r="C16" s="53"/>
       <c r="D16" s="2" t="s">
         <v>85</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="F16" s="58"/>
+      <c r="F16" s="53"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B17" s="60"/>
-      <c r="C17" s="58"/>
+      <c r="B17" s="56"/>
+      <c r="C17" s="53"/>
       <c r="D17" s="2" t="s">
         <v>91</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="F17" s="58"/>
+      <c r="F17" s="53"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B18" s="60"/>
-      <c r="C18" s="58"/>
+      <c r="B18" s="56"/>
+      <c r="C18" s="53"/>
       <c r="D18" s="2" t="s">
         <v>41</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F18" s="58"/>
+      <c r="F18" s="53"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B19" s="60"/>
-      <c r="C19" s="58"/>
+      <c r="B19" s="56"/>
+      <c r="C19" s="53"/>
       <c r="D19" s="2" t="s">
         <v>42</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="F19" s="58"/>
+      <c r="F19" s="53"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B20" s="61"/>
-      <c r="C20" s="57"/>
+      <c r="B20" s="57"/>
+      <c r="C20" s="54"/>
       <c r="D20" s="2" t="s">
         <v>43</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F20" s="57"/>
+      <c r="F20" s="54"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B21" s="7" t="s">
@@ -2535,10 +2584,10 @@
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B22" s="63" t="s">
+      <c r="B22" s="62" t="s">
         <v>106</v>
       </c>
-      <c r="C22" s="56" t="s">
+      <c r="C22" s="59" t="s">
         <v>50</v>
       </c>
       <c r="D22" s="2" t="s">
@@ -2547,37 +2596,37 @@
       <c r="E22" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="F22" s="56" t="s">
+      <c r="F22" s="59" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B23" s="64"/>
-      <c r="C23" s="58"/>
+      <c r="B23" s="63"/>
+      <c r="C23" s="53"/>
       <c r="D23" s="2" t="s">
         <v>108</v>
       </c>
       <c r="E23" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="F23" s="53"/>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B24" s="64"/>
+      <c r="C24" s="54"/>
+      <c r="D24" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="F23" s="58"/>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B24" s="65"/>
-      <c r="C24" s="57"/>
-      <c r="D24" s="2" t="s">
+      <c r="E24" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="E24" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="F24" s="57"/>
+      <c r="F24" s="54"/>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B25" s="53" t="s">
+      <c r="B25" s="61" t="s">
         <v>101</v>
       </c>
-      <c r="C25" s="62" t="s">
+      <c r="C25" s="60" t="s">
         <v>50</v>
       </c>
       <c r="D25" s="2" t="s">
@@ -2586,59 +2635,59 @@
       <c r="E25" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="F25" s="62" t="s">
+      <c r="F25" s="60" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B26" s="53"/>
-      <c r="C26" s="62"/>
+      <c r="B26" s="61"/>
+      <c r="C26" s="60"/>
       <c r="D26" s="2" t="s">
         <v>103</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="F26" s="62"/>
+      <c r="F26" s="60"/>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B27" s="53"/>
-      <c r="C27" s="62"/>
+      <c r="B27" s="61"/>
+      <c r="C27" s="60"/>
       <c r="D27" s="2" t="s">
         <v>52</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F27" s="62"/>
+      <c r="F27" s="60"/>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B28" s="53"/>
-      <c r="C28" s="62"/>
+      <c r="B28" s="61"/>
+      <c r="C28" s="60"/>
       <c r="D28" s="2" t="s">
         <v>104</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="F28" s="62"/>
+      <c r="F28" s="60"/>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B29" s="53"/>
-      <c r="C29" s="62"/>
+      <c r="B29" s="61"/>
+      <c r="C29" s="60"/>
       <c r="D29" s="2" t="s">
         <v>105</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="F29" s="62"/>
+      <c r="F29" s="60"/>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B30" s="53" t="s">
-        <v>181</v>
-      </c>
-      <c r="C30" s="62" t="s">
+      <c r="B30" s="61" t="s">
+        <v>180</v>
+      </c>
+      <c r="C30" s="60" t="s">
         <v>50</v>
       </c>
       <c r="D30" s="2" t="s">
@@ -2647,31 +2696,31 @@
       <c r="E30" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="F30" s="62" t="s">
+      <c r="F30" s="60" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B31" s="53"/>
-      <c r="C31" s="62"/>
+      <c r="B31" s="61"/>
+      <c r="C31" s="60"/>
       <c r="D31" s="2" t="s">
         <v>110</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F31" s="62"/>
+      <c r="F31" s="60"/>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B32" s="53"/>
-      <c r="C32" s="62"/>
+      <c r="B32" s="61"/>
+      <c r="C32" s="60"/>
       <c r="D32" s="2" t="s">
         <v>111</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="F32" s="62"/>
+      <c r="F32" s="60"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B33" s="7" t="s">
@@ -2736,10 +2785,10 @@
       </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B37" s="59" t="s">
+      <c r="B37" s="55" t="s">
         <v>93</v>
       </c>
-      <c r="C37" s="56" t="s">
+      <c r="C37" s="59" t="s">
         <v>67</v>
       </c>
       <c r="D37" s="2" t="s">
@@ -2748,7 +2797,7 @@
       <c r="E37" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="F37" s="56" t="s">
+      <c r="F37" s="59" t="s">
         <v>65</v>
       </c>
       <c r="G37" s="2" t="s">
@@ -2756,73 +2805,73 @@
       </c>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B38" s="60"/>
-      <c r="C38" s="58"/>
+      <c r="B38" s="56"/>
+      <c r="C38" s="53"/>
       <c r="D38" s="2" t="s">
         <v>95</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="F38" s="58"/>
+      <c r="F38" s="53"/>
       <c r="G38" s="2" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B39" s="60"/>
-      <c r="C39" s="58"/>
+      <c r="B39" s="56"/>
+      <c r="C39" s="53"/>
       <c r="D39" s="2" t="s">
         <v>96</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="F39" s="58"/>
+      <c r="F39" s="53"/>
       <c r="G39" s="2" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B40" s="60"/>
-      <c r="C40" s="58"/>
+      <c r="B40" s="56"/>
+      <c r="C40" s="53"/>
       <c r="D40" s="2" t="s">
         <v>97</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="F40" s="58"/>
+      <c r="F40" s="53"/>
       <c r="G40" s="2" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B41" s="60"/>
-      <c r="C41" s="58"/>
+      <c r="B41" s="56"/>
+      <c r="C41" s="53"/>
       <c r="D41" s="2" t="s">
         <v>98</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="F41" s="58"/>
+      <c r="F41" s="53"/>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B42" s="60"/>
-      <c r="C42" s="58"/>
+      <c r="B42" s="56"/>
+      <c r="C42" s="53"/>
       <c r="D42" s="2" t="s">
         <v>100</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="F42" s="58"/>
+      <c r="F42" s="53"/>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B43" s="61"/>
-      <c r="C43" s="57"/>
-      <c r="F43" s="57"/>
+      <c r="B43" s="57"/>
+      <c r="C43" s="54"/>
+      <c r="F43" s="54"/>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B44" s="7" t="s">
@@ -2886,7 +2935,7 @@
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B48" s="7" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="C48" s="11" t="s">
         <v>66</v>
@@ -2896,7 +2945,7 @@
       </c>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B49" s="56" t="s">
+      <c r="B49" s="59" t="s">
         <v>133</v>
       </c>
       <c r="C49" s="11" t="s">
@@ -2908,19 +2957,19 @@
       <c r="E49" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="F49" s="56" t="s">
+      <c r="F49" s="59" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B50" s="57"/>
+      <c r="B50" s="54"/>
       <c r="D50" s="2" t="s">
         <v>129</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="F50" s="57"/>
+      <c r="F50" s="54"/>
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B51" s="7" t="s">
@@ -2952,38 +3001,38 @@
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B53" s="13" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C53" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E53" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="D53" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="E53" s="3" t="s">
+      <c r="F53" s="3" t="s">
         <v>140</v>
-      </c>
-      <c r="F53" s="3" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B54" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C54" s="15" t="s">
         <v>66</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B55" s="56" t="s">
-        <v>161</v>
+      <c r="B55" s="59" t="s">
+        <v>160</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>9</v>
@@ -2993,24 +3042,24 @@
       </c>
     </row>
     <row r="56" spans="2:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B56" s="57"/>
+      <c r="B56" s="54"/>
       <c r="D56" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="57" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B57" s="21"/>
       <c r="D57" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="58" spans="2:6" x14ac:dyDescent="0.15">
@@ -3019,282 +3068,282 @@
         <v>9</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="59" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B59" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C59" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F59" s="3" t="s">
         <v>152</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="60" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B60" s="17" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C60" s="18" t="s">
         <v>50</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E60" s="18"/>
       <c r="F60" s="18" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="61" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B61" s="19" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="C61" s="20" t="s">
         <v>66</v>
       </c>
       <c r="D61" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E61" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="E61" s="3" t="s">
+      <c r="F61" s="3" t="s">
         <v>163</v>
-      </c>
-      <c r="F61" s="3" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="62" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D62" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
     <row r="63" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D63" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E63" s="3" t="s">
         <v>167</v>
-      </c>
-      <c r="E63" s="3" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="64" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B64" s="19" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C64" s="20" t="s">
         <v>66</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="65" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B65" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="C65" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="C65" s="3" t="s">
+      <c r="D65" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="D65" s="2" t="s">
-        <v>172</v>
-      </c>
       <c r="F65" s="3" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="66" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D66" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="67" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D67" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="68" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D68" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="69" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D69" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="70" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B70" s="22" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="71" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B71" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C71" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="F71" s="3" t="s">
         <v>184</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="F71" s="3" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="72" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D72" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="73" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D73" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="74" spans="2:6" ht="27" x14ac:dyDescent="0.15">
       <c r="B74" s="23" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C74" s="24" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F74" s="25" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="75" spans="2:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="D75" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E75" s="25" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="76" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B76" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C76" s="26" t="s">
         <v>50</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="77" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D77" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="78" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D78" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="79" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B79" s="7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="80" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B80" s="27" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D80" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E80" s="3" t="s">
         <v>215</v>
-      </c>
-      <c r="E80" s="3" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="81" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D81" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="82" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D82" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="83" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B83" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="D83" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="D83" s="2" t="s">
+      <c r="E83" s="31" t="s">
         <v>253</v>
-      </c>
-      <c r="E83" s="31" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="84" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B84" s="30" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C84" s="31"/>
       <c r="E84" s="31"/>
@@ -3302,138 +3351,138 @@
     </row>
     <row r="85" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B85" s="7" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E85" s="27" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="86" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B86" s="27" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E86" s="27" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="87" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D87" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="88" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D88" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="89" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D89" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="90" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B90" s="7" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="91" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B91" s="7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="92" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B92" s="33"/>
       <c r="C92" s="34"/>
       <c r="D92" s="2" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="E92" s="34" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="F92" s="34"/>
     </row>
     <row r="93" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B93" s="28" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="94" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B94" s="7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="95" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D95" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="96" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D96" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="97" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B97" s="33"/>
       <c r="C97" s="34"/>
       <c r="D97" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E97" s="34" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="F97" s="34"/>
     </row>
@@ -3441,56 +3490,56 @@
       <c r="B98" s="36"/>
       <c r="C98" s="37"/>
       <c r="D98" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="E98" s="37" t="s">
         <v>260</v>
-      </c>
-      <c r="E98" s="37" t="s">
-        <v>261</v>
       </c>
       <c r="F98" s="37"/>
     </row>
     <row r="99" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B99" s="7" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C99" s="29" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="100" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B100" s="7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="101" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D101" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="102" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D102" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="103" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D103" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="104" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B104" s="7" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C104" s="32" t="s">
         <v>39</v>
@@ -3498,358 +3547,358 @@
     </row>
     <row r="105" spans="2:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B105" s="35" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D105" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="E105" s="3" t="s">
         <v>256</v>
-      </c>
-      <c r="E105" s="3" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="106" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B106" s="7" t="s">
-        <v>360</v>
+        <v>393</v>
       </c>
       <c r="C106" s="39" t="s">
         <v>39</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="107" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B107" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="E107" s="39" t="s">
         <v>263</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="E107" s="39" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="108" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D108" s="2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="109" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B109" s="39" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E109" s="39" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="110" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B110" s="7" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="C110" s="38" t="s">
         <v>39</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="111" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B111" s="7" t="s">
-        <v>272</v>
-      </c>
       <c r="D111" s="2" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="E111" s="3" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="112" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B112" s="7" t="s">
+        <v>392</v>
+      </c>
       <c r="D112" s="2" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="113" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D113" s="2" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="E113" s="3" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="114" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D114" s="2" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="115" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D115" s="2" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="116" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D116" s="2" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="117" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D117" s="2" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="118" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D118" s="2" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="E118" s="3" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="119" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D119" s="2" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="E119" s="3" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="120" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D120" s="2" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="E120" s="3" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="121" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D121" s="2" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="122" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D122" s="2" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="E122" s="38" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="123" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D123" s="2" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="E123" s="3" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="124" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B124" s="7" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="125" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B125" s="7" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C125" s="41" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D125" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="E125" s="3" t="s">
         <v>298</v>
-      </c>
-      <c r="E125" s="3" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="126" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C126" s="3" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E126" s="3" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="127" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D127" s="2" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="E127" s="3" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="128" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D128" s="2" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="E128" s="3" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="129" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D129" s="2" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="E129" s="3" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="130" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D130" s="2" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="E130" s="3" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="131" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D131" s="2" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="E131" s="3" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="132" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B132" s="40" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="133" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B133" s="7" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="134" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B134" s="7" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="135" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B135" s="7" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="136" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B136" s="7" t="s">
-        <v>359</v>
+        <v>395</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="137" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B137" s="7" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="138" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D138" s="2" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="E138" s="42"/>
     </row>
     <row r="139" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D139" s="2" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="E139" s="3" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="140" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D140" s="2" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="E140" s="3" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
     </row>
     <row r="141" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D141" s="2" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="E141" s="3" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="142" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D142" s="2" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="E142" s="3" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
     <row r="143" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D143" s="2" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="E143" s="3" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
     </row>
     <row r="144" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D144" s="2" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="E144" s="3" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="145" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D145" s="2" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="E145" s="3" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
     </row>
     <row r="146" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D146" s="2" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="E146" s="3" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
     </row>
     <row r="147" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D147" s="2" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="E147" s="3" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="148" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D148" s="2" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="E148" s="3" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
     </row>
     <row r="149" spans="2:5" x14ac:dyDescent="0.15">
@@ -3857,43 +3906,43 @@
     </row>
     <row r="151" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B151" s="43" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="C151" s="44" t="s">
         <v>66</v>
       </c>
       <c r="D151" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E151" s="44" t="s">
         <v>162</v>
-      </c>
-      <c r="E151" s="44" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="152" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B152" s="43" t="s">
-        <v>350</v>
+        <v>396</v>
       </c>
       <c r="C152" s="44"/>
       <c r="D152" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E152" s="44" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
     <row r="153" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B153" s="43"/>
       <c r="C153" s="44"/>
       <c r="D153" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E153" s="44" t="s">
         <v>167</v>
-      </c>
-      <c r="E153" s="44" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="154" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B154" s="43" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="C154" s="44" t="s">
         <v>66</v>
@@ -3902,183 +3951,183 @@
     </row>
     <row r="155" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B155" s="7" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
     </row>
     <row r="157" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B157" s="7" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="C157" s="45" t="s">
         <v>66</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="E157" s="3" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
     </row>
     <row r="158" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B158" s="7" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
     </row>
     <row r="160" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B160" s="7" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="C160" s="46" t="s">
         <v>66</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B161" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="E161" s="3" t="s">
         <v>366</v>
-      </c>
-      <c r="D161" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="E161" s="3" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="162" spans="1:6" ht="54" x14ac:dyDescent="0.15">
       <c r="D162" s="2" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="E162" s="47" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.15">
       <c r="D163" s="2" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="E163" s="3" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B164" s="48"/>
       <c r="C164" s="49"/>
       <c r="D164" s="2" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="E164" s="49" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="F164" s="49"/>
     </row>
     <row r="165" spans="1:6" ht="54" x14ac:dyDescent="0.15">
       <c r="D165" s="2" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="E165" s="47" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A166" s="66" t="s">
-        <v>385</v>
+      <c r="A166" s="52" t="s">
+        <v>379</v>
       </c>
       <c r="B166" s="48" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="C166" s="49" t="s">
         <v>66</v>
       </c>
       <c r="E166" s="49"/>
       <c r="F166" s="49" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A167" s="58"/>
+      <c r="A167" s="53"/>
       <c r="B167" s="7" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="C167" s="49" t="s">
         <v>66</v>
       </c>
       <c r="F167" s="3" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A168" s="58"/>
+      <c r="A168" s="53"/>
       <c r="B168" s="7" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="C168" s="49" t="s">
         <v>66</v>
       </c>
       <c r="F168" s="3" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A169" s="58"/>
+      <c r="A169" s="53"/>
       <c r="B169" s="7" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="C169" s="49" t="s">
         <v>66</v>
       </c>
       <c r="F169" s="3" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A170" s="57"/>
+      <c r="A170" s="54"/>
       <c r="B170" s="7" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="C170" s="49" t="s">
         <v>66</v>
       </c>
       <c r="F170" s="3" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B171" s="7" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B172" s="7" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B173" s="59" t="s">
-        <v>388</v>
-      </c>
-      <c r="C173" s="54" t="s">
+      <c r="B173" s="55" t="s">
+        <v>382</v>
+      </c>
+      <c r="C173" s="58" t="s">
         <v>18</v>
       </c>
       <c r="E173" s="49"/>
-      <c r="F173" s="54" t="s">
+      <c r="F173" s="58" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B174" s="60"/>
-      <c r="C174" s="54"/>
+      <c r="B174" s="56"/>
+      <c r="C174" s="58"/>
       <c r="D174" s="2" t="s">
         <v>127</v>
       </c>
       <c r="E174" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="F174" s="54"/>
+      <c r="F174" s="58"/>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B175" s="61"/>
+      <c r="B175" s="57"/>
       <c r="C175" s="49"/>
       <c r="D175" s="2" t="s">
         <v>125</v>
@@ -4090,24 +4139,70 @@
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B176" s="7" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="177" spans="4:4" x14ac:dyDescent="0.15">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="177" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D177" s="2" t="s">
-        <v>393</v>
+        <v>387</v>
+      </c>
+    </row>
+    <row r="178" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B178" s="50" t="s">
+        <v>399</v>
+      </c>
+      <c r="C178" s="58" t="s">
+        <v>18</v>
+      </c>
+      <c r="D178" s="2" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="179" spans="2:5" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B179" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="C179" s="58"/>
+      <c r="D179" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="E179" s="51" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="180" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D180" s="2" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="181" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D181" s="2" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="182" spans="2:5" ht="202.5" x14ac:dyDescent="0.15">
+      <c r="D182" s="35" t="s">
+        <v>404</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="32">
-    <mergeCell ref="A166:A170"/>
-    <mergeCell ref="B173:B175"/>
-    <mergeCell ref="C173:C174"/>
-    <mergeCell ref="F173:F174"/>
-    <mergeCell ref="B55:B56"/>
+  <mergeCells count="33">
+    <mergeCell ref="C178:C179"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="F3:F5"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="F37:F43"/>
+    <mergeCell ref="C37:C43"/>
+    <mergeCell ref="B37:B43"/>
     <mergeCell ref="F30:F32"/>
     <mergeCell ref="B30:B32"/>
     <mergeCell ref="C30:C32"/>
@@ -4123,18 +4218,11 @@
     <mergeCell ref="C22:C24"/>
     <mergeCell ref="F22:F24"/>
     <mergeCell ref="B11:B13"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="F37:F43"/>
-    <mergeCell ref="C37:C43"/>
-    <mergeCell ref="B37:B43"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="F3:F5"/>
+    <mergeCell ref="A166:A170"/>
+    <mergeCell ref="B173:B175"/>
+    <mergeCell ref="C173:C174"/>
+    <mergeCell ref="F173:F174"/>
+    <mergeCell ref="B55:B56"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4155,7 +4243,7 @@
   <sheetData>
     <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
   </sheetData>

--- a/文档/接口.xlsx
+++ b/文档/接口.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="413">
   <si>
     <t>调用方式</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1639,6 +1639,50 @@
     }
   ]
 }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回个数： 空 默认返回4个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/app/GetTopVideoList/{位置}/{返回个数}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回值例子：http://localhost:7161/api/app/GetTopVideoList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "IsSuccess": true,
+  "Msg": "操作成功",
+  "data": [
+    {
+      "Name": "23",
+      "VideoUrl":"视频url",
+      "AppHandleTag": 0,
+      "ActionValue": "",
+      "FilePath": "http://localhost:7161//Upload/image/20160311/49bb6412-3c4d-4ac9-b5d3-b5ae1182c727.jpg"
+    }
+  ]
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/app/GetVideoList/{位置}/{页数}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回个数： 空 默认返回第1页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取广告牌中的视频信息，每页最多返回10个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取广告牌信息中的视频信息</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1740,7 +1784,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1857,6 +1901,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1881,10 +1932,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
@@ -2283,10 +2334,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G182"/>
+  <dimension ref="A1:G192"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
-      <selection activeCell="B155" sqref="B155"/>
+    <sheetView tabSelected="1" topLeftCell="A183" workbookViewId="0">
+      <selection activeCell="B192" sqref="B192"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2301,39 +2352,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B1" s="66" t="s">
+      <c r="B1" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="67" t="s">
+      <c r="C1" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="65" t="s">
+      <c r="D1" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="65"/>
-      <c r="F1" s="67" t="s">
+      <c r="E1" s="68"/>
+      <c r="F1" s="70" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B2" s="66"/>
-      <c r="C2" s="67"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="70"/>
       <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="67"/>
+      <c r="F2" s="70"/>
       <c r="G2" s="2" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="3" spans="2:7" ht="94.5" x14ac:dyDescent="0.15">
-      <c r="B3" s="61" t="s">
+      <c r="B3" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="58" t="s">
+      <c r="C3" s="61" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -2342,31 +2393,31 @@
       <c r="E3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="68" t="s">
+      <c r="F3" s="71" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B4" s="61"/>
-      <c r="C4" s="58"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="61"/>
       <c r="D4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="58"/>
+      <c r="F4" s="61"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B5" s="61"/>
-      <c r="C5" s="58"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="61"/>
       <c r="D5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="58"/>
+      <c r="F5" s="61"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B6" s="7" t="s">
@@ -2442,32 +2493,32 @@
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B11" s="59" t="s">
+      <c r="B11" s="62" t="s">
         <v>142</v>
       </c>
-      <c r="C11" s="58" t="s">
+      <c r="C11" s="61" t="s">
         <v>18</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="58" t="s">
+      <c r="F11" s="61" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B12" s="53"/>
-      <c r="C12" s="58"/>
+      <c r="B12" s="56"/>
+      <c r="C12" s="61"/>
       <c r="D12" s="2" t="s">
         <v>127</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="F12" s="58"/>
+      <c r="F12" s="61"/>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B13" s="54"/>
+      <c r="B13" s="57"/>
       <c r="C13" s="11"/>
       <c r="D13" s="2" t="s">
         <v>125</v>
@@ -2495,10 +2546,10 @@
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B15" s="55" t="s">
+      <c r="B15" s="58" t="s">
         <v>168</v>
       </c>
-      <c r="C15" s="59" t="s">
+      <c r="C15" s="62" t="s">
         <v>39</v>
       </c>
       <c r="D15" s="2" t="s">
@@ -2507,64 +2558,64 @@
       <c r="E15" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="F15" s="59" t="s">
+      <c r="F15" s="62" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B16" s="56"/>
-      <c r="C16" s="53"/>
+      <c r="B16" s="59"/>
+      <c r="C16" s="56"/>
       <c r="D16" s="2" t="s">
         <v>85</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="F16" s="53"/>
+      <c r="F16" s="56"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B17" s="56"/>
-      <c r="C17" s="53"/>
+      <c r="B17" s="59"/>
+      <c r="C17" s="56"/>
       <c r="D17" s="2" t="s">
         <v>91</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="F17" s="53"/>
+      <c r="F17" s="56"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B18" s="56"/>
-      <c r="C18" s="53"/>
+      <c r="B18" s="59"/>
+      <c r="C18" s="56"/>
       <c r="D18" s="2" t="s">
         <v>41</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F18" s="53"/>
+      <c r="F18" s="56"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B19" s="56"/>
-      <c r="C19" s="53"/>
+      <c r="B19" s="59"/>
+      <c r="C19" s="56"/>
       <c r="D19" s="2" t="s">
         <v>42</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="F19" s="53"/>
+      <c r="F19" s="56"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B20" s="57"/>
-      <c r="C20" s="54"/>
+      <c r="B20" s="60"/>
+      <c r="C20" s="57"/>
       <c r="D20" s="2" t="s">
         <v>43</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F20" s="54"/>
+      <c r="F20" s="57"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B21" s="7" t="s">
@@ -2584,10 +2635,10 @@
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B22" s="62" t="s">
+      <c r="B22" s="65" t="s">
         <v>106</v>
       </c>
-      <c r="C22" s="59" t="s">
+      <c r="C22" s="62" t="s">
         <v>50</v>
       </c>
       <c r="D22" s="2" t="s">
@@ -2596,37 +2647,37 @@
       <c r="E22" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="F22" s="59" t="s">
+      <c r="F22" s="62" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B23" s="63"/>
-      <c r="C23" s="53"/>
+      <c r="B23" s="66"/>
+      <c r="C23" s="56"/>
       <c r="D23" s="2" t="s">
         <v>108</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="F23" s="53"/>
+      <c r="F23" s="56"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B24" s="64"/>
-      <c r="C24" s="54"/>
+      <c r="B24" s="67"/>
+      <c r="C24" s="57"/>
       <c r="D24" s="2" t="s">
         <v>207</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="F24" s="54"/>
+      <c r="F24" s="57"/>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B25" s="61" t="s">
+      <c r="B25" s="63" t="s">
         <v>101</v>
       </c>
-      <c r="C25" s="60" t="s">
+      <c r="C25" s="64" t="s">
         <v>50</v>
       </c>
       <c r="D25" s="2" t="s">
@@ -2635,59 +2686,59 @@
       <c r="E25" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="F25" s="60" t="s">
+      <c r="F25" s="64" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B26" s="61"/>
-      <c r="C26" s="60"/>
+      <c r="B26" s="63"/>
+      <c r="C26" s="64"/>
       <c r="D26" s="2" t="s">
         <v>103</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="F26" s="60"/>
+      <c r="F26" s="64"/>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B27" s="61"/>
-      <c r="C27" s="60"/>
+      <c r="B27" s="63"/>
+      <c r="C27" s="64"/>
       <c r="D27" s="2" t="s">
         <v>52</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F27" s="60"/>
+      <c r="F27" s="64"/>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B28" s="61"/>
-      <c r="C28" s="60"/>
+      <c r="B28" s="63"/>
+      <c r="C28" s="64"/>
       <c r="D28" s="2" t="s">
         <v>104</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="F28" s="60"/>
+      <c r="F28" s="64"/>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B29" s="61"/>
-      <c r="C29" s="60"/>
+      <c r="B29" s="63"/>
+      <c r="C29" s="64"/>
       <c r="D29" s="2" t="s">
         <v>105</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="F29" s="60"/>
+      <c r="F29" s="64"/>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B30" s="61" t="s">
+      <c r="B30" s="63" t="s">
         <v>180</v>
       </c>
-      <c r="C30" s="60" t="s">
+      <c r="C30" s="64" t="s">
         <v>50</v>
       </c>
       <c r="D30" s="2" t="s">
@@ -2696,31 +2747,31 @@
       <c r="E30" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="F30" s="60" t="s">
+      <c r="F30" s="64" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B31" s="61"/>
-      <c r="C31" s="60"/>
+      <c r="B31" s="63"/>
+      <c r="C31" s="64"/>
       <c r="D31" s="2" t="s">
         <v>110</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F31" s="60"/>
+      <c r="F31" s="64"/>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B32" s="61"/>
-      <c r="C32" s="60"/>
+      <c r="B32" s="63"/>
+      <c r="C32" s="64"/>
       <c r="D32" s="2" t="s">
         <v>111</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="F32" s="60"/>
+      <c r="F32" s="64"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B33" s="7" t="s">
@@ -2785,10 +2836,10 @@
       </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B37" s="55" t="s">
+      <c r="B37" s="58" t="s">
         <v>93</v>
       </c>
-      <c r="C37" s="59" t="s">
+      <c r="C37" s="62" t="s">
         <v>67</v>
       </c>
       <c r="D37" s="2" t="s">
@@ -2797,7 +2848,7 @@
       <c r="E37" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="F37" s="59" t="s">
+      <c r="F37" s="62" t="s">
         <v>65</v>
       </c>
       <c r="G37" s="2" t="s">
@@ -2805,73 +2856,73 @@
       </c>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B38" s="56"/>
-      <c r="C38" s="53"/>
+      <c r="B38" s="59"/>
+      <c r="C38" s="56"/>
       <c r="D38" s="2" t="s">
         <v>95</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="F38" s="53"/>
+      <c r="F38" s="56"/>
       <c r="G38" s="2" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B39" s="56"/>
-      <c r="C39" s="53"/>
+      <c r="B39" s="59"/>
+      <c r="C39" s="56"/>
       <c r="D39" s="2" t="s">
         <v>96</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="F39" s="53"/>
+      <c r="F39" s="56"/>
       <c r="G39" s="2" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B40" s="56"/>
-      <c r="C40" s="53"/>
+      <c r="B40" s="59"/>
+      <c r="C40" s="56"/>
       <c r="D40" s="2" t="s">
         <v>97</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="F40" s="53"/>
+      <c r="F40" s="56"/>
       <c r="G40" s="2" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B41" s="56"/>
-      <c r="C41" s="53"/>
+      <c r="B41" s="59"/>
+      <c r="C41" s="56"/>
       <c r="D41" s="2" t="s">
         <v>98</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="F41" s="53"/>
+      <c r="F41" s="56"/>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B42" s="56"/>
-      <c r="C42" s="53"/>
+      <c r="B42" s="59"/>
+      <c r="C42" s="56"/>
       <c r="D42" s="2" t="s">
         <v>100</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="F42" s="53"/>
+      <c r="F42" s="56"/>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B43" s="57"/>
-      <c r="C43" s="54"/>
-      <c r="F43" s="54"/>
+      <c r="B43" s="60"/>
+      <c r="C43" s="57"/>
+      <c r="F43" s="57"/>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B44" s="7" t="s">
@@ -2945,7 +2996,7 @@
       </c>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B49" s="59" t="s">
+      <c r="B49" s="62" t="s">
         <v>133</v>
       </c>
       <c r="C49" s="11" t="s">
@@ -2957,19 +3008,19 @@
       <c r="E49" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="F49" s="59" t="s">
+      <c r="F49" s="62" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B50" s="54"/>
+      <c r="B50" s="57"/>
       <c r="D50" s="2" t="s">
         <v>129</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="F50" s="54"/>
+      <c r="F50" s="57"/>
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B51" s="7" t="s">
@@ -3031,7 +3082,7 @@
       </c>
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B55" s="59" t="s">
+      <c r="B55" s="62" t="s">
         <v>160</v>
       </c>
       <c r="D55" s="2" t="s">
@@ -3042,7 +3093,7 @@
       </c>
     </row>
     <row r="56" spans="2:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B56" s="54"/>
+      <c r="B56" s="57"/>
       <c r="D56" s="2" t="s">
         <v>148</v>
       </c>
@@ -4031,7 +4082,7 @@
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A166" s="52" t="s">
+      <c r="A166" s="55" t="s">
         <v>379</v>
       </c>
       <c r="B166" s="48" t="s">
@@ -4046,7 +4097,7 @@
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A167" s="53"/>
+      <c r="A167" s="56"/>
       <c r="B167" s="7" t="s">
         <v>371</v>
       </c>
@@ -4058,7 +4109,7 @@
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A168" s="53"/>
+      <c r="A168" s="56"/>
       <c r="B168" s="7" t="s">
         <v>372</v>
       </c>
@@ -4070,7 +4121,7 @@
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A169" s="53"/>
+      <c r="A169" s="56"/>
       <c r="B169" s="7" t="s">
         <v>373</v>
       </c>
@@ -4082,7 +4133,7 @@
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A170" s="54"/>
+      <c r="A170" s="57"/>
       <c r="B170" s="7" t="s">
         <v>385</v>
       </c>
@@ -4104,30 +4155,30 @@
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B173" s="55" t="s">
+      <c r="B173" s="58" t="s">
         <v>382</v>
       </c>
-      <c r="C173" s="58" t="s">
+      <c r="C173" s="61" t="s">
         <v>18</v>
       </c>
       <c r="E173" s="49"/>
-      <c r="F173" s="58" t="s">
+      <c r="F173" s="61" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B174" s="56"/>
-      <c r="C174" s="58"/>
+      <c r="B174" s="59"/>
+      <c r="C174" s="61"/>
       <c r="D174" s="2" t="s">
         <v>127</v>
       </c>
       <c r="E174" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="F174" s="58"/>
+      <c r="F174" s="61"/>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B175" s="57"/>
+      <c r="B175" s="60"/>
       <c r="C175" s="49"/>
       <c r="D175" s="2" t="s">
         <v>125</v>
@@ -4154,7 +4205,7 @@
       <c r="B178" s="50" t="s">
         <v>399</v>
       </c>
-      <c r="C178" s="58" t="s">
+      <c r="C178" s="61" t="s">
         <v>18</v>
       </c>
       <c r="D178" s="2" t="s">
@@ -4165,7 +4216,7 @@
       <c r="B179" s="7" t="s">
         <v>397</v>
       </c>
-      <c r="C179" s="58"/>
+      <c r="C179" s="61"/>
       <c r="D179" s="2" t="s">
         <v>402</v>
       </c>
@@ -4183,13 +4234,111 @@
         <v>403</v>
       </c>
     </row>
-    <row r="182" spans="2:5" ht="202.5" x14ac:dyDescent="0.15">
+    <row r="182" spans="2:5" ht="64.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D182" s="35" t="s">
         <v>404</v>
       </c>
     </row>
+    <row r="183" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B183" s="53" t="s">
+        <v>406</v>
+      </c>
+      <c r="C183" s="61" t="s">
+        <v>18</v>
+      </c>
+      <c r="D183" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="E183" s="52"/>
+    </row>
+    <row r="184" spans="2:5" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="B184" s="53" t="s">
+        <v>412</v>
+      </c>
+      <c r="C184" s="61"/>
+      <c r="D184" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="E184" s="54" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="185" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B185" s="53"/>
+      <c r="C185" s="52"/>
+      <c r="D185" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="E185" s="52"/>
+    </row>
+    <row r="186" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B186" s="53"/>
+      <c r="C186" s="52"/>
+      <c r="D186" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="E186" s="52"/>
+    </row>
+    <row r="187" spans="2:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B187" s="53"/>
+      <c r="C187" s="52"/>
+      <c r="D187" s="35" t="s">
+        <v>408</v>
+      </c>
+      <c r="E187" s="52"/>
+    </row>
+    <row r="188" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B188" s="53" t="s">
+        <v>409</v>
+      </c>
+      <c r="C188" s="61" t="s">
+        <v>18</v>
+      </c>
+      <c r="D188" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="E188" s="52"/>
+    </row>
+    <row r="189" spans="2:5" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="B189" s="53" t="s">
+        <v>411</v>
+      </c>
+      <c r="C189" s="61"/>
+      <c r="D189" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="E189" s="54" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="190" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B190" s="53"/>
+      <c r="C190" s="52"/>
+      <c r="D190" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="E190" s="52"/>
+    </row>
+    <row r="191" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B191" s="53"/>
+      <c r="C191" s="52"/>
+      <c r="D191" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="E191" s="52"/>
+    </row>
+    <row r="192" spans="2:5" ht="216" x14ac:dyDescent="0.15">
+      <c r="B192" s="53"/>
+      <c r="C192" s="52"/>
+      <c r="D192" s="35" t="s">
+        <v>408</v>
+      </c>
+      <c r="E192" s="52"/>
+    </row>
   </sheetData>
-  <mergeCells count="33">
+  <mergeCells count="35">
+    <mergeCell ref="C183:C184"/>
+    <mergeCell ref="C188:C189"/>
     <mergeCell ref="C178:C179"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="B1:B2"/>
@@ -4211,13 +4360,13 @@
     <mergeCell ref="B15:B20"/>
     <mergeCell ref="C15:C20"/>
     <mergeCell ref="F15:F20"/>
+    <mergeCell ref="B11:B13"/>
     <mergeCell ref="B25:B29"/>
     <mergeCell ref="C25:C29"/>
     <mergeCell ref="F25:F29"/>
     <mergeCell ref="B22:B24"/>
     <mergeCell ref="C22:C24"/>
     <mergeCell ref="F22:F24"/>
-    <mergeCell ref="B11:B13"/>
     <mergeCell ref="A166:A170"/>
     <mergeCell ref="B173:B175"/>
     <mergeCell ref="C173:C174"/>

--- a/文档/接口.xlsx
+++ b/文档/接口.xlsx
@@ -441,18 +441,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>api/userapi/GetValiCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TelNo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TypeInfo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Account</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1643,10 +1631,6 @@
   </si>
   <si>
     <t>返回个数： 空 默认返回4个</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>api/app/GetTopVideoList/{位置}/{返回个数}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1683,6 +1667,22 @@
   </si>
   <si>
     <t>获取广告牌信息中的视频信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/app/GetTopVideo/{位置}/{返回个数}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/userapi/GetValiCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TelNo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TypeInfo</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1932,23 +1932,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2336,8 +2336,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G192"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A183" workbookViewId="0">
-      <selection activeCell="B192" sqref="B192"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2352,36 +2352,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B1" s="69" t="s">
+      <c r="B1" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="70" t="s">
+      <c r="C1" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="68" t="s">
+      <c r="D1" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="68"/>
-      <c r="F1" s="70" t="s">
+      <c r="E1" s="70"/>
+      <c r="F1" s="68" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B2" s="69"/>
-      <c r="C2" s="70"/>
+      <c r="B2" s="71"/>
+      <c r="C2" s="68"/>
       <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="70"/>
+      <c r="F2" s="68"/>
       <c r="G2" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="2:7" ht="94.5" x14ac:dyDescent="0.15">
-      <c r="B3" s="63" t="s">
+      <c r="B3" s="64" t="s">
         <v>10</v>
       </c>
       <c r="C3" s="61" t="s">
@@ -2393,12 +2393,12 @@
       <c r="E3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="71" t="s">
+      <c r="F3" s="69" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B4" s="63"/>
+      <c r="B4" s="64"/>
       <c r="C4" s="61"/>
       <c r="D4" s="2" t="s">
         <v>8</v>
@@ -2409,7 +2409,7 @@
       <c r="F4" s="61"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B5" s="63"/>
+      <c r="B5" s="64"/>
       <c r="C5" s="61"/>
       <c r="D5" s="2" t="s">
         <v>9</v>
@@ -2421,7 +2421,7 @@
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B6" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>19</v>
@@ -2480,7 +2480,7 @@
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B10" s="7" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>19</v>
@@ -2494,7 +2494,7 @@
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B11" s="62" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C11" s="61" t="s">
         <v>18</v>
@@ -2510,7 +2510,7 @@
       <c r="B12" s="56"/>
       <c r="C12" s="61"/>
       <c r="D12" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>34</v>
@@ -2521,10 +2521,10 @@
       <c r="B13" s="57"/>
       <c r="C13" s="11"/>
       <c r="D13" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F13" s="11"/>
     </row>
@@ -2547,7 +2547,7 @@
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B15" s="58" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C15" s="62" t="s">
         <v>39</v>
@@ -2636,13 +2636,13 @@
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B22" s="65" t="s">
-        <v>106</v>
+        <v>410</v>
       </c>
       <c r="C22" s="62" t="s">
         <v>50</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>107</v>
+        <v>411</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>51</v>
@@ -2655,10 +2655,10 @@
       <c r="B23" s="66"/>
       <c r="C23" s="56"/>
       <c r="D23" s="2" t="s">
-        <v>108</v>
+        <v>412</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="F23" s="56"/>
     </row>
@@ -2666,18 +2666,18 @@
       <c r="B24" s="67"/>
       <c r="C24" s="57"/>
       <c r="D24" s="2" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="F24" s="57"/>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B25" s="63" t="s">
+      <c r="B25" s="64" t="s">
         <v>101</v>
       </c>
-      <c r="C25" s="64" t="s">
+      <c r="C25" s="63" t="s">
         <v>50</v>
       </c>
       <c r="D25" s="2" t="s">
@@ -2686,96 +2686,96 @@
       <c r="E25" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="F25" s="64" t="s">
+      <c r="F25" s="63" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B26" s="63"/>
-      <c r="C26" s="64"/>
+      <c r="B26" s="64"/>
+      <c r="C26" s="63"/>
       <c r="D26" s="2" t="s">
         <v>103</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="F26" s="64"/>
+      <c r="F26" s="63"/>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B27" s="63"/>
-      <c r="C27" s="64"/>
+      <c r="B27" s="64"/>
+      <c r="C27" s="63"/>
       <c r="D27" s="2" t="s">
         <v>52</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F27" s="64"/>
+      <c r="F27" s="63"/>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B28" s="63"/>
-      <c r="C28" s="64"/>
+      <c r="B28" s="64"/>
+      <c r="C28" s="63"/>
       <c r="D28" s="2" t="s">
         <v>104</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="F28" s="64"/>
+      <c r="F28" s="63"/>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B29" s="63"/>
-      <c r="C29" s="64"/>
+      <c r="B29" s="64"/>
+      <c r="C29" s="63"/>
       <c r="D29" s="2" t="s">
         <v>105</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="F29" s="64"/>
+      <c r="F29" s="63"/>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B30" s="63" t="s">
-        <v>180</v>
-      </c>
-      <c r="C30" s="64" t="s">
+      <c r="B30" s="64" t="s">
+        <v>177</v>
+      </c>
+      <c r="C30" s="63" t="s">
         <v>50</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="F30" s="64" t="s">
+      <c r="F30" s="63" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B31" s="63"/>
-      <c r="C31" s="64"/>
+      <c r="B31" s="64"/>
+      <c r="C31" s="63"/>
       <c r="D31" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F31" s="64"/>
+      <c r="F31" s="63"/>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B32" s="63"/>
-      <c r="C32" s="64"/>
+      <c r="B32" s="64"/>
+      <c r="C32" s="63"/>
       <c r="D32" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="F32" s="64"/>
+      <c r="F32" s="63"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B33" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C33" s="6" t="s">
         <v>66</v>
@@ -2792,7 +2792,7 @@
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B34" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C34" s="6" t="s">
         <v>66</v>
@@ -2809,7 +2809,7 @@
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B35" s="7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C35" s="6" t="s">
         <v>66</v>
@@ -2823,7 +2823,7 @@
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B36" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C36" s="8" t="s">
         <v>84</v>
@@ -2852,7 +2852,7 @@
         <v>65</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.15">
@@ -2866,7 +2866,7 @@
       </c>
       <c r="F38" s="56"/>
       <c r="G38" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.15">
@@ -2880,7 +2880,7 @@
       </c>
       <c r="F39" s="56"/>
       <c r="G39" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.15">
@@ -2894,7 +2894,7 @@
       </c>
       <c r="F40" s="56"/>
       <c r="G40" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.15">
@@ -2926,7 +2926,7 @@
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B44" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C44" s="8" t="s">
         <v>66</v>
@@ -2940,7 +2940,7 @@
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B45" s="9" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C45" s="10" t="s">
         <v>66</v>
@@ -2969,7 +2969,7 @@
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B47" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C47" s="10" t="s">
         <v>66</v>
@@ -2986,45 +2986,45 @@
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B48" s="7" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="C48" s="11" t="s">
         <v>66</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B49" s="62" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C49" s="11" t="s">
         <v>66</v>
       </c>
       <c r="D49" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E49" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="E49" s="3" t="s">
-        <v>131</v>
-      </c>
       <c r="F49" s="62" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B50" s="57"/>
       <c r="D50" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F50" s="57"/>
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B51" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C51" s="12" t="s">
         <v>66</v>
@@ -3033,12 +3033,12 @@
         <v>30</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B52" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C52" s="12" t="s">
         <v>66</v>
@@ -3047,43 +3047,43 @@
         <v>30</v>
       </c>
       <c r="F52" s="12" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B53" s="13" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B54" s="14" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C54" s="15" t="s">
         <v>66</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B55" s="62" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>9</v>
@@ -3095,22 +3095,22 @@
     <row r="56" spans="2:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B56" s="57"/>
       <c r="D56" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="57" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B57" s="21"/>
       <c r="D57" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="58" spans="2:6" x14ac:dyDescent="0.15">
@@ -3119,282 +3119,282 @@
         <v>9</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="59" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B59" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="60" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B60" s="17" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C60" s="18" t="s">
         <v>50</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E60" s="18"/>
       <c r="F60" s="18" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="61" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B61" s="19" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C61" s="20" t="s">
         <v>66</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="62" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D62" s="2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="63" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D63" s="2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="64" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B64" s="19" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C64" s="20" t="s">
         <v>66</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="65" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B65" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="66" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D66" s="2" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="67" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D67" s="2" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="68" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D68" s="2" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="69" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D69" s="2" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="70" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B70" s="22" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="71" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B71" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="72" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D72" s="2" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="73" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D73" s="2" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="74" spans="2:6" ht="27" x14ac:dyDescent="0.15">
       <c r="B74" s="23" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C74" s="24" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="F74" s="25" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="75" spans="2:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="D75" s="2" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E75" s="25" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="76" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B76" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C76" s="26" t="s">
         <v>50</v>
       </c>
       <c r="D76" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="E76" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="E76" s="3" t="s">
+      <c r="F76" s="3" t="s">
         <v>202</v>
-      </c>
-      <c r="F76" s="3" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="77" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D77" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="E77" s="3" t="s">
         <v>200</v>
-      </c>
-      <c r="E77" s="3" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="78" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D78" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="E78" s="3" t="s">
         <v>201</v>
-      </c>
-      <c r="E78" s="3" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="79" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B79" s="7" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="80" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B80" s="27" t="s">
+        <v>209</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="E80" s="3" t="s">
         <v>212</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="E80" s="3" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="81" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D81" s="2" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="82" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D82" s="2" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="83" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B83" s="7" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E83" s="31" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="84" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B84" s="30" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C84" s="31"/>
       <c r="E84" s="31"/>
@@ -3402,138 +3402,138 @@
     </row>
     <row r="85" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B85" s="7" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E85" s="27" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="86" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B86" s="27" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E86" s="27" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="87" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D87" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E87" s="3" t="s">
         <v>221</v>
-      </c>
-      <c r="E87" s="3" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="88" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D88" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="E88" s="3" t="s">
         <v>222</v>
-      </c>
-      <c r="E88" s="3" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="89" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D89" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E89" s="3" t="s">
         <v>223</v>
-      </c>
-      <c r="E89" s="3" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="90" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B90" s="7" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="91" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B91" s="7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="92" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B92" s="33"/>
       <c r="C92" s="34"/>
       <c r="D92" s="2" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="E92" s="34" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F92" s="34"/>
     </row>
     <row r="93" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B93" s="28" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="94" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B94" s="7" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="95" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D95" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="E95" s="3" t="s">
         <v>237</v>
-      </c>
-      <c r="E95" s="3" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="96" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D96" s="2" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="97" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B97" s="33"/>
       <c r="C97" s="34"/>
       <c r="D97" s="2" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="E97" s="34" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="F97" s="34"/>
     </row>
@@ -3541,56 +3541,56 @@
       <c r="B98" s="36"/>
       <c r="C98" s="37"/>
       <c r="D98" s="2" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="E98" s="37" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="F98" s="37"/>
     </row>
     <row r="99" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B99" s="7" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C99" s="29" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="100" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B100" s="7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="101" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D101" s="2" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="102" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D102" s="2" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="103" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D103" s="2" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="104" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B104" s="7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C104" s="32" t="s">
         <v>39</v>
@@ -3598,358 +3598,358 @@
     </row>
     <row r="105" spans="2:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B105" s="35" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="106" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B106" s="7" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="C106" s="39" t="s">
         <v>39</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="107" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B107" s="7" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="E107" s="39" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="108" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D108" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="E108" s="3" t="s">
         <v>262</v>
-      </c>
-      <c r="E108" s="3" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="109" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B109" s="39" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="E109" s="39" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="110" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B110" s="7" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="C110" s="38" t="s">
         <v>39</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="111" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D111" s="2" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="E111" s="3" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="112" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B112" s="7" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="113" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D113" s="2" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E113" s="3" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="114" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D114" s="2" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="115" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D115" s="2" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="116" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D116" s="2" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="117" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D117" s="2" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="118" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D118" s="2" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="E118" s="3" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="119" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D119" s="2" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="E119" s="3" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="120" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D120" s="2" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="E120" s="3" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="121" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D121" s="2" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="122" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D122" s="2" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="E122" s="38" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="123" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D123" s="2" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="E123" s="3" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="124" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B124" s="7" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="125" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B125" s="7" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C125" s="41" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="D125" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="E125" s="3" t="s">
         <v>295</v>
-      </c>
-      <c r="E125" s="3" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="126" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C126" s="3" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="E126" s="3" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="127" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D127" s="2" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="E127" s="3" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="128" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D128" s="2" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="E128" s="3" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="129" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D129" s="2" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E129" s="3" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="130" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D130" s="2" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="E130" s="3" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="131" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D131" s="2" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="E131" s="3" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="132" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B132" s="40" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="133" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B133" s="7" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="134" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B134" s="7" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="135" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B135" s="7" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="136" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B136" s="7" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="137" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B137" s="7" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="138" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D138" s="2" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="E138" s="42"/>
     </row>
     <row r="139" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D139" s="2" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="E139" s="3" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="140" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D140" s="2" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="E140" s="3" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="141" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D141" s="2" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="E141" s="3" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="142" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D142" s="2" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="E142" s="3" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="143" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D143" s="2" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="E143" s="3" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
     </row>
     <row r="144" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D144" s="2" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="E144" s="3" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="145" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D145" s="2" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="E145" s="3" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
     <row r="146" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D146" s="2" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="E146" s="3" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
     </row>
     <row r="147" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D147" s="2" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="E147" s="3" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="148" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D148" s="2" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="E148" s="3" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
     </row>
     <row r="149" spans="2:5" x14ac:dyDescent="0.15">
@@ -3957,43 +3957,43 @@
     </row>
     <row r="151" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B151" s="43" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C151" s="44" t="s">
         <v>66</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E151" s="44" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="152" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B152" s="43" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="C152" s="44"/>
       <c r="D152" s="2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E152" s="44" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="153" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B153" s="43"/>
       <c r="C153" s="44"/>
       <c r="D153" s="2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E153" s="44" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="154" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B154" s="43" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C154" s="44" t="s">
         <v>66</v>
@@ -4002,161 +4002,161 @@
     </row>
     <row r="155" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B155" s="7" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="157" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B157" s="7" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C157" s="45" t="s">
         <v>66</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="E157" s="3" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
     </row>
     <row r="158" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B158" s="7" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
     </row>
     <row r="160" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B160" s="7" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="C160" s="46" t="s">
         <v>66</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B161" s="7" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="E161" s="3" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
     </row>
     <row r="162" spans="1:6" ht="54" x14ac:dyDescent="0.15">
       <c r="D162" s="2" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="E162" s="47" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.15">
       <c r="D163" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="E163" s="3" t="s">
         <v>364</v>
-      </c>
-      <c r="E163" s="3" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B164" s="48"/>
       <c r="C164" s="49"/>
       <c r="D164" s="2" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="E164" s="49" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="F164" s="49"/>
     </row>
     <row r="165" spans="1:6" ht="54" x14ac:dyDescent="0.15">
       <c r="D165" s="2" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="E165" s="47" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A166" s="55" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="B166" s="48" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="C166" s="49" t="s">
         <v>66</v>
       </c>
       <c r="E166" s="49"/>
       <c r="F166" s="49" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A167" s="56"/>
       <c r="B167" s="7" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="C167" s="49" t="s">
         <v>66</v>
       </c>
       <c r="F167" s="3" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A168" s="56"/>
       <c r="B168" s="7" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C168" s="49" t="s">
         <v>66</v>
       </c>
       <c r="F168" s="3" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A169" s="56"/>
       <c r="B169" s="7" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="C169" s="49" t="s">
         <v>66</v>
       </c>
       <c r="F169" s="3" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A170" s="57"/>
       <c r="B170" s="7" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="C170" s="49" t="s">
         <v>66</v>
       </c>
       <c r="F170" s="3" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B171" s="7" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B172" s="7" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B173" s="58" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C173" s="61" t="s">
         <v>18</v>
@@ -4170,7 +4170,7 @@
       <c r="B174" s="59"/>
       <c r="C174" s="61"/>
       <c r="D174" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E174" s="49" t="s">
         <v>34</v>
@@ -4181,93 +4181,93 @@
       <c r="B175" s="60"/>
       <c r="C175" s="49"/>
       <c r="D175" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E175" s="49" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F175" s="49"/>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B176" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="D176" s="2" t="s">
         <v>383</v>
-      </c>
-      <c r="D176" s="2" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="177" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D177" s="2" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
     <row r="178" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B178" s="50" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="C178" s="61" t="s">
         <v>18</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="179" spans="2:5" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B179" s="7" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="C179" s="61"/>
       <c r="D179" s="2" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="E179" s="51" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
     </row>
     <row r="180" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D180" s="2" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
     </row>
     <row r="181" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D181" s="2" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
     </row>
     <row r="182" spans="2:5" ht="64.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D182" s="35" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
     </row>
     <row r="183" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B183" s="53" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="C183" s="61" t="s">
         <v>18</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="E183" s="52"/>
     </row>
     <row r="184" spans="2:5" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B184" s="53" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="C184" s="61"/>
       <c r="D184" s="2" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="E184" s="54" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
     </row>
     <row r="185" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B185" s="53"/>
       <c r="C185" s="52"/>
       <c r="D185" s="2" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="E185" s="52"/>
     </row>
@@ -4275,7 +4275,7 @@
       <c r="B186" s="53"/>
       <c r="C186" s="52"/>
       <c r="D186" s="2" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="E186" s="52"/>
     </row>
@@ -4283,39 +4283,39 @@
       <c r="B187" s="53"/>
       <c r="C187" s="52"/>
       <c r="D187" s="35" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="E187" s="52"/>
     </row>
     <row r="188" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B188" s="53" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="C188" s="61" t="s">
         <v>18</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="E188" s="52"/>
     </row>
     <row r="189" spans="2:5" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B189" s="53" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="C189" s="61"/>
       <c r="D189" s="2" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="E189" s="54" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
     </row>
     <row r="190" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B190" s="53"/>
       <c r="C190" s="52"/>
       <c r="D190" s="2" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="E190" s="52"/>
     </row>
@@ -4323,7 +4323,7 @@
       <c r="B191" s="53"/>
       <c r="C191" s="52"/>
       <c r="D191" s="2" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="E191" s="52"/>
     </row>
@@ -4331,7 +4331,7 @@
       <c r="B192" s="53"/>
       <c r="C192" s="52"/>
       <c r="D192" s="35" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="E192" s="52"/>
     </row>
@@ -4392,7 +4392,7 @@
   <sheetData>
     <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
   </sheetData>

--- a/文档/接口.xlsx
+++ b/文档/接口.xlsx
@@ -185,15 +185,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ProductId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SKU</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Quantity</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1683,6 +1675,14 @@
   </si>
   <si>
     <t>TypeInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProductId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Quantity</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1908,15 +1908,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1927,28 +1941,14 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2336,8 +2336,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G192"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2352,39 +2352,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B1" s="71" t="s">
+      <c r="B1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="68" t="s">
+      <c r="C1" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="70" t="s">
+      <c r="D1" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="70"/>
-      <c r="F1" s="68" t="s">
+      <c r="E1" s="56"/>
+      <c r="F1" s="58" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B2" s="71"/>
-      <c r="C2" s="68"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="58"/>
       <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="68"/>
+      <c r="F2" s="58"/>
       <c r="G2" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="2:7" ht="94.5" x14ac:dyDescent="0.15">
-      <c r="B3" s="64" t="s">
+      <c r="B3" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="61" t="s">
+      <c r="C3" s="55" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -2393,35 +2393,35 @@
       <c r="E3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="69" t="s">
+      <c r="F3" s="60" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B4" s="64"/>
-      <c r="C4" s="61"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="55"/>
       <c r="D4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="61"/>
+      <c r="F4" s="55"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B5" s="64"/>
-      <c r="C5" s="61"/>
+      <c r="B5" s="59"/>
+      <c r="C5" s="55"/>
       <c r="D5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="61"/>
+      <c r="F5" s="55"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B6" s="7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>19</v>
@@ -2480,7 +2480,7 @@
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B10" s="7" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>19</v>
@@ -2493,133 +2493,133 @@
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B11" s="62" t="s">
-        <v>139</v>
-      </c>
-      <c r="C11" s="61" t="s">
+      <c r="B11" s="61" t="s">
+        <v>137</v>
+      </c>
+      <c r="C11" s="55" t="s">
         <v>18</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="61" t="s">
+      <c r="F11" s="55" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B12" s="56"/>
-      <c r="C12" s="61"/>
+      <c r="B12" s="63"/>
+      <c r="C12" s="55"/>
       <c r="D12" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="F12" s="61"/>
+      <c r="F12" s="55"/>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B13" s="57"/>
+      <c r="B13" s="62"/>
       <c r="C13" s="11"/>
       <c r="D13" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F13" s="11"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B14" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B15" s="58" t="s">
-        <v>165</v>
-      </c>
-      <c r="C15" s="62" t="s">
+      <c r="B15" s="64" t="s">
+        <v>163</v>
+      </c>
+      <c r="C15" s="61" t="s">
         <v>39</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>40</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F15" s="62" t="s">
-        <v>47</v>
+        <v>42</v>
+      </c>
+      <c r="F15" s="61" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B16" s="59"/>
-      <c r="C16" s="56"/>
+      <c r="B16" s="65"/>
+      <c r="C16" s="63"/>
       <c r="D16" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E16" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F16" s="63"/>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B17" s="65"/>
+      <c r="C17" s="63"/>
+      <c r="D17" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E17" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="F16" s="56"/>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B17" s="59"/>
-      <c r="C17" s="56"/>
-      <c r="D17" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="F17" s="56"/>
+      <c r="F17" s="63"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B18" s="59"/>
-      <c r="C18" s="56"/>
+      <c r="B18" s="65"/>
+      <c r="C18" s="63"/>
       <c r="D18" s="2" t="s">
-        <v>41</v>
+        <v>411</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F18" s="56"/>
+      <c r="F18" s="63"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B19" s="59"/>
-      <c r="C19" s="56"/>
+      <c r="B19" s="65"/>
+      <c r="C19" s="63"/>
       <c r="D19" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F19" s="56"/>
+        <v>43</v>
+      </c>
+      <c r="F19" s="63"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B20" s="60"/>
-      <c r="C20" s="57"/>
+      <c r="B20" s="66"/>
+      <c r="C20" s="62"/>
       <c r="D20" s="2" t="s">
-        <v>43</v>
+        <v>412</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F20" s="57"/>
+        <v>44</v>
+      </c>
+      <c r="F20" s="62"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B21" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>19</v>
@@ -2635,455 +2635,455 @@
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B22" s="65" t="s">
+      <c r="B22" s="68" t="s">
+        <v>408</v>
+      </c>
+      <c r="C22" s="61" t="s">
+        <v>48</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F22" s="61" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B23" s="69"/>
+      <c r="C23" s="63"/>
+      <c r="D23" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="C22" s="62" t="s">
+      <c r="E23" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="F23" s="63"/>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B24" s="70"/>
+      <c r="C24" s="62"/>
+      <c r="D24" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="F24" s="62"/>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B25" s="59" t="s">
+        <v>99</v>
+      </c>
+      <c r="C25" s="67" t="s">
+        <v>48</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F25" s="67" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B26" s="59"/>
+      <c r="C26" s="67"/>
+      <c r="D26" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F26" s="67"/>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B27" s="59"/>
+      <c r="C27" s="67"/>
+      <c r="D27" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D22" s="2" t="s">
-        <v>411</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="F22" s="62" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B23" s="66"/>
-      <c r="C23" s="56"/>
-      <c r="D23" s="2" t="s">
-        <v>412</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="F23" s="56"/>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B24" s="67"/>
-      <c r="C24" s="57"/>
-      <c r="D24" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="F24" s="57"/>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B25" s="64" t="s">
-        <v>101</v>
-      </c>
-      <c r="C25" s="63" t="s">
-        <v>50</v>
-      </c>
-      <c r="D25" s="2" t="s">
+      <c r="E27" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F27" s="67"/>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B28" s="59"/>
+      <c r="C28" s="67"/>
+      <c r="D28" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="E28" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="F25" s="63" t="s">
+      <c r="F28" s="67"/>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B29" s="59"/>
+      <c r="C29" s="67"/>
+      <c r="D29" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F29" s="67"/>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B30" s="59" t="s">
+        <v>175</v>
+      </c>
+      <c r="C30" s="67" t="s">
+        <v>48</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F30" s="67" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B31" s="59"/>
+      <c r="C31" s="67"/>
+      <c r="D31" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F31" s="67"/>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B32" s="59"/>
+      <c r="C32" s="67"/>
+      <c r="D32" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E32" s="3" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B26" s="64"/>
-      <c r="C26" s="63"/>
-      <c r="D26" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="F26" s="63"/>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B27" s="64"/>
-      <c r="C27" s="63"/>
-      <c r="D27" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="F27" s="63"/>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B28" s="64"/>
-      <c r="C28" s="63"/>
-      <c r="D28" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F28" s="63"/>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B29" s="64"/>
-      <c r="C29" s="63"/>
-      <c r="D29" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="F29" s="63"/>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B30" s="64" t="s">
-        <v>177</v>
-      </c>
-      <c r="C30" s="63" t="s">
-        <v>50</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="F30" s="63" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B31" s="64"/>
-      <c r="C31" s="63"/>
-      <c r="D31" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="F31" s="63"/>
-    </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B32" s="64"/>
-      <c r="C32" s="63"/>
-      <c r="D32" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="F32" s="63"/>
+      <c r="F32" s="67"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B33" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B34" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B35" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C35" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D35" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D35" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="F35" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B36" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B37" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="C37" s="61" t="s">
+        <v>65</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F37" s="61" t="s">
+        <v>63</v>
+      </c>
+      <c r="G37" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C36" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="D36" s="2" t="s">
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B38" s="65"/>
+      <c r="C38" s="63"/>
+      <c r="D38" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E38" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="F36" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B37" s="58" t="s">
-        <v>93</v>
-      </c>
-      <c r="C37" s="62" t="s">
-        <v>67</v>
-      </c>
-      <c r="D37" s="2" t="s">
+      <c r="F38" s="63"/>
+      <c r="G38" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B39" s="65"/>
+      <c r="C39" s="63"/>
+      <c r="D39" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E37" s="3" t="s">
+      <c r="E39" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="F37" s="62" t="s">
-        <v>65</v>
-      </c>
-      <c r="G37" s="2" t="s">
+      <c r="F39" s="63"/>
+      <c r="G39" s="2" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B38" s="59"/>
-      <c r="C38" s="56"/>
-      <c r="D38" s="2" t="s">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B40" s="65"/>
+      <c r="C40" s="63"/>
+      <c r="D40" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="E38" s="3" t="s">
+      <c r="E40" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="F38" s="56"/>
-      <c r="G38" s="2" t="s">
+      <c r="F40" s="63"/>
+      <c r="G40" s="2" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B39" s="59"/>
-      <c r="C39" s="56"/>
-      <c r="D39" s="2" t="s">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B41" s="65"/>
+      <c r="C41" s="63"/>
+      <c r="D41" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="E39" s="3" t="s">
+      <c r="E41" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="F41" s="63"/>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B42" s="65"/>
+      <c r="C42" s="63"/>
+      <c r="D42" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E42" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="F39" s="56"/>
-      <c r="G39" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B40" s="59"/>
-      <c r="C40" s="56"/>
-      <c r="D40" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="F40" s="56"/>
-      <c r="G40" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B41" s="59"/>
-      <c r="C41" s="56"/>
-      <c r="D41" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="F41" s="56"/>
-    </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B42" s="59"/>
-      <c r="C42" s="56"/>
-      <c r="D42" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="F42" s="56"/>
+      <c r="F42" s="63"/>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B43" s="60"/>
-      <c r="C43" s="57"/>
-      <c r="F43" s="57"/>
+      <c r="B43" s="66"/>
+      <c r="C43" s="62"/>
+      <c r="F43" s="62"/>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B44" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B45" s="9" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E45" s="10"/>
       <c r="F45" s="10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B46" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C46" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F46" s="3" t="s">
         <v>76</v>
-      </c>
-      <c r="C46" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B47" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E47" s="10" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B48" s="7" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B49" s="62" t="s">
-        <v>130</v>
+      <c r="B49" s="61" t="s">
+        <v>128</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D49" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="F49" s="61" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B50" s="62"/>
+      <c r="D50" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E50" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="E49" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="F49" s="62" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B50" s="57"/>
-      <c r="D50" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="E50" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="F50" s="57"/>
+      <c r="F50" s="62"/>
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B51" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C51" s="12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>30</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B52" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C52" s="12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>30</v>
       </c>
       <c r="F52" s="12" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B53" s="13" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C53" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="F53" s="3" t="s">
         <v>135</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="E53" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="F53" s="3" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B54" s="14" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C54" s="15" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B55" s="62" t="s">
-        <v>157</v>
+      <c r="B55" s="61" t="s">
+        <v>155</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>9</v>
@@ -3093,24 +3093,24 @@
       </c>
     </row>
     <row r="56" spans="2:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B56" s="57"/>
+      <c r="B56" s="62"/>
       <c r="D56" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E56" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="E56" s="3" t="s">
-        <v>147</v>
-      </c>
       <c r="F56" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="57" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B57" s="21"/>
       <c r="D57" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E57" s="3" t="s">
         <v>144</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="58" spans="2:6" x14ac:dyDescent="0.15">
@@ -3119,282 +3119,282 @@
         <v>9</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="59" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B59" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C59" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="D59" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="D59" s="2" t="s">
-        <v>150</v>
-      </c>
       <c r="F59" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="60" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B60" s="17" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C60" s="18" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E60" s="18"/>
       <c r="F60" s="18" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="61" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B61" s="19" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C61" s="20" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D61" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="F61" s="3" t="s">
         <v>158</v>
-      </c>
-      <c r="E61" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="F61" s="3" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="62" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D62" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="63" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D63" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="64" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B64" s="19" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C64" s="20" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="65" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B65" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="D65" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="C65" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>168</v>
-      </c>
       <c r="F65" s="3" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="66" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D66" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="67" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D67" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="68" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D68" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="69" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D69" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="70" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B70" s="22" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="71" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B71" s="7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C71" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E71" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="D71" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>182</v>
-      </c>
       <c r="F71" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="72" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D72" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="73" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D73" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="74" spans="2:6" ht="27" x14ac:dyDescent="0.15">
       <c r="B74" s="23" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C74" s="24" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D74" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="E74" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="E74" s="3" t="s">
+      <c r="F74" s="25" t="s">
         <v>191</v>
-      </c>
-      <c r="F74" s="25" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="75" spans="2:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="D75" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="E75" s="25" t="s">
         <v>190</v>
-      </c>
-      <c r="E75" s="25" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="76" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B76" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C76" s="26" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="77" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D77" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="78" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D78" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="79" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B79" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="80" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B80" s="27" t="s">
+        <v>207</v>
+      </c>
+      <c r="D80" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="D80" s="2" t="s">
-        <v>211</v>
-      </c>
       <c r="E80" s="3" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="81" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D81" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="82" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D82" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="83" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B83" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="E83" s="31" t="s">
         <v>248</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="E83" s="31" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="84" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B84" s="30" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C84" s="31"/>
       <c r="E84" s="31"/>
@@ -3402,138 +3402,138 @@
     </row>
     <row r="85" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B85" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D85" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="E85" s="27" t="s">
         <v>215</v>
       </c>
-      <c r="E85" s="27" t="s">
-        <v>217</v>
-      </c>
       <c r="F85" s="3" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="86" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B86" s="27" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E86" s="27" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="87" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D87" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="88" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D88" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="89" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D89" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="90" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B90" s="7" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="91" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B91" s="7" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D91" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="E91" s="3" t="s">
         <v>224</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="92" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B92" s="33"/>
       <c r="C92" s="34"/>
       <c r="D92" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="E92" s="34" t="s">
         <v>304</v>
-      </c>
-      <c r="E92" s="34" t="s">
-        <v>306</v>
       </c>
       <c r="F92" s="34"/>
     </row>
     <row r="93" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B93" s="28" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C93" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="D93" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="D93" s="2" t="s">
-        <v>231</v>
-      </c>
       <c r="E93" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="94" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B94" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="D94" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="D94" s="2" t="s">
-        <v>232</v>
-      </c>
       <c r="E94" s="3" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="95" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D95" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="96" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D96" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="97" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B97" s="33"/>
       <c r="C97" s="34"/>
       <c r="D97" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E97" s="34" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F97" s="34"/>
     </row>
@@ -3541,56 +3541,56 @@
       <c r="B98" s="36"/>
       <c r="C98" s="37"/>
       <c r="D98" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E98" s="37" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F98" s="37"/>
     </row>
     <row r="99" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B99" s="7" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C99" s="29" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="100" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B100" s="7" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="101" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D101" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="102" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D102" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="103" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D103" s="2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="104" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B104" s="7" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C104" s="32" t="s">
         <v>39</v>
@@ -3598,358 +3598,358 @@
     </row>
     <row r="105" spans="2:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B105" s="35" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="106" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B106" s="7" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C106" s="39" t="s">
         <v>39</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="107" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B107" s="7" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="E107" s="39" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="108" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D108" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="109" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B109" s="39" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E109" s="39" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="110" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B110" s="7" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C110" s="38" t="s">
         <v>39</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="111" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D111" s="2" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="E111" s="3" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="112" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B112" s="7" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="113" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D113" s="2" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="E113" s="3" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="114" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D114" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="115" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D115" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="116" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D116" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="117" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D117" s="2" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="118" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D118" s="2" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="E118" s="3" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="119" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D119" s="2" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E119" s="3" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="120" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D120" s="2" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="E120" s="3" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="121" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D121" s="2" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="122" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D122" s="2" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="E122" s="38" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="123" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D123" s="2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E123" s="3" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="124" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B124" s="7" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="125" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B125" s="7" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C125" s="41" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E125" s="3" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="126" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C126" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="E126" s="3" t="s">
         <v>294</v>
-      </c>
-      <c r="D126" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="E126" s="3" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="127" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D127" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="E127" s="3" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="128" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D128" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E128" s="3" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="129" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D129" s="2" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E129" s="3" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="130" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D130" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E130" s="3" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="131" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D131" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="E131" s="3" t="s">
         <v>291</v>
-      </c>
-      <c r="E131" s="3" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="132" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B132" s="40" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="133" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B133" s="7" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="134" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B134" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="D134" s="2" t="s">
         <v>315</v>
-      </c>
-      <c r="D134" s="2" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="135" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B135" s="7" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="136" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B136" s="7" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="137" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B137" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="D137" s="2" t="s">
         <v>319</v>
-      </c>
-      <c r="D137" s="2" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="138" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D138" s="2" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="E138" s="42"/>
     </row>
     <row r="139" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D139" s="2" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E139" s="3" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="140" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D140" s="2" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="E140" s="3" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="141" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D141" s="2" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="E141" s="3" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="142" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D142" s="2" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="E142" s="3" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="143" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D143" s="2" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E143" s="3" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="144" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D144" s="2" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="E144" s="3" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="145" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D145" s="2" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="E145" s="3" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="146" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D146" s="2" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="E146" s="3" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="147" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D147" s="2" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="E147" s="3" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="148" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D148" s="2" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E148" s="3" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="149" spans="2:5" x14ac:dyDescent="0.15">
@@ -3957,317 +3957,317 @@
     </row>
     <row r="151" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B151" s="43" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C151" s="44" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E151" s="44" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="152" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B152" s="43" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C152" s="44"/>
       <c r="D152" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E152" s="44" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="153" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B153" s="43"/>
       <c r="C153" s="44"/>
       <c r="D153" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E153" s="44" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="154" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B154" s="43" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C154" s="44" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E154" s="44"/>
     </row>
     <row r="155" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B155" s="7" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="157" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B157" s="7" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C157" s="45" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="E157" s="3" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="158" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B158" s="7" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="160" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B160" s="7" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C160" s="46" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B161" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="D161" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="D161" s="2" t="s">
-        <v>359</v>
-      </c>
       <c r="E161" s="3" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="162" spans="1:6" ht="54" x14ac:dyDescent="0.15">
       <c r="D162" s="2" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="E162" s="47" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.15">
       <c r="D163" s="2" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E163" s="3" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B164" s="48"/>
       <c r="C164" s="49"/>
       <c r="D164" s="2" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E164" s="49" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="F164" s="49"/>
     </row>
     <row r="165" spans="1:6" ht="54" x14ac:dyDescent="0.15">
       <c r="D165" s="2" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="E165" s="47" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A166" s="55" t="s">
-        <v>376</v>
+      <c r="A166" s="71" t="s">
+        <v>374</v>
       </c>
       <c r="B166" s="48" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C166" s="49" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E166" s="49"/>
       <c r="F166" s="49" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A167" s="63"/>
+      <c r="B167" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="C167" s="49" t="s">
+        <v>64</v>
+      </c>
+      <c r="F167" s="3" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A168" s="63"/>
+      <c r="B168" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="C168" s="49" t="s">
+        <v>64</v>
+      </c>
+      <c r="F168" s="3" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A167" s="56"/>
-      <c r="B167" s="7" t="s">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A169" s="63"/>
+      <c r="B169" s="7" t="s">
         <v>368</v>
       </c>
-      <c r="C167" s="49" t="s">
-        <v>66</v>
-      </c>
-      <c r="F167" s="3" t="s">
+      <c r="C169" s="49" t="s">
+        <v>64</v>
+      </c>
+      <c r="F169" s="3" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A168" s="56"/>
-      <c r="B168" s="7" t="s">
-        <v>369</v>
-      </c>
-      <c r="C168" s="49" t="s">
-        <v>66</v>
-      </c>
-      <c r="F168" s="3" t="s">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A170" s="62"/>
+      <c r="B170" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="C170" s="49" t="s">
+        <v>64</v>
+      </c>
+      <c r="F170" s="3" t="s">
         <v>373</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A169" s="56"/>
-      <c r="B169" s="7" t="s">
-        <v>370</v>
-      </c>
-      <c r="C169" s="49" t="s">
-        <v>66</v>
-      </c>
-      <c r="F169" s="3" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A170" s="57"/>
-      <c r="B170" s="7" t="s">
-        <v>382</v>
-      </c>
-      <c r="C170" s="49" t="s">
-        <v>66</v>
-      </c>
-      <c r="F170" s="3" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B171" s="7" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B172" s="7" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B173" s="58" t="s">
-        <v>379</v>
-      </c>
-      <c r="C173" s="61" t="s">
+      <c r="B173" s="64" t="s">
+        <v>377</v>
+      </c>
+      <c r="C173" s="55" t="s">
         <v>18</v>
       </c>
       <c r="E173" s="49"/>
-      <c r="F173" s="61" t="s">
+      <c r="F173" s="55" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B174" s="59"/>
-      <c r="C174" s="61"/>
+      <c r="B174" s="65"/>
+      <c r="C174" s="55"/>
       <c r="D174" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E174" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="F174" s="61"/>
+      <c r="F174" s="55"/>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B175" s="60"/>
+      <c r="B175" s="66"/>
       <c r="C175" s="49"/>
       <c r="D175" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E175" s="49" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F175" s="49"/>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B176" s="7" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="177" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D177" s="2" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="178" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B178" s="50" t="s">
-        <v>396</v>
-      </c>
-      <c r="C178" s="61" t="s">
+        <v>394</v>
+      </c>
+      <c r="C178" s="55" t="s">
         <v>18</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="179" spans="2:5" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B179" s="7" t="s">
-        <v>394</v>
-      </c>
-      <c r="C179" s="61"/>
+        <v>392</v>
+      </c>
+      <c r="C179" s="55"/>
       <c r="D179" s="2" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="E179" s="51" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="180" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D180" s="2" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="181" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D181" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="182" spans="2:5" ht="64.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D182" s="35" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="183" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B183" s="53" t="s">
-        <v>409</v>
-      </c>
-      <c r="C183" s="61" t="s">
+        <v>407</v>
+      </c>
+      <c r="C183" s="55" t="s">
         <v>18</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E183" s="52"/>
     </row>
     <row r="184" spans="2:5" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B184" s="53" t="s">
-        <v>408</v>
-      </c>
-      <c r="C184" s="61"/>
+        <v>406</v>
+      </c>
+      <c r="C184" s="55"/>
       <c r="D184" s="2" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="E184" s="54" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="185" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B185" s="53"/>
       <c r="C185" s="52"/>
       <c r="D185" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="E185" s="52"/>
     </row>
@@ -4275,7 +4275,7 @@
       <c r="B186" s="53"/>
       <c r="C186" s="52"/>
       <c r="D186" s="2" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="E186" s="52"/>
     </row>
@@ -4283,39 +4283,39 @@
       <c r="B187" s="53"/>
       <c r="C187" s="52"/>
       <c r="D187" s="35" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="E187" s="52"/>
     </row>
     <row r="188" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B188" s="53" t="s">
-        <v>405</v>
-      </c>
-      <c r="C188" s="61" t="s">
+        <v>403</v>
+      </c>
+      <c r="C188" s="55" t="s">
         <v>18</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E188" s="52"/>
     </row>
     <row r="189" spans="2:5" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B189" s="53" t="s">
-        <v>407</v>
-      </c>
-      <c r="C189" s="61"/>
+        <v>405</v>
+      </c>
+      <c r="C189" s="55"/>
       <c r="D189" s="2" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="E189" s="54" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="190" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B190" s="53"/>
       <c r="C190" s="52"/>
       <c r="D190" s="2" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E190" s="52"/>
     </row>
@@ -4323,7 +4323,7 @@
       <c r="B191" s="53"/>
       <c r="C191" s="52"/>
       <c r="D191" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="E191" s="52"/>
     </row>
@@ -4331,27 +4331,17 @@
       <c r="B192" s="53"/>
       <c r="C192" s="52"/>
       <c r="D192" s="35" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="E192" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="C183:C184"/>
-    <mergeCell ref="C188:C189"/>
-    <mergeCell ref="C178:C179"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="F3:F5"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="F37:F43"/>
-    <mergeCell ref="C37:C43"/>
-    <mergeCell ref="B37:B43"/>
+    <mergeCell ref="A166:A170"/>
+    <mergeCell ref="B173:B175"/>
+    <mergeCell ref="C173:C174"/>
+    <mergeCell ref="F173:F174"/>
+    <mergeCell ref="B55:B56"/>
     <mergeCell ref="F30:F32"/>
     <mergeCell ref="B30:B32"/>
     <mergeCell ref="C30:C32"/>
@@ -4367,11 +4357,21 @@
     <mergeCell ref="B22:B24"/>
     <mergeCell ref="C22:C24"/>
     <mergeCell ref="F22:F24"/>
-    <mergeCell ref="A166:A170"/>
-    <mergeCell ref="B173:B175"/>
-    <mergeCell ref="C173:C174"/>
-    <mergeCell ref="F173:F174"/>
-    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="F37:F43"/>
+    <mergeCell ref="C37:C43"/>
+    <mergeCell ref="B37:B43"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="F3:F5"/>
+    <mergeCell ref="C183:C184"/>
+    <mergeCell ref="C188:C189"/>
+    <mergeCell ref="C178:C179"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="B1:B2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4392,7 +4392,7 @@
   <sheetData>
     <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
   </sheetData>

--- a/文档/接口.xlsx
+++ b/文档/接口.xlsx
@@ -1402,10 +1402,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>api/CouponApi/GetMyCoupon/{优惠券状态}/{页数}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>state</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1683,6 +1679,10 @@
   </si>
   <si>
     <t>Quantity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/CouponApi/GetMyCoupon/{优惠券状态}/{页数}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1908,47 +1908,47 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2336,8 +2336,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G192"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="A151" workbookViewId="0">
+      <selection activeCell="B157" sqref="B157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2352,39 +2352,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B1" s="57" t="s">
+      <c r="B1" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="58" t="s">
+      <c r="C1" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="56" t="s">
+      <c r="D1" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="56"/>
-      <c r="F1" s="58" t="s">
+      <c r="E1" s="70"/>
+      <c r="F1" s="68" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B2" s="57"/>
-      <c r="C2" s="58"/>
+      <c r="B2" s="71"/>
+      <c r="C2" s="68"/>
       <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="58"/>
+      <c r="F2" s="68"/>
       <c r="G2" s="2" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="3" spans="2:7" ht="94.5" x14ac:dyDescent="0.15">
-      <c r="B3" s="59" t="s">
+      <c r="B3" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="55" t="s">
+      <c r="C3" s="61" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -2393,31 +2393,31 @@
       <c r="E3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="60" t="s">
+      <c r="F3" s="69" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B4" s="59"/>
-      <c r="C4" s="55"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="61"/>
       <c r="D4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="55"/>
+      <c r="F4" s="61"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B5" s="59"/>
-      <c r="C5" s="55"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="61"/>
       <c r="D5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="55"/>
+      <c r="F5" s="61"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B6" s="7" t="s">
@@ -2480,7 +2480,7 @@
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B10" s="7" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>19</v>
@@ -2493,32 +2493,32 @@
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B11" s="61" t="s">
+      <c r="B11" s="62" t="s">
         <v>137</v>
       </c>
-      <c r="C11" s="55" t="s">
+      <c r="C11" s="61" t="s">
         <v>18</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="55" t="s">
+      <c r="F11" s="61" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B12" s="63"/>
-      <c r="C12" s="55"/>
+      <c r="B12" s="56"/>
+      <c r="C12" s="61"/>
       <c r="D12" s="2" t="s">
         <v>122</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="F12" s="55"/>
+      <c r="F12" s="61"/>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B13" s="62"/>
+      <c r="B13" s="57"/>
       <c r="C13" s="11"/>
       <c r="D13" s="2" t="s">
         <v>120</v>
@@ -2546,10 +2546,10 @@
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B15" s="64" t="s">
+      <c r="B15" s="58" t="s">
         <v>163</v>
       </c>
-      <c r="C15" s="61" t="s">
+      <c r="C15" s="62" t="s">
         <v>39</v>
       </c>
       <c r="D15" s="2" t="s">
@@ -2558,64 +2558,64 @@
       <c r="E15" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="F15" s="61" t="s">
+      <c r="F15" s="62" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B16" s="65"/>
-      <c r="C16" s="63"/>
+      <c r="B16" s="59"/>
+      <c r="C16" s="56"/>
       <c r="D16" s="2" t="s">
         <v>83</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="F16" s="63"/>
+      <c r="F16" s="56"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B17" s="65"/>
-      <c r="C17" s="63"/>
+      <c r="B17" s="59"/>
+      <c r="C17" s="56"/>
       <c r="D17" s="2" t="s">
         <v>89</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="F17" s="63"/>
+      <c r="F17" s="56"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B18" s="65"/>
-      <c r="C18" s="63"/>
+      <c r="B18" s="59"/>
+      <c r="C18" s="56"/>
       <c r="D18" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F18" s="63"/>
+      <c r="F18" s="56"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B19" s="65"/>
-      <c r="C19" s="63"/>
+      <c r="B19" s="59"/>
+      <c r="C19" s="56"/>
       <c r="D19" s="2" t="s">
         <v>41</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="F19" s="63"/>
+      <c r="F19" s="56"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B20" s="66"/>
-      <c r="C20" s="62"/>
+      <c r="B20" s="60"/>
+      <c r="C20" s="57"/>
       <c r="D20" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="F20" s="62"/>
+      <c r="F20" s="57"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B21" s="7" t="s">
@@ -2635,49 +2635,49 @@
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B22" s="68" t="s">
+      <c r="B22" s="65" t="s">
+        <v>407</v>
+      </c>
+      <c r="C22" s="62" t="s">
+        <v>48</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>408</v>
-      </c>
-      <c r="C22" s="61" t="s">
-        <v>48</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>409</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="F22" s="61" t="s">
+      <c r="F22" s="62" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B23" s="69"/>
-      <c r="C23" s="63"/>
+      <c r="B23" s="66"/>
+      <c r="C23" s="56"/>
       <c r="D23" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="F23" s="63"/>
+      <c r="F23" s="56"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B24" s="70"/>
-      <c r="C24" s="62"/>
+      <c r="B24" s="67"/>
+      <c r="C24" s="57"/>
       <c r="D24" s="2" t="s">
         <v>202</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="F24" s="62"/>
+      <c r="F24" s="57"/>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B25" s="59" t="s">
+      <c r="B25" s="64" t="s">
         <v>99</v>
       </c>
-      <c r="C25" s="67" t="s">
+      <c r="C25" s="63" t="s">
         <v>48</v>
       </c>
       <c r="D25" s="2" t="s">
@@ -2686,59 +2686,59 @@
       <c r="E25" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="F25" s="67" t="s">
+      <c r="F25" s="63" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B26" s="59"/>
-      <c r="C26" s="67"/>
+      <c r="B26" s="64"/>
+      <c r="C26" s="63"/>
       <c r="D26" s="2" t="s">
         <v>101</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="F26" s="67"/>
+      <c r="F26" s="63"/>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B27" s="59"/>
-      <c r="C27" s="67"/>
+      <c r="B27" s="64"/>
+      <c r="C27" s="63"/>
       <c r="D27" s="2" t="s">
         <v>50</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="F27" s="67"/>
+      <c r="F27" s="63"/>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B28" s="59"/>
-      <c r="C28" s="67"/>
+      <c r="B28" s="64"/>
+      <c r="C28" s="63"/>
       <c r="D28" s="2" t="s">
         <v>102</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="F28" s="67"/>
+      <c r="F28" s="63"/>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B29" s="59"/>
-      <c r="C29" s="67"/>
+      <c r="B29" s="64"/>
+      <c r="C29" s="63"/>
       <c r="D29" s="2" t="s">
         <v>103</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F29" s="67"/>
+      <c r="F29" s="63"/>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B30" s="59" t="s">
+      <c r="B30" s="64" t="s">
         <v>175</v>
       </c>
-      <c r="C30" s="67" t="s">
+      <c r="C30" s="63" t="s">
         <v>48</v>
       </c>
       <c r="D30" s="2" t="s">
@@ -2747,31 +2747,31 @@
       <c r="E30" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="F30" s="67" t="s">
+      <c r="F30" s="63" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B31" s="59"/>
-      <c r="C31" s="67"/>
+      <c r="B31" s="64"/>
+      <c r="C31" s="63"/>
       <c r="D31" s="2" t="s">
         <v>105</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="F31" s="67"/>
+      <c r="F31" s="63"/>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B32" s="59"/>
-      <c r="C32" s="67"/>
+      <c r="B32" s="64"/>
+      <c r="C32" s="63"/>
       <c r="D32" s="2" t="s">
         <v>106</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="F32" s="67"/>
+      <c r="F32" s="63"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B33" s="7" t="s">
@@ -2836,10 +2836,10 @@
       </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B37" s="64" t="s">
+      <c r="B37" s="58" t="s">
         <v>91</v>
       </c>
-      <c r="C37" s="61" t="s">
+      <c r="C37" s="62" t="s">
         <v>65</v>
       </c>
       <c r="D37" s="2" t="s">
@@ -2848,7 +2848,7 @@
       <c r="E37" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="F37" s="61" t="s">
+      <c r="F37" s="62" t="s">
         <v>63</v>
       </c>
       <c r="G37" s="2" t="s">
@@ -2856,73 +2856,73 @@
       </c>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B38" s="65"/>
-      <c r="C38" s="63"/>
+      <c r="B38" s="59"/>
+      <c r="C38" s="56"/>
       <c r="D38" s="2" t="s">
         <v>93</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="F38" s="63"/>
+      <c r="F38" s="56"/>
       <c r="G38" s="2" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B39" s="65"/>
-      <c r="C39" s="63"/>
+      <c r="B39" s="59"/>
+      <c r="C39" s="56"/>
       <c r="D39" s="2" t="s">
         <v>94</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="F39" s="63"/>
+      <c r="F39" s="56"/>
       <c r="G39" s="2" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B40" s="65"/>
-      <c r="C40" s="63"/>
+      <c r="B40" s="59"/>
+      <c r="C40" s="56"/>
       <c r="D40" s="2" t="s">
         <v>95</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="F40" s="63"/>
+      <c r="F40" s="56"/>
       <c r="G40" s="2" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B41" s="65"/>
-      <c r="C41" s="63"/>
+      <c r="B41" s="59"/>
+      <c r="C41" s="56"/>
       <c r="D41" s="2" t="s">
         <v>96</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="F41" s="63"/>
+      <c r="F41" s="56"/>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B42" s="65"/>
-      <c r="C42" s="63"/>
+      <c r="B42" s="59"/>
+      <c r="C42" s="56"/>
       <c r="D42" s="2" t="s">
         <v>98</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="F42" s="63"/>
+      <c r="F42" s="56"/>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B43" s="66"/>
-      <c r="C43" s="62"/>
-      <c r="F43" s="62"/>
+      <c r="B43" s="60"/>
+      <c r="C43" s="57"/>
+      <c r="F43" s="57"/>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B44" s="7" t="s">
@@ -2986,7 +2986,7 @@
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B48" s="7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C48" s="11" t="s">
         <v>64</v>
@@ -2996,7 +2996,7 @@
       </c>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B49" s="61" t="s">
+      <c r="B49" s="62" t="s">
         <v>128</v>
       </c>
       <c r="C49" s="11" t="s">
@@ -3008,19 +3008,19 @@
       <c r="E49" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="F49" s="61" t="s">
+      <c r="F49" s="62" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B50" s="62"/>
+      <c r="B50" s="57"/>
       <c r="D50" s="2" t="s">
         <v>124</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="F50" s="62"/>
+      <c r="F50" s="57"/>
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B51" s="7" t="s">
@@ -3082,7 +3082,7 @@
       </c>
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B55" s="61" t="s">
+      <c r="B55" s="62" t="s">
         <v>155</v>
       </c>
       <c r="D55" s="2" t="s">
@@ -3093,7 +3093,7 @@
       </c>
     </row>
     <row r="56" spans="2:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B56" s="62"/>
+      <c r="B56" s="57"/>
       <c r="D56" s="2" t="s">
         <v>143</v>
       </c>
@@ -3451,7 +3451,7 @@
     </row>
     <row r="90" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B90" s="7" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C90" s="3" t="s">
         <v>225</v>
@@ -3609,7 +3609,7 @@
     </row>
     <row r="106" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B106" s="7" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C106" s="39" t="s">
         <v>39</v>
@@ -3620,10 +3620,10 @@
     </row>
     <row r="107" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B107" s="7" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E107" s="39" t="s">
         <v>258</v>
@@ -3650,7 +3650,7 @@
     </row>
     <row r="110" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B110" s="7" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C110" s="38" t="s">
         <v>39</v>
@@ -3661,7 +3661,7 @@
     </row>
     <row r="111" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D111" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E111" s="3" t="s">
         <v>265</v>
@@ -3669,10 +3669,10 @@
     </row>
     <row r="112" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B112" s="7" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E112" s="3" t="s">
         <v>269</v>
@@ -3852,7 +3852,7 @@
     </row>
     <row r="136" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B136" s="7" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D136" s="2" t="s">
         <v>318</v>
@@ -3971,7 +3971,7 @@
     </row>
     <row r="152" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B152" s="43" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C152" s="44"/>
       <c r="D152" s="2" t="s">
@@ -4007,7 +4007,7 @@
     </row>
     <row r="157" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B157" s="7" t="s">
-        <v>349</v>
+        <v>412</v>
       </c>
       <c r="C157" s="45" t="s">
         <v>64</v>
@@ -4026,159 +4026,159 @@
     </row>
     <row r="160" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B160" s="7" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C160" s="46" t="s">
         <v>64</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B161" s="7" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E161" s="3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="162" spans="1:6" ht="54" x14ac:dyDescent="0.15">
       <c r="D162" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E162" s="47" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.15">
       <c r="D163" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E163" s="3" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B164" s="48"/>
       <c r="C164" s="49"/>
       <c r="D164" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="E164" s="49" t="s">
         <v>383</v>
-      </c>
-      <c r="E164" s="49" t="s">
-        <v>384</v>
       </c>
       <c r="F164" s="49"/>
     </row>
     <row r="165" spans="1:6" ht="54" x14ac:dyDescent="0.15">
       <c r="D165" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E165" s="47" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A166" s="55" t="s">
+        <v>373</v>
+      </c>
+      <c r="B166" s="48" t="s">
         <v>364</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A166" s="71" t="s">
-        <v>374</v>
-      </c>
-      <c r="B166" s="48" t="s">
-        <v>365</v>
       </c>
       <c r="C166" s="49" t="s">
         <v>64</v>
       </c>
       <c r="E166" s="49"/>
       <c r="F166" s="49" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A167" s="63"/>
+      <c r="A167" s="56"/>
       <c r="B167" s="7" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C167" s="49" t="s">
         <v>64</v>
       </c>
       <c r="F167" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A168" s="63"/>
+      <c r="A168" s="56"/>
       <c r="B168" s="7" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C168" s="49" t="s">
         <v>64</v>
       </c>
       <c r="F168" s="3" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A169" s="63"/>
+      <c r="A169" s="56"/>
       <c r="B169" s="7" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C169" s="49" t="s">
         <v>64</v>
       </c>
       <c r="F169" s="3" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A170" s="62"/>
+      <c r="A170" s="57"/>
       <c r="B170" s="7" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C170" s="49" t="s">
         <v>64</v>
       </c>
       <c r="F170" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B171" s="7" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B172" s="7" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B173" s="58" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B173" s="64" t="s">
-        <v>377</v>
-      </c>
-      <c r="C173" s="55" t="s">
+      <c r="C173" s="61" t="s">
         <v>18</v>
       </c>
       <c r="E173" s="49"/>
-      <c r="F173" s="55" t="s">
+      <c r="F173" s="61" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B174" s="65"/>
-      <c r="C174" s="55"/>
+      <c r="B174" s="59"/>
+      <c r="C174" s="61"/>
       <c r="D174" s="2" t="s">
         <v>122</v>
       </c>
       <c r="E174" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="F174" s="55"/>
+      <c r="F174" s="61"/>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B175" s="66"/>
+      <c r="B175" s="60"/>
       <c r="C175" s="49"/>
       <c r="D175" s="2" t="s">
         <v>120</v>
@@ -4190,60 +4190,60 @@
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B176" s="7" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="177" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D177" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="178" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B178" s="50" t="s">
-        <v>394</v>
-      </c>
-      <c r="C178" s="55" t="s">
+        <v>393</v>
+      </c>
+      <c r="C178" s="61" t="s">
         <v>18</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="179" spans="2:5" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B179" s="7" t="s">
-        <v>392</v>
-      </c>
-      <c r="C179" s="55"/>
+        <v>391</v>
+      </c>
+      <c r="C179" s="61"/>
       <c r="D179" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E179" s="51" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="180" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D180" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="181" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D181" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="182" spans="2:5" ht="64.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D182" s="35" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="183" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B183" s="53" t="s">
-        <v>407</v>
-      </c>
-      <c r="C183" s="55" t="s">
+        <v>406</v>
+      </c>
+      <c r="C183" s="61" t="s">
         <v>18</v>
       </c>
       <c r="D183" s="2" t="s">
@@ -4253,21 +4253,21 @@
     </row>
     <row r="184" spans="2:5" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B184" s="53" t="s">
-        <v>406</v>
-      </c>
-      <c r="C184" s="55"/>
+        <v>405</v>
+      </c>
+      <c r="C184" s="61"/>
       <c r="D184" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E184" s="54" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="185" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B185" s="53"/>
       <c r="C185" s="52"/>
       <c r="D185" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E185" s="52"/>
     </row>
@@ -4275,7 +4275,7 @@
       <c r="B186" s="53"/>
       <c r="C186" s="52"/>
       <c r="D186" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E186" s="52"/>
     </row>
@@ -4283,15 +4283,15 @@
       <c r="B187" s="53"/>
       <c r="C187" s="52"/>
       <c r="D187" s="35" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E187" s="52"/>
     </row>
     <row r="188" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B188" s="53" t="s">
-        <v>403</v>
-      </c>
-      <c r="C188" s="55" t="s">
+        <v>402</v>
+      </c>
+      <c r="C188" s="61" t="s">
         <v>18</v>
       </c>
       <c r="D188" s="2" t="s">
@@ -4301,21 +4301,21 @@
     </row>
     <row r="189" spans="2:5" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B189" s="53" t="s">
-        <v>405</v>
-      </c>
-      <c r="C189" s="55"/>
+        <v>404</v>
+      </c>
+      <c r="C189" s="61"/>
       <c r="D189" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E189" s="54" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="190" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B190" s="53"/>
       <c r="C190" s="52"/>
       <c r="D190" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E190" s="52"/>
     </row>
@@ -4323,7 +4323,7 @@
       <c r="B191" s="53"/>
       <c r="C191" s="52"/>
       <c r="D191" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E191" s="52"/>
     </row>
@@ -4331,17 +4331,27 @@
       <c r="B192" s="53"/>
       <c r="C192" s="52"/>
       <c r="D192" s="35" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E192" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="A166:A170"/>
-    <mergeCell ref="B173:B175"/>
-    <mergeCell ref="C173:C174"/>
-    <mergeCell ref="F173:F174"/>
-    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="C183:C184"/>
+    <mergeCell ref="C188:C189"/>
+    <mergeCell ref="C178:C179"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="F3:F5"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="F37:F43"/>
+    <mergeCell ref="C37:C43"/>
+    <mergeCell ref="B37:B43"/>
     <mergeCell ref="F30:F32"/>
     <mergeCell ref="B30:B32"/>
     <mergeCell ref="C30:C32"/>
@@ -4357,21 +4367,11 @@
     <mergeCell ref="B22:B24"/>
     <mergeCell ref="C22:C24"/>
     <mergeCell ref="F22:F24"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="F37:F43"/>
-    <mergeCell ref="C37:C43"/>
-    <mergeCell ref="B37:B43"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="F3:F5"/>
-    <mergeCell ref="C183:C184"/>
-    <mergeCell ref="C188:C189"/>
-    <mergeCell ref="C178:C179"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="A166:A170"/>
+    <mergeCell ref="B173:B175"/>
+    <mergeCell ref="C173:C174"/>
+    <mergeCell ref="F173:F174"/>
+    <mergeCell ref="B55:B56"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/文档/接口.xlsx
+++ b/文档/接口.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="413">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="416">
   <si>
     <t>调用方式</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1132,10 +1132,6 @@
   </si>
   <si>
     <t>获取订单状态变更记录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>api/userapi/GetMySelf</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1683,6 +1679,26 @@
   </si>
   <si>
     <t>api/CouponApi/GetMyCoupon/{优惠券状态}/{页数}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/userapi/GetBalance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回值  {
+  "IsSuccess": true,
+  "Msg": "操作成功",
+  "data": 0.0
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回余额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/userapi/GetMySelf   返回值中添加字段Balance（余额）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1784,7 +1800,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1908,6 +1924,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1972,13 +1992,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>1247775</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>75</xdr:row>
       <xdr:rowOff>381000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>465099</xdr:colOff>
-      <xdr:row>114</xdr:row>
+      <xdr:row>115</xdr:row>
       <xdr:rowOff>151486</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2010,13 +2030,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>2076402</xdr:colOff>
-      <xdr:row>88</xdr:row>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>142876</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>2857500</xdr:colOff>
-      <xdr:row>91</xdr:row>
+      <xdr:row>92</xdr:row>
       <xdr:rowOff>132958</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2334,10 +2354,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G192"/>
+  <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A151" workbookViewId="0">
-      <selection activeCell="B157" sqref="B157"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2352,39 +2372,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B1" s="71" t="s">
+      <c r="B1" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="68" t="s">
+      <c r="C1" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="70" t="s">
+      <c r="D1" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="70"/>
-      <c r="F1" s="68" t="s">
+      <c r="E1" s="72"/>
+      <c r="F1" s="70" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B2" s="71"/>
-      <c r="C2" s="68"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="70"/>
       <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="68"/>
+      <c r="F2" s="70"/>
       <c r="G2" s="2" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="3" spans="2:7" ht="94.5" x14ac:dyDescent="0.15">
-      <c r="B3" s="64" t="s">
+      <c r="B3" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="61" t="s">
+      <c r="C3" s="63" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -2393,31 +2413,31 @@
       <c r="E3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="69" t="s">
+      <c r="F3" s="71" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B4" s="64"/>
-      <c r="C4" s="61"/>
+      <c r="B4" s="66"/>
+      <c r="C4" s="63"/>
       <c r="D4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="61"/>
+      <c r="F4" s="63"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B5" s="64"/>
-      <c r="C5" s="61"/>
+      <c r="B5" s="66"/>
+      <c r="C5" s="63"/>
       <c r="D5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="61"/>
+      <c r="F5" s="63"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B6" s="7" t="s">
@@ -2480,7 +2500,7 @@
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B10" s="7" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>19</v>
@@ -2493,32 +2513,32 @@
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B11" s="62" t="s">
+      <c r="B11" s="64" t="s">
         <v>137</v>
       </c>
-      <c r="C11" s="61" t="s">
+      <c r="C11" s="63" t="s">
         <v>18</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="61" t="s">
+      <c r="F11" s="63" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B12" s="56"/>
-      <c r="C12" s="61"/>
+      <c r="B12" s="58"/>
+      <c r="C12" s="63"/>
       <c r="D12" s="2" t="s">
         <v>122</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="F12" s="61"/>
+      <c r="F12" s="63"/>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B13" s="57"/>
+      <c r="B13" s="59"/>
       <c r="C13" s="11"/>
       <c r="D13" s="2" t="s">
         <v>120</v>
@@ -2546,10 +2566,10 @@
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B15" s="58" t="s">
+      <c r="B15" s="60" t="s">
         <v>163</v>
       </c>
-      <c r="C15" s="62" t="s">
+      <c r="C15" s="64" t="s">
         <v>39</v>
       </c>
       <c r="D15" s="2" t="s">
@@ -2558,64 +2578,64 @@
       <c r="E15" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="F15" s="62" t="s">
+      <c r="F15" s="64" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B16" s="59"/>
-      <c r="C16" s="56"/>
+      <c r="B16" s="61"/>
+      <c r="C16" s="58"/>
       <c r="D16" s="2" t="s">
         <v>83</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="F16" s="56"/>
+      <c r="F16" s="58"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B17" s="59"/>
-      <c r="C17" s="56"/>
+      <c r="B17" s="61"/>
+      <c r="C17" s="58"/>
       <c r="D17" s="2" t="s">
         <v>89</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="F17" s="56"/>
+      <c r="F17" s="58"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B18" s="59"/>
-      <c r="C18" s="56"/>
+      <c r="B18" s="61"/>
+      <c r="C18" s="58"/>
       <c r="D18" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F18" s="56"/>
+      <c r="F18" s="58"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B19" s="59"/>
-      <c r="C19" s="56"/>
+      <c r="B19" s="61"/>
+      <c r="C19" s="58"/>
       <c r="D19" s="2" t="s">
         <v>41</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="F19" s="56"/>
+      <c r="F19" s="58"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B20" s="60"/>
-      <c r="C20" s="57"/>
+      <c r="B20" s="62"/>
+      <c r="C20" s="59"/>
       <c r="D20" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="F20" s="57"/>
+      <c r="F20" s="59"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B21" s="7" t="s">
@@ -2635,49 +2655,49 @@
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B22" s="65" t="s">
+      <c r="B22" s="67" t="s">
+        <v>406</v>
+      </c>
+      <c r="C22" s="64" t="s">
+        <v>48</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>407</v>
-      </c>
-      <c r="C22" s="62" t="s">
-        <v>48</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>408</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="F22" s="62" t="s">
+      <c r="F22" s="64" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B23" s="66"/>
-      <c r="C23" s="56"/>
+      <c r="B23" s="68"/>
+      <c r="C23" s="58"/>
       <c r="D23" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="F23" s="56"/>
+      <c r="F23" s="58"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B24" s="67"/>
-      <c r="C24" s="57"/>
+      <c r="B24" s="69"/>
+      <c r="C24" s="59"/>
       <c r="D24" s="2" t="s">
         <v>202</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="F24" s="57"/>
+      <c r="F24" s="59"/>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B25" s="64" t="s">
+      <c r="B25" s="66" t="s">
         <v>99</v>
       </c>
-      <c r="C25" s="63" t="s">
+      <c r="C25" s="65" t="s">
         <v>48</v>
       </c>
       <c r="D25" s="2" t="s">
@@ -2686,59 +2706,59 @@
       <c r="E25" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="F25" s="63" t="s">
+      <c r="F25" s="65" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B26" s="64"/>
-      <c r="C26" s="63"/>
+      <c r="B26" s="66"/>
+      <c r="C26" s="65"/>
       <c r="D26" s="2" t="s">
         <v>101</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="F26" s="63"/>
+      <c r="F26" s="65"/>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B27" s="64"/>
-      <c r="C27" s="63"/>
+      <c r="B27" s="66"/>
+      <c r="C27" s="65"/>
       <c r="D27" s="2" t="s">
         <v>50</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="F27" s="63"/>
+      <c r="F27" s="65"/>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B28" s="64"/>
-      <c r="C28" s="63"/>
+      <c r="B28" s="66"/>
+      <c r="C28" s="65"/>
       <c r="D28" s="2" t="s">
         <v>102</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="F28" s="63"/>
+      <c r="F28" s="65"/>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B29" s="64"/>
-      <c r="C29" s="63"/>
+      <c r="B29" s="66"/>
+      <c r="C29" s="65"/>
       <c r="D29" s="2" t="s">
         <v>103</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F29" s="63"/>
+      <c r="F29" s="65"/>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B30" s="64" t="s">
+      <c r="B30" s="66" t="s">
         <v>175</v>
       </c>
-      <c r="C30" s="63" t="s">
+      <c r="C30" s="65" t="s">
         <v>48</v>
       </c>
       <c r="D30" s="2" t="s">
@@ -2747,31 +2767,31 @@
       <c r="E30" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="F30" s="63" t="s">
+      <c r="F30" s="65" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B31" s="64"/>
-      <c r="C31" s="63"/>
+      <c r="B31" s="66"/>
+      <c r="C31" s="65"/>
       <c r="D31" s="2" t="s">
         <v>105</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="F31" s="63"/>
+      <c r="F31" s="65"/>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B32" s="64"/>
-      <c r="C32" s="63"/>
+      <c r="B32" s="66"/>
+      <c r="C32" s="65"/>
       <c r="D32" s="2" t="s">
         <v>106</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="F32" s="63"/>
+      <c r="F32" s="65"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B33" s="7" t="s">
@@ -2836,10 +2856,10 @@
       </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B37" s="58" t="s">
+      <c r="B37" s="60" t="s">
         <v>91</v>
       </c>
-      <c r="C37" s="62" t="s">
+      <c r="C37" s="64" t="s">
         <v>65</v>
       </c>
       <c r="D37" s="2" t="s">
@@ -2848,7 +2868,7 @@
       <c r="E37" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="F37" s="62" t="s">
+      <c r="F37" s="64" t="s">
         <v>63</v>
       </c>
       <c r="G37" s="2" t="s">
@@ -2856,73 +2876,73 @@
       </c>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B38" s="59"/>
-      <c r="C38" s="56"/>
+      <c r="B38" s="61"/>
+      <c r="C38" s="58"/>
       <c r="D38" s="2" t="s">
         <v>93</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="F38" s="56"/>
+      <c r="F38" s="58"/>
       <c r="G38" s="2" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B39" s="59"/>
-      <c r="C39" s="56"/>
+      <c r="B39" s="61"/>
+      <c r="C39" s="58"/>
       <c r="D39" s="2" t="s">
         <v>94</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="F39" s="56"/>
+      <c r="F39" s="58"/>
       <c r="G39" s="2" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B40" s="59"/>
-      <c r="C40" s="56"/>
+      <c r="B40" s="61"/>
+      <c r="C40" s="58"/>
       <c r="D40" s="2" t="s">
         <v>95</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="F40" s="56"/>
+      <c r="F40" s="58"/>
       <c r="G40" s="2" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B41" s="59"/>
-      <c r="C41" s="56"/>
+      <c r="B41" s="61"/>
+      <c r="C41" s="58"/>
       <c r="D41" s="2" t="s">
         <v>96</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="F41" s="56"/>
+      <c r="F41" s="58"/>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B42" s="59"/>
-      <c r="C42" s="56"/>
+      <c r="B42" s="61"/>
+      <c r="C42" s="58"/>
       <c r="D42" s="2" t="s">
         <v>98</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="F42" s="56"/>
+      <c r="F42" s="58"/>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B43" s="60"/>
-      <c r="C43" s="57"/>
-      <c r="F43" s="57"/>
+      <c r="B43" s="62"/>
+      <c r="C43" s="59"/>
+      <c r="F43" s="59"/>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B44" s="7" t="s">
@@ -2986,7 +3006,7 @@
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B48" s="7" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C48" s="11" t="s">
         <v>64</v>
@@ -2996,7 +3016,7 @@
       </c>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B49" s="62" t="s">
+      <c r="B49" s="64" t="s">
         <v>128</v>
       </c>
       <c r="C49" s="11" t="s">
@@ -3008,19 +3028,19 @@
       <c r="E49" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="F49" s="62" t="s">
+      <c r="F49" s="64" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B50" s="57"/>
+      <c r="B50" s="59"/>
       <c r="D50" s="2" t="s">
         <v>124</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="F50" s="57"/>
+      <c r="F50" s="59"/>
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B51" s="7" t="s">
@@ -3082,7 +3102,7 @@
       </c>
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B55" s="62" t="s">
+      <c r="B55" s="64" t="s">
         <v>155</v>
       </c>
       <c r="D55" s="2" t="s">
@@ -3093,7 +3113,7 @@
       </c>
     </row>
     <row r="56" spans="2:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B56" s="57"/>
+      <c r="B56" s="59"/>
       <c r="D56" s="2" t="s">
         <v>143</v>
       </c>
@@ -3153,7 +3173,7 @@
     </row>
     <row r="61" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B61" s="19" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C61" s="20" t="s">
         <v>64</v>
@@ -3173,7 +3193,7 @@
         <v>160</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="63" spans="2:6" x14ac:dyDescent="0.15">
@@ -3243,7 +3263,7 @@
     </row>
     <row r="70" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B70" s="22" t="s">
-        <v>281</v>
+        <v>415</v>
       </c>
       <c r="C70" s="3" t="s">
         <v>165</v>
@@ -3255,474 +3275,481 @@
         <v>176</v>
       </c>
     </row>
-    <row r="71" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B71" s="7" t="s">
+    <row r="71" spans="2:6" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="B71" s="56" t="s">
+        <v>412</v>
+      </c>
+      <c r="C71" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="D71" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="E71" s="55"/>
+      <c r="F71" s="55" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="72" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B72" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="C71" s="3" t="s">
+      <c r="C72" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="D71" s="2" t="s">
+      <c r="D72" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="E71" s="2" t="s">
+      <c r="E72" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="F71" s="3" t="s">
+      <c r="F72" s="3" t="s">
         <v>179</v>
-      </c>
-    </row>
-    <row r="72" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="D72" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="73" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D73" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="74" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="D74" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="E73" s="2" t="s">
+      <c r="E74" s="2" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="74" spans="2:6" ht="27" x14ac:dyDescent="0.15">
-      <c r="B74" s="23" t="s">
-        <v>299</v>
-      </c>
-      <c r="C74" s="24" t="s">
+    <row r="75" spans="2:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="B75" s="23" t="s">
+        <v>298</v>
+      </c>
+      <c r="C75" s="24" t="s">
         <v>146</v>
       </c>
-      <c r="D74" s="2" t="s">
+      <c r="D75" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="E74" s="3" t="s">
+      <c r="E75" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="F74" s="25" t="s">
+      <c r="F75" s="25" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="75" spans="2:6" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="D75" s="2" t="s">
+    <row r="76" spans="2:6" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="D76" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="E75" s="25" t="s">
+      <c r="E76" s="25" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="76" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B76" s="7" t="s">
+    <row r="77" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B77" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="C76" s="26" t="s">
+      <c r="C77" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="D76" s="2" t="s">
+      <c r="D77" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="E76" s="3" t="s">
+      <c r="E77" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="F76" s="3" t="s">
+      <c r="F77" s="3" t="s">
         <v>200</v>
-      </c>
-    </row>
-    <row r="77" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="D77" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="E77" s="3" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="78" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D78" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="79" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="D79" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="E78" s="3" t="s">
+      <c r="E79" s="3" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="79" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B79" s="7" t="s">
+    <row r="80" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B80" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="D79" s="2" t="s">
+      <c r="D80" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="E79" s="3" t="s">
+      <c r="E80" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="F79" s="3" t="s">
+      <c r="F80" s="3" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="80" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B80" s="27" t="s">
+    <row r="81" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B81" s="27" t="s">
         <v>207</v>
       </c>
-      <c r="D80" s="2" t="s">
+      <c r="D81" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="E80" s="3" t="s">
+      <c r="E81" s="3" t="s">
         <v>210</v>
-      </c>
-    </row>
-    <row r="81" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="D81" s="2" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="82" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D82" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="83" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="D83" s="2" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="83" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B83" s="7" t="s">
+    <row r="84" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B84" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="D83" s="2" t="s">
+      <c r="D84" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="E83" s="31" t="s">
+      <c r="E84" s="31" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="84" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B84" s="30" t="s">
+    <row r="85" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B85" s="30" t="s">
         <v>249</v>
       </c>
-      <c r="C84" s="31"/>
-      <c r="E84" s="31"/>
-      <c r="F84" s="31"/>
-    </row>
-    <row r="85" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B85" s="7" t="s">
+      <c r="C85" s="31"/>
+      <c r="E85" s="31"/>
+      <c r="F85" s="31"/>
+    </row>
+    <row r="86" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B86" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="D85" s="2" t="s">
+      <c r="D86" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="E85" s="27" t="s">
+      <c r="E86" s="27" t="s">
         <v>215</v>
       </c>
-      <c r="F85" s="3" t="s">
+      <c r="F86" s="3" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="86" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B86" s="27" t="s">
+    <row r="87" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B87" s="27" t="s">
         <v>206</v>
       </c>
-      <c r="D86" s="2" t="s">
+      <c r="D87" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="E86" s="27" t="s">
+      <c r="E87" s="27" t="s">
         <v>210</v>
-      </c>
-    </row>
-    <row r="87" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="D87" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="E87" s="3" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="88" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D88" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="89" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D89" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="90" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="D90" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="E89" s="3" t="s">
+      <c r="E90" s="3" t="s">
         <v>221</v>
-      </c>
-    </row>
-    <row r="90" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B90" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="C90" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="E90" s="3" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="91" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B91" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="92" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B92" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="D91" s="2" t="s">
+      <c r="D92" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="E91" s="3" t="s">
+      <c r="E92" s="3" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="92" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B92" s="33"/>
-      <c r="C92" s="34"/>
-      <c r="D92" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="E92" s="34" t="s">
-        <v>304</v>
-      </c>
-      <c r="F92" s="34"/>
-    </row>
     <row r="93" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B93" s="28" t="s">
+      <c r="B93" s="33"/>
+      <c r="C93" s="34"/>
+      <c r="D93" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="E93" s="34" t="s">
+        <v>303</v>
+      </c>
+      <c r="F93" s="34"/>
+    </row>
+    <row r="94" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B94" s="28" t="s">
         <v>237</v>
       </c>
-      <c r="C93" s="3" t="s">
+      <c r="C94" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="D93" s="2" t="s">
+      <c r="D94" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="E93" s="3" t="s">
+      <c r="E94" s="3" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="94" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B94" s="7" t="s">
+    <row r="95" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B95" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="D94" s="2" t="s">
+      <c r="D95" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="E94" s="3" t="s">
+      <c r="E95" s="3" t="s">
         <v>234</v>
-      </c>
-    </row>
-    <row r="95" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="D95" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="E95" s="3" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="96" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D96" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="E96" s="3" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="97" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="D97" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="E96" s="3" t="s">
+      <c r="E97" s="3" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="97" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B97" s="33"/>
-      <c r="C97" s="34"/>
-      <c r="D97" s="2" t="s">
+    <row r="98" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B98" s="33"/>
+      <c r="C98" s="34"/>
+      <c r="D98" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="E97" s="34" t="s">
-        <v>303</v>
-      </c>
-      <c r="F97" s="34"/>
-    </row>
-    <row r="98" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B98" s="36"/>
-      <c r="C98" s="37"/>
-      <c r="D98" s="2" t="s">
+      <c r="E98" s="34" t="s">
+        <v>302</v>
+      </c>
+      <c r="F98" s="34"/>
+    </row>
+    <row r="99" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B99" s="36"/>
+      <c r="C99" s="37"/>
+      <c r="D99" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="E98" s="37" t="s">
+      <c r="E99" s="37" t="s">
         <v>255</v>
       </c>
-      <c r="F98" s="37"/>
-    </row>
-    <row r="99" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B99" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="C99" s="29" t="s">
-        <v>225</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>238</v>
-      </c>
+      <c r="F99" s="37"/>
     </row>
     <row r="100" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B100" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="C100" s="29" t="s">
+        <v>225</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="101" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B101" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="D100" s="2" t="s">
+      <c r="D101" s="2" t="s">
         <v>239</v>
-      </c>
-    </row>
-    <row r="101" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="D101" s="2" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="102" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D102" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="E102" s="3" t="s">
-        <v>262</v>
+        <v>240</v>
       </c>
     </row>
     <row r="103" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D103" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="E103" s="3" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="104" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="D104" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="E103" s="3" t="s">
+      <c r="E104" s="3" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="104" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B104" s="7" t="s">
+    <row r="105" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B105" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="C104" s="32" t="s">
+      <c r="C105" s="32" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="105" spans="2:6" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="B105" s="35" t="s">
+    <row r="106" spans="2:6" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="B106" s="35" t="s">
         <v>252</v>
       </c>
-      <c r="D105" s="2" t="s">
+      <c r="D106" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="E105" s="3" t="s">
+      <c r="E106" s="3" t="s">
         <v>251</v>
-      </c>
-    </row>
-    <row r="106" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B106" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="C106" s="39" t="s">
-        <v>39</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="107" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B107" s="7" t="s">
-        <v>388</v>
+        <v>386</v>
+      </c>
+      <c r="C107" s="39" t="s">
+        <v>39</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="E107" s="39" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="108" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B108" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="E108" s="39" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="108" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="D108" s="2" t="s">
+    <row r="109" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="D109" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="E108" s="3" t="s">
+      <c r="E109" s="3" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="109" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B109" s="39" t="s">
+    <row r="110" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B110" s="39" t="s">
         <v>258</v>
       </c>
-      <c r="D109" s="2" t="s">
+      <c r="D110" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="E109" s="39" t="s">
+      <c r="E110" s="39" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="110" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B110" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="C110" s="38" t="s">
+    <row r="111" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B111" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="C111" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="D110" s="2" t="s">
+      <c r="D111" s="2" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="111" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="D111" s="2" t="s">
+    <row r="112" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="D112" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="E112" s="3" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="113" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B113" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="D113" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="E111" s="3" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="112" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B112" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="E112" s="3" t="s">
+      <c r="E113" s="3" t="s">
         <v>269</v>
-      </c>
-    </row>
-    <row r="113" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="D113" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="E113" s="3" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="114" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D114" s="2" t="s">
-        <v>267</v>
+        <v>345</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="115" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D115" s="2" t="s">
-        <v>270</v>
+        <v>267</v>
+      </c>
+      <c r="E115" s="3" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="116" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D116" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="117" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D117" s="2" t="s">
-        <v>305</v>
+        <v>271</v>
       </c>
     </row>
     <row r="118" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D118" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="E118" s="3" t="s">
-        <v>272</v>
+        <v>304</v>
       </c>
     </row>
     <row r="119" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D119" s="2" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="E119" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="120" spans="2:5" x14ac:dyDescent="0.15">
@@ -3730,616 +3757,624 @@
         <v>307</v>
       </c>
       <c r="E120" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="121" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D121" s="2" t="s">
-        <v>310</v>
+        <v>306</v>
+      </c>
+      <c r="E121" s="3" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="122" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D122" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="E122" s="38" t="s">
-        <v>276</v>
+        <v>309</v>
       </c>
     </row>
     <row r="123" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D123" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="E123" s="38" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="124" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D124" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="E123" s="3" t="s">
+      <c r="E124" s="3" t="s">
         <v>278</v>
-      </c>
-    </row>
-    <row r="124" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B124" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="C124" s="3" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="125" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B125" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="C125" s="3" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="126" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B126" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="C126" s="41" t="s">
+        <v>291</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="E126" s="3" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="127" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C127" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="D127" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="C125" s="41" t="s">
-        <v>292</v>
-      </c>
-      <c r="D125" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="E125" s="3" t="s">
+      <c r="E127" s="3" t="s">
         <v>293</v>
-      </c>
-    </row>
-    <row r="126" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="C126" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="D126" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="E126" s="3" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="127" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="D127" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="E127" s="3" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="128" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D128" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E128" s="3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="129" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D129" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="E129" s="3" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="130" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D130" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E130" s="3" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="131" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D131" s="2" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E131" s="3" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
     </row>
     <row r="132" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B132" s="40" t="s">
-        <v>300</v>
+      <c r="D132" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="E132" s="3" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="133" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B133" s="7" t="s">
-        <v>301</v>
+      <c r="B133" s="40" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="134" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B134" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="D134" s="2" t="s">
-        <v>315</v>
+        <v>300</v>
       </c>
     </row>
     <row r="135" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B135" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="D135" s="2" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="136" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B136" s="7" t="s">
-        <v>389</v>
-      </c>
-      <c r="D136" s="2" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
     </row>
     <row r="137" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B137" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="D137" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="D137" s="2" t="s">
-        <v>319</v>
-      </c>
     </row>
     <row r="138" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B138" s="7" t="s">
+        <v>316</v>
+      </c>
       <c r="D138" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="E138" s="42"/>
+        <v>318</v>
+      </c>
     </row>
     <row r="139" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D139" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="E139" s="3" t="s">
-        <v>331</v>
-      </c>
+        <v>319</v>
+      </c>
+      <c r="E139" s="42"/>
     </row>
     <row r="140" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D140" s="2" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="E140" s="3" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="141" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D141" s="2" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E141" s="3" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="142" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D142" s="2" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="E142" s="3" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="143" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D143" s="2" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="E143" s="3" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="144" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D144" s="2" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="E144" s="3" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="145" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D145" s="2" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E145" s="3" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="146" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D146" s="2" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="E146" s="3" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="147" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D147" s="2" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="E147" s="3" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="148" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D148" s="2" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="E148" s="3" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="149" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B149" s="43"/>
-    </row>
-    <row r="151" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B151" s="43" t="s">
-        <v>348</v>
-      </c>
-      <c r="C151" s="44" t="s">
-        <v>64</v>
-      </c>
-      <c r="D151" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="E151" s="44" t="s">
-        <v>157</v>
-      </c>
+      <c r="D149" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="E149" s="3" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="150" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B150" s="43"/>
     </row>
     <row r="152" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B152" s="43" t="s">
-        <v>390</v>
-      </c>
-      <c r="C152" s="44"/>
+        <v>347</v>
+      </c>
+      <c r="C152" s="44" t="s">
+        <v>64</v>
+      </c>
       <c r="D152" s="2" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="E152" s="44" t="s">
-        <v>309</v>
+        <v>157</v>
       </c>
     </row>
     <row r="153" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B153" s="43"/>
+      <c r="B153" s="43" t="s">
+        <v>389</v>
+      </c>
       <c r="C153" s="44"/>
       <c r="D153" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E153" s="44" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="154" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B154" s="43"/>
+      <c r="C154" s="44"/>
+      <c r="D154" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="E153" s="44" t="s">
+      <c r="E154" s="44" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="154" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B154" s="43" t="s">
-        <v>347</v>
-      </c>
-      <c r="C154" s="44" t="s">
+    <row r="155" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B155" s="43" t="s">
+        <v>346</v>
+      </c>
+      <c r="C155" s="44" t="s">
         <v>64</v>
       </c>
-      <c r="E154" s="44"/>
-    </row>
-    <row r="155" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B155" s="7" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="157" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B157" s="7" t="s">
-        <v>412</v>
-      </c>
-      <c r="C157" s="45" t="s">
-        <v>64</v>
-      </c>
-      <c r="D157" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="E157" s="3" t="s">
-        <v>344</v>
+      <c r="E155" s="44"/>
+    </row>
+    <row r="156" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B156" s="7" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="158" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B158" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="C158" s="45" t="s">
+        <v>64</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="E158" s="3" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="160" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B160" s="7" t="s">
-        <v>385</v>
-      </c>
-      <c r="C160" s="46" t="s">
-        <v>64</v>
-      </c>
-      <c r="D160" s="2" t="s">
-        <v>355</v>
+    <row r="159" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B159" s="7" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B161" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="C161" s="46" t="s">
+        <v>64</v>
+      </c>
+      <c r="D161" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="D161" s="2" t="s">
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B162" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="E162" s="3" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" ht="54" x14ac:dyDescent="0.15">
+      <c r="D163" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="E161" s="3" t="s">
+      <c r="E163" s="47" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="D164" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="E164" s="3" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="162" spans="1:6" ht="54" x14ac:dyDescent="0.15">
-      <c r="D162" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="E162" s="47" t="s">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B165" s="48"/>
+      <c r="C165" s="49"/>
+      <c r="D165" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="E165" s="49" t="s">
+        <v>382</v>
+      </c>
+      <c r="F165" s="49"/>
+    </row>
+    <row r="166" spans="1:6" ht="54" x14ac:dyDescent="0.15">
+      <c r="D166" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="E166" s="47" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="D163" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="E163" s="3" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B164" s="48"/>
-      <c r="C164" s="49"/>
-      <c r="D164" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="E164" s="49" t="s">
-        <v>383</v>
-      </c>
-      <c r="F164" s="49"/>
-    </row>
-    <row r="165" spans="1:6" ht="54" x14ac:dyDescent="0.15">
-      <c r="D165" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="E165" s="47" t="s">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A167" s="57" t="s">
+        <v>372</v>
+      </c>
+      <c r="B167" s="48" t="s">
         <v>363</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A166" s="55" t="s">
-        <v>373</v>
-      </c>
-      <c r="B166" s="48" t="s">
-        <v>364</v>
-      </c>
-      <c r="C166" s="49" t="s">
-        <v>64</v>
-      </c>
-      <c r="E166" s="49"/>
-      <c r="F166" s="49" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A167" s="56"/>
-      <c r="B167" s="7" t="s">
-        <v>365</v>
       </c>
       <c r="C167" s="49" t="s">
         <v>64</v>
       </c>
-      <c r="F167" s="3" t="s">
-        <v>369</v>
+      <c r="E167" s="49"/>
+      <c r="F167" s="49" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A168" s="56"/>
+      <c r="A168" s="58"/>
       <c r="B168" s="7" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C168" s="49" t="s">
         <v>64</v>
       </c>
       <c r="F168" s="3" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A169" s="56"/>
+      <c r="A169" s="58"/>
       <c r="B169" s="7" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C169" s="49" t="s">
         <v>64</v>
       </c>
       <c r="F169" s="3" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A170" s="57"/>
+      <c r="A170" s="58"/>
       <c r="B170" s="7" t="s">
-        <v>379</v>
+        <v>366</v>
       </c>
       <c r="C170" s="49" t="s">
         <v>64</v>
       </c>
       <c r="F170" s="3" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A171" s="59"/>
       <c r="B171" s="7" t="s">
-        <v>374</v>
+        <v>378</v>
+      </c>
+      <c r="C171" s="49" t="s">
+        <v>64</v>
+      </c>
+      <c r="F171" s="3" t="s">
+        <v>371</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B172" s="7" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B173" s="7" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B174" s="60" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B173" s="58" t="s">
+      <c r="C174" s="63" t="s">
+        <v>18</v>
+      </c>
+      <c r="E174" s="49"/>
+      <c r="F174" s="63" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B175" s="61"/>
+      <c r="C175" s="63"/>
+      <c r="D175" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E175" s="49" t="s">
+        <v>34</v>
+      </c>
+      <c r="F175" s="63"/>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B176" s="62"/>
+      <c r="C176" s="49"/>
+      <c r="D176" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E176" s="49" t="s">
+        <v>121</v>
+      </c>
+      <c r="F176" s="49"/>
+    </row>
+    <row r="177" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B177" s="7" t="s">
         <v>376</v>
       </c>
-      <c r="C173" s="61" t="s">
+      <c r="D177" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="178" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D178" s="2" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="179" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B179" s="50" t="s">
+        <v>392</v>
+      </c>
+      <c r="C179" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="E173" s="49"/>
-      <c r="F173" s="61" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B174" s="59"/>
-      <c r="C174" s="61"/>
-      <c r="D174" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="E174" s="49" t="s">
-        <v>34</v>
-      </c>
-      <c r="F174" s="61"/>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B175" s="60"/>
-      <c r="C175" s="49"/>
-      <c r="D175" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="E175" s="49" t="s">
-        <v>121</v>
-      </c>
-      <c r="F175" s="49"/>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B176" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="D176" s="2" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="177" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="D177" s="2" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="178" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B178" s="50" t="s">
-        <v>393</v>
-      </c>
-      <c r="C178" s="61" t="s">
-        <v>18</v>
-      </c>
-      <c r="D178" s="2" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="179" spans="2:5" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B179" s="7" t="s">
+      <c r="D179" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="C179" s="61"/>
-      <c r="D179" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="E179" s="51" t="s">
+    </row>
+    <row r="180" spans="2:5" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B180" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="C180" s="63"/>
+      <c r="D180" s="2" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="180" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="D180" s="2" t="s">
+      <c r="E180" s="51" t="s">
         <v>394</v>
       </c>
     </row>
     <row r="181" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D181" s="2" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="182" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D182" s="2" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="183" spans="2:5" ht="64.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D183" s="35" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="182" spans="2:5" ht="64.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D182" s="35" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="183" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B183" s="53" t="s">
-        <v>406</v>
-      </c>
-      <c r="C183" s="61" t="s">
-        <v>18</v>
-      </c>
-      <c r="D183" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="E183" s="52"/>
-    </row>
-    <row r="184" spans="2:5" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="184" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B184" s="53" t="s">
         <v>405</v>
       </c>
-      <c r="C184" s="61"/>
+      <c r="C184" s="63" t="s">
+        <v>18</v>
+      </c>
       <c r="D184" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="E184" s="54" t="s">
+        <v>261</v>
+      </c>
+      <c r="E184" s="52"/>
+    </row>
+    <row r="185" spans="2:5" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="B185" s="53" t="s">
+        <v>404</v>
+      </c>
+      <c r="C185" s="63"/>
+      <c r="D185" s="2" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="185" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B185" s="53"/>
-      <c r="C185" s="52"/>
-      <c r="D185" s="2" t="s">
-        <v>399</v>
-      </c>
-      <c r="E185" s="52"/>
+      <c r="E185" s="54" t="s">
+        <v>394</v>
+      </c>
     </row>
     <row r="186" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B186" s="53"/>
       <c r="C186" s="52"/>
       <c r="D186" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="E186" s="52"/>
     </row>
-    <row r="187" spans="2:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="187" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B187" s="53"/>
       <c r="C187" s="52"/>
-      <c r="D187" s="35" t="s">
+      <c r="D187" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="E187" s="52"/>
+    </row>
+    <row r="188" spans="2:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B188" s="53"/>
+      <c r="C188" s="52"/>
+      <c r="D188" s="35" t="s">
+        <v>400</v>
+      </c>
+      <c r="E188" s="52"/>
+    </row>
+    <row r="189" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B189" s="53" t="s">
         <v>401</v>
       </c>
-      <c r="E187" s="52"/>
-    </row>
-    <row r="188" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B188" s="53" t="s">
-        <v>402</v>
-      </c>
-      <c r="C188" s="61" t="s">
+      <c r="C189" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="D188" s="2" t="s">
+      <c r="D189" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="E188" s="52"/>
-    </row>
-    <row r="189" spans="2:5" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="B189" s="53" t="s">
-        <v>404</v>
-      </c>
-      <c r="C189" s="61"/>
-      <c r="D189" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="E189" s="54" t="s">
+      <c r="E189" s="52"/>
+    </row>
+    <row r="190" spans="2:5" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="B190" s="53" t="s">
+        <v>403</v>
+      </c>
+      <c r="C190" s="63"/>
+      <c r="D190" s="2" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="190" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B190" s="53"/>
-      <c r="C190" s="52"/>
-      <c r="D190" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="E190" s="52"/>
+      <c r="E190" s="54" t="s">
+        <v>394</v>
+      </c>
     </row>
     <row r="191" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B191" s="53"/>
       <c r="C191" s="52"/>
       <c r="D191" s="2" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="E191" s="52"/>
     </row>
-    <row r="192" spans="2:5" ht="216" x14ac:dyDescent="0.15">
+    <row r="192" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B192" s="53"/>
       <c r="C192" s="52"/>
-      <c r="D192" s="35" t="s">
-        <v>401</v>
+      <c r="D192" s="2" t="s">
+        <v>396</v>
       </c>
       <c r="E192" s="52"/>
+    </row>
+    <row r="193" spans="2:5" ht="216" x14ac:dyDescent="0.15">
+      <c r="B193" s="53"/>
+      <c r="C193" s="52"/>
+      <c r="D193" s="35" t="s">
+        <v>400</v>
+      </c>
+      <c r="E193" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="C183:C184"/>
-    <mergeCell ref="C188:C189"/>
-    <mergeCell ref="C178:C179"/>
+    <mergeCell ref="C184:C185"/>
+    <mergeCell ref="C189:C190"/>
+    <mergeCell ref="C179:C180"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="F1:F2"/>
@@ -4367,10 +4402,10 @@
     <mergeCell ref="B22:B24"/>
     <mergeCell ref="C22:C24"/>
     <mergeCell ref="F22:F24"/>
-    <mergeCell ref="A166:A170"/>
-    <mergeCell ref="B173:B175"/>
-    <mergeCell ref="C173:C174"/>
-    <mergeCell ref="F173:F174"/>
+    <mergeCell ref="A167:A171"/>
+    <mergeCell ref="B174:B176"/>
+    <mergeCell ref="C174:C175"/>
+    <mergeCell ref="F174:F175"/>
     <mergeCell ref="B55:B56"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/文档/接口.xlsx
+++ b/文档/接口.xlsx
@@ -1501,10 +1501,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/api/app/GetTravel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>获取旅游频道的设置信息，例如图标之类的</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1699,6 +1695,10 @@
   </si>
   <si>
     <t>api/userapi/GetMySelf   返回值中添加字段Balance（余额）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/app/GetTravel</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1928,15 +1928,29 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1947,28 +1961,14 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2356,8 +2356,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="D53" sqref="D53"/>
+    <sheetView tabSelected="1" topLeftCell="A166" workbookViewId="0">
+      <selection activeCell="B172" sqref="B172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2372,39 +2372,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B1" s="73" t="s">
+      <c r="B1" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="70" t="s">
+      <c r="C1" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="72" t="s">
+      <c r="D1" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="72"/>
-      <c r="F1" s="70" t="s">
+      <c r="E1" s="58"/>
+      <c r="F1" s="60" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B2" s="73"/>
-      <c r="C2" s="70"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="60"/>
       <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="70"/>
+      <c r="F2" s="60"/>
       <c r="G2" s="2" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="3" spans="2:7" ht="94.5" x14ac:dyDescent="0.15">
-      <c r="B3" s="66" t="s">
+      <c r="B3" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="63" t="s">
+      <c r="C3" s="57" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -2413,31 +2413,31 @@
       <c r="E3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="71" t="s">
+      <c r="F3" s="62" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B4" s="66"/>
-      <c r="C4" s="63"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="57"/>
       <c r="D4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="63"/>
+      <c r="F4" s="57"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B5" s="66"/>
-      <c r="C5" s="63"/>
+      <c r="B5" s="61"/>
+      <c r="C5" s="57"/>
       <c r="D5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="63"/>
+      <c r="F5" s="57"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B6" s="7" t="s">
@@ -2500,7 +2500,7 @@
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B10" s="7" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>19</v>
@@ -2513,32 +2513,32 @@
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B11" s="64" t="s">
+      <c r="B11" s="63" t="s">
         <v>137</v>
       </c>
-      <c r="C11" s="63" t="s">
+      <c r="C11" s="57" t="s">
         <v>18</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="63" t="s">
+      <c r="F11" s="57" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B12" s="58"/>
-      <c r="C12" s="63"/>
+      <c r="B12" s="65"/>
+      <c r="C12" s="57"/>
       <c r="D12" s="2" t="s">
         <v>122</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="F12" s="63"/>
+      <c r="F12" s="57"/>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B13" s="59"/>
+      <c r="B13" s="64"/>
       <c r="C13" s="11"/>
       <c r="D13" s="2" t="s">
         <v>120</v>
@@ -2566,10 +2566,10 @@
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B15" s="60" t="s">
+      <c r="B15" s="66" t="s">
         <v>163</v>
       </c>
-      <c r="C15" s="64" t="s">
+      <c r="C15" s="63" t="s">
         <v>39</v>
       </c>
       <c r="D15" s="2" t="s">
@@ -2578,64 +2578,64 @@
       <c r="E15" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="F15" s="64" t="s">
+      <c r="F15" s="63" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B16" s="61"/>
-      <c r="C16" s="58"/>
+      <c r="B16" s="67"/>
+      <c r="C16" s="65"/>
       <c r="D16" s="2" t="s">
         <v>83</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="F16" s="58"/>
+      <c r="F16" s="65"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B17" s="61"/>
-      <c r="C17" s="58"/>
+      <c r="B17" s="67"/>
+      <c r="C17" s="65"/>
       <c r="D17" s="2" t="s">
         <v>89</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="F17" s="58"/>
+      <c r="F17" s="65"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B18" s="61"/>
-      <c r="C18" s="58"/>
+      <c r="B18" s="67"/>
+      <c r="C18" s="65"/>
       <c r="D18" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F18" s="58"/>
+      <c r="F18" s="65"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B19" s="61"/>
-      <c r="C19" s="58"/>
+      <c r="B19" s="67"/>
+      <c r="C19" s="65"/>
       <c r="D19" s="2" t="s">
         <v>41</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="F19" s="58"/>
+      <c r="F19" s="65"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B20" s="62"/>
-      <c r="C20" s="59"/>
+      <c r="B20" s="68"/>
+      <c r="C20" s="64"/>
       <c r="D20" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="F20" s="59"/>
+      <c r="F20" s="64"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B21" s="7" t="s">
@@ -2655,49 +2655,49 @@
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B22" s="67" t="s">
+      <c r="B22" s="70" t="s">
+        <v>405</v>
+      </c>
+      <c r="C22" s="63" t="s">
+        <v>48</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>406</v>
-      </c>
-      <c r="C22" s="64" t="s">
-        <v>48</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>407</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="F22" s="64" t="s">
+      <c r="F22" s="63" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B23" s="68"/>
-      <c r="C23" s="58"/>
+      <c r="B23" s="71"/>
+      <c r="C23" s="65"/>
       <c r="D23" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="F23" s="58"/>
+      <c r="F23" s="65"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B24" s="69"/>
-      <c r="C24" s="59"/>
+      <c r="B24" s="72"/>
+      <c r="C24" s="64"/>
       <c r="D24" s="2" t="s">
         <v>202</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="F24" s="59"/>
+      <c r="F24" s="64"/>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B25" s="66" t="s">
+      <c r="B25" s="61" t="s">
         <v>99</v>
       </c>
-      <c r="C25" s="65" t="s">
+      <c r="C25" s="69" t="s">
         <v>48</v>
       </c>
       <c r="D25" s="2" t="s">
@@ -2706,59 +2706,59 @@
       <c r="E25" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="F25" s="65" t="s">
+      <c r="F25" s="69" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B26" s="66"/>
-      <c r="C26" s="65"/>
+      <c r="B26" s="61"/>
+      <c r="C26" s="69"/>
       <c r="D26" s="2" t="s">
         <v>101</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="F26" s="65"/>
+      <c r="F26" s="69"/>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B27" s="66"/>
-      <c r="C27" s="65"/>
+      <c r="B27" s="61"/>
+      <c r="C27" s="69"/>
       <c r="D27" s="2" t="s">
         <v>50</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="F27" s="65"/>
+      <c r="F27" s="69"/>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B28" s="66"/>
-      <c r="C28" s="65"/>
+      <c r="B28" s="61"/>
+      <c r="C28" s="69"/>
       <c r="D28" s="2" t="s">
         <v>102</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="F28" s="65"/>
+      <c r="F28" s="69"/>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B29" s="66"/>
-      <c r="C29" s="65"/>
+      <c r="B29" s="61"/>
+      <c r="C29" s="69"/>
       <c r="D29" s="2" t="s">
         <v>103</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F29" s="65"/>
+      <c r="F29" s="69"/>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B30" s="66" t="s">
+      <c r="B30" s="61" t="s">
         <v>175</v>
       </c>
-      <c r="C30" s="65" t="s">
+      <c r="C30" s="69" t="s">
         <v>48</v>
       </c>
       <c r="D30" s="2" t="s">
@@ -2767,31 +2767,31 @@
       <c r="E30" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="F30" s="65" t="s">
+      <c r="F30" s="69" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B31" s="66"/>
-      <c r="C31" s="65"/>
+      <c r="B31" s="61"/>
+      <c r="C31" s="69"/>
       <c r="D31" s="2" t="s">
         <v>105</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="F31" s="65"/>
+      <c r="F31" s="69"/>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B32" s="66"/>
-      <c r="C32" s="65"/>
+      <c r="B32" s="61"/>
+      <c r="C32" s="69"/>
       <c r="D32" s="2" t="s">
         <v>106</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="F32" s="65"/>
+      <c r="F32" s="69"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B33" s="7" t="s">
@@ -2856,10 +2856,10 @@
       </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B37" s="60" t="s">
+      <c r="B37" s="66" t="s">
         <v>91</v>
       </c>
-      <c r="C37" s="64" t="s">
+      <c r="C37" s="63" t="s">
         <v>65</v>
       </c>
       <c r="D37" s="2" t="s">
@@ -2868,7 +2868,7 @@
       <c r="E37" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="F37" s="64" t="s">
+      <c r="F37" s="63" t="s">
         <v>63</v>
       </c>
       <c r="G37" s="2" t="s">
@@ -2876,73 +2876,73 @@
       </c>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B38" s="61"/>
-      <c r="C38" s="58"/>
+      <c r="B38" s="67"/>
+      <c r="C38" s="65"/>
       <c r="D38" s="2" t="s">
         <v>93</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="F38" s="58"/>
+      <c r="F38" s="65"/>
       <c r="G38" s="2" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B39" s="61"/>
-      <c r="C39" s="58"/>
+      <c r="B39" s="67"/>
+      <c r="C39" s="65"/>
       <c r="D39" s="2" t="s">
         <v>94</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="F39" s="58"/>
+      <c r="F39" s="65"/>
       <c r="G39" s="2" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B40" s="61"/>
-      <c r="C40" s="58"/>
+      <c r="B40" s="67"/>
+      <c r="C40" s="65"/>
       <c r="D40" s="2" t="s">
         <v>95</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="F40" s="58"/>
+      <c r="F40" s="65"/>
       <c r="G40" s="2" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B41" s="61"/>
-      <c r="C41" s="58"/>
+      <c r="B41" s="67"/>
+      <c r="C41" s="65"/>
       <c r="D41" s="2" t="s">
         <v>96</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="F41" s="58"/>
+      <c r="F41" s="65"/>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B42" s="61"/>
-      <c r="C42" s="58"/>
+      <c r="B42" s="67"/>
+      <c r="C42" s="65"/>
       <c r="D42" s="2" t="s">
         <v>98</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="F42" s="58"/>
+      <c r="F42" s="65"/>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B43" s="62"/>
-      <c r="C43" s="59"/>
-      <c r="F43" s="59"/>
+      <c r="B43" s="68"/>
+      <c r="C43" s="64"/>
+      <c r="F43" s="64"/>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B44" s="7" t="s">
@@ -3006,7 +3006,7 @@
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B48" s="7" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C48" s="11" t="s">
         <v>64</v>
@@ -3016,7 +3016,7 @@
       </c>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B49" s="64" t="s">
+      <c r="B49" s="63" t="s">
         <v>128</v>
       </c>
       <c r="C49" s="11" t="s">
@@ -3028,19 +3028,19 @@
       <c r="E49" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="F49" s="64" t="s">
+      <c r="F49" s="63" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B50" s="59"/>
+      <c r="B50" s="64"/>
       <c r="D50" s="2" t="s">
         <v>124</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="F50" s="59"/>
+      <c r="F50" s="64"/>
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B51" s="7" t="s">
@@ -3102,7 +3102,7 @@
       </c>
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B55" s="64" t="s">
+      <c r="B55" s="63" t="s">
         <v>155</v>
       </c>
       <c r="D55" s="2" t="s">
@@ -3113,7 +3113,7 @@
       </c>
     </row>
     <row r="56" spans="2:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B56" s="59"/>
+      <c r="B56" s="64"/>
       <c r="D56" s="2" t="s">
         <v>143</v>
       </c>
@@ -3263,7 +3263,7 @@
     </row>
     <row r="70" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B70" s="22" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C70" s="3" t="s">
         <v>165</v>
@@ -3277,17 +3277,17 @@
     </row>
     <row r="71" spans="2:6" ht="67.5" x14ac:dyDescent="0.15">
       <c r="B71" s="56" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C71" s="55" t="s">
         <v>19</v>
       </c>
       <c r="D71" s="35" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E71" s="55"/>
       <c r="F71" s="55" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="72" spans="2:6" x14ac:dyDescent="0.15">
@@ -3644,7 +3644,7 @@
     </row>
     <row r="107" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B107" s="7" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C107" s="39" t="s">
         <v>39</v>
@@ -3655,7 +3655,7 @@
     </row>
     <row r="108" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B108" s="7" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D108" s="2" t="s">
         <v>348</v>
@@ -3704,7 +3704,7 @@
     </row>
     <row r="113" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B113" s="7" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D113" s="2" t="s">
         <v>351</v>
@@ -3887,7 +3887,7 @@
     </row>
     <row r="137" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B137" s="7" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D137" s="2" t="s">
         <v>317</v>
@@ -4006,7 +4006,7 @@
     </row>
     <row r="153" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B153" s="43" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C153" s="44"/>
       <c r="D153" s="2" t="s">
@@ -4042,7 +4042,7 @@
     </row>
     <row r="158" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B158" s="7" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C158" s="45" t="s">
         <v>64</v>
@@ -4061,7 +4061,7 @@
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B161" s="7" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C161" s="46" t="s">
         <v>64</v>
@@ -4101,10 +4101,10 @@
       <c r="B165" s="48"/>
       <c r="C165" s="49"/>
       <c r="D165" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="E165" s="49" t="s">
         <v>381</v>
-      </c>
-      <c r="E165" s="49" t="s">
-        <v>382</v>
       </c>
       <c r="F165" s="49"/>
     </row>
@@ -4117,7 +4117,7 @@
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A167" s="57" t="s">
+      <c r="A167" s="73" t="s">
         <v>372</v>
       </c>
       <c r="B167" s="48" t="s">
@@ -4132,7 +4132,7 @@
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A168" s="58"/>
+      <c r="A168" s="65"/>
       <c r="B168" s="7" t="s">
         <v>364</v>
       </c>
@@ -4144,7 +4144,7 @@
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A169" s="58"/>
+      <c r="A169" s="65"/>
       <c r="B169" s="7" t="s">
         <v>365</v>
       </c>
@@ -4156,7 +4156,7 @@
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A170" s="58"/>
+      <c r="A170" s="65"/>
       <c r="B170" s="7" t="s">
         <v>366</v>
       </c>
@@ -4168,9 +4168,9 @@
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A171" s="59"/>
+      <c r="A171" s="64"/>
       <c r="B171" s="7" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C171" s="49" t="s">
         <v>64</v>
@@ -4181,39 +4181,39 @@
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B172" s="7" t="s">
-        <v>373</v>
+        <v>415</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B173" s="7" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B174" s="66" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B174" s="60" t="s">
-        <v>375</v>
-      </c>
-      <c r="C174" s="63" t="s">
+      <c r="C174" s="57" t="s">
         <v>18</v>
       </c>
       <c r="E174" s="49"/>
-      <c r="F174" s="63" t="s">
+      <c r="F174" s="57" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B175" s="61"/>
-      <c r="C175" s="63"/>
+      <c r="B175" s="67"/>
+      <c r="C175" s="57"/>
       <c r="D175" s="2" t="s">
         <v>122</v>
       </c>
       <c r="E175" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="F175" s="63"/>
+      <c r="F175" s="57"/>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B176" s="62"/>
+      <c r="B176" s="68"/>
       <c r="C176" s="49"/>
       <c r="D176" s="2" t="s">
         <v>120</v>
@@ -4225,60 +4225,60 @@
     </row>
     <row r="177" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B177" s="7" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="178" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D178" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="179" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B179" s="50" t="s">
-        <v>392</v>
-      </c>
-      <c r="C179" s="63" t="s">
+        <v>391</v>
+      </c>
+      <c r="C179" s="57" t="s">
         <v>18</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="180" spans="2:5" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B180" s="7" t="s">
-        <v>390</v>
-      </c>
-      <c r="C180" s="63"/>
+        <v>389</v>
+      </c>
+      <c r="C180" s="57"/>
       <c r="D180" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E180" s="51" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="181" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D181" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="182" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D182" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="183" spans="2:5" ht="64.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D183" s="35" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="184" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B184" s="53" t="s">
-        <v>405</v>
-      </c>
-      <c r="C184" s="63" t="s">
+        <v>404</v>
+      </c>
+      <c r="C184" s="57" t="s">
         <v>18</v>
       </c>
       <c r="D184" s="2" t="s">
@@ -4288,21 +4288,21 @@
     </row>
     <row r="185" spans="2:5" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B185" s="53" t="s">
-        <v>404</v>
-      </c>
-      <c r="C185" s="63"/>
+        <v>403</v>
+      </c>
+      <c r="C185" s="57"/>
       <c r="D185" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E185" s="54" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="186" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B186" s="53"/>
       <c r="C186" s="52"/>
       <c r="D186" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E186" s="52"/>
     </row>
@@ -4310,7 +4310,7 @@
       <c r="B187" s="53"/>
       <c r="C187" s="52"/>
       <c r="D187" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E187" s="52"/>
     </row>
@@ -4318,15 +4318,15 @@
       <c r="B188" s="53"/>
       <c r="C188" s="52"/>
       <c r="D188" s="35" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E188" s="52"/>
     </row>
     <row r="189" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B189" s="53" t="s">
-        <v>401</v>
-      </c>
-      <c r="C189" s="63" t="s">
+        <v>400</v>
+      </c>
+      <c r="C189" s="57" t="s">
         <v>18</v>
       </c>
       <c r="D189" s="2" t="s">
@@ -4336,21 +4336,21 @@
     </row>
     <row r="190" spans="2:5" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B190" s="53" t="s">
-        <v>403</v>
-      </c>
-      <c r="C190" s="63"/>
+        <v>402</v>
+      </c>
+      <c r="C190" s="57"/>
       <c r="D190" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E190" s="54" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="191" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B191" s="53"/>
       <c r="C191" s="52"/>
       <c r="D191" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E191" s="52"/>
     </row>
@@ -4358,7 +4358,7 @@
       <c r="B192" s="53"/>
       <c r="C192" s="52"/>
       <c r="D192" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E192" s="52"/>
     </row>
@@ -4366,27 +4366,17 @@
       <c r="B193" s="53"/>
       <c r="C193" s="52"/>
       <c r="D193" s="35" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E193" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="C184:C185"/>
-    <mergeCell ref="C189:C190"/>
-    <mergeCell ref="C179:C180"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="F3:F5"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="F37:F43"/>
-    <mergeCell ref="C37:C43"/>
-    <mergeCell ref="B37:B43"/>
+    <mergeCell ref="A167:A171"/>
+    <mergeCell ref="B174:B176"/>
+    <mergeCell ref="C174:C175"/>
+    <mergeCell ref="F174:F175"/>
+    <mergeCell ref="B55:B56"/>
     <mergeCell ref="F30:F32"/>
     <mergeCell ref="B30:B32"/>
     <mergeCell ref="C30:C32"/>
@@ -4402,11 +4392,21 @@
     <mergeCell ref="B22:B24"/>
     <mergeCell ref="C22:C24"/>
     <mergeCell ref="F22:F24"/>
-    <mergeCell ref="A167:A171"/>
-    <mergeCell ref="B174:B176"/>
-    <mergeCell ref="C174:C175"/>
-    <mergeCell ref="F174:F175"/>
-    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="F37:F43"/>
+    <mergeCell ref="C37:C43"/>
+    <mergeCell ref="B37:B43"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="F3:F5"/>
+    <mergeCell ref="C184:C185"/>
+    <mergeCell ref="C189:C190"/>
+    <mergeCell ref="C179:C180"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="B1:B2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/文档/接口.xlsx
+++ b/文档/接口.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="416">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="419">
   <si>
     <t>调用方式</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1700,6 +1700,16 @@
   <si>
     <t>/api/app/GetTravel</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取运费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.hong7.tv/api/region/GetFreightWithAddress/地址ID</t>
+  </si>
+  <si>
+    <t>http://www.hong7.tv/api/region/GetFreightWithRegion/地区ID(整数)</t>
   </si>
 </sst>
 </file>
@@ -1800,7 +1810,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1928,47 +1938,48 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2060,6 +2071,61 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>194</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>194</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3" descr="C:\Users\charlie\AppData\Roaming\Tencent\QQ\Temp\%W@GJ$ACOF(TYDYECOKVDYB.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1333500" y="41471850"/>
+          <a:ext cx="190500" cy="142875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -2354,10 +2420,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G193"/>
+  <dimension ref="A1:G195"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A166" workbookViewId="0">
-      <selection activeCell="B172" sqref="B172"/>
+    <sheetView tabSelected="1" topLeftCell="A193" workbookViewId="0">
+      <selection activeCell="D199" sqref="D199"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2372,39 +2438,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B1" s="59" t="s">
+      <c r="B1" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="60" t="s">
+      <c r="C1" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="58" t="s">
+      <c r="D1" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="58"/>
-      <c r="F1" s="60" t="s">
+      <c r="E1" s="73"/>
+      <c r="F1" s="71" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B2" s="59"/>
-      <c r="C2" s="60"/>
+      <c r="B2" s="74"/>
+      <c r="C2" s="71"/>
       <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="60"/>
+      <c r="F2" s="71"/>
       <c r="G2" s="2" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="3" spans="2:7" ht="94.5" x14ac:dyDescent="0.15">
-      <c r="B3" s="61" t="s">
+      <c r="B3" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="57" t="s">
+      <c r="C3" s="64" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -2413,31 +2479,31 @@
       <c r="E3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="62" t="s">
+      <c r="F3" s="72" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B4" s="61"/>
-      <c r="C4" s="57"/>
+      <c r="B4" s="67"/>
+      <c r="C4" s="64"/>
       <c r="D4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="57"/>
+      <c r="F4" s="64"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B5" s="61"/>
-      <c r="C5" s="57"/>
+      <c r="B5" s="67"/>
+      <c r="C5" s="64"/>
       <c r="D5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="57"/>
+      <c r="F5" s="64"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B6" s="7" t="s">
@@ -2513,32 +2579,32 @@
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B11" s="63" t="s">
+      <c r="B11" s="65" t="s">
         <v>137</v>
       </c>
-      <c r="C11" s="57" t="s">
+      <c r="C11" s="64" t="s">
         <v>18</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="57" t="s">
+      <c r="F11" s="64" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B12" s="65"/>
-      <c r="C12" s="57"/>
+      <c r="B12" s="59"/>
+      <c r="C12" s="64"/>
       <c r="D12" s="2" t="s">
         <v>122</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="F12" s="57"/>
+      <c r="F12" s="64"/>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B13" s="64"/>
+      <c r="B13" s="60"/>
       <c r="C13" s="11"/>
       <c r="D13" s="2" t="s">
         <v>120</v>
@@ -2566,10 +2632,10 @@
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B15" s="66" t="s">
+      <c r="B15" s="61" t="s">
         <v>163</v>
       </c>
-      <c r="C15" s="63" t="s">
+      <c r="C15" s="65" t="s">
         <v>39</v>
       </c>
       <c r="D15" s="2" t="s">
@@ -2578,64 +2644,64 @@
       <c r="E15" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="F15" s="63" t="s">
+      <c r="F15" s="65" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B16" s="67"/>
-      <c r="C16" s="65"/>
+      <c r="B16" s="62"/>
+      <c r="C16" s="59"/>
       <c r="D16" s="2" t="s">
         <v>83</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="F16" s="65"/>
+      <c r="F16" s="59"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B17" s="67"/>
-      <c r="C17" s="65"/>
+      <c r="B17" s="62"/>
+      <c r="C17" s="59"/>
       <c r="D17" s="2" t="s">
         <v>89</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="F17" s="65"/>
+      <c r="F17" s="59"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B18" s="67"/>
-      <c r="C18" s="65"/>
+      <c r="B18" s="62"/>
+      <c r="C18" s="59"/>
       <c r="D18" s="2" t="s">
         <v>408</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F18" s="65"/>
+      <c r="F18" s="59"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B19" s="67"/>
-      <c r="C19" s="65"/>
+      <c r="B19" s="62"/>
+      <c r="C19" s="59"/>
       <c r="D19" s="2" t="s">
         <v>41</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="F19" s="65"/>
+      <c r="F19" s="59"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B20" s="68"/>
-      <c r="C20" s="64"/>
+      <c r="B20" s="63"/>
+      <c r="C20" s="60"/>
       <c r="D20" s="2" t="s">
         <v>409</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="F20" s="64"/>
+      <c r="F20" s="60"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B21" s="7" t="s">
@@ -2655,10 +2721,10 @@
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B22" s="70" t="s">
+      <c r="B22" s="68" t="s">
         <v>405</v>
       </c>
-      <c r="C22" s="63" t="s">
+      <c r="C22" s="65" t="s">
         <v>48</v>
       </c>
       <c r="D22" s="2" t="s">
@@ -2667,37 +2733,37 @@
       <c r="E22" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="F22" s="63" t="s">
+      <c r="F22" s="65" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B23" s="71"/>
-      <c r="C23" s="65"/>
+      <c r="B23" s="69"/>
+      <c r="C23" s="59"/>
       <c r="D23" s="2" t="s">
         <v>407</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="F23" s="65"/>
+      <c r="F23" s="59"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B24" s="72"/>
-      <c r="C24" s="64"/>
+      <c r="B24" s="70"/>
+      <c r="C24" s="60"/>
       <c r="D24" s="2" t="s">
         <v>202</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="F24" s="64"/>
+      <c r="F24" s="60"/>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B25" s="61" t="s">
+      <c r="B25" s="67" t="s">
         <v>99</v>
       </c>
-      <c r="C25" s="69" t="s">
+      <c r="C25" s="66" t="s">
         <v>48</v>
       </c>
       <c r="D25" s="2" t="s">
@@ -2706,59 +2772,59 @@
       <c r="E25" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="F25" s="69" t="s">
+      <c r="F25" s="66" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B26" s="61"/>
-      <c r="C26" s="69"/>
+      <c r="B26" s="67"/>
+      <c r="C26" s="66"/>
       <c r="D26" s="2" t="s">
         <v>101</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="F26" s="69"/>
+      <c r="F26" s="66"/>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B27" s="61"/>
-      <c r="C27" s="69"/>
+      <c r="B27" s="67"/>
+      <c r="C27" s="66"/>
       <c r="D27" s="2" t="s">
         <v>50</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="F27" s="69"/>
+      <c r="F27" s="66"/>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B28" s="61"/>
-      <c r="C28" s="69"/>
+      <c r="B28" s="67"/>
+      <c r="C28" s="66"/>
       <c r="D28" s="2" t="s">
         <v>102</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="F28" s="69"/>
+      <c r="F28" s="66"/>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B29" s="61"/>
-      <c r="C29" s="69"/>
+      <c r="B29" s="67"/>
+      <c r="C29" s="66"/>
       <c r="D29" s="2" t="s">
         <v>103</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F29" s="69"/>
+      <c r="F29" s="66"/>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B30" s="61" t="s">
+      <c r="B30" s="67" t="s">
         <v>175</v>
       </c>
-      <c r="C30" s="69" t="s">
+      <c r="C30" s="66" t="s">
         <v>48</v>
       </c>
       <c r="D30" s="2" t="s">
@@ -2767,31 +2833,31 @@
       <c r="E30" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="F30" s="69" t="s">
+      <c r="F30" s="66" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B31" s="61"/>
-      <c r="C31" s="69"/>
+      <c r="B31" s="67"/>
+      <c r="C31" s="66"/>
       <c r="D31" s="2" t="s">
         <v>105</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="F31" s="69"/>
+      <c r="F31" s="66"/>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B32" s="61"/>
-      <c r="C32" s="69"/>
+      <c r="B32" s="67"/>
+      <c r="C32" s="66"/>
       <c r="D32" s="2" t="s">
         <v>106</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="F32" s="69"/>
+      <c r="F32" s="66"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B33" s="7" t="s">
@@ -2856,10 +2922,10 @@
       </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B37" s="66" t="s">
+      <c r="B37" s="61" t="s">
         <v>91</v>
       </c>
-      <c r="C37" s="63" t="s">
+      <c r="C37" s="65" t="s">
         <v>65</v>
       </c>
       <c r="D37" s="2" t="s">
@@ -2868,7 +2934,7 @@
       <c r="E37" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="F37" s="63" t="s">
+      <c r="F37" s="65" t="s">
         <v>63</v>
       </c>
       <c r="G37" s="2" t="s">
@@ -2876,73 +2942,73 @@
       </c>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B38" s="67"/>
-      <c r="C38" s="65"/>
+      <c r="B38" s="62"/>
+      <c r="C38" s="59"/>
       <c r="D38" s="2" t="s">
         <v>93</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="F38" s="65"/>
+      <c r="F38" s="59"/>
       <c r="G38" s="2" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B39" s="67"/>
-      <c r="C39" s="65"/>
+      <c r="B39" s="62"/>
+      <c r="C39" s="59"/>
       <c r="D39" s="2" t="s">
         <v>94</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="F39" s="65"/>
+      <c r="F39" s="59"/>
       <c r="G39" s="2" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B40" s="67"/>
-      <c r="C40" s="65"/>
+      <c r="B40" s="62"/>
+      <c r="C40" s="59"/>
       <c r="D40" s="2" t="s">
         <v>95</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="F40" s="65"/>
+      <c r="F40" s="59"/>
       <c r="G40" s="2" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B41" s="67"/>
-      <c r="C41" s="65"/>
+      <c r="B41" s="62"/>
+      <c r="C41" s="59"/>
       <c r="D41" s="2" t="s">
         <v>96</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="F41" s="65"/>
+      <c r="F41" s="59"/>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B42" s="67"/>
-      <c r="C42" s="65"/>
+      <c r="B42" s="62"/>
+      <c r="C42" s="59"/>
       <c r="D42" s="2" t="s">
         <v>98</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="F42" s="65"/>
+      <c r="F42" s="59"/>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B43" s="68"/>
-      <c r="C43" s="64"/>
-      <c r="F43" s="64"/>
+      <c r="B43" s="63"/>
+      <c r="C43" s="60"/>
+      <c r="F43" s="60"/>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B44" s="7" t="s">
@@ -3016,7 +3082,7 @@
       </c>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B49" s="63" t="s">
+      <c r="B49" s="65" t="s">
         <v>128</v>
       </c>
       <c r="C49" s="11" t="s">
@@ -3028,19 +3094,19 @@
       <c r="E49" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="F49" s="63" t="s">
+      <c r="F49" s="65" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B50" s="64"/>
+      <c r="B50" s="60"/>
       <c r="D50" s="2" t="s">
         <v>124</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="F50" s="64"/>
+      <c r="F50" s="60"/>
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B51" s="7" t="s">
@@ -3102,7 +3168,7 @@
       </c>
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B55" s="63" t="s">
+      <c r="B55" s="65" t="s">
         <v>155</v>
       </c>
       <c r="D55" s="2" t="s">
@@ -3113,7 +3179,7 @@
       </c>
     </row>
     <row r="56" spans="2:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B56" s="64"/>
+      <c r="B56" s="60"/>
       <c r="D56" s="2" t="s">
         <v>143</v>
       </c>
@@ -4117,7 +4183,7 @@
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A167" s="73" t="s">
+      <c r="A167" s="58" t="s">
         <v>372</v>
       </c>
       <c r="B167" s="48" t="s">
@@ -4132,7 +4198,7 @@
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A168" s="65"/>
+      <c r="A168" s="59"/>
       <c r="B168" s="7" t="s">
         <v>364</v>
       </c>
@@ -4144,7 +4210,7 @@
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A169" s="65"/>
+      <c r="A169" s="59"/>
       <c r="B169" s="7" t="s">
         <v>365</v>
       </c>
@@ -4156,7 +4222,7 @@
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A170" s="65"/>
+      <c r="A170" s="59"/>
       <c r="B170" s="7" t="s">
         <v>366</v>
       </c>
@@ -4168,7 +4234,7 @@
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A171" s="64"/>
+      <c r="A171" s="60"/>
       <c r="B171" s="7" t="s">
         <v>377</v>
       </c>
@@ -4190,30 +4256,30 @@
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B174" s="66" t="s">
+      <c r="B174" s="61" t="s">
         <v>374</v>
       </c>
-      <c r="C174" s="57" t="s">
+      <c r="C174" s="64" t="s">
         <v>18</v>
       </c>
       <c r="E174" s="49"/>
-      <c r="F174" s="57" t="s">
+      <c r="F174" s="64" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B175" s="67"/>
-      <c r="C175" s="57"/>
+      <c r="B175" s="62"/>
+      <c r="C175" s="64"/>
       <c r="D175" s="2" t="s">
         <v>122</v>
       </c>
       <c r="E175" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="F175" s="57"/>
+      <c r="F175" s="64"/>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B176" s="68"/>
+      <c r="B176" s="63"/>
       <c r="C176" s="49"/>
       <c r="D176" s="2" t="s">
         <v>120</v>
@@ -4240,7 +4306,7 @@
       <c r="B179" s="50" t="s">
         <v>391</v>
       </c>
-      <c r="C179" s="57" t="s">
+      <c r="C179" s="64" t="s">
         <v>18</v>
       </c>
       <c r="D179" s="2" t="s">
@@ -4251,7 +4317,7 @@
       <c r="B180" s="7" t="s">
         <v>389</v>
       </c>
-      <c r="C180" s="57"/>
+      <c r="C180" s="64"/>
       <c r="D180" s="2" t="s">
         <v>394</v>
       </c>
@@ -4278,7 +4344,7 @@
       <c r="B184" s="53" t="s">
         <v>404</v>
       </c>
-      <c r="C184" s="57" t="s">
+      <c r="C184" s="64" t="s">
         <v>18</v>
       </c>
       <c r="D184" s="2" t="s">
@@ -4290,7 +4356,7 @@
       <c r="B185" s="53" t="s">
         <v>403</v>
       </c>
-      <c r="C185" s="57"/>
+      <c r="C185" s="64"/>
       <c r="D185" s="2" t="s">
         <v>394</v>
       </c>
@@ -4326,7 +4392,7 @@
       <c r="B189" s="53" t="s">
         <v>400</v>
       </c>
-      <c r="C189" s="57" t="s">
+      <c r="C189" s="64" t="s">
         <v>18</v>
       </c>
       <c r="D189" s="2" t="s">
@@ -4338,7 +4404,7 @@
       <c r="B190" s="53" t="s">
         <v>402</v>
       </c>
-      <c r="C190" s="57"/>
+      <c r="C190" s="64"/>
       <c r="D190" s="2" t="s">
         <v>394</v>
       </c>
@@ -4362,7 +4428,7 @@
       </c>
       <c r="E192" s="52"/>
     </row>
-    <row r="193" spans="2:5" ht="216" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:5" ht="216" x14ac:dyDescent="0.15">
       <c r="B193" s="53"/>
       <c r="C193" s="52"/>
       <c r="D193" s="35" t="s">
@@ -4370,13 +4436,36 @@
       </c>
       <c r="E193" s="52"/>
     </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A194" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="B194" s="57" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B195" t="s">
+        <v>418</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="A167:A171"/>
-    <mergeCell ref="B174:B176"/>
-    <mergeCell ref="C174:C175"/>
-    <mergeCell ref="F174:F175"/>
-    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="C184:C185"/>
+    <mergeCell ref="C189:C190"/>
+    <mergeCell ref="C179:C180"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="F3:F5"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="F37:F43"/>
+    <mergeCell ref="C37:C43"/>
+    <mergeCell ref="B37:B43"/>
     <mergeCell ref="F30:F32"/>
     <mergeCell ref="B30:B32"/>
     <mergeCell ref="C30:C32"/>
@@ -4392,21 +4481,11 @@
     <mergeCell ref="B22:B24"/>
     <mergeCell ref="C22:C24"/>
     <mergeCell ref="F22:F24"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="F37:F43"/>
-    <mergeCell ref="C37:C43"/>
-    <mergeCell ref="B37:B43"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="F3:F5"/>
-    <mergeCell ref="C184:C185"/>
-    <mergeCell ref="C189:C190"/>
-    <mergeCell ref="C179:C180"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="A167:A171"/>
+    <mergeCell ref="B174:B176"/>
+    <mergeCell ref="C174:C175"/>
+    <mergeCell ref="F174:F175"/>
+    <mergeCell ref="B55:B56"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
